--- a/msfwk-test/ms-payments-test/grafana/Testware.xlsx
+++ b/msfwk-test/ms-payments-test/grafana/Testware.xlsx
@@ -34,15 +34,15 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Kanbay - Personal View" guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="848" activeSheetId="1"/>
+    <customWorkbookView name="Karthikeyan K - Personal View" guid="{A801A8EC-0837-4EEA-A73B-EAED07FABEF3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="852" activeSheetId="1"/>
     <customWorkbookView name="21st Century Insurance - Personal View" guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="659" activeSheetId="3"/>
-    <customWorkbookView name="Karthikeyan K - Personal View" guid="{A801A8EC-0837-4EEA-A73B-EAED07FABEF3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="852" activeSheetId="1"/>
-    <customWorkbookView name="Kanbay - Personal View" guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="848" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="533">
   <si>
     <t>No of Paramters</t>
   </si>
@@ -1526,18 +1526,9 @@
     <t>Validations,ListString,EXIST,NOT_EXIST,VISIBLE,NOT_VISIBLE,FOCUSED,NOT_FOCUSED,SELECTED,NOT_SELECTED</t>
   </si>
   <si>
-    <t>Shadow_Element</t>
-  </si>
-  <si>
     <t>Functional Index</t>
   </si>
   <si>
-    <t>Shadow_Verify_TextPresent</t>
-  </si>
-  <si>
-    <t>Rohith</t>
-  </si>
-  <si>
     <t>ReportGroup</t>
   </si>
   <si>
@@ -1550,960 +1541,9 @@
     <t>AppendToDefaultURL</t>
   </si>
   <si>
-    <t>Combobox field</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check all the countries in Single mode</t>
-  </si>
-  <si>
-    <t>Combobox-field</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check by adding and removing cities in multiple mode</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check the default value of Prefilled - Single mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify UUX for Combobox field - Check Pre-Select value in prefilled with single 'mode' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify UUX for Combobox field - Check default value in prefilled with multiple 'mode' </t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check the subjects by adding in multiple mode prefilled</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check  the subjects by re-adding in multiple mode prefilled</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check the subjectsafter removing using close icon</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Submit and check for the default values</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check the fields for Disabled modifier</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check the fields for ReadOnly modifier</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check value reversal on update combo value</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check value addition on update dynamic options</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check options to set existing value dynamically box by inputting values with courses</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check options to set existing value dynamically box by inputting values with subjects</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check the Event Handler Change</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check the Set Throttle Timeout</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check and Verify the Keyboard assist check for choosing a country</t>
-  </si>
-  <si>
-    <t>"Combobox", "Header", "xpath=//b[contains(text(),'Combobox')]"</t>
-  </si>
-  <si>
-    <t>"Textbox", "Select country","xpath=//uwc-combobox[@id="country"]"</t>
-  </si>
-  <si>
-    <t>"1", "Select a country and verify", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify Country in single mode", "", ""</t>
-  </si>
-  <si>
-    <t>Shadow_Click</t>
-  </si>
-  <si>
-    <t>"1", "Verify the cities for a country ", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify the cities in USA", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "Select city","xpath=//uwc-combobox[@id="city"]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the cities in UK", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify the dropdown movement from Heading", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Click on First Heading", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "1. &lt;uwc-Combobox&gt; with Single 'mode' ","xpath=//h2[contains(text(),"1. &lt;uwc-Combobox&gt; with Single 'mode'")]"</t>
-  </si>
-  <si>
-    <t>"1", "Tab out to next Field", "", ""</t>
-  </si>
-  <si>
-    <t>"TAB"</t>
-  </si>
-  <si>
-    <t>"1", "Tab out to city Field", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify the cities adding in multiple mode", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Select the Country USA", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Choose Multiple Cities", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "Select city","xpath=//b[contains(text(),'Combobox')]"</t>
-  </si>
-  <si>
-    <t>"Textbox", "Combobox","xpath=//uwc-combobox[@id="city"]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the cities adding and removing in multiple mode", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify by removing the cities", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify Pre filled &lt;uwc-Combobox&gt; with single 'mode' ", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify the default Course prefilled", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify Pre-Select value in prefilled with single 'mode' ", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Remove the default MBBS course ", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "course","xpath=//uwc-combobox[@id="course"]"</t>
-  </si>
-  <si>
-    <t>"1", "Choose Pre Select option", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify Pre filled &lt;uwc-Combobox&gt; with Multiple 'mode' ", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify the default multiple subject prefilled", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "Biology,French","EXIST","xpath=//uwc-combobox[@value="Biology,French"]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the subjects by adding in multiple mode prefilled", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify by adding in the multiple subjects prefilled", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "subject","xpath=//uwc-combobox[@id="subject"]"</t>
-  </si>
-  <si>
-    <t>"1", "Choose English and Maths Subject", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify the Subjects", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "Biology,French,English,Maths","EXIST","xpath=//uwc-combobox[@value="Biology,French,English,Maths"]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the subjects by re-adding in multiple mode prefilled", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify by re-adding in the multiple subjects prefilled", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Choose English Subject", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "Biology,French,English","EXIST","xpath=//uwc-combobox[@value="Biology,French,English"]"</t>
-  </si>
-  <si>
-    <t>"1", "Click on English Subject again", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify English Subject not present", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify the subjects after removing", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Remove English Subject using close button", "", ""</t>
-  </si>
-  <si>
-    <t>"#English &gt; span.removable-icon &gt; uwc-icon","Dropdown","English"</t>
-  </si>
-  <si>
-    <t>"1", "Verify through Reset and check for the default values", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Click on Reset Button", "", ""</t>
-  </si>
-  <si>
-    <t>"Button","Reset","xpath=//button[@name="reset"]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the default prefilled values", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Verify through Submit and check for the default values", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Click on Submit Button", "", ""</t>
-  </si>
-  <si>
-    <t>"Button","Reset","xpath=//button[@type="submit"]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the default values", "", ""</t>
-  </si>
-  <si>
-    <t>"Field", " "course": "MBBS" ", "EXIST", "xpath=//pre[contains(text(),'"course": "MBBS"')]"</t>
-  </si>
-  <si>
-    <t>"Field", " "subject": "Biology,French" ", "EXIST", "xpath=//pre[contains(text(),'"subject": "Biology,French"')]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify all the fields by using Disabled modifier ", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Click on Disabled modifier", "", ""</t>
-  </si>
-  <si>
-    <t>"div &gt; label:nth-child(1) &gt; span","Checkbox","Disabled"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the disabled mode for single mode", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "Select Country","EXIST","xpath=//uwc-combobox[@id="country" and @disabled]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the disabled mode for Multiple mode", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "Select city","EXIST","xpath=//uwc-combobox[@id="city" and @disabled]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the disabled mode for Prefilled Single mode", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "course","EXIST","xpath=//uwc-combobox[@id="course" and @disabled]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the disabled mode for Prefilled Multiple mode", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "subject","EXIST","xpath=//uwc-combobox[@id="subject" and @disabled]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify all the fields by using ReadOnly modifier ", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Click on ReadOnly modifier", "", ""</t>
-  </si>
-  <si>
-    <t>"div &gt; label:nth-child(2) &gt; span","Checkbox","readonly"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the readonly mode for single mode", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "Select Country","EXIST","xpath=//uwc-combobox[@id="country" and @readonly]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the readonly mode for Multiple mode", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "Select city","EXIST","xpath=//uwc-combobox[@id="city" and @readonly]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the readonly mode for Prefilled Single mode", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "course","EXIST","xpath=//uwc-combobox[@id="course" and @readonly]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the readonly mode for Prefilled Multiple mode", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "subject","EXIST","xpath=//uwc-combobox[@id="subject" and @readonly]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify all the fields and error messages by using Required modifier ", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Click on Required modifier", "", ""</t>
-  </si>
-  <si>
-    <t>"div &gt; label:nth-child(3) &gt; span","Checkbox","Required"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the required mode for single mode", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "Select Country","EXIST","xpath=//uwc-combobox[@id="country" and @required]"</t>
-  </si>
-  <si>
-    <t>Shadow_Verify_TextContains</t>
-  </si>
-  <si>
-    <t>"Mandatory error - Please select Country", "Error Message","uwc-text-field[label='Select country']&gt;div[class*='text']"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the required mode for Multiple mode", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "Select city","EXIST","xpath=//uwc-combobox[@id="city" and @required]"</t>
-  </si>
-  <si>
-    <t>"Mandatory error - Please select City", "Error Message","uwc-combobox-chip-input[label='Select city']&gt;div[class*='text']"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the required mode for Prefilled Single mode", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "course","EXIST","xpath=//uwc-combobox[@id="course" and @required]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the required mode for Prefilled Multiple mode", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "subject","EXIST","xpath=//uwc-combobox[@id="subject" and @required]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify value reversal on update combo value", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Check the previous courses in prefilled multiple mode", "",""</t>
-  </si>
-  <si>
-    <t>"1", "Click on Update Combo Value", "", ""</t>
-  </si>
-  <si>
-    <t>"Button", "Update Combo value","xpath=//button[@label="Update Combo value"]"</t>
-  </si>
-  <si>
-    <t>"1", "Check reversal of subjects in prefilled multiple mode", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "English,Maths","EXIST","xpath=//uwc-combobox[@value="English,Maths"]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify value addition on update dynamic options", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Fill the box 'Enter Options to add dynamically in Combobox' "", "",""</t>
-  </si>
-  <si>
-    <t>"New course","Enter Options to add dynamically in Combobox","xpath=//input[@id="optiontoAdd"]"</t>
-  </si>
-  <si>
-    <t>"1", "Click on update dynamic options", "",""</t>
-  </si>
-  <si>
-    <t>"Button", "Update dynamic options","xpath=//button[@id="SetComboboxoptions"]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the new course added", "",""</t>
-  </si>
-  <si>
-    <t>"1", "Verify the options to set existing value dynamically in country and city combobox with courses", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Fill the options to set box with BA", "",""</t>
-  </si>
-  <si>
-    <t>"BA","Enter Options to set existing value dynamically","xpath=//input[@id="Dynamicsetvalue"]"</t>
-  </si>
-  <si>
-    <t>"1", "Check prefilled single mode box filled with BA", "",""</t>
-  </si>
-  <si>
-    <t>"value", "BA", "course", "xpath=//uwc-combobox[@id="course"]"</t>
-  </si>
-  <si>
-    <t>"1", "Fill the options to set box with MBBS", "",""</t>
-  </si>
-  <si>
-    <t>"MBBS","Enter Options to set existing value dynamically","xpath=//input[@id="Dynamicsetvalue"]"</t>
-  </si>
-  <si>
-    <t>"1", "Check prefilled single mode box filled with MBBS", "",""</t>
-  </si>
-  <si>
-    <t>"value", "MBBS", "course", "xpath=//uwc-combobox[@id="course"]"</t>
-  </si>
-  <si>
-    <t>"1", "Fill the options to set box with Random course", "",""</t>
-  </si>
-  <si>
-    <t>"B Arch","Enter Options to set existing value dynamically","xpath=//input[@id="Dynamicsetvalue"]"</t>
-  </si>
-  <si>
-    <t>"1", "Check prefilled single mode box filled with no course", "",""</t>
-  </si>
-  <si>
-    <t>"value", " ", "course", "xpath=//uwc-combobox[@id="course"]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the options to set existing value dynamically in country and city combobox with subjects", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Fill the options to set box with English", "",""</t>
-  </si>
-  <si>
-    <t>"English","Enter Options to set existing value dynamically","xpath=//input[@id="Dynamicsetvalue"]"</t>
-  </si>
-  <si>
-    <t>"1", "Check prefilled multiple mode box filled with English", "",""</t>
-  </si>
-  <si>
-    <t>"value", "English", "course", "xpath=//uwc-combobox[@id="subject"]"</t>
-  </si>
-  <si>
-    <t>"1", "Fill the options to set box with English, French", "",""</t>
-  </si>
-  <si>
-    <t>"English,French","Enter Options to set existing value dynamically","xpath=//input[@id="Dynamicsetvalue"]"</t>
-  </si>
-  <si>
-    <t>"1", "Check prefilled multiple mode box filled with English,French", "",""</t>
-  </si>
-  <si>
-    <t>"value", "English,French", "course", "xpath=//uwc-combobox[@id="subject"]"</t>
-  </si>
-  <si>
-    <t>"1", "Fill the options to set box with English, French and another course not available in dropdown", "",""</t>
-  </si>
-  <si>
-    <t>"English,French,Social","Enter Options to set existing value dynamically","xpath=//input[@id="Dynamicsetvalue"]"</t>
-  </si>
-  <si>
-    <t>"1", "Fill the options to set box with English, French and repeat a course again", "",""</t>
-  </si>
-  <si>
-    <t>"English,French,French","Enter Options to set existing value dynamically","xpath=//input[@id="Dynamicsetvalue"]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the event handler change", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Click on uwc validation methods", "",""</t>
-  </si>
-  <si>
-    <t>"Button", "uwc validation methods()","xpath=//button[@id="customvalidity"]"</t>
-  </si>
-  <si>
-    <t>"checkValidity() is true","uwc validation methods()","xpath=//span[contains(text(),"checkValidity() is true")]"</t>
-  </si>
-  <si>
-    <t>"1", "Verify validation message after using required modifier", "",""</t>
-  </si>
-  <si>
-    <t>"1", "Verify the report validity and custom validation", "",""</t>
-  </si>
-  <si>
-    <t>"reportvalidity() is true","uwc validation methods()","xpath=//span[contains(text(),"reportvalidity() is true")]"</t>
-  </si>
-  <si>
-    <t>"Customvalidation:reportValidity () validation", "Select country","uwc-combobox[id='country']&gt;div&gt;uwc-text-field&gt;div[class*='text']"</t>
-  </si>
-  <si>
-    <t>"1", "Verify the Throttle Timeout", "", ""</t>
-  </si>
-  <si>
-    <t>"1", "Set the throttle timeout to higher value", "",""</t>
-  </si>
-  <si>
-    <t>"10000","Enter 'throttleTimeout' in 'ms'","xpath=//input[@id="throttleTimeout"]"</t>
-  </si>
-  <si>
-    <t>"Button", "Set throttle timeout","xpath=//button[@id="SetthrottleTimeout"]"</t>
-  </si>
-  <si>
-    <t>"1", "Input a Letter and verify Highlighted", "",""</t>
-  </si>
-  <si>
-    <t>"1", "Verify the Keyboard assist check for choosing a country", "", ""</t>
-  </si>
-  <si>
-    <t>"Textbox", "Header","xpath=//h2[contains(text(),"1. &lt;uwc-Combobox&gt; with Single 'mode")]"</t>
-  </si>
-  <si>
-    <t>"ARROW_DOWN"</t>
-  </si>
-  <si>
-    <t>"1", "Verify USA Chosen", "", ""</t>
-  </si>
-  <si>
-    <t>"ENTER"</t>
-  </si>
-  <si>
-    <t>"1", "Verify USA Removed", "", ""</t>
-  </si>
-  <si>
-    <t>"Config.defaultURL","components/combobox/combobox.html"</t>
-  </si>
-  <si>
-    <t>Shadow_SetText</t>
-  </si>
-  <si>
     <t>"2"</t>
   </si>
   <si>
-    <t>"USA", "Select Country","EXIST","div &gt; uwc-menu &gt; uwc-menu-surface &gt; uwc-combobox-menu-content-container &gt; div:nth-child(1)[value='USA']"</t>
-  </si>
-  <si>
-    <t>"UK", "Select Country","EXIST","div &gt; uwc-menu &gt; uwc-menu-surface &gt; uwc-combobox-menu-content-container &gt; div:nth-child(2)[value='UK']"</t>
-  </si>
-  <si>
-    <t>"INDIA", "Select Country","NOT_EXIST","div &gt; uwc-menu &gt; uwc-menu-surface &gt; uwc-combobox-menu-content-container &gt; div:nth-child(3)[value='INDIA']"</t>
-  </si>
-  <si>
-    <t>"uwc-menu-surface &gt; uwc-combobox-menu-content-container &gt; div:nth-child(1)[value='USA']","Dropdown","USA"</t>
-  </si>
-  <si>
-    <t>"value", "USA", "course", "xpath=//uwc-combobox[@id="country"]"</t>
-  </si>
-  <si>
-    <t>"U", "getting highted of USA","uwc-menu-surface &gt; uwc-combobox-menu-content-container &gt; div[value='USA']:nth-child(1) &gt; span"</t>
-  </si>
-  <si>
-    <t>"USA", "Option","uwc-menu-surface &gt; uwc-combobox-menu-content-container &gt; div[value='USA']:nth-child(1)"</t>
-  </si>
-  <si>
-    <t>"U", "getting highted in UK","uwc-menu-surface &gt; uwc-combobox-menu-content-container &gt; div[value='UK']:nth-child(2) &gt; span"</t>
-  </si>
-  <si>
-    <t>"UK", "getting highted","uwc-menu-surface &gt; uwc-combobox-menu-content-container &gt; div[value='UK']:nth-child(2)"</t>
-  </si>
-  <si>
-    <t>"uwc-menu-surface &gt; uwc-combobox-menu-content-container &gt; div:nth-child(1)[value='USA']","Combobox","USA"</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Check the cities of the country in Multiple mode</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Select and Verify the Country  and also very the highlighted issue</t>
-  </si>
-  <si>
-    <t>"uwc-menu-surface &gt; uwc-combobox-menu-content-container &gt; div:nth-child(2)[value='UK']","Dropdown","UK"</t>
-  </si>
-  <si>
-    <t>"USA", "Select Country","EXIST","uwc-menu-surface &gt; uwc-combobox-menu-content-container &gt; div:nth-child(1)[value='USA']"</t>
-  </si>
-  <si>
-    <t>"USA", "Select Country","EXIST","div[value='Alabama']"</t>
-  </si>
-  <si>
-    <t>"USA", "Select Country","EXIST","div[value='Boston']"</t>
-  </si>
-  <si>
-    <t>"Dover", "City","div:nth-child(2)[value='Dover']"</t>
-  </si>
-  <si>
-    <t>"Newyork", "City","div:nth-child(3)[value='Newyork']"</t>
-  </si>
-  <si>
-    <t>"Reading", "City","div:nth-child(1)[value='Reading']"</t>
-  </si>
-  <si>
-    <t>"London", "City","div:nth-child(2)[value='London']"</t>
-  </si>
-  <si>
-    <t>"Bristol", "City","div:nth-child(3)[value='Bristol']"</t>
-  </si>
-  <si>
-    <t>"Slough", "City","div:nth-child(4)[value='Slough']"</t>
-  </si>
-  <si>
-    <t>"Kerela", "City","div:nth-child(1)[value='Kerela']"</t>
-  </si>
-  <si>
-    <t>"Tamilnadu", "City","div:nth-child(2)[value='Tamilnadu']"</t>
-  </si>
-  <si>
-    <t>"Bangalore", "City","div:nth-child(3)[value='Bangalore']"</t>
-  </si>
-  <si>
-    <t>"Delhi", "City","div:nth-child(4)[value='Delhi']"</t>
-  </si>
-  <si>
-    <t>"value", "", "course", "xpath=//uwc-combobox[@id="country"]"</t>
-  </si>
-  <si>
-    <t>"div:nth-child(2)[value='Tamilnadu']","Dropdown","Tamilnadu"</t>
-  </si>
-  <si>
-    <t>"value", "", "course", "xpath=//uwc-combobox[@id="city"]"</t>
-  </si>
-  <si>
-    <t>"Textbox", "Select country","xpath=//h2[contains(text(),'with Single')]"</t>
-  </si>
-  <si>
-    <t>"div:nth-child(2)[value='UK']","Combobox","UK"</t>
-  </si>
-  <si>
-    <t>"#Tamilnadu &gt; span.removable-icon &gt; uwc-icon","Dropdown","close"</t>
-  </si>
-  <si>
-    <t>"div:nth-child(3)[value='INDIA']","Dropdown","INDIA"</t>
-  </si>
-  <si>
-    <t>"Textbox", "City","xpath=//uwc-combobox[@id="city"]"</t>
-  </si>
-  <si>
-    <t>"value", "Tamilnadu", "course", "xpath=//uwc-combobox[@id="city"]"</t>
-  </si>
-  <si>
-    <t>"Windsor", "City","div[value='Windsor']"</t>
-  </si>
-  <si>
-    <t>"SPACE"</t>
-  </si>
-  <si>
-    <t>"div:nth-child(3)[value='Bangalore']","Dropdown","Bangalore"</t>
-  </si>
-  <si>
-    <t>"div:nth-child(1)[value='Kerela']","Dropdown","Kerela"</t>
-  </si>
-  <si>
-    <t>"value", "Bangalore,Tamilnadu,Kerela", "course", "xpath=//uwc-combobox[@id="city"]"</t>
-  </si>
-  <si>
-    <t>"value", "Bangalore,Tamilnadu", "course", "xpath=//uwc-combobox[@id="city"]"</t>
-  </si>
-  <si>
-    <t>"value", "UK", "course", "xpath=//uwc-combobox[@id="country"]"</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field with single mode- Check the dropdown functionality on Kestroke Tab</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field with multiple mode- Check the dropdown functionality on Kestroke Tab</t>
-  </si>
-  <si>
-    <t>"div:nth-child(3)[value='INDIA']","Combobox","INDIA"</t>
-  </si>
-  <si>
-    <t>"value", "Bangalore", "course", "xpath=//uwc-combobox[@id="city"]"</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - UI coverage of Multiple and single mode</t>
-  </si>
-  <si>
-    <t>SaveFullPageScreenshot</t>
-  </si>
-  <si>
-    <t>CompareImage</t>
-  </si>
-  <si>
-    <t>"div[value='Reading']","Dropdown","Reading"</t>
-  </si>
-  <si>
-    <t>"div[value='London']","Dropdown","London"</t>
-  </si>
-  <si>
-    <t>"div[value='Bristol']","Dropdown","Bristol"</t>
-  </si>
-  <si>
-    <t>"div[value='Slough']","Dropdown","Slough"</t>
-  </si>
-  <si>
-    <t>"div[value='Windsor']","Dropdown","Windsor"</t>
-  </si>
-  <si>
-    <t>"3"</t>
-  </si>
-  <si>
-    <t>"value", "Reading,London,Bristol,Slough,Windsor", "city", "xpath=//uwc-combobox[@id="city"]"</t>
-  </si>
-  <si>
-    <t>"Textbox", "Course","xpath=//uwc-combobox[@id="course"]"</t>
-  </si>
-  <si>
-    <t>"value", "MBBS", "Course","xpath=//uwc-combobox[@id="course"]"</t>
-  </si>
-  <si>
-    <t>"value", "", "city", "xpath=//uwc-combobox[@id="course"]"</t>
-  </si>
-  <si>
-    <t>"div[value='Maths']","Dropdown","Maths"</t>
-  </si>
-  <si>
-    <t>"div[value='English']","Dropdown","English"</t>
-  </si>
-  <si>
-    <t>"Dropdown","New course","EXIST","div[value='New course']"</t>
-  </si>
-  <si>
-    <t>"div[value='New course']","Dropdown","New course"</t>
-  </si>
-  <si>
-    <t>"Highlighed","B","EXIST","div[value='BE']&gt;span"</t>
-  </si>
-  <si>
-    <t>"B", "City","div[value='BE']&gt;span"</t>
-  </si>
-  <si>
-    <t>"BE", "City","div[value='BE']"</t>
-  </si>
-  <si>
-    <t>"Highlighed","B","NOT_EXIST","div[value='BE']&gt;span"</t>
-  </si>
-  <si>
-    <t>"MDS", "Course","div[value='MDS']"</t>
-  </si>
-  <si>
-    <t>"Textbox", "Combo box Json","xpath=//uwc-combobox[@id="combojson"]"</t>
-  </si>
-  <si>
-    <t>"div[value='@TPH.TXN.FEETYPE.API']","Combobox","INDIA"</t>
-  </si>
-  <si>
-    <t>"Combobox values","Json values","NOT_EXIST","div[value='@TPH.TXN.FEETYPE.API']"</t>
-  </si>
-  <si>
-    <t>"Combobox values","Json values","EXIST","div[value='@TPH.TXN.FEETYPE.API']"</t>
-  </si>
-  <si>
-    <t>"div[value='@TPH.TXN.FEETYPE.API']","Combobox","@TPH.TXN.FEETYPE.API"</t>
-  </si>
-  <si>
-    <t>"div[value='@TPH.TXN.ZEROFEE.API']","Combobox","@TPH.TXN.ZEROFEE.API"</t>
-  </si>
-  <si>
-    <t>"Combobox values","Json values","EXIST","div[value='@TPS.GET.ACCOUNT.NO']"</t>
-  </si>
-  <si>
-    <t>"div[value='@TPS.GET.ACCOUNT.NO']","Combobox","@TPS.GET.ACCOUNT.NO"</t>
-  </si>
-  <si>
-    <t>"Combobox values","Json values","EXIST","div[value='@TPS.GET.ACHCTIP.MAP.DETAILS']"</t>
-  </si>
-  <si>
-    <t>"div[value='@TPS.GET.ACHCTIP.MAP.DETAILS']","Combobox","@TPS.GET.ACHCTIP.MAP.DETAILS"</t>
-  </si>
-  <si>
-    <t>"Combobox values","Json values","EXIST","div[value='@TPS.GET.ADDENDA.VALUES']"</t>
-  </si>
-  <si>
-    <t>"div[value='@TPS.GET.ADDENDA.VALUES']","Combobox","@TPS.GET.ADDENDA.VALUES"</t>
-  </si>
-  <si>
-    <t>"Combobox values","Json values","EXIST","div[value='AA ACTIVITY BALANCES PROCESS API']"</t>
-  </si>
-  <si>
-    <t>"div[value='AA ACTIVITY BALANCES PROCESS API']","Combobox","AA ACTIVITY BALANCES PROCESS API"</t>
-  </si>
-  <si>
-    <t>"div[value='AA.CLASS.TYPE.API.POST.ACTIVITY']","Combobox","AA.CLASS.TYPE.API.POST.ACTIVITY"</t>
-  </si>
-  <si>
-    <t>"1", "Verify combobox using json with more that 4000 records ", "", ""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify UUX for Combobox field - Verify combobox using json with more that 4000 records </t>
-  </si>
-  <si>
-    <t>"Textbox", "Populate Json","xpath=//button[@id='populatefromextfile']"</t>
-  </si>
-  <si>
-    <t>"AA.", "set text","div[value='AA.CLASS.TYPE.API.POST.ACTIVITY']&gt;span"</t>
-  </si>
-  <si>
-    <t>"div[value='AA.AMS.RETRIEVER.METHOD']","Combobox","AA.AMS.RETRIEVER.METHOD"</t>
-  </si>
-  <si>
-    <t>"AA.", "set text","div[value='AA.AMS.RETRIEVER.METHOD']&gt;span"</t>
-  </si>
-  <si>
-    <t>"uwc-text-field[label*='country'] &gt; label &gt; div &gt; input","U","Select country"</t>
-  </si>
-  <si>
-    <t>"uwc-text-field[label='course'] &gt; label &gt; div &gt; input","B","Course"</t>
-  </si>
-  <si>
-    <t>"uwc-combobox-chip-input[label*='JSON'] &gt; label &gt; uwc-chip-group[value*='AA'] &gt; div &gt; input","AA.","combojson"</t>
-  </si>
-  <si>
-    <t>"value", "Reading", "course", "xpath=//uwc-combobox[@id="city"]"</t>
-  </si>
-  <si>
-    <t>Combobox_C01</t>
-  </si>
-  <si>
-    <t>Combobox_C02</t>
-  </si>
-  <si>
-    <t>Combobox_C03</t>
-  </si>
-  <si>
-    <t>Combobox_C04</t>
-  </si>
-  <si>
-    <t>Combobox_C05</t>
-  </si>
-  <si>
-    <t>Combobox_C06</t>
-  </si>
-  <si>
-    <t>Combobox_C07</t>
-  </si>
-  <si>
-    <t>Combobox_C08</t>
-  </si>
-  <si>
-    <t>Combobox_C09</t>
-  </si>
-  <si>
-    <t>Combobox_C10</t>
-  </si>
-  <si>
-    <t>Combobox_C11</t>
-  </si>
-  <si>
-    <t>Combobox_C12</t>
-  </si>
-  <si>
-    <t>Combobox_C13</t>
-  </si>
-  <si>
-    <t>Combobox_C15</t>
-  </si>
-  <si>
-    <t>Combobox_C16</t>
-  </si>
-  <si>
-    <t>Combobox_C17</t>
-  </si>
-  <si>
-    <t>Combobox_C19</t>
-  </si>
-  <si>
-    <t>Combobox_C20</t>
-  </si>
-  <si>
-    <t>Combobox_C21</t>
-  </si>
-  <si>
-    <t>Combobox_C22</t>
-  </si>
-  <si>
-    <t>Combobox_C23</t>
-  </si>
-  <si>
-    <t>Combobox_C24</t>
-  </si>
-  <si>
-    <t>Combobox_C25</t>
-  </si>
-  <si>
-    <t>Combobox_C26</t>
-  </si>
-  <si>
-    <t>Combobox_C14</t>
-  </si>
-  <si>
-    <t>Combobox_C18</t>
-  </si>
-  <si>
-    <t>"ActualUTP/Combo3.jpg"</t>
-  </si>
-  <si>
-    <t>"ExpectedUTP/Combo3.jpg"</t>
-  </si>
-  <si>
-    <t>"ActualUTP/Combo3.jpg","ExpectedUTP/Combo3.jpg"</t>
-  </si>
-  <si>
-    <t>Combobox_Field</t>
-  </si>
-  <si>
-    <t>Verify UUX for Combobox field - Reset and check for the default values</t>
-  </si>
-  <si>
-    <t>JavaScriptExecute</t>
-  </si>
-  <si>
-    <t>"document.getElementById("course").shadowRoot.querySelector("div&gt;uwc-text-field[value=MBBS]")","MBBS","ELEMENT_EXIST",""</t>
-  </si>
-  <si>
-    <t>"BACKSPACE"</t>
-  </si>
-  <si>
-    <t>"value", "", "Country", "xpath=//uwc-combobox[@id="country"]"</t>
-  </si>
-  <si>
-    <t>"document.getElementById("country").shadowRoot.querySelector("div&gt;uwc-text-field[value=UK]").shadowRoot.querySelector("label&gt;i")","Drop down","CLICK",""</t>
-  </si>
-  <si>
-    <t>"value", "", "country", "xpath=//uwc-combobox[@id="country"]"</t>
-  </si>
-  <si>
-    <t>"value", "UK", "country", "xpath=//uwc-combobox[@id="country"]"</t>
-  </si>
-  <si>
-    <t>"MBBS", "Pre selected Value","NOT_EXIST","uwc-text-field[label='course']&gt;uwc-icon-button&gt;button[class*='button']"</t>
-  </si>
-  <si>
-    <t>"document.getElementById("course").shadowRoot.querySelector("div&gt;uwc-text-field[value=MBBS]").shadowRoot.querySelector("label&gt;i")","Drop down","CLICK",""</t>
-  </si>
-  <si>
-    <t>"Textbox", "subject","xpath=//uwc-combobox[@id="course"]"</t>
-  </si>
-  <si>
-    <t>"uwc-combobox-chip-input[label*='JSON'] &gt; label &gt; uwc-chip-group[value*='AA'] &gt; div &gt; input","AA.CLASS.","combojson"</t>
-  </si>
-  <si>
-    <t>"selected", "UK Country","EXIST","div:nth-child(1)[value*='UK'][selected]"</t>
-  </si>
-  <si>
-    <t>"div:nth-child(1)[value='UK']","Combobox","UK"</t>
-  </si>
-  <si>
-    <t>"uwc-menu-surface &gt; uwc-combobox-menu-content-container &gt; div:nth-child(1)[value='UK']","UK Dropdown","UK"</t>
-  </si>
-  <si>
-    <t>"div:nth-child(3)[value='Kerela']","Dropdown","Kerela"</t>
-  </si>
-  <si>
-    <t>"MBBS", "Pre selected Value","EXIST","div:nth-child(1)[value='MBBS'][selected]&gt;span"</t>
-  </si>
-  <si>
-    <t>"MBBS", "City","div:nth-child(1)[value='MBBS']"</t>
-  </si>
-  <si>
-    <t>"MBBS", "City","div:nth-child(1)[value='MBBS']&gt;span"</t>
-  </si>
-  <si>
-    <t>"Please Select", "Course","div:nth-child(2)[aria-label*='Please Select']"</t>
-  </si>
-  <si>
-    <t>"BE", "Course","div:nth-child(3)[value='BE']"</t>
-  </si>
-  <si>
-    <t>"Bachelor", "Course","div:nth-child(4)[value='BA']"</t>
-  </si>
-  <si>
-    <t>"div:nth-child(2)[aria-label*='Please Select']","Dropdown","Please Select"</t>
-  </si>
-  <si>
     <t>MFW-GD-Test-001</t>
   </si>
   <si>
@@ -2570,61 +1610,43 @@
     <t>"3","Validate Microservice Metrics Home page","",""</t>
   </si>
   <si>
-    <t>"paymentorder","Dropdown","xpath=//button[@id='Product']//span[1]"</t>
-  </si>
-  <si>
-    <t>"ms-paymentorder","Dropdown","xpath=//span[text()='ms-paymentorder']"</t>
-  </si>
-  <si>
-    <t>"15"</t>
-  </si>
-  <si>
     <t>MFW-GD-Test-004</t>
   </si>
   <si>
     <t>Validate list of Operation Id's under API Trends</t>
   </si>
   <si>
-    <t>"3","Validate list of Operation Id's under API Trends","",""</t>
-  </si>
-  <si>
     <t>"API Trends","Dropdown","xpath=//h2[text()='API Trends']"</t>
   </si>
   <si>
     <t>"View","Dropdown","xpath=//span[text()='View']"</t>
   </si>
   <si>
-    <t>"Operation Id","scrollbar-view","xpath=//div[@class='scrollbar-view']//div"</t>
-  </si>
-  <si>
     <t>MFW-GD-Test-005</t>
   </si>
   <si>
-    <t>"4","Validate list of Query Types under DB Trends","",""</t>
-  </si>
-  <si>
     <t>"DB Trends","Dropdown","xpath=//h2[text()='DB Trends']"</t>
   </si>
   <si>
     <t>Validate list of Query Types under DB Trends</t>
   </si>
   <si>
-    <t>"Query Type","scrollbar-view","xpath=//div[@class='scrollbar-view']//div"</t>
-  </si>
-  <si>
     <t>MFW-GD-Test-006</t>
   </si>
   <si>
-    <t>"5","Validate list of Services under Events Trends","",""</t>
-  </si>
-  <si>
     <t>"Events Trends","Dropdown","xpath=//h2[text()='Events Trends']"</t>
   </si>
   <si>
-    <t>"Service","scrollbar-view","xpath=//div[@class='scrollbar-view']//div"</t>
-  </si>
-  <si>
     <t>Validate list of Services under Events Trends</t>
+  </si>
+  <si>
+    <t>"4","Validate list of Operation Id's under API Trends","",""</t>
+  </si>
+  <si>
+    <t>"5","Validate list of Query Types under DB Trends","",""</t>
+  </si>
+  <si>
+    <t>"6","Validate list of Services under Events Trends","",""</t>
   </si>
 </sst>
 </file>
@@ -5115,41 +4137,32 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5160,11 +4173,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1807">
@@ -7324,7 +6346,7 @@
   </cols>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0">
+    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7336,7 +6358,7 @@
       <pageSetup orientation="portrait" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0">
+    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -7356,7 +6378,7 @@
   <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
@@ -7376,13 +6398,13 @@
         <v>87</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C1" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>68</v>
@@ -7391,133 +6413,133 @@
         <v>59</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24.6" customHeight="1">
       <c r="A2" s="59" t="s">
-        <v>818</v>
+        <v>498</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>819</v>
+        <v>499</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>820</v>
+        <v>500</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23" t="s">
-        <v>821</v>
+        <v>501</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>822</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.6" customHeight="1">
       <c r="A3" s="115" t="s">
-        <v>830</v>
+        <v>510</v>
       </c>
       <c r="B3" s="115" t="s">
-        <v>819</v>
+        <v>499</v>
       </c>
       <c r="C3" s="126" t="s">
-        <v>831</v>
+        <v>511</v>
       </c>
       <c r="D3" s="91"/>
       <c r="E3" s="119" t="s">
-        <v>821</v>
+        <v>501</v>
       </c>
       <c r="F3" s="127" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G3" s="119" t="s">
-        <v>822</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24.6" customHeight="1">
       <c r="A4" s="115" t="s">
-        <v>837</v>
+        <v>517</v>
       </c>
       <c r="B4" s="115" t="s">
-        <v>819</v>
+        <v>499</v>
       </c>
       <c r="C4" s="126" t="s">
-        <v>838</v>
+        <v>518</v>
       </c>
       <c r="D4" s="91"/>
       <c r="E4" s="119" t="s">
-        <v>821</v>
+        <v>501</v>
       </c>
       <c r="F4" s="127" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G4" s="119" t="s">
-        <v>822</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24.6" customHeight="1">
       <c r="A5" s="115" t="s">
-        <v>843</v>
+        <v>520</v>
       </c>
       <c r="B5" s="115" t="s">
-        <v>819</v>
+        <v>499</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>844</v>
+        <v>521</v>
       </c>
       <c r="D5" s="91"/>
       <c r="E5" s="119" t="s">
-        <v>821</v>
+        <v>501</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G5" s="119" t="s">
-        <v>822</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24.6" customHeight="1">
       <c r="A6" s="115" t="s">
-        <v>849</v>
+        <v>524</v>
       </c>
       <c r="B6" s="115" t="s">
-        <v>819</v>
+        <v>499</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>852</v>
+        <v>526</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="119" t="s">
-        <v>821</v>
+        <v>501</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G6" s="119" t="s">
-        <v>822</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.6" customHeight="1">
       <c r="A7" s="115" t="s">
-        <v>854</v>
+        <v>527</v>
       </c>
       <c r="B7" s="115" t="s">
-        <v>819</v>
+        <v>499</v>
       </c>
       <c r="C7" s="126" t="s">
-        <v>858</v>
+        <v>529</v>
       </c>
       <c r="D7" s="91"/>
       <c r="E7" s="119" t="s">
-        <v>821</v>
+        <v>501</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G7" s="119" t="s">
-        <v>822</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.6" customHeight="1">
@@ -7530,529 +6552,229 @@
       <c r="G8" s="119"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
-      <c r="A9" s="62" t="s">
-        <v>765</v>
-      </c>
-      <c r="B9" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>501</v>
-      </c>
+      <c r="A9" s="62"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="91"/>
-      <c r="E9" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>502</v>
-      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="35.450000000000003" customHeight="1">
-      <c r="A10" s="62" t="s">
-        <v>766</v>
-      </c>
-      <c r="B10" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>683</v>
-      </c>
+      <c r="A10" s="62"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="91"/>
-      <c r="E10" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>502</v>
-      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
-      <c r="A11" s="62" t="s">
-        <v>767</v>
-      </c>
-      <c r="B11" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>682</v>
-      </c>
+      <c r="A11" s="62"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="111"/>
-      <c r="E11" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>502</v>
-      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
-      <c r="A12" s="62" t="s">
-        <v>768</v>
-      </c>
-      <c r="B12" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>714</v>
-      </c>
+      <c r="A12" s="62"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="91"/>
-      <c r="E12" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>502</v>
-      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
-      <c r="A13" s="62" t="s">
-        <v>769</v>
-      </c>
-      <c r="B13" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>715</v>
-      </c>
+      <c r="A13" s="62"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="91"/>
-      <c r="E13" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F13" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>502</v>
-      </c>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
-      <c r="A14" s="62" t="s">
-        <v>770</v>
-      </c>
-      <c r="B14" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>503</v>
-      </c>
+      <c r="A14" s="62"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="91"/>
-      <c r="E14" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F14" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>502</v>
-      </c>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
-      <c r="A15" s="62" t="s">
-        <v>771</v>
-      </c>
-      <c r="B15" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>718</v>
-      </c>
+      <c r="A15" s="62"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="91"/>
-      <c r="E15" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>502</v>
-      </c>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
-      <c r="A16" s="62" t="s">
-        <v>772</v>
-      </c>
-      <c r="B16" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>504</v>
-      </c>
+      <c r="A16" s="62"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="91"/>
-      <c r="E16" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>502</v>
-      </c>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
-      <c r="A17" s="62" t="s">
-        <v>773</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>505</v>
-      </c>
+      <c r="A17" s="62"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="91"/>
-      <c r="E17" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F17" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>502</v>
-      </c>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A18" s="62" t="s">
-        <v>774</v>
-      </c>
-      <c r="B18" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>506</v>
-      </c>
+      <c r="A18" s="62"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="91"/>
-      <c r="E18" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F18" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="25.5">
-      <c r="A19" s="62" t="s">
-        <v>775</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>507</v>
-      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1">
+      <c r="A19" s="62"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="91"/>
-      <c r="E19" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F19" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="25.5">
-      <c r="A20" s="62" t="s">
-        <v>776</v>
-      </c>
-      <c r="B20" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>508</v>
-      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1">
+      <c r="A20" s="62"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="91"/>
-      <c r="E20" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F20" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="25.5">
-      <c r="A21" s="62" t="s">
-        <v>777</v>
-      </c>
-      <c r="B21" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>509</v>
-      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1">
+      <c r="A21" s="62"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="91"/>
-      <c r="E21" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F21" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="25.5">
-      <c r="A22" s="62" t="s">
-        <v>789</v>
-      </c>
-      <c r="B22" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>795</v>
-      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1">
+      <c r="A22" s="62"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="91"/>
-      <c r="E22" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F22" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="25.5">
-      <c r="A23" s="62" t="s">
-        <v>778</v>
-      </c>
-      <c r="B23" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>510</v>
-      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1">
+      <c r="A23" s="62"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="91"/>
-      <c r="E23" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F23" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" ht="25.5">
-      <c r="A24" s="62" t="s">
-        <v>779</v>
-      </c>
-      <c r="B24" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>511</v>
-      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1">
+      <c r="A24" s="62"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="91"/>
-      <c r="E24" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F24" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="25.5">
-      <c r="A25" s="62" t="s">
-        <v>780</v>
-      </c>
-      <c r="B25" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>512</v>
-      </c>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1">
+      <c r="A25" s="62"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="91"/>
-      <c r="E25" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" ht="25.5">
-      <c r="A26" s="62" t="s">
-        <v>781</v>
-      </c>
-      <c r="B26" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>513</v>
-      </c>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1">
+      <c r="A26" s="62"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="91"/>
-      <c r="E26" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F26" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" ht="25.5">
-      <c r="A27" s="62" t="s">
-        <v>782</v>
-      </c>
-      <c r="B27" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>514</v>
-      </c>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1">
+      <c r="A27" s="62"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="91"/>
-      <c r="E27" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F27" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" ht="25.5">
-      <c r="A28" s="62" t="s">
-        <v>783</v>
-      </c>
-      <c r="B28" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>515</v>
-      </c>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1">
+      <c r="A28" s="62"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="91"/>
-      <c r="E28" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F28" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" ht="25.5">
-      <c r="A29" s="62" t="s">
-        <v>784</v>
-      </c>
-      <c r="B29" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>516</v>
-      </c>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" s="5" customFormat="1">
+      <c r="A29" s="62"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="91"/>
-      <c r="E29" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F29" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>502</v>
-      </c>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A30" s="62" t="s">
-        <v>785</v>
-      </c>
-      <c r="B30" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>517</v>
-      </c>
+      <c r="A30" s="62"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="91"/>
-      <c r="E30" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F30" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>502</v>
-      </c>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A31" s="62" t="s">
-        <v>786</v>
-      </c>
-      <c r="B31" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>518</v>
-      </c>
+      <c r="A31" s="62"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="91"/>
-      <c r="E31" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F31" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>502</v>
-      </c>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
-      <c r="A32" s="62" t="s">
-        <v>787</v>
-      </c>
-      <c r="B32" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>519</v>
-      </c>
+      <c r="A32" s="62"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="91"/>
-      <c r="E32" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F32" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="25.5">
-      <c r="A33" s="62" t="s">
-        <v>788</v>
-      </c>
-      <c r="B33" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>756</v>
-      </c>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="62"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="91"/>
-      <c r="E33" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="F33" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>502</v>
-      </c>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="62"/>
@@ -9244,7 +7966,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0" topLeftCell="A991">
+    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0" topLeftCell="A991">
       <selection activeCell="A991" sqref="A991"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9256,7 +7978,7 @@
       <pageSetup orientation="portrait" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0" topLeftCell="A991">
+    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0" topLeftCell="A991">
       <selection activeCell="A991" sqref="A991"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -9275,8 +7997,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:HQ76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K3" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="146.44999999999999" customHeight="1"/>
@@ -10058,55 +8780,55 @@
     </row>
     <row r="2" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
       <c r="A2" s="62" t="s">
-        <v>819</v>
+        <v>499</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>465</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>818</v>
+        <v>498</v>
       </c>
       <c r="D2" s="68" t="s">
         <v>231</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>829</v>
+        <v>509</v>
       </c>
       <c r="F2" s="106" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G2" s="69" t="s">
-        <v>823</v>
+        <v>503</v>
       </c>
       <c r="H2" s="121" t="s">
         <v>156</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>824</v>
+        <v>504</v>
       </c>
       <c r="J2" s="121" t="s">
         <v>156</v>
       </c>
       <c r="K2" s="59" t="s">
-        <v>825</v>
+        <v>505</v>
       </c>
       <c r="L2" s="120" t="s">
         <v>167</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>826</v>
+        <v>506</v>
       </c>
       <c r="N2" s="120" t="s">
         <v>167</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>827</v>
+        <v>507</v>
       </c>
       <c r="P2" s="112" t="s">
         <v>320</v>
       </c>
       <c r="Q2" s="52" t="s">
-        <v>835</v>
+        <v>515</v>
       </c>
       <c r="AF2" s="59"/>
       <c r="AG2" s="59"/>
@@ -10203,73 +8925,73 @@
     </row>
     <row r="3" spans="1:225" s="128" customFormat="1" ht="146.44999999999999" customHeight="1">
       <c r="A3" s="125" t="s">
-        <v>819</v>
+        <v>499</v>
       </c>
       <c r="B3" s="125" t="s">
         <v>465</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>830</v>
+        <v>510</v>
       </c>
       <c r="D3" s="129" t="s">
         <v>231</v>
       </c>
       <c r="E3" s="125" t="s">
-        <v>832</v>
+        <v>512</v>
       </c>
       <c r="F3" s="132" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G3" s="130" t="s">
-        <v>823</v>
+        <v>503</v>
       </c>
       <c r="H3" s="121" t="s">
         <v>156</v>
       </c>
       <c r="I3" s="115" t="s">
-        <v>824</v>
+        <v>504</v>
       </c>
       <c r="J3" s="121" t="s">
         <v>156</v>
       </c>
       <c r="K3" s="115" t="s">
-        <v>825</v>
+        <v>505</v>
       </c>
       <c r="L3" s="120" t="s">
         <v>167</v>
       </c>
       <c r="M3" s="115" t="s">
-        <v>826</v>
+        <v>506</v>
       </c>
       <c r="N3" s="132" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O3" s="130" t="s">
-        <v>828</v>
+        <v>508</v>
       </c>
       <c r="P3" s="123" t="s">
         <v>320</v>
       </c>
       <c r="Q3" s="124" t="s">
-        <v>835</v>
+        <v>515</v>
       </c>
       <c r="R3" s="120" t="s">
         <v>167</v>
       </c>
       <c r="S3" s="115" t="s">
-        <v>833</v>
+        <v>513</v>
       </c>
       <c r="T3" s="120" t="s">
         <v>167</v>
       </c>
       <c r="U3" s="115" t="s">
-        <v>834</v>
+        <v>514</v>
       </c>
       <c r="V3" s="122" t="s">
         <v>320</v>
       </c>
       <c r="W3" s="115" t="s">
-        <v>835</v>
+        <v>515</v>
       </c>
       <c r="X3" s="120" t="s">
         <v>188</v>
@@ -10279,7 +9001,7 @@
         <v>320</v>
       </c>
       <c r="AA3" s="115" t="s">
-        <v>842</v>
+        <v>515</v>
       </c>
       <c r="AB3" s="118"/>
       <c r="AC3" s="115"/>
@@ -10379,74 +9101,60 @@
     </row>
     <row r="4" spans="1:225" s="128" customFormat="1" ht="146.44999999999999" customHeight="1">
       <c r="A4" s="125" t="s">
-        <v>819</v>
+        <v>499</v>
       </c>
       <c r="B4" s="125" t="s">
         <v>465</v>
       </c>
       <c r="C4" s="115" t="s">
-        <v>837</v>
+        <v>517</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>231</v>
       </c>
       <c r="E4" s="125" t="s">
-        <v>839</v>
+        <v>519</v>
       </c>
       <c r="F4" s="132" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G4" s="130" t="s">
-        <v>823</v>
+        <v>503</v>
       </c>
       <c r="H4" s="121" t="s">
         <v>156</v>
       </c>
       <c r="I4" s="115" t="s">
-        <v>824</v>
+        <v>504</v>
       </c>
       <c r="J4" s="121" t="s">
         <v>156</v>
       </c>
       <c r="K4" s="115" t="s">
-        <v>825</v>
+        <v>505</v>
       </c>
       <c r="L4" s="120" t="s">
         <v>167</v>
       </c>
       <c r="M4" s="115" t="s">
-        <v>826</v>
+        <v>506</v>
       </c>
       <c r="N4" s="132" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O4" s="130" t="s">
-        <v>836</v>
+        <v>516</v>
       </c>
       <c r="P4" s="123" t="s">
         <v>320</v>
       </c>
       <c r="Q4" s="124" t="s">
-        <v>835</v>
-      </c>
-      <c r="R4" s="120" t="s">
-        <v>167</v>
-      </c>
-      <c r="S4" s="115" t="s">
-        <v>840</v>
-      </c>
-      <c r="T4" s="120" t="s">
-        <v>167</v>
-      </c>
-      <c r="U4" s="115" t="s">
-        <v>841</v>
-      </c>
-      <c r="V4" s="122" t="s">
-        <v>320</v>
-      </c>
-      <c r="W4" s="115" t="s">
-        <v>842</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="R4" s="120"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="115"/>
       <c r="X4" s="120"/>
       <c r="Y4" s="115"/>
       <c r="Z4" s="122"/>
@@ -10549,73 +9257,73 @@
     </row>
     <row r="5" spans="1:225" s="128" customFormat="1" ht="146.44999999999999" customHeight="1">
       <c r="A5" s="125" t="s">
-        <v>819</v>
+        <v>499</v>
       </c>
       <c r="B5" s="125" t="s">
         <v>465</v>
       </c>
       <c r="C5" s="115" t="s">
-        <v>843</v>
+        <v>520</v>
       </c>
       <c r="D5" s="129" t="s">
         <v>231</v>
       </c>
       <c r="E5" s="125" t="s">
-        <v>845</v>
+        <v>530</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G5" s="130" t="s">
-        <v>823</v>
+        <v>503</v>
       </c>
       <c r="H5" s="121" t="s">
         <v>156</v>
       </c>
       <c r="I5" s="115" t="s">
-        <v>824</v>
+        <v>504</v>
       </c>
       <c r="J5" s="121" t="s">
         <v>156</v>
       </c>
       <c r="K5" s="115" t="s">
-        <v>825</v>
+        <v>505</v>
       </c>
       <c r="L5" s="120" t="s">
         <v>167</v>
       </c>
       <c r="M5" s="115" t="s">
-        <v>826</v>
+        <v>506</v>
       </c>
       <c r="N5" s="132" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O5" s="130" t="s">
-        <v>828</v>
+        <v>508</v>
       </c>
       <c r="P5" s="123" t="s">
         <v>320</v>
       </c>
       <c r="Q5" s="124" t="s">
-        <v>835</v>
+        <v>515</v>
       </c>
       <c r="R5" s="120" t="s">
         <v>167</v>
       </c>
       <c r="S5" s="115" t="s">
-        <v>833</v>
+        <v>513</v>
       </c>
       <c r="T5" s="120" t="s">
         <v>167</v>
       </c>
       <c r="U5" s="115" t="s">
-        <v>834</v>
+        <v>514</v>
       </c>
       <c r="V5" s="122" t="s">
         <v>320</v>
       </c>
       <c r="W5" s="115" t="s">
-        <v>835</v>
+        <v>515</v>
       </c>
       <c r="X5" s="120" t="s">
         <v>188</v>
@@ -10625,25 +9333,25 @@
         <v>320</v>
       </c>
       <c r="AA5" s="115" t="s">
-        <v>835</v>
+        <v>515</v>
       </c>
       <c r="AB5" s="120" t="s">
         <v>167</v>
       </c>
       <c r="AC5" s="115" t="s">
-        <v>846</v>
+        <v>522</v>
       </c>
       <c r="AD5" s="120" t="s">
         <v>167</v>
       </c>
       <c r="AE5" s="115" t="s">
-        <v>847</v>
+        <v>523</v>
       </c>
       <c r="AF5" s="122" t="s">
         <v>320</v>
       </c>
       <c r="AG5" s="115" t="s">
-        <v>671</v>
+        <v>497</v>
       </c>
       <c r="AH5" s="120" t="s">
         <v>188</v>
@@ -10653,14 +9361,10 @@
         <v>320</v>
       </c>
       <c r="AK5" s="115" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL5" s="120" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM5" s="115" t="s">
-        <v>848</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="AL5" s="120"/>
+      <c r="AM5" s="115"/>
       <c r="AN5" s="115"/>
       <c r="AO5" s="115"/>
       <c r="AP5" s="115"/>
@@ -10748,73 +9452,73 @@
     </row>
     <row r="6" spans="1:225" s="128" customFormat="1" ht="146.44999999999999" customHeight="1">
       <c r="A6" s="125" t="s">
-        <v>819</v>
+        <v>499</v>
       </c>
       <c r="B6" s="125" t="s">
         <v>465</v>
       </c>
       <c r="C6" s="115" t="s">
-        <v>849</v>
+        <v>524</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>231</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>850</v>
+        <v>531</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G6" s="130" t="s">
-        <v>823</v>
+        <v>503</v>
       </c>
       <c r="H6" s="121" t="s">
         <v>156</v>
       </c>
       <c r="I6" s="115" t="s">
-        <v>824</v>
+        <v>504</v>
       </c>
       <c r="J6" s="121" t="s">
         <v>156</v>
       </c>
       <c r="K6" s="115" t="s">
-        <v>825</v>
+        <v>505</v>
       </c>
       <c r="L6" s="120" t="s">
         <v>167</v>
       </c>
       <c r="M6" s="115" t="s">
-        <v>826</v>
+        <v>506</v>
       </c>
       <c r="N6" s="132" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O6" s="130" t="s">
-        <v>828</v>
+        <v>508</v>
       </c>
       <c r="P6" s="123" t="s">
         <v>320</v>
       </c>
       <c r="Q6" s="124" t="s">
-        <v>835</v>
+        <v>515</v>
       </c>
       <c r="R6" s="120" t="s">
         <v>167</v>
       </c>
       <c r="S6" s="115" t="s">
-        <v>833</v>
+        <v>513</v>
       </c>
       <c r="T6" s="120" t="s">
         <v>167</v>
       </c>
       <c r="U6" s="115" t="s">
-        <v>834</v>
+        <v>514</v>
       </c>
       <c r="V6" s="122" t="s">
         <v>320</v>
       </c>
       <c r="W6" s="115" t="s">
-        <v>835</v>
+        <v>515</v>
       </c>
       <c r="X6" s="120" t="s">
         <v>188</v>
@@ -10824,25 +9528,25 @@
         <v>320</v>
       </c>
       <c r="AA6" s="115" t="s">
-        <v>835</v>
+        <v>515</v>
       </c>
       <c r="AB6" s="120" t="s">
         <v>167</v>
       </c>
       <c r="AC6" s="115" t="s">
-        <v>851</v>
+        <v>525</v>
       </c>
       <c r="AD6" s="120" t="s">
         <v>167</v>
       </c>
       <c r="AE6" s="115" t="s">
-        <v>847</v>
+        <v>523</v>
       </c>
       <c r="AF6" s="122" t="s">
         <v>320</v>
       </c>
       <c r="AG6" s="115" t="s">
-        <v>671</v>
+        <v>497</v>
       </c>
       <c r="AH6" s="120" t="s">
         <v>188</v>
@@ -10852,14 +9556,10 @@
         <v>320</v>
       </c>
       <c r="AK6" s="115" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL6" s="120" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM6" s="124" t="s">
-        <v>853</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="AL6" s="120"/>
+      <c r="AM6" s="124"/>
       <c r="AN6" s="124"/>
       <c r="AO6" s="124"/>
       <c r="AP6" s="124"/>
@@ -10947,73 +9647,73 @@
     </row>
     <row r="7" spans="1:225" s="128" customFormat="1" ht="146.44999999999999" customHeight="1">
       <c r="A7" s="125" t="s">
-        <v>819</v>
+        <v>499</v>
       </c>
       <c r="B7" s="125" t="s">
         <v>465</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>854</v>
+        <v>527</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>231</v>
       </c>
       <c r="E7" s="125" t="s">
-        <v>855</v>
+        <v>532</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G7" s="130" t="s">
-        <v>823</v>
+        <v>503</v>
       </c>
       <c r="H7" s="121" t="s">
         <v>156</v>
       </c>
       <c r="I7" s="115" t="s">
-        <v>824</v>
+        <v>504</v>
       </c>
       <c r="J7" s="121" t="s">
         <v>156</v>
       </c>
       <c r="K7" s="115" t="s">
-        <v>825</v>
+        <v>505</v>
       </c>
       <c r="L7" s="120" t="s">
         <v>167</v>
       </c>
       <c r="M7" s="115" t="s">
-        <v>826</v>
+        <v>506</v>
       </c>
       <c r="N7" s="132" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O7" s="130" t="s">
-        <v>828</v>
+        <v>508</v>
       </c>
       <c r="P7" s="123" t="s">
         <v>320</v>
       </c>
       <c r="Q7" s="124" t="s">
-        <v>835</v>
+        <v>515</v>
       </c>
       <c r="R7" s="120" t="s">
         <v>167</v>
       </c>
       <c r="S7" s="115" t="s">
-        <v>833</v>
+        <v>513</v>
       </c>
       <c r="T7" s="120" t="s">
         <v>167</v>
       </c>
       <c r="U7" s="115" t="s">
-        <v>834</v>
+        <v>514</v>
       </c>
       <c r="V7" s="122" t="s">
         <v>320</v>
       </c>
       <c r="W7" s="115" t="s">
-        <v>835</v>
+        <v>515</v>
       </c>
       <c r="X7" s="120" t="s">
         <v>188</v>
@@ -11023,25 +9723,25 @@
         <v>320</v>
       </c>
       <c r="AA7" s="115" t="s">
-        <v>835</v>
+        <v>515</v>
       </c>
       <c r="AB7" s="120" t="s">
         <v>167</v>
       </c>
       <c r="AC7" s="115" t="s">
-        <v>856</v>
+        <v>528</v>
       </c>
       <c r="AD7" s="120" t="s">
         <v>167</v>
       </c>
       <c r="AE7" s="115" t="s">
-        <v>847</v>
+        <v>523</v>
       </c>
       <c r="AF7" s="122" t="s">
         <v>320</v>
       </c>
       <c r="AG7" s="115" t="s">
-        <v>671</v>
+        <v>497</v>
       </c>
       <c r="AH7" s="120" t="s">
         <v>188</v>
@@ -11051,14 +9751,10 @@
         <v>320</v>
       </c>
       <c r="AK7" s="124" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL7" s="120" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM7" s="124" t="s">
-        <v>857</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="AL7" s="120"/>
+      <c r="AM7" s="124"/>
       <c r="AN7" s="124"/>
       <c r="AO7" s="124"/>
       <c r="AP7" s="124"/>
@@ -11256,225 +9952,79 @@
       <c r="DS8" s="116"/>
     </row>
     <row r="9" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A9" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>766</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>522</v>
-      </c>
-      <c r="F9" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G9" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H9" s="102" t="s">
-        <v>199</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>520</v>
-      </c>
-      <c r="J9" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="K9" s="62" t="s">
-        <v>523</v>
-      </c>
-      <c r="L9" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="M9" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="N9" s="61" t="s">
-        <v>670</v>
-      </c>
-      <c r="O9" s="59" t="s">
-        <v>761</v>
-      </c>
-      <c r="P9" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q9" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="R9" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="S9" s="59" t="s">
-        <v>672</v>
-      </c>
-      <c r="T9" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="U9" s="59" t="s">
-        <v>673</v>
-      </c>
-      <c r="V9" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="W9" s="59" t="s">
-        <v>674</v>
-      </c>
-      <c r="X9" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y9" s="59" t="s">
-        <v>677</v>
-      </c>
-      <c r="Z9" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="AA9" s="59" t="s">
-        <v>678</v>
-      </c>
-      <c r="AB9" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="AC9" s="59" t="s">
-        <v>679</v>
-      </c>
-      <c r="AD9" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="AE9" s="59" t="s">
-        <v>680</v>
-      </c>
-      <c r="AF9" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AG9" s="59" t="s">
-        <v>675</v>
-      </c>
-      <c r="AH9" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AI9" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="AJ9" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AK9" s="59" t="s">
-        <v>676</v>
-      </c>
-      <c r="AL9" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM9" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="AN9" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="AO9" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="AP9" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ9" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="AR9" s="68" t="s">
-        <v>326</v>
-      </c>
-      <c r="AS9" s="62" t="s">
-        <v>798</v>
-      </c>
-      <c r="AT9" s="68" t="s">
-        <v>326</v>
-      </c>
-      <c r="AU9" s="62" t="s">
-        <v>798</v>
-      </c>
-      <c r="AV9" s="68" t="s">
-        <v>326</v>
-      </c>
-      <c r="AW9" s="62" t="s">
-        <v>798</v>
-      </c>
-      <c r="AX9" s="68" t="s">
-        <v>326</v>
-      </c>
-      <c r="AY9" s="62" t="s">
-        <v>798</v>
-      </c>
-      <c r="AZ9" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="BA9" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="BB9" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="BC9" s="59" t="s">
-        <v>799</v>
-      </c>
-      <c r="BD9" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="BE9" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="BF9" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="BG9" s="59" t="s">
-        <v>702</v>
-      </c>
-      <c r="BH9" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="BI9" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="BJ9" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="BK9" s="59" t="s">
-        <v>701</v>
-      </c>
-      <c r="BL9" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="BM9" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="BN9" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="BO9" s="59" t="s">
-        <v>807</v>
-      </c>
-      <c r="BP9" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="BQ9" s="59" t="s">
-        <v>808</v>
-      </c>
-      <c r="BR9" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="BS9" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="BT9" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="BU9" s="59" t="s">
-        <v>698</v>
-      </c>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="59"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="109"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="68"/>
+      <c r="AS9" s="62"/>
+      <c r="AT9" s="68"/>
+      <c r="AU9" s="62"/>
+      <c r="AV9" s="68"/>
+      <c r="AW9" s="62"/>
+      <c r="AX9" s="68"/>
+      <c r="AY9" s="62"/>
+      <c r="AZ9" s="61"/>
+      <c r="BA9" s="59"/>
+      <c r="BB9" s="60"/>
+      <c r="BC9" s="59"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="59"/>
+      <c r="BF9" s="86"/>
+      <c r="BG9" s="59"/>
+      <c r="BH9" s="61"/>
+      <c r="BI9" s="59"/>
+      <c r="BJ9" s="59"/>
+      <c r="BK9" s="59"/>
+      <c r="BL9" s="61"/>
+      <c r="BM9" s="59"/>
+      <c r="BN9" s="61"/>
+      <c r="BO9" s="59"/>
+      <c r="BP9" s="86"/>
+      <c r="BQ9" s="59"/>
+      <c r="BR9" s="61"/>
+      <c r="BS9" s="59"/>
+      <c r="BT9" s="60"/>
+      <c r="BU9" s="59"/>
       <c r="BV9" s="59"/>
       <c r="BW9" s="59"/>
       <c r="BX9" s="59"/>
@@ -11525,309 +10075,107 @@
       <c r="DQ9" s="59"/>
     </row>
     <row r="10" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A10" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>767</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>525</v>
-      </c>
-      <c r="F10" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G10" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H10" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="I10" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="J10" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="K10" s="59" t="s">
-        <v>685</v>
-      </c>
-      <c r="L10" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="M10" s="59" t="s">
-        <v>681</v>
-      </c>
-      <c r="N10" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="O10" s="62" t="s">
-        <v>526</v>
-      </c>
-      <c r="P10" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q10" s="59" t="s">
-        <v>527</v>
-      </c>
-      <c r="R10" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="S10" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="T10" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="U10" s="59" t="s">
-        <v>686</v>
-      </c>
-      <c r="V10" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="W10" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="X10" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="Y10" s="59" t="s">
-        <v>687</v>
-      </c>
-      <c r="Z10" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="AA10" s="59" t="s">
-        <v>688</v>
-      </c>
-      <c r="AB10" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="AC10" s="59" t="s">
-        <v>689</v>
-      </c>
-      <c r="AD10" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE10" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="AF10" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AG10" s="59" t="s">
-        <v>684</v>
-      </c>
-      <c r="AH10" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AI10" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="AJ10" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK10" s="62" t="s">
-        <v>528</v>
-      </c>
-      <c r="AL10" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM10" s="59" t="s">
-        <v>527</v>
-      </c>
-      <c r="AN10" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="AO10" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="AP10" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="AQ10" s="59" t="s">
-        <v>690</v>
-      </c>
-      <c r="AR10" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="AS10" s="59" t="s">
-        <v>691</v>
-      </c>
-      <c r="AT10" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="AU10" s="59" t="s">
-        <v>692</v>
-      </c>
-      <c r="AV10" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="AW10" s="59" t="s">
-        <v>693</v>
-      </c>
-      <c r="AX10" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="AY10" s="59" t="s">
-        <v>707</v>
-      </c>
-      <c r="AZ10" s="62" t="s">
-        <v>796</v>
-      </c>
-      <c r="BA10" s="62" t="s">
-        <v>800</v>
-      </c>
-      <c r="BB10" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="BC10" s="59" t="s">
-        <v>809</v>
-      </c>
-      <c r="BD10" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="BE10" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="BF10" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="BG10" s="59" t="s">
-        <v>698</v>
-      </c>
-      <c r="BH10" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI10" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="BJ10" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="BK10" s="59" t="s">
-        <v>704</v>
-      </c>
-      <c r="BL10" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="BM10" s="59" t="s">
-        <v>705</v>
-      </c>
-      <c r="BN10" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="BO10" s="59" t="s">
-        <v>694</v>
-      </c>
-      <c r="BP10" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="BQ10" s="59" t="s">
-        <v>695</v>
-      </c>
-      <c r="BR10" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="BS10" s="59" t="s">
-        <v>696</v>
-      </c>
-      <c r="BT10" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="BU10" s="59" t="s">
-        <v>697</v>
-      </c>
-      <c r="BV10" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="BW10" s="59" t="s">
-        <v>699</v>
-      </c>
-      <c r="BX10" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="BY10" s="59" t="s">
-        <v>706</v>
-      </c>
-      <c r="BZ10" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="CA10" s="59" t="s">
-        <v>703</v>
-      </c>
-      <c r="CB10" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="CC10" s="59" t="s">
-        <v>700</v>
-      </c>
-      <c r="CD10" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="CE10" s="59" t="s">
-        <v>705</v>
-      </c>
-      <c r="CF10" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="CG10" s="59" t="s">
-        <v>709</v>
-      </c>
-      <c r="CH10" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="CI10" s="109" t="s">
-        <v>708</v>
-      </c>
-      <c r="CJ10" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="CK10" s="59" t="s">
-        <v>699</v>
-      </c>
-      <c r="CL10" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="CM10" s="109" t="s">
-        <v>708</v>
-      </c>
-      <c r="CN10" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="CO10" s="59" t="s">
-        <v>810</v>
-      </c>
-      <c r="CP10" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="CQ10" s="59" t="s">
-        <v>711</v>
-      </c>
-      <c r="CR10" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="CS10" s="109" t="s">
-        <v>708</v>
-      </c>
-      <c r="CT10" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="CU10" s="59" t="s">
-        <v>710</v>
-      </c>
-      <c r="CV10" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="CW10" s="59" t="s">
-        <v>712</v>
-      </c>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="109"/>
+      <c r="AO10" s="52"/>
+      <c r="AP10" s="86"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="86"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="59"/>
+      <c r="AV10" s="86"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="86"/>
+      <c r="AY10" s="59"/>
+      <c r="AZ10" s="62"/>
+      <c r="BA10" s="62"/>
+      <c r="BB10" s="86"/>
+      <c r="BC10" s="59"/>
+      <c r="BD10" s="61"/>
+      <c r="BE10" s="59"/>
+      <c r="BF10" s="60"/>
+      <c r="BG10" s="59"/>
+      <c r="BH10" s="59"/>
+      <c r="BI10" s="59"/>
+      <c r="BJ10" s="86"/>
+      <c r="BK10" s="59"/>
+      <c r="BL10" s="59"/>
+      <c r="BM10" s="59"/>
+      <c r="BN10" s="86"/>
+      <c r="BO10" s="59"/>
+      <c r="BP10" s="86"/>
+      <c r="BQ10" s="59"/>
+      <c r="BR10" s="86"/>
+      <c r="BS10" s="59"/>
+      <c r="BT10" s="86"/>
+      <c r="BU10" s="59"/>
+      <c r="BV10" s="86"/>
+      <c r="BW10" s="59"/>
+      <c r="BX10" s="60"/>
+      <c r="BY10" s="59"/>
+      <c r="BZ10" s="86"/>
+      <c r="CA10" s="59"/>
+      <c r="CB10" s="60"/>
+      <c r="CC10" s="59"/>
+      <c r="CD10" s="59"/>
+      <c r="CE10" s="59"/>
+      <c r="CF10" s="86"/>
+      <c r="CG10" s="59"/>
+      <c r="CH10" s="60"/>
+      <c r="CI10" s="109"/>
+      <c r="CJ10" s="86"/>
+      <c r="CK10" s="59"/>
+      <c r="CL10" s="60"/>
+      <c r="CM10" s="109"/>
+      <c r="CN10" s="86"/>
+      <c r="CO10" s="59"/>
+      <c r="CP10" s="60"/>
+      <c r="CQ10" s="59"/>
+      <c r="CR10" s="60"/>
+      <c r="CS10" s="109"/>
+      <c r="CT10" s="86"/>
+      <c r="CU10" s="59"/>
+      <c r="CV10" s="60"/>
+      <c r="CW10" s="59"/>
       <c r="CX10" s="59"/>
       <c r="CY10" s="59"/>
       <c r="CZ10" s="59"/>
@@ -11852,141 +10200,51 @@
       <c r="DS10" s="59"/>
     </row>
     <row r="11" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A11" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>768</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>529</v>
-      </c>
-      <c r="F11" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G11" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H11" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I11" s="62" t="s">
-        <v>530</v>
-      </c>
-      <c r="J11" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="K11" s="59" t="s">
-        <v>531</v>
-      </c>
-      <c r="L11" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M11" s="62" t="s">
-        <v>532</v>
-      </c>
-      <c r="N11" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="O11" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="P11" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q11" s="62" t="s">
-        <v>534</v>
-      </c>
-      <c r="R11" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="S11" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="T11" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="U11" s="52" t="s">
-        <v>667</v>
-      </c>
-      <c r="V11" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="W11" s="59" t="s">
-        <v>676</v>
-      </c>
-      <c r="X11" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y11" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="Z11" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA11" s="59" t="s">
-        <v>531</v>
-      </c>
-      <c r="AB11" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC11" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="AD11" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE11" s="62" t="s">
-        <v>532</v>
-      </c>
-      <c r="AF11" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG11" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="AH11" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="AI11" s="52" t="s">
-        <v>667</v>
-      </c>
-      <c r="AJ11" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AK11" s="59" t="s">
-        <v>802</v>
-      </c>
-      <c r="AL11" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM11" s="59" t="s">
-        <v>531</v>
-      </c>
-      <c r="AN11" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AO11" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="AP11" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="AQ11" s="52" t="s">
-        <v>667</v>
-      </c>
-      <c r="AR11" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS11" s="59" t="s">
-        <v>801</v>
-      </c>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="109"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="109"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="61"/>
+      <c r="AO11" s="59"/>
+      <c r="AP11" s="109"/>
+      <c r="AQ11" s="52"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="59"/>
       <c r="AT11" s="59"/>
       <c r="AU11" s="59"/>
       <c r="AV11" s="59"/>
@@ -12065,165 +10323,59 @@
       <c r="DQ11" s="59"/>
     </row>
     <row r="12" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A12" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>769</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>535</v>
-      </c>
-      <c r="F12" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G12" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H12" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I12" s="62" t="s">
-        <v>536</v>
-      </c>
-      <c r="J12" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="K12" s="59" t="s">
-        <v>531</v>
-      </c>
-      <c r="L12" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="M12" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="N12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="O12" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="P12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q12" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="R12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="S12" s="52" t="s">
-        <v>667</v>
-      </c>
-      <c r="T12" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="U12" s="59" t="s">
-        <v>713</v>
-      </c>
-      <c r="V12" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="W12" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="X12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y12" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="Z12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA12" s="52" t="s">
-        <v>667</v>
-      </c>
-      <c r="AB12" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC12" s="59" t="s">
-        <v>764</v>
-      </c>
-      <c r="AD12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE12" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="AF12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG12" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="AH12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="AI12" s="52" t="s">
-        <v>667</v>
-      </c>
-      <c r="AJ12" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK12" s="59" t="s">
-        <v>700</v>
-      </c>
-      <c r="AL12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="AM12" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="AN12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="AO12" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="AP12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="AQ12" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="AR12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="AS12" s="52" t="s">
-        <v>667</v>
-      </c>
-      <c r="AT12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="AU12" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="AV12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="AW12" s="110" t="s">
-        <v>665</v>
-      </c>
-      <c r="AX12" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="AY12" s="52" t="s">
-        <v>667</v>
-      </c>
-      <c r="AZ12" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="BA12" s="59" t="s">
-        <v>700</v>
-      </c>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="110"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="109"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="109"/>
+      <c r="AG12" s="110"/>
+      <c r="AH12" s="109"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="109"/>
+      <c r="AM12" s="110"/>
+      <c r="AN12" s="109"/>
+      <c r="AO12" s="110"/>
+      <c r="AP12" s="109"/>
+      <c r="AQ12" s="110"/>
+      <c r="AR12" s="109"/>
+      <c r="AS12" s="52"/>
+      <c r="AT12" s="109"/>
+      <c r="AU12" s="110"/>
+      <c r="AV12" s="109"/>
+      <c r="AW12" s="110"/>
+      <c r="AX12" s="109"/>
+      <c r="AY12" s="52"/>
+      <c r="AZ12" s="30"/>
+      <c r="BA12" s="59"/>
       <c r="BB12" s="59"/>
       <c r="BC12" s="59"/>
       <c r="BD12" s="59"/>
@@ -12292,177 +10444,63 @@
       <c r="DO12" s="59"/>
     </row>
     <row r="13" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A13" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>770</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>540</v>
-      </c>
-      <c r="F13" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H13" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I13" s="62" t="s">
-        <v>536</v>
-      </c>
-      <c r="J13" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="K13" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="L13" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="M13" s="59" t="s">
-        <v>716</v>
-      </c>
-      <c r="N13" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="O13" s="62" t="s">
-        <v>537</v>
-      </c>
-      <c r="P13" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q13" s="59" t="s">
-        <v>705</v>
-      </c>
-      <c r="R13" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="S13" s="59" t="s">
-        <v>694</v>
-      </c>
-      <c r="T13" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="U13" s="59" t="s">
-        <v>695</v>
-      </c>
-      <c r="V13" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="W13" s="59" t="s">
-        <v>696</v>
-      </c>
-      <c r="X13" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y13" s="59" t="s">
-        <v>697</v>
-      </c>
-      <c r="Z13" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA13" s="59" t="s">
-        <v>699</v>
-      </c>
-      <c r="AB13" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC13" s="59" t="s">
-        <v>706</v>
-      </c>
-      <c r="AD13" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AE13" s="59" t="s">
-        <v>703</v>
-      </c>
-      <c r="AF13" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG13" s="59" t="s">
-        <v>700</v>
-      </c>
-      <c r="AH13" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI13" s="59" t="s">
-        <v>705</v>
-      </c>
-      <c r="AJ13" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AK13" s="59" t="s">
-        <v>709</v>
-      </c>
-      <c r="AL13" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="AM13" s="109" t="s">
-        <v>708</v>
-      </c>
-      <c r="AN13" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AO13" s="59" t="s">
-        <v>699</v>
-      </c>
-      <c r="AP13" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="AQ13" s="109" t="s">
-        <v>708</v>
-      </c>
-      <c r="AR13" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AS13" s="59" t="s">
-        <v>810</v>
-      </c>
-      <c r="AT13" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AU13" s="59" t="s">
-        <v>711</v>
-      </c>
-      <c r="AV13" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="AW13" s="109" t="s">
-        <v>708</v>
-      </c>
-      <c r="AX13" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AY13" s="59" t="s">
-        <v>710</v>
-      </c>
-      <c r="AZ13" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="BA13" s="59" t="s">
-        <v>712</v>
-      </c>
-      <c r="BB13" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="BC13" s="59" t="s">
-        <v>703</v>
-      </c>
-      <c r="BD13" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="BE13" s="59" t="s">
-        <v>717</v>
-      </c>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="60"/>
+      <c r="AM13" s="109"/>
+      <c r="AN13" s="86"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="60"/>
+      <c r="AQ13" s="109"/>
+      <c r="AR13" s="86"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="60"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="60"/>
+      <c r="AW13" s="109"/>
+      <c r="AX13" s="86"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="86"/>
+      <c r="BC13" s="59"/>
+      <c r="BD13" s="60"/>
+      <c r="BE13" s="59"/>
       <c r="BF13" s="59"/>
       <c r="BG13" s="59"/>
       <c r="BH13" s="59"/>
@@ -12535,123 +10573,45 @@
       <c r="DW13" s="59"/>
     </row>
     <row r="14" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A14" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>771</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>541</v>
-      </c>
-      <c r="F14" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G14" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H14" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I14" s="62" t="s">
-        <v>536</v>
-      </c>
-      <c r="J14" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="K14" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="L14" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="M14" s="59" t="s">
-        <v>702</v>
-      </c>
-      <c r="N14" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="O14" s="62" t="s">
-        <v>537</v>
-      </c>
-      <c r="P14" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q14" s="59" t="s">
-        <v>527</v>
-      </c>
-      <c r="R14" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="S14" s="59" t="s">
-        <v>721</v>
-      </c>
-      <c r="T14" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="U14" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="V14" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="W14" s="59" t="s">
-        <v>539</v>
-      </c>
-      <c r="X14" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="Y14" s="59" t="s">
-        <v>722</v>
-      </c>
-      <c r="Z14" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA14" s="109" t="s">
-        <v>708</v>
-      </c>
-      <c r="AB14" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AC14" s="59" t="s">
-        <v>723</v>
-      </c>
-      <c r="AD14" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE14" s="109" t="s">
-        <v>708</v>
-      </c>
-      <c r="AF14" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AG14" s="59" t="s">
-        <v>724</v>
-      </c>
-      <c r="AH14" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="AI14" s="109" t="s">
-        <v>708</v>
-      </c>
-      <c r="AJ14" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AK14" s="59" t="s">
-        <v>725</v>
-      </c>
-      <c r="AL14" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AM14" s="59" t="s">
-        <v>727</v>
-      </c>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="109"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="109"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="109"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="59"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="59"/>
       <c r="AN14" s="59"/>
       <c r="AO14" s="59"/>
       <c r="AP14" s="62"/>
@@ -12744,93 +10704,35 @@
       <c r="DY14" s="59"/>
     </row>
     <row r="15" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A15" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>772</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>542</v>
-      </c>
-      <c r="F15" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G15" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H15" s="102" t="s">
-        <v>199</v>
-      </c>
-      <c r="I15" s="59" t="s">
-        <v>520</v>
-      </c>
-      <c r="J15" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="K15" s="62" t="s">
-        <v>543</v>
-      </c>
-      <c r="L15" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="M15" s="59" t="s">
-        <v>729</v>
-      </c>
-      <c r="N15" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="O15" s="59" t="s">
-        <v>728</v>
-      </c>
-      <c r="P15" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q15" s="59" t="s">
-        <v>811</v>
-      </c>
-      <c r="R15" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="S15" s="59" t="s">
-        <v>812</v>
-      </c>
-      <c r="T15" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="U15" s="59" t="s">
-        <v>813</v>
-      </c>
-      <c r="V15" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="W15" s="59" t="s">
-        <v>814</v>
-      </c>
-      <c r="X15" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y15" s="59" t="s">
-        <v>815</v>
-      </c>
-      <c r="Z15" s="86" t="s">
-        <v>603</v>
-      </c>
-      <c r="AA15" s="59" t="s">
-        <v>816</v>
-      </c>
-      <c r="AB15" s="86" t="s">
-        <v>603</v>
-      </c>
-      <c r="AC15" s="59" t="s">
-        <v>739</v>
-      </c>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="59"/>
       <c r="AE15" s="62"/>
       <c r="AF15" s="62"/>
       <c r="AG15" s="59"/>
@@ -12936,75 +10838,29 @@
       <c r="EC15" s="59"/>
     </row>
     <row r="16" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A16" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>773</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>544</v>
-      </c>
-      <c r="F16" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G16" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H16" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I16" s="62" t="s">
-        <v>545</v>
-      </c>
-      <c r="J16" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="K16" s="59" t="s">
-        <v>803</v>
-      </c>
-      <c r="L16" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="M16" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="N16" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="O16" s="59" t="s">
-        <v>546</v>
-      </c>
-      <c r="P16" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q16" s="62" t="s">
-        <v>547</v>
-      </c>
-      <c r="R16" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="S16" s="59" t="s">
-        <v>817</v>
-      </c>
-      <c r="T16" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="U16" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="V16" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="W16" s="59" t="s">
-        <v>730</v>
-      </c>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="59"/>
       <c r="X16" s="62"/>
       <c r="Y16" s="62"/>
       <c r="Z16" s="62"/>
@@ -13115,39 +10971,17 @@
       <c r="EA16" s="59"/>
     </row>
     <row r="17" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A17" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>774</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>548</v>
-      </c>
-      <c r="F17" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G17" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H17" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I17" s="62" t="s">
-        <v>549</v>
-      </c>
-      <c r="J17" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="K17" s="59" t="s">
-        <v>550</v>
-      </c>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="86"/>
       <c r="M17" s="59"/>
       <c r="N17" s="86"/>
@@ -13270,81 +11104,31 @@
       <c r="EA17" s="59"/>
     </row>
     <row r="18" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A18" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>775</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>551</v>
-      </c>
-      <c r="F18" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G18" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H18" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I18" s="62" t="s">
-        <v>552</v>
-      </c>
-      <c r="J18" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="K18" s="59" t="s">
-        <v>553</v>
-      </c>
-      <c r="L18" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M18" s="62" t="s">
-        <v>554</v>
-      </c>
-      <c r="N18" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="O18" s="59" t="s">
-        <v>732</v>
-      </c>
-      <c r="P18" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q18" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="R18" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="S18" s="59" t="s">
-        <v>553</v>
-      </c>
-      <c r="T18" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="U18" s="59" t="s">
-        <v>731</v>
-      </c>
-      <c r="V18" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="W18" s="62" t="s">
-        <v>555</v>
-      </c>
-      <c r="X18" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y18" s="59" t="s">
-        <v>556</v>
-      </c>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="59"/>
       <c r="Z18" s="62"/>
       <c r="AA18" s="62"/>
       <c r="AB18" s="59"/>
@@ -13457,99 +11241,37 @@
       <c r="EE18" s="59"/>
     </row>
     <row r="19" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A19" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>776</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>557</v>
-      </c>
-      <c r="F19" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G19" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H19" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I19" s="62" t="s">
-        <v>558</v>
-      </c>
-      <c r="J19" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="59" t="s">
-        <v>553</v>
-      </c>
-      <c r="L19" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M19" s="62" t="s">
-        <v>559</v>
-      </c>
-      <c r="N19" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="O19" s="59" t="s">
-        <v>732</v>
-      </c>
-      <c r="P19" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q19" s="62" t="s">
-        <v>555</v>
-      </c>
-      <c r="R19" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="S19" s="59" t="s">
-        <v>560</v>
-      </c>
-      <c r="T19" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="U19" s="62" t="s">
-        <v>561</v>
-      </c>
-      <c r="V19" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="W19" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="X19" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y19" s="59" t="s">
-        <v>553</v>
-      </c>
-      <c r="Z19" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA19" s="59" t="s">
-        <v>732</v>
-      </c>
-      <c r="AB19" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC19" s="62" t="s">
-        <v>562</v>
-      </c>
-      <c r="AD19" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE19" s="59" t="s">
-        <v>550</v>
-      </c>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="59"/>
       <c r="AF19" s="59"/>
       <c r="AG19" s="59"/>
       <c r="AH19" s="59"/>
@@ -13652,87 +11374,33 @@
       <c r="EA19" s="59"/>
     </row>
     <row r="20" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A20" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>777</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>563</v>
-      </c>
-      <c r="F20" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G20" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H20" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I20" s="62" t="s">
-        <v>563</v>
-      </c>
-      <c r="J20" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="K20" s="59" t="s">
-        <v>553</v>
-      </c>
-      <c r="L20" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M20" s="62" t="s">
-        <v>559</v>
-      </c>
-      <c r="N20" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="O20" s="59" t="s">
-        <v>732</v>
-      </c>
-      <c r="P20" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="62" t="s">
-        <v>555</v>
-      </c>
-      <c r="R20" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="S20" s="59" t="s">
-        <v>560</v>
-      </c>
-      <c r="T20" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="U20" s="62" t="s">
-        <v>564</v>
-      </c>
-      <c r="V20" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="W20" s="59" t="s">
-        <v>565</v>
-      </c>
-      <c r="X20" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y20" s="62" t="s">
-        <v>562</v>
-      </c>
-      <c r="Z20" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA20" s="59" t="s">
-        <v>550</v>
-      </c>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="59"/>
       <c r="AB20" s="68"/>
       <c r="AC20" s="62"/>
       <c r="AD20" s="86"/>
@@ -13839,99 +11507,37 @@
       <c r="EA20" s="59"/>
     </row>
     <row r="21" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A21" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>789</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>566</v>
-      </c>
-      <c r="F21" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G21" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H21" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I21" s="62" t="s">
-        <v>567</v>
-      </c>
-      <c r="J21" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="K21" s="59" t="s">
-        <v>568</v>
-      </c>
-      <c r="L21" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M21" s="62" t="s">
-        <v>569</v>
-      </c>
-      <c r="N21" s="96" t="s">
-        <v>796</v>
-      </c>
-      <c r="O21" s="62" t="s">
-        <v>797</v>
-      </c>
-      <c r="P21" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q21" s="59" t="s">
-        <v>550</v>
-      </c>
-      <c r="R21" s="62" t="s">
-        <v>796</v>
-      </c>
-      <c r="S21" s="62" t="s">
-        <v>804</v>
-      </c>
-      <c r="T21" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="U21" s="59" t="s">
-        <v>817</v>
-      </c>
-      <c r="V21" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="W21" s="59" t="s">
-        <v>730</v>
-      </c>
-      <c r="X21" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y21" s="59" t="s">
-        <v>568</v>
-      </c>
-      <c r="Z21" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA21" s="62" t="s">
-        <v>569</v>
-      </c>
-      <c r="AB21" s="96" t="s">
-        <v>796</v>
-      </c>
-      <c r="AC21" s="62" t="s">
-        <v>797</v>
-      </c>
-      <c r="AD21" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE21" s="59" t="s">
-        <v>550</v>
-      </c>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="96"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="59"/>
       <c r="AF21" s="59"/>
       <c r="AG21" s="59"/>
       <c r="AH21" s="59"/>
@@ -14030,57 +11636,23 @@
       <c r="DW21" s="59"/>
     </row>
     <row r="22" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A22" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>778</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>570</v>
-      </c>
-      <c r="F22" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G22" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H22" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I22" s="62" t="s">
-        <v>571</v>
-      </c>
-      <c r="J22" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="K22" s="59" t="s">
-        <v>572</v>
-      </c>
-      <c r="L22" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M22" s="62" t="s">
-        <v>573</v>
-      </c>
-      <c r="N22" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="O22" s="59" t="s">
-        <v>574</v>
-      </c>
-      <c r="P22" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q22" s="59" t="s">
-        <v>575</v>
-      </c>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="59"/>
       <c r="R22" s="59"/>
       <c r="S22" s="59"/>
       <c r="T22" s="59"/>
@@ -14193,87 +11765,33 @@
       <c r="DW22" s="59"/>
     </row>
     <row r="23" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A23" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>779</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>576</v>
-      </c>
-      <c r="F23" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G23" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H23" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I23" s="62" t="s">
-        <v>577</v>
-      </c>
-      <c r="J23" s="61" t="s">
-        <v>524</v>
-      </c>
-      <c r="K23" s="59" t="s">
-        <v>578</v>
-      </c>
-      <c r="L23" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M23" s="62" t="s">
-        <v>579</v>
-      </c>
-      <c r="N23" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="O23" s="59" t="s">
-        <v>580</v>
-      </c>
-      <c r="P23" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q23" s="62" t="s">
-        <v>581</v>
-      </c>
-      <c r="R23" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="S23" s="59" t="s">
-        <v>582</v>
-      </c>
-      <c r="T23" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="U23" s="62" t="s">
-        <v>583</v>
-      </c>
-      <c r="V23" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="W23" s="59" t="s">
-        <v>584</v>
-      </c>
-      <c r="X23" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y23" s="62" t="s">
-        <v>585</v>
-      </c>
-      <c r="Z23" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA23" s="59" t="s">
-        <v>586</v>
-      </c>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="59"/>
       <c r="AB23" s="59"/>
       <c r="AC23" s="59"/>
       <c r="AD23" s="59"/>
@@ -14376,87 +11894,33 @@
       <c r="DW23" s="59"/>
     </row>
     <row r="24" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A24" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>780</v>
-      </c>
-      <c r="D24" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>587</v>
-      </c>
-      <c r="F24" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G24" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H24" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I24" s="62" t="s">
-        <v>588</v>
-      </c>
-      <c r="J24" s="61" t="s">
-        <v>524</v>
-      </c>
-      <c r="K24" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="L24" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M24" s="62" t="s">
-        <v>590</v>
-      </c>
-      <c r="N24" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="O24" s="59" t="s">
-        <v>591</v>
-      </c>
-      <c r="P24" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q24" s="62" t="s">
-        <v>592</v>
-      </c>
-      <c r="R24" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="S24" s="59" t="s">
-        <v>593</v>
-      </c>
-      <c r="T24" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="U24" s="62" t="s">
-        <v>594</v>
-      </c>
-      <c r="V24" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="W24" s="59" t="s">
-        <v>595</v>
-      </c>
-      <c r="X24" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y24" s="62" t="s">
-        <v>596</v>
-      </c>
-      <c r="Z24" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA24" s="59" t="s">
-        <v>597</v>
-      </c>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="59"/>
       <c r="AB24" s="59"/>
       <c r="AC24" s="59"/>
       <c r="AD24" s="59"/>
@@ -14559,123 +12023,45 @@
       <c r="DW24" s="59"/>
     </row>
     <row r="25" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A25" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>790</v>
-      </c>
-      <c r="D25" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>598</v>
-      </c>
-      <c r="F25" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G25" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H25" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I25" s="62" t="s">
-        <v>599</v>
-      </c>
-      <c r="J25" s="61" t="s">
-        <v>524</v>
-      </c>
-      <c r="K25" s="59" t="s">
-        <v>600</v>
-      </c>
-      <c r="L25" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M25" s="62" t="s">
-        <v>601</v>
-      </c>
-      <c r="N25" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="O25" s="59" t="s">
-        <v>602</v>
-      </c>
-      <c r="P25" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q25" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="R25" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="S25" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="T25" s="61" t="s">
-        <v>603</v>
-      </c>
-      <c r="U25" s="59" t="s">
-        <v>604</v>
-      </c>
-      <c r="V25" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="W25" s="62" t="s">
-        <v>605</v>
-      </c>
-      <c r="X25" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y25" s="59" t="s">
-        <v>606</v>
-      </c>
-      <c r="Z25" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA25" s="59" t="s">
-        <v>527</v>
-      </c>
-      <c r="AB25" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC25" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="AD25" s="61" t="s">
-        <v>603</v>
-      </c>
-      <c r="AE25" s="59" t="s">
-        <v>607</v>
-      </c>
-      <c r="AF25" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG25" s="62" t="s">
-        <v>608</v>
-      </c>
-      <c r="AH25" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI25" s="59" t="s">
-        <v>609</v>
-      </c>
-      <c r="AJ25" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK25" s="62" t="s">
-        <v>610</v>
-      </c>
-      <c r="AL25" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM25" s="59" t="s">
-        <v>611</v>
-      </c>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="68"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="68"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="86"/>
+      <c r="AM25" s="59"/>
       <c r="AN25" s="59"/>
       <c r="AO25" s="59"/>
       <c r="AP25" s="59"/>
@@ -14766,63 +12152,25 @@
       <c r="DW25" s="59"/>
     </row>
     <row r="26" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A26" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>781</v>
-      </c>
-      <c r="D26" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>612</v>
-      </c>
-      <c r="F26" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G26" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H26" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I26" s="62" t="s">
-        <v>613</v>
-      </c>
-      <c r="J26" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="K26" s="59" t="s">
-        <v>550</v>
-      </c>
-      <c r="L26" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M26" s="62" t="s">
-        <v>614</v>
-      </c>
-      <c r="N26" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="O26" s="59" t="s">
-        <v>615</v>
-      </c>
-      <c r="P26" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q26" s="62" t="s">
-        <v>616</v>
-      </c>
-      <c r="R26" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="S26" s="59" t="s">
-        <v>617</v>
-      </c>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="59"/>
       <c r="T26" s="59"/>
       <c r="U26" s="59"/>
       <c r="V26" s="61"/>
@@ -14935,75 +12283,29 @@
       <c r="DY26" s="59"/>
     </row>
     <row r="27" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A27" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>782</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>618</v>
-      </c>
-      <c r="F27" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G27" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H27" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I27" s="62" t="s">
-        <v>619</v>
-      </c>
-      <c r="J27" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="K27" s="59" t="s">
-        <v>620</v>
-      </c>
-      <c r="L27" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M27" s="62" t="s">
-        <v>621</v>
-      </c>
-      <c r="N27" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="O27" s="59" t="s">
-        <v>622</v>
-      </c>
-      <c r="P27" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q27" s="62" t="s">
-        <v>623</v>
-      </c>
-      <c r="R27" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="S27" s="59" t="s">
-        <v>805</v>
-      </c>
-      <c r="T27" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="U27" s="59" t="s">
-        <v>733</v>
-      </c>
-      <c r="V27" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="W27" s="59" t="s">
-        <v>734</v>
-      </c>
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="59"/>
       <c r="X27" s="59"/>
       <c r="Y27" s="59"/>
       <c r="Z27" s="59"/>
@@ -15110,117 +12412,43 @@
       <c r="DW27" s="59"/>
     </row>
     <row r="28" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A28" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>783</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>624</v>
-      </c>
-      <c r="F28" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G28" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H28" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I28" s="62" t="s">
-        <v>625</v>
-      </c>
-      <c r="J28" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="K28" s="59" t="s">
-        <v>626</v>
-      </c>
-      <c r="L28" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="M28" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="N28" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="O28" s="62" t="s">
-        <v>627</v>
-      </c>
-      <c r="P28" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q28" s="59" t="s">
-        <v>628</v>
-      </c>
-      <c r="R28" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="S28" s="62" t="s">
-        <v>629</v>
-      </c>
-      <c r="T28" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="U28" s="59" t="s">
-        <v>630</v>
-      </c>
-      <c r="V28" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="W28" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="X28" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y28" s="62" t="s">
-        <v>631</v>
-      </c>
-      <c r="Z28" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA28" s="59" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB28" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC28" s="62" t="s">
-        <v>633</v>
-      </c>
-      <c r="AD28" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE28" s="59" t="s">
-        <v>634</v>
-      </c>
-      <c r="AF28" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG28" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="AH28" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI28" s="62" t="s">
-        <v>635</v>
-      </c>
-      <c r="AJ28" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AK28" s="59" t="s">
-        <v>636</v>
-      </c>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="68"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="68"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="90"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="68"/>
+      <c r="AI28" s="62"/>
+      <c r="AJ28" s="60"/>
+      <c r="AK28" s="59"/>
       <c r="AL28" s="59"/>
       <c r="AM28" s="59"/>
       <c r="AN28" s="59"/>
@@ -15313,147 +12541,53 @@
       <c r="DW28" s="59"/>
     </row>
     <row r="29" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A29" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>784</v>
-      </c>
-      <c r="D29" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>637</v>
-      </c>
-      <c r="F29" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G29" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H29" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I29" s="62" t="s">
-        <v>638</v>
-      </c>
-      <c r="J29" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="K29" s="59" t="s">
-        <v>639</v>
-      </c>
-      <c r="L29" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="M29" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="N29" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="O29" s="62" t="s">
-        <v>640</v>
-      </c>
-      <c r="P29" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q29" s="59" t="s">
-        <v>641</v>
-      </c>
-      <c r="R29" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="S29" s="62" t="s">
-        <v>642</v>
-      </c>
-      <c r="T29" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="U29" s="59" t="s">
-        <v>643</v>
-      </c>
-      <c r="V29" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="W29" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="X29" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y29" s="62" t="s">
-        <v>644</v>
-      </c>
-      <c r="Z29" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA29" s="59" t="s">
-        <v>645</v>
-      </c>
-      <c r="AB29" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC29" s="62" t="s">
-        <v>646</v>
-      </c>
-      <c r="AD29" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE29" s="59" t="s">
-        <v>647</v>
-      </c>
-      <c r="AF29" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG29" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="AH29" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI29" s="62" t="s">
-        <v>644</v>
-      </c>
-      <c r="AJ29" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AK29" s="59" t="s">
-        <v>645</v>
-      </c>
-      <c r="AL29" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="AM29" s="62" t="s">
-        <v>648</v>
-      </c>
-      <c r="AN29" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO29" s="59" t="s">
-        <v>649</v>
-      </c>
-      <c r="AP29" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AQ29" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="AR29" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="AS29" s="62" t="s">
-        <v>644</v>
-      </c>
-      <c r="AT29" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AU29" s="59" t="s">
-        <v>645</v>
-      </c>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="90"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="68"/>
+      <c r="AI29" s="62"/>
+      <c r="AJ29" s="60"/>
+      <c r="AK29" s="59"/>
+      <c r="AL29" s="68"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="90"/>
+      <c r="AO29" s="59"/>
+      <c r="AP29" s="61"/>
+      <c r="AQ29" s="59"/>
+      <c r="AR29" s="68"/>
+      <c r="AS29" s="62"/>
+      <c r="AT29" s="60"/>
+      <c r="AU29" s="59"/>
       <c r="AV29" s="59"/>
       <c r="AW29" s="59"/>
       <c r="AX29" s="59"/>
@@ -15536,93 +12670,35 @@
       <c r="DW29" s="59"/>
     </row>
     <row r="30" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A30" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>785</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>650</v>
-      </c>
-      <c r="F30" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G30" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H30" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I30" s="62" t="s">
-        <v>651</v>
-      </c>
-      <c r="J30" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="K30" s="59" t="s">
-        <v>652</v>
-      </c>
-      <c r="L30" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="M30" s="59" t="s">
-        <v>653</v>
-      </c>
-      <c r="N30" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="O30" s="62" t="s">
-        <v>654</v>
-      </c>
-      <c r="P30" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q30" s="62" t="s">
-        <v>599</v>
-      </c>
-      <c r="R30" s="61" t="s">
-        <v>524</v>
-      </c>
-      <c r="S30" s="59" t="s">
-        <v>600</v>
-      </c>
-      <c r="T30" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="U30" s="62" t="s">
-        <v>651</v>
-      </c>
-      <c r="V30" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="W30" s="59" t="s">
-        <v>652</v>
-      </c>
-      <c r="X30" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y30" s="62" t="s">
-        <v>655</v>
-      </c>
-      <c r="Z30" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA30" s="59" t="s">
-        <v>656</v>
-      </c>
-      <c r="AB30" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="AC30" s="59" t="s">
-        <v>657</v>
-      </c>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="68"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="59"/>
       <c r="AD30" s="59"/>
       <c r="AE30" s="59"/>
       <c r="AF30" s="59"/>
@@ -15723,111 +12799,41 @@
       <c r="DW30" s="59"/>
     </row>
     <row r="31" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A31" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>786</v>
-      </c>
-      <c r="D31" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E31" s="62" t="s">
-        <v>658</v>
-      </c>
-      <c r="F31" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G31" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H31" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="I31" s="62" t="s">
-        <v>659</v>
-      </c>
-      <c r="J31" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="K31" s="59" t="s">
-        <v>805</v>
-      </c>
-      <c r="L31" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="M31" s="59" t="s">
-        <v>817</v>
-      </c>
-      <c r="N31" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="O31" s="59" t="s">
-        <v>730</v>
-      </c>
-      <c r="P31" s="61" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q31" s="59" t="s">
-        <v>762</v>
-      </c>
-      <c r="R31" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="S31" s="59" t="s">
-        <v>735</v>
-      </c>
-      <c r="T31" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="U31" s="59" t="s">
-        <v>736</v>
-      </c>
-      <c r="V31" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="W31" s="59" t="s">
-        <v>737</v>
-      </c>
-      <c r="X31" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y31" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="Z31" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA31" s="59" t="s">
-        <v>660</v>
-      </c>
-      <c r="AB31" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC31" s="59" t="s">
-        <v>661</v>
-      </c>
-      <c r="AD31" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE31" s="62" t="s">
-        <v>662</v>
-      </c>
-      <c r="AF31" s="61" t="s">
-        <v>670</v>
-      </c>
-      <c r="AG31" s="59" t="s">
-        <v>762</v>
-      </c>
-      <c r="AH31" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="AI31" s="59" t="s">
-        <v>738</v>
-      </c>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="68"/>
+      <c r="AE31" s="62"/>
+      <c r="AF31" s="61"/>
+      <c r="AG31" s="59"/>
+      <c r="AH31" s="61"/>
+      <c r="AI31" s="59"/>
       <c r="AJ31" s="59"/>
       <c r="AK31" s="59"/>
       <c r="AL31" s="59"/>
@@ -15905,93 +12911,35 @@
       <c r="DK31" s="59"/>
     </row>
     <row r="32" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A32" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>787</v>
-      </c>
-      <c r="D32" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>663</v>
-      </c>
-      <c r="F32" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G32" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H32" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="I32" s="59" t="s">
-        <v>664</v>
-      </c>
-      <c r="J32" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="K32" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="L32" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="M32" s="59" t="s">
-        <v>665</v>
-      </c>
-      <c r="N32" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="O32" s="62" t="s">
-        <v>666</v>
-      </c>
-      <c r="P32" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q32" s="59" t="s">
-        <v>667</v>
-      </c>
-      <c r="R32" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="S32" s="59" t="s">
-        <v>676</v>
-      </c>
-      <c r="T32" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="U32" s="62" t="s">
-        <v>668</v>
-      </c>
-      <c r="V32" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="W32" s="59" t="s">
-        <v>664</v>
-      </c>
-      <c r="X32" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y32" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="Z32" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA32" s="59" t="s">
-        <v>667</v>
-      </c>
-      <c r="AB32" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC32" s="59" t="s">
-        <v>698</v>
-      </c>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="59"/>
       <c r="AD32" s="59"/>
       <c r="AE32" s="59"/>
       <c r="AF32" s="59"/>
@@ -16096,213 +13044,75 @@
       <c r="EA32" s="59"/>
     </row>
     <row r="33" spans="1:166" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
-      <c r="A33" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>788</v>
-      </c>
-      <c r="D33" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" s="62" t="s">
-        <v>755</v>
-      </c>
-      <c r="F33" s="106" t="s">
-        <v>499</v>
-      </c>
-      <c r="G33" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="H33" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="I33" s="59" t="s">
-        <v>740</v>
-      </c>
-      <c r="J33" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="K33" s="59" t="s">
-        <v>742</v>
-      </c>
-      <c r="L33" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="M33" s="59" t="s">
-        <v>757</v>
-      </c>
-      <c r="N33" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="O33" s="59" t="s">
-        <v>740</v>
-      </c>
-      <c r="P33" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q33" s="59" t="s">
-        <v>743</v>
-      </c>
-      <c r="R33" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="S33" s="59" t="s">
-        <v>744</v>
-      </c>
-      <c r="T33" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="U33" s="59" t="s">
-        <v>665</v>
-      </c>
-      <c r="V33" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="W33" s="59" t="s">
-        <v>745</v>
-      </c>
-      <c r="X33" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y33" s="59" t="s">
-        <v>665</v>
-      </c>
-      <c r="Z33" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="AA33" s="59" t="s">
-        <v>746</v>
-      </c>
-      <c r="AB33" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AC33" s="59" t="s">
-        <v>747</v>
-      </c>
-      <c r="AD33" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE33" s="59" t="s">
-        <v>665</v>
-      </c>
-      <c r="AF33" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="AG33" s="59" t="s">
-        <v>748</v>
-      </c>
-      <c r="AH33" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AI33" s="59" t="s">
-        <v>749</v>
-      </c>
-      <c r="AJ33" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AK33" s="59" t="s">
-        <v>665</v>
-      </c>
-      <c r="AL33" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="AM33" s="59" t="s">
-        <v>750</v>
-      </c>
-      <c r="AN33" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AO33" s="59" t="s">
-        <v>751</v>
-      </c>
-      <c r="AP33" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AQ33" s="59" t="s">
-        <v>665</v>
-      </c>
-      <c r="AR33" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="AS33" s="59" t="s">
-        <v>752</v>
-      </c>
-      <c r="AT33" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AU33" s="59" t="s">
-        <v>753</v>
-      </c>
-      <c r="AV33" s="61" t="s">
-        <v>670</v>
-      </c>
-      <c r="AW33" s="59" t="s">
-        <v>806</v>
-      </c>
-      <c r="AX33" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="AY33" s="59" t="s">
-        <v>754</v>
-      </c>
-      <c r="AZ33" s="61" t="s">
-        <v>670</v>
-      </c>
-      <c r="BA33" s="59" t="s">
-        <v>763</v>
-      </c>
-      <c r="BB33" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="BC33" s="59" t="s">
-        <v>758</v>
-      </c>
-      <c r="BD33" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="BE33" s="59" t="s">
-        <v>760</v>
-      </c>
-      <c r="BF33" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="BG33" s="59" t="s">
-        <v>759</v>
-      </c>
-      <c r="BH33" s="62" t="s">
-        <v>719</v>
-      </c>
-      <c r="BI33" s="62" t="s">
-        <v>791</v>
-      </c>
-      <c r="BJ33" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="BK33" s="62" t="s">
-        <v>726</v>
-      </c>
-      <c r="BL33" s="62" t="s">
-        <v>719</v>
-      </c>
-      <c r="BM33" s="62" t="s">
-        <v>792</v>
-      </c>
-      <c r="BN33" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="BO33" s="62" t="s">
-        <v>671</v>
-      </c>
-      <c r="BP33" s="62" t="s">
-        <v>720</v>
-      </c>
-      <c r="BQ33" s="62" t="s">
-        <v>793</v>
-      </c>
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="86"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="61"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="86"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="61"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="61"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="86"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="61"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="61"/>
+      <c r="AS33" s="59"/>
+      <c r="AT33" s="86"/>
+      <c r="AU33" s="59"/>
+      <c r="AV33" s="61"/>
+      <c r="AW33" s="59"/>
+      <c r="AX33" s="86"/>
+      <c r="AY33" s="59"/>
+      <c r="AZ33" s="61"/>
+      <c r="BA33" s="59"/>
+      <c r="BB33" s="86"/>
+      <c r="BC33" s="59"/>
+      <c r="BD33" s="86"/>
+      <c r="BE33" s="59"/>
+      <c r="BF33" s="86"/>
+      <c r="BG33" s="59"/>
+      <c r="BH33" s="62"/>
+      <c r="BI33" s="62"/>
+      <c r="BJ33" s="62"/>
+      <c r="BK33" s="62"/>
+      <c r="BL33" s="62"/>
+      <c r="BM33" s="62"/>
+      <c r="BN33" s="62"/>
+      <c r="BO33" s="62"/>
+      <c r="BP33" s="62"/>
+      <c r="BQ33" s="62"/>
       <c r="BR33" s="59"/>
       <c r="BS33" s="59"/>
       <c r="BT33" s="59"/>
@@ -16374,60 +13184,24 @@
       <c r="G34" s="50"/>
       <c r="H34" s="60"/>
       <c r="I34" s="59"/>
-      <c r="J34" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="K34" s="59" t="s">
-        <v>741</v>
-      </c>
-      <c r="L34" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="M34" s="59" t="s">
-        <v>665</v>
-      </c>
-      <c r="N34" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="O34" s="62" t="s">
-        <v>666</v>
-      </c>
-      <c r="P34" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q34" s="59" t="s">
-        <v>667</v>
-      </c>
-      <c r="R34" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="S34" s="59" t="s">
-        <v>676</v>
-      </c>
-      <c r="T34" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="U34" s="62" t="s">
-        <v>668</v>
-      </c>
-      <c r="V34" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="W34" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="X34" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y34" s="59" t="s">
-        <v>667</v>
-      </c>
-      <c r="Z34" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA34" s="59" t="s">
-        <v>698</v>
-      </c>
+      <c r="J34" s="86"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="59"/>
       <c r="AB34" s="59"/>
       <c r="AC34" s="59"/>
       <c r="AD34" s="59"/>
@@ -21488,8 +18262,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0" topLeftCell="B877">
-      <selection activeCell="B895" sqref="B895"/>
+    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0">
+      <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
@@ -21500,8 +18274,8 @@
       <pageSetup orientation="portrait" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0" topLeftCell="B877">
+      <selection activeCell="B895" sqref="B895"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
@@ -21519,8 +18293,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -21593,7 +18367,7 @@
       <c r="B2" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="146" t="s">
         <v>141</v>
       </c>
       <c r="D2" s="30" t="s">
@@ -21619,8 +18393,8 @@
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="15.75">
       <c r="A3" s="54"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="155"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="30" t="s">
         <v>203</v>
       </c>
@@ -21649,7 +18423,7 @@
       <c r="B4" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="146" t="s">
         <v>142</v>
       </c>
       <c r="D4" s="30" t="s">
@@ -21675,8 +18449,8 @@
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="15.75">
       <c r="A5" s="54"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="155"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="147"/>
       <c r="D5" s="30" t="s">
         <v>208</v>
       </c>
@@ -21769,7 +18543,7 @@
       <c r="O7" s="25"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" ht="63">
-      <c r="A8" s="148">
+      <c r="A8" s="139">
         <v>5</v>
       </c>
       <c r="B8" s="141" t="s">
@@ -21804,9 +18578,9 @@
       <c r="O8" s="25"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="94.5">
-      <c r="A9" s="150"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
       <c r="D9" s="30" t="s">
         <v>219</v>
       </c>
@@ -21835,7 +18609,7 @@
       <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" ht="15.75">
-      <c r="A10" s="148">
+      <c r="A10" s="139">
         <v>6</v>
       </c>
       <c r="B10" s="141" t="s">
@@ -21866,9 +18640,9 @@
       <c r="O10" s="25"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="15.75">
-      <c r="A11" s="149"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
       <c r="D11" s="34" t="s">
         <v>175</v>
       </c>
@@ -21887,9 +18661,9 @@
       <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="47.25">
-      <c r="A12" s="150"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="34" t="s">
         <v>225</v>
       </c>
@@ -21986,7 +18760,7 @@
       <c r="O14" s="26"/>
     </row>
     <row r="15" spans="1:15" ht="31.5">
-      <c r="A15" s="148">
+      <c r="A15" s="139">
         <v>9</v>
       </c>
       <c r="B15" s="141" t="s">
@@ -22021,9 +18795,9 @@
       <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:15" ht="31.5">
-      <c r="A16" s="149"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="30" t="s">
         <v>237</v>
       </c>
@@ -22048,9 +18822,9 @@
       <c r="O16" s="26"/>
     </row>
     <row r="17" spans="1:15" ht="31.5">
-      <c r="A17" s="149"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="30" t="s">
         <v>240</v>
       </c>
@@ -22077,9 +18851,9 @@
       <c r="O17" s="26"/>
     </row>
     <row r="18" spans="1:15" ht="31.5">
-      <c r="A18" s="149"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="30" t="s">
         <v>243</v>
       </c>
@@ -22106,9 +18880,9 @@
       <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15" ht="31.5">
-      <c r="A19" s="149"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
+      <c r="A19" s="143"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
       <c r="D19" s="30" t="s">
         <v>199</v>
       </c>
@@ -22135,9 +18909,9 @@
       <c r="O19" s="26"/>
     </row>
     <row r="20" spans="1:15" ht="15.75">
-      <c r="A20" s="149"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
       <c r="D20" s="30" t="s">
         <v>246</v>
       </c>
@@ -22162,9 +18936,9 @@
       <c r="O20" s="26"/>
     </row>
     <row r="21" spans="1:15" ht="31.5">
-      <c r="A21" s="149"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="142"/>
+      <c r="A21" s="143"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
       <c r="D21" s="30" t="s">
         <v>248</v>
       </c>
@@ -22193,9 +18967,9 @@
       <c r="O21" s="26"/>
     </row>
     <row r="22" spans="1:15" ht="31.5">
-      <c r="A22" s="149"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
+      <c r="A22" s="143"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="30" t="s">
         <v>253</v>
       </c>
@@ -22224,9 +18998,9 @@
       <c r="O22" s="26"/>
     </row>
     <row r="23" spans="1:15" ht="31.5">
-      <c r="A23" s="149"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="142"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
       <c r="D23" s="30" t="s">
         <v>255</v>
       </c>
@@ -22255,9 +19029,9 @@
       <c r="O23" s="26"/>
     </row>
     <row r="24" spans="1:15" ht="63">
-      <c r="A24" s="149"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
       <c r="D24" s="30" t="s">
         <v>258</v>
       </c>
@@ -22290,9 +19064,9 @@
       <c r="O24" s="26"/>
     </row>
     <row r="25" spans="1:15" ht="47.25">
-      <c r="A25" s="149"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
       <c r="D25" s="30" t="s">
         <v>262</v>
       </c>
@@ -22325,9 +19099,9 @@
       <c r="O25" s="26"/>
     </row>
     <row r="26" spans="1:15" ht="47.25">
-      <c r="A26" s="149"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
       <c r="D26" s="30" t="s">
         <v>270</v>
       </c>
@@ -22356,9 +19130,9 @@
       <c r="O26" s="26"/>
     </row>
     <row r="27" spans="1:15" ht="15.75">
-      <c r="A27" s="150"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
       <c r="D27" s="30" t="s">
         <v>205</v>
       </c>
@@ -22381,14 +19155,14 @@
       <c r="O27" s="26"/>
     </row>
     <row r="28" spans="1:15" ht="15.75">
-      <c r="A28" s="148">
+      <c r="A28" s="139">
         <f>A15+1</f>
         <v>10</v>
       </c>
       <c r="B28" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="151" t="s">
+      <c r="C28" s="148" t="s">
         <v>164</v>
       </c>
       <c r="D28" s="30" t="s">
@@ -22413,9 +19187,9 @@
       <c r="O28" s="26"/>
     </row>
     <row r="29" spans="1:15" ht="15.75">
-      <c r="A29" s="149"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="152"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="149"/>
       <c r="D29" s="30" t="s">
         <v>197</v>
       </c>
@@ -22438,9 +19212,9 @@
       <c r="O29" s="26"/>
     </row>
     <row r="30" spans="1:15" ht="31.5">
-      <c r="A30" s="149"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="152"/>
+      <c r="A30" s="143"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="149"/>
       <c r="D30" s="30" t="s">
         <v>172</v>
       </c>
@@ -22463,9 +19237,9 @@
       <c r="O30" s="26"/>
     </row>
     <row r="31" spans="1:15" ht="31.5">
-      <c r="A31" s="149"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="152"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="149"/>
       <c r="D31" s="30" t="s">
         <v>178</v>
       </c>
@@ -22490,9 +19264,9 @@
       <c r="O31" s="26"/>
     </row>
     <row r="32" spans="1:15" ht="15.75">
-      <c r="A32" s="150"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="153"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="150"/>
       <c r="D32" s="30" t="s">
         <v>485</v>
       </c>
@@ -22543,14 +19317,14 @@
       <c r="O33" s="26"/>
     </row>
     <row r="34" spans="1:15" ht="15.75">
-      <c r="A34" s="148">
+      <c r="A34" s="139">
         <f>A33+1</f>
         <v>12</v>
       </c>
       <c r="B34" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="154" t="s">
+      <c r="C34" s="146" t="s">
         <v>177</v>
       </c>
       <c r="D34" s="30" t="s">
@@ -22577,9 +19351,9 @@
       <c r="O34" s="26"/>
     </row>
     <row r="35" spans="1:15" ht="15.75">
-      <c r="A35" s="150"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="155"/>
+      <c r="A35" s="140"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="147"/>
       <c r="D35" s="30" t="s">
         <v>173</v>
       </c>
@@ -22630,7 +19404,7 @@
       <c r="B37" s="141" t="s">
         <v>179</v>
       </c>
-      <c r="C37" s="154" t="s">
+      <c r="C37" s="146" t="s">
         <v>180</v>
       </c>
       <c r="D37" s="40" t="s">
@@ -22656,8 +19430,8 @@
     </row>
     <row r="38" spans="1:15" ht="31.5">
       <c r="A38" s="54"/>
-      <c r="B38" s="143"/>
-      <c r="C38" s="155"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="147"/>
       <c r="D38" s="40" t="s">
         <v>291</v>
       </c>
@@ -22687,7 +19461,7 @@
       <c r="B39" s="141" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="154" t="s">
+      <c r="C39" s="146" t="s">
         <v>183</v>
       </c>
       <c r="D39" s="30" t="s">
@@ -22709,8 +19483,8 @@
     </row>
     <row r="40" spans="1:15" ht="15.75">
       <c r="A40" s="54"/>
-      <c r="B40" s="143"/>
-      <c r="C40" s="155"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="147"/>
       <c r="D40" s="30" t="s">
         <v>184</v>
       </c>
@@ -22757,14 +19531,14 @@
       <c r="O41" s="26"/>
     </row>
     <row r="42" spans="1:15" ht="31.5">
-      <c r="A42" s="148">
+      <c r="A42" s="139">
         <f>A41+1</f>
         <v>16</v>
       </c>
       <c r="B42" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="151" t="s">
+      <c r="C42" s="148" t="s">
         <v>191</v>
       </c>
       <c r="D42" s="30" t="s">
@@ -22793,9 +19567,9 @@
       <c r="O42" s="26"/>
     </row>
     <row r="43" spans="1:15" ht="31.5">
-      <c r="A43" s="149"/>
-      <c r="B43" s="142"/>
-      <c r="C43" s="152"/>
+      <c r="A43" s="143"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="149"/>
       <c r="D43" s="30" t="s">
         <v>300</v>
       </c>
@@ -22822,9 +19596,9 @@
       <c r="O43" s="26"/>
     </row>
     <row r="44" spans="1:15" ht="31.5">
-      <c r="A44" s="149"/>
-      <c r="B44" s="142"/>
-      <c r="C44" s="152"/>
+      <c r="A44" s="143"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="149"/>
       <c r="D44" s="30" t="s">
         <v>181</v>
       </c>
@@ -22851,9 +19625,9 @@
       <c r="O44" s="26"/>
     </row>
     <row r="45" spans="1:15" ht="31.5">
-      <c r="A45" s="150"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="153"/>
+      <c r="A45" s="140"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="150"/>
       <c r="D45" s="31" t="s">
         <v>487</v>
       </c>
@@ -22936,14 +19710,14 @@
       <c r="O47" s="26"/>
     </row>
     <row r="48" spans="1:15" ht="15.75">
-      <c r="A48" s="147">
+      <c r="A48" s="145">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B48" s="146" t="s">
+      <c r="B48" s="155" t="s">
         <v>312</v>
       </c>
-      <c r="C48" s="147" t="s">
+      <c r="C48" s="145" t="s">
         <v>313</v>
       </c>
       <c r="D48" s="41" t="s">
@@ -22970,9 +19744,9 @@
       <c r="O48" s="26"/>
     </row>
     <row r="49" spans="1:15" ht="15.75">
-      <c r="A49" s="147"/>
-      <c r="B49" s="146"/>
-      <c r="C49" s="147"/>
+      <c r="A49" s="145"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="145"/>
       <c r="D49" s="41" t="s">
         <v>316</v>
       </c>
@@ -23001,9 +19775,9 @@
       <c r="O49" s="26"/>
     </row>
     <row r="50" spans="1:15" ht="15.75">
-      <c r="A50" s="147"/>
-      <c r="B50" s="146"/>
-      <c r="C50" s="147"/>
+      <c r="A50" s="145"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="145"/>
       <c r="D50" s="41" t="s">
         <v>471</v>
       </c>
@@ -23032,9 +19806,9 @@
       <c r="O50" s="26"/>
     </row>
     <row r="51" spans="1:15" ht="15.75">
-      <c r="A51" s="147"/>
-      <c r="B51" s="146"/>
-      <c r="C51" s="147"/>
+      <c r="A51" s="145"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="145"/>
       <c r="D51" s="41" t="s">
         <v>474</v>
       </c>
@@ -23053,9 +19827,9 @@
       <c r="O51" s="26"/>
     </row>
     <row r="52" spans="1:15" ht="47.25">
-      <c r="A52" s="147"/>
-      <c r="B52" s="146"/>
-      <c r="C52" s="147"/>
+      <c r="A52" s="145"/>
+      <c r="B52" s="155"/>
+      <c r="C52" s="145"/>
       <c r="D52" s="41" t="s">
         <v>476</v>
       </c>
@@ -23122,7 +19896,7 @@
       <c r="B54" s="141" t="s">
         <v>324</v>
       </c>
-      <c r="C54" s="144" t="s">
+      <c r="C54" s="153" t="s">
         <v>325</v>
       </c>
       <c r="D54" s="41" t="s">
@@ -23151,8 +19925,8 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B55" s="143"/>
-      <c r="C55" s="145"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="154"/>
       <c r="D55" s="41" t="s">
         <v>329</v>
       </c>
@@ -23179,14 +19953,14 @@
       <c r="O55" s="26"/>
     </row>
     <row r="56" spans="1:15" ht="15.75">
-      <c r="A56" s="151">
+      <c r="A56" s="148">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B56" s="141" t="s">
         <v>331</v>
       </c>
-      <c r="C56" s="154" t="s">
+      <c r="C56" s="146" t="s">
         <v>332</v>
       </c>
       <c r="D56" s="41" t="s">
@@ -23215,9 +19989,9 @@
       <c r="O56" s="26"/>
     </row>
     <row r="57" spans="1:15" ht="15.75">
-      <c r="A57" s="153"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="155"/>
+      <c r="A57" s="150"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="147"/>
       <c r="D57" s="41" t="s">
         <v>336</v>
       </c>
@@ -23246,7 +20020,7 @@
       <c r="O57" s="26"/>
     </row>
     <row r="58" spans="1:15" ht="31.5">
-      <c r="A58" s="139">
+      <c r="A58" s="151">
         <v>24</v>
       </c>
       <c r="B58" s="141" t="s">
@@ -23283,8 +20057,8 @@
       <c r="O58" s="26"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="140"/>
-      <c r="B59" s="143"/>
+      <c r="A59" s="152"/>
+      <c r="B59" s="142"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
@@ -23631,7 +20405,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0">
+    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0">
       <selection activeCell="A10" sqref="A10"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23643,7 +20417,7 @@
       <pageSetup orientation="portrait" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0">
+    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0">
       <selection activeCell="A10" sqref="A10"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -23651,26 +20425,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="36">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="B15:B27"/>
     <mergeCell ref="C15:C27"/>
@@ -23687,6 +20441,26 @@
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/msfwk-test/ms-payments-test/grafana/Testware.xlsx
+++ b/msfwk-test/ms-payments-test/grafana/Testware.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabapathys\Downloads\utp-tssaf-1647424800149\utp-tssaf\UXP.UnifiedFramework\Testware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\frmwktestsuite\msfwk-test\ms-payments-test\grafana\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3E8AF2-A070-4641-8863-4332B90B78DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestLab" sheetId="1" r:id="rId1"/>
@@ -32,12 +33,25 @@
     <definedName name="Z_E6BDA4F0_F700_4A1E_80D3_AE77688EF635_.wvu.FilterData" localSheetId="1" hidden="1">TestPlan!#REF!</definedName>
     <definedName name="Z_E6BDA4F0_F700_4A1E_80D3_AE77688EF635_.wvu.FilterData" localSheetId="2" hidden="1">TestScript!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="21st Century Insurance - Personal View" guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="659" activeSheetId="3"/>
+    <customWorkbookView name="Karthikeyan K - Personal View" guid="{A801A8EC-0837-4EEA-A73B-EAED07FABEF3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="852" activeSheetId="1"/>
     <customWorkbookView name="Kanbay - Personal View" guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="848" activeSheetId="1"/>
-    <customWorkbookView name="Karthikeyan K - Personal View" guid="{A801A8EC-0837-4EEA-A73B-EAED07FABEF3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="852" activeSheetId="1"/>
-    <customWorkbookView name="21st Century Insurance - Personal View" guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="659" activeSheetId="3"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1556,9 +1570,6 @@
     <t>Sabapathy</t>
   </si>
   <si>
-    <t>Grafana</t>
-  </si>
-  <si>
     <t>"Config.defaultURL","login"</t>
   </si>
   <si>
@@ -1647,12 +1658,15 @@
   </si>
   <si>
     <t>"6","Validate list of Services under Events Trends","",""</t>
+  </si>
+  <si>
+    <t>MFW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="24">
     <font>
       <sz val="10"/>
@@ -4137,32 +4151,41 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4173,1830 +4196,1821 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1807">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="16"/>
-    <cellStyle name="Hyperlink 3" xfId="19"/>
+    <cellStyle name="Hyperlink 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
-    <cellStyle name="Normal 2 2 2" xfId="6"/>
-    <cellStyle name="Normal 2 2 3" xfId="4"/>
-    <cellStyle name="Normal 2 4" xfId="8"/>
-    <cellStyle name="Normal 3" xfId="20"/>
-    <cellStyle name="Normal 3 10" xfId="920"/>
-    <cellStyle name="Normal 3 2" xfId="23"/>
-    <cellStyle name="Normal 3 2 2" xfId="28"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="38"/>
-    <cellStyle name="Normal 3 2 2 2 2" xfId="55"/>
-    <cellStyle name="Normal 3 2 2 2 2 2" xfId="111"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 2" xfId="223"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 2 2" xfId="447"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 2 2 2" xfId="895"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 2 2 2 2" xfId="1792"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 2 2 3" xfId="1344"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 2 3" xfId="671"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 2 3 2" xfId="1568"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 2 4" xfId="1120"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 3" xfId="335"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 3 2" xfId="783"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 3 2 2" xfId="1680"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 3 3" xfId="1232"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 4" xfId="559"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 4 2" xfId="1456"/>
-    <cellStyle name="Normal 3 2 2 2 2 2 5" xfId="1008"/>
-    <cellStyle name="Normal 3 2 2 2 2 3" xfId="167"/>
-    <cellStyle name="Normal 3 2 2 2 2 3 2" xfId="391"/>
-    <cellStyle name="Normal 3 2 2 2 2 3 2 2" xfId="839"/>
-    <cellStyle name="Normal 3 2 2 2 2 3 2 2 2" xfId="1736"/>
-    <cellStyle name="Normal 3 2 2 2 2 3 2 3" xfId="1288"/>
-    <cellStyle name="Normal 3 2 2 2 2 3 3" xfId="615"/>
-    <cellStyle name="Normal 3 2 2 2 2 3 3 2" xfId="1512"/>
-    <cellStyle name="Normal 3 2 2 2 2 3 4" xfId="1064"/>
-    <cellStyle name="Normal 3 2 2 2 2 4" xfId="279"/>
-    <cellStyle name="Normal 3 2 2 2 2 4 2" xfId="727"/>
-    <cellStyle name="Normal 3 2 2 2 2 4 2 2" xfId="1624"/>
-    <cellStyle name="Normal 3 2 2 2 2 4 3" xfId="1176"/>
-    <cellStyle name="Normal 3 2 2 2 2 5" xfId="503"/>
-    <cellStyle name="Normal 3 2 2 2 2 5 2" xfId="1400"/>
-    <cellStyle name="Normal 3 2 2 2 2 6" xfId="952"/>
-    <cellStyle name="Normal 3 2 2 2 3" xfId="94"/>
-    <cellStyle name="Normal 3 2 2 2 3 2" xfId="206"/>
-    <cellStyle name="Normal 3 2 2 2 3 2 2" xfId="430"/>
-    <cellStyle name="Normal 3 2 2 2 3 2 2 2" xfId="878"/>
-    <cellStyle name="Normal 3 2 2 2 3 2 2 2 2" xfId="1775"/>
-    <cellStyle name="Normal 3 2 2 2 3 2 2 3" xfId="1327"/>
-    <cellStyle name="Normal 3 2 2 2 3 2 3" xfId="654"/>
-    <cellStyle name="Normal 3 2 2 2 3 2 3 2" xfId="1551"/>
-    <cellStyle name="Normal 3 2 2 2 3 2 4" xfId="1103"/>
-    <cellStyle name="Normal 3 2 2 2 3 3" xfId="318"/>
-    <cellStyle name="Normal 3 2 2 2 3 3 2" xfId="766"/>
-    <cellStyle name="Normal 3 2 2 2 3 3 2 2" xfId="1663"/>
-    <cellStyle name="Normal 3 2 2 2 3 3 3" xfId="1215"/>
-    <cellStyle name="Normal 3 2 2 2 3 4" xfId="542"/>
-    <cellStyle name="Normal 3 2 2 2 3 4 2" xfId="1439"/>
-    <cellStyle name="Normal 3 2 2 2 3 5" xfId="991"/>
-    <cellStyle name="Normal 3 2 2 2 4" xfId="150"/>
-    <cellStyle name="Normal 3 2 2 2 4 2" xfId="374"/>
-    <cellStyle name="Normal 3 2 2 2 4 2 2" xfId="822"/>
-    <cellStyle name="Normal 3 2 2 2 4 2 2 2" xfId="1719"/>
-    <cellStyle name="Normal 3 2 2 2 4 2 3" xfId="1271"/>
-    <cellStyle name="Normal 3 2 2 2 4 3" xfId="598"/>
-    <cellStyle name="Normal 3 2 2 2 4 3 2" xfId="1495"/>
-    <cellStyle name="Normal 3 2 2 2 4 4" xfId="1047"/>
-    <cellStyle name="Normal 3 2 2 2 5" xfId="262"/>
-    <cellStyle name="Normal 3 2 2 2 5 2" xfId="710"/>
-    <cellStyle name="Normal 3 2 2 2 5 2 2" xfId="1607"/>
-    <cellStyle name="Normal 3 2 2 2 5 3" xfId="1159"/>
-    <cellStyle name="Normal 3 2 2 2 6" xfId="486"/>
-    <cellStyle name="Normal 3 2 2 2 6 2" xfId="1383"/>
-    <cellStyle name="Normal 3 2 2 2 7" xfId="935"/>
-    <cellStyle name="Normal 3 2 2 3" xfId="46"/>
-    <cellStyle name="Normal 3 2 2 3 2" xfId="102"/>
-    <cellStyle name="Normal 3 2 2 3 2 2" xfId="214"/>
-    <cellStyle name="Normal 3 2 2 3 2 2 2" xfId="438"/>
-    <cellStyle name="Normal 3 2 2 3 2 2 2 2" xfId="886"/>
-    <cellStyle name="Normal 3 2 2 3 2 2 2 2 2" xfId="1783"/>
-    <cellStyle name="Normal 3 2 2 3 2 2 2 3" xfId="1335"/>
-    <cellStyle name="Normal 3 2 2 3 2 2 3" xfId="662"/>
-    <cellStyle name="Normal 3 2 2 3 2 2 3 2" xfId="1559"/>
-    <cellStyle name="Normal 3 2 2 3 2 2 4" xfId="1111"/>
-    <cellStyle name="Normal 3 2 2 3 2 3" xfId="326"/>
-    <cellStyle name="Normal 3 2 2 3 2 3 2" xfId="774"/>
-    <cellStyle name="Normal 3 2 2 3 2 3 2 2" xfId="1671"/>
-    <cellStyle name="Normal 3 2 2 3 2 3 3" xfId="1223"/>
-    <cellStyle name="Normal 3 2 2 3 2 4" xfId="550"/>
-    <cellStyle name="Normal 3 2 2 3 2 4 2" xfId="1447"/>
-    <cellStyle name="Normal 3 2 2 3 2 5" xfId="999"/>
-    <cellStyle name="Normal 3 2 2 3 3" xfId="158"/>
-    <cellStyle name="Normal 3 2 2 3 3 2" xfId="382"/>
-    <cellStyle name="Normal 3 2 2 3 3 2 2" xfId="830"/>
-    <cellStyle name="Normal 3 2 2 3 3 2 2 2" xfId="1727"/>
-    <cellStyle name="Normal 3 2 2 3 3 2 3" xfId="1279"/>
-    <cellStyle name="Normal 3 2 2 3 3 3" xfId="606"/>
-    <cellStyle name="Normal 3 2 2 3 3 3 2" xfId="1503"/>
-    <cellStyle name="Normal 3 2 2 3 3 4" xfId="1055"/>
-    <cellStyle name="Normal 3 2 2 3 4" xfId="270"/>
-    <cellStyle name="Normal 3 2 2 3 4 2" xfId="718"/>
-    <cellStyle name="Normal 3 2 2 3 4 2 2" xfId="1615"/>
-    <cellStyle name="Normal 3 2 2 3 4 3" xfId="1167"/>
-    <cellStyle name="Normal 3 2 2 3 5" xfId="494"/>
-    <cellStyle name="Normal 3 2 2 3 5 2" xfId="1391"/>
-    <cellStyle name="Normal 3 2 2 3 6" xfId="943"/>
-    <cellStyle name="Normal 3 2 2 4" xfId="85"/>
-    <cellStyle name="Normal 3 2 2 4 2" xfId="197"/>
-    <cellStyle name="Normal 3 2 2 4 2 2" xfId="421"/>
-    <cellStyle name="Normal 3 2 2 4 2 2 2" xfId="869"/>
-    <cellStyle name="Normal 3 2 2 4 2 2 2 2" xfId="1766"/>
-    <cellStyle name="Normal 3 2 2 4 2 2 3" xfId="1318"/>
-    <cellStyle name="Normal 3 2 2 4 2 3" xfId="645"/>
-    <cellStyle name="Normal 3 2 2 4 2 3 2" xfId="1542"/>
-    <cellStyle name="Normal 3 2 2 4 2 4" xfId="1094"/>
-    <cellStyle name="Normal 3 2 2 4 3" xfId="309"/>
-    <cellStyle name="Normal 3 2 2 4 3 2" xfId="757"/>
-    <cellStyle name="Normal 3 2 2 4 3 2 2" xfId="1654"/>
-    <cellStyle name="Normal 3 2 2 4 3 3" xfId="1206"/>
-    <cellStyle name="Normal 3 2 2 4 4" xfId="533"/>
-    <cellStyle name="Normal 3 2 2 4 4 2" xfId="1430"/>
-    <cellStyle name="Normal 3 2 2 4 5" xfId="982"/>
-    <cellStyle name="Normal 3 2 2 5" xfId="141"/>
-    <cellStyle name="Normal 3 2 2 5 2" xfId="365"/>
-    <cellStyle name="Normal 3 2 2 5 2 2" xfId="813"/>
-    <cellStyle name="Normal 3 2 2 5 2 2 2" xfId="1710"/>
-    <cellStyle name="Normal 3 2 2 5 2 3" xfId="1262"/>
-    <cellStyle name="Normal 3 2 2 5 3" xfId="589"/>
-    <cellStyle name="Normal 3 2 2 5 3 2" xfId="1486"/>
-    <cellStyle name="Normal 3 2 2 5 4" xfId="1038"/>
-    <cellStyle name="Normal 3 2 2 6" xfId="253"/>
-    <cellStyle name="Normal 3 2 2 6 2" xfId="701"/>
-    <cellStyle name="Normal 3 2 2 6 2 2" xfId="1598"/>
-    <cellStyle name="Normal 3 2 2 6 3" xfId="1150"/>
-    <cellStyle name="Normal 3 2 2 7" xfId="477"/>
-    <cellStyle name="Normal 3 2 2 7 2" xfId="1374"/>
-    <cellStyle name="Normal 3 2 2 8" xfId="926"/>
-    <cellStyle name="Normal 3 2 3" xfId="33"/>
-    <cellStyle name="Normal 3 2 3 2" xfId="51"/>
-    <cellStyle name="Normal 3 2 3 2 2" xfId="107"/>
-    <cellStyle name="Normal 3 2 3 2 2 2" xfId="219"/>
-    <cellStyle name="Normal 3 2 3 2 2 2 2" xfId="443"/>
-    <cellStyle name="Normal 3 2 3 2 2 2 2 2" xfId="891"/>
-    <cellStyle name="Normal 3 2 3 2 2 2 2 2 2" xfId="1788"/>
-    <cellStyle name="Normal 3 2 3 2 2 2 2 3" xfId="1340"/>
-    <cellStyle name="Normal 3 2 3 2 2 2 3" xfId="667"/>
-    <cellStyle name="Normal 3 2 3 2 2 2 3 2" xfId="1564"/>
-    <cellStyle name="Normal 3 2 3 2 2 2 4" xfId="1116"/>
-    <cellStyle name="Normal 3 2 3 2 2 3" xfId="331"/>
-    <cellStyle name="Normal 3 2 3 2 2 3 2" xfId="779"/>
-    <cellStyle name="Normal 3 2 3 2 2 3 2 2" xfId="1676"/>
-    <cellStyle name="Normal 3 2 3 2 2 3 3" xfId="1228"/>
-    <cellStyle name="Normal 3 2 3 2 2 4" xfId="555"/>
-    <cellStyle name="Normal 3 2 3 2 2 4 2" xfId="1452"/>
-    <cellStyle name="Normal 3 2 3 2 2 5" xfId="1004"/>
-    <cellStyle name="Normal 3 2 3 2 3" xfId="163"/>
-    <cellStyle name="Normal 3 2 3 2 3 2" xfId="387"/>
-    <cellStyle name="Normal 3 2 3 2 3 2 2" xfId="835"/>
-    <cellStyle name="Normal 3 2 3 2 3 2 2 2" xfId="1732"/>
-    <cellStyle name="Normal 3 2 3 2 3 2 3" xfId="1284"/>
-    <cellStyle name="Normal 3 2 3 2 3 3" xfId="611"/>
-    <cellStyle name="Normal 3 2 3 2 3 3 2" xfId="1508"/>
-    <cellStyle name="Normal 3 2 3 2 3 4" xfId="1060"/>
-    <cellStyle name="Normal 3 2 3 2 4" xfId="275"/>
-    <cellStyle name="Normal 3 2 3 2 4 2" xfId="723"/>
-    <cellStyle name="Normal 3 2 3 2 4 2 2" xfId="1620"/>
-    <cellStyle name="Normal 3 2 3 2 4 3" xfId="1172"/>
-    <cellStyle name="Normal 3 2 3 2 5" xfId="499"/>
-    <cellStyle name="Normal 3 2 3 2 5 2" xfId="1396"/>
-    <cellStyle name="Normal 3 2 3 2 6" xfId="948"/>
-    <cellStyle name="Normal 3 2 3 3" xfId="90"/>
-    <cellStyle name="Normal 3 2 3 3 2" xfId="202"/>
-    <cellStyle name="Normal 3 2 3 3 2 2" xfId="426"/>
-    <cellStyle name="Normal 3 2 3 3 2 2 2" xfId="874"/>
-    <cellStyle name="Normal 3 2 3 3 2 2 2 2" xfId="1771"/>
-    <cellStyle name="Normal 3 2 3 3 2 2 3" xfId="1323"/>
-    <cellStyle name="Normal 3 2 3 3 2 3" xfId="650"/>
-    <cellStyle name="Normal 3 2 3 3 2 3 2" xfId="1547"/>
-    <cellStyle name="Normal 3 2 3 3 2 4" xfId="1099"/>
-    <cellStyle name="Normal 3 2 3 3 3" xfId="314"/>
-    <cellStyle name="Normal 3 2 3 3 3 2" xfId="762"/>
-    <cellStyle name="Normal 3 2 3 3 3 2 2" xfId="1659"/>
-    <cellStyle name="Normal 3 2 3 3 3 3" xfId="1211"/>
-    <cellStyle name="Normal 3 2 3 3 4" xfId="538"/>
-    <cellStyle name="Normal 3 2 3 3 4 2" xfId="1435"/>
-    <cellStyle name="Normal 3 2 3 3 5" xfId="987"/>
-    <cellStyle name="Normal 3 2 3 4" xfId="146"/>
-    <cellStyle name="Normal 3 2 3 4 2" xfId="370"/>
-    <cellStyle name="Normal 3 2 3 4 2 2" xfId="818"/>
-    <cellStyle name="Normal 3 2 3 4 2 2 2" xfId="1715"/>
-    <cellStyle name="Normal 3 2 3 4 2 3" xfId="1267"/>
-    <cellStyle name="Normal 3 2 3 4 3" xfId="594"/>
-    <cellStyle name="Normal 3 2 3 4 3 2" xfId="1491"/>
-    <cellStyle name="Normal 3 2 3 4 4" xfId="1043"/>
-    <cellStyle name="Normal 3 2 3 5" xfId="258"/>
-    <cellStyle name="Normal 3 2 3 5 2" xfId="706"/>
-    <cellStyle name="Normal 3 2 3 5 2 2" xfId="1603"/>
-    <cellStyle name="Normal 3 2 3 5 3" xfId="1155"/>
-    <cellStyle name="Normal 3 2 3 6" xfId="482"/>
-    <cellStyle name="Normal 3 2 3 6 2" xfId="1379"/>
-    <cellStyle name="Normal 3 2 3 7" xfId="931"/>
-    <cellStyle name="Normal 3 2 4" xfId="42"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="98"/>
-    <cellStyle name="Normal 3 2 4 2 2" xfId="210"/>
-    <cellStyle name="Normal 3 2 4 2 2 2" xfId="434"/>
-    <cellStyle name="Normal 3 2 4 2 2 2 2" xfId="882"/>
-    <cellStyle name="Normal 3 2 4 2 2 2 2 2" xfId="1779"/>
-    <cellStyle name="Normal 3 2 4 2 2 2 3" xfId="1331"/>
-    <cellStyle name="Normal 3 2 4 2 2 3" xfId="658"/>
-    <cellStyle name="Normal 3 2 4 2 2 3 2" xfId="1555"/>
-    <cellStyle name="Normal 3 2 4 2 2 4" xfId="1107"/>
-    <cellStyle name="Normal 3 2 4 2 3" xfId="322"/>
-    <cellStyle name="Normal 3 2 4 2 3 2" xfId="770"/>
-    <cellStyle name="Normal 3 2 4 2 3 2 2" xfId="1667"/>
-    <cellStyle name="Normal 3 2 4 2 3 3" xfId="1219"/>
-    <cellStyle name="Normal 3 2 4 2 4" xfId="546"/>
-    <cellStyle name="Normal 3 2 4 2 4 2" xfId="1443"/>
-    <cellStyle name="Normal 3 2 4 2 5" xfId="995"/>
-    <cellStyle name="Normal 3 2 4 3" xfId="154"/>
-    <cellStyle name="Normal 3 2 4 3 2" xfId="378"/>
-    <cellStyle name="Normal 3 2 4 3 2 2" xfId="826"/>
-    <cellStyle name="Normal 3 2 4 3 2 2 2" xfId="1723"/>
-    <cellStyle name="Normal 3 2 4 3 2 3" xfId="1275"/>
-    <cellStyle name="Normal 3 2 4 3 3" xfId="602"/>
-    <cellStyle name="Normal 3 2 4 3 3 2" xfId="1499"/>
-    <cellStyle name="Normal 3 2 4 3 4" xfId="1051"/>
-    <cellStyle name="Normal 3 2 4 4" xfId="266"/>
-    <cellStyle name="Normal 3 2 4 4 2" xfId="714"/>
-    <cellStyle name="Normal 3 2 4 4 2 2" xfId="1611"/>
-    <cellStyle name="Normal 3 2 4 4 3" xfId="1163"/>
-    <cellStyle name="Normal 3 2 4 5" xfId="490"/>
-    <cellStyle name="Normal 3 2 4 5 2" xfId="1387"/>
-    <cellStyle name="Normal 3 2 4 6" xfId="939"/>
-    <cellStyle name="Normal 3 2 5" xfId="81"/>
-    <cellStyle name="Normal 3 2 5 2" xfId="193"/>
-    <cellStyle name="Normal 3 2 5 2 2" xfId="417"/>
-    <cellStyle name="Normal 3 2 5 2 2 2" xfId="865"/>
-    <cellStyle name="Normal 3 2 5 2 2 2 2" xfId="1762"/>
-    <cellStyle name="Normal 3 2 5 2 2 3" xfId="1314"/>
-    <cellStyle name="Normal 3 2 5 2 3" xfId="641"/>
-    <cellStyle name="Normal 3 2 5 2 3 2" xfId="1538"/>
-    <cellStyle name="Normal 3 2 5 2 4" xfId="1090"/>
-    <cellStyle name="Normal 3 2 5 3" xfId="305"/>
-    <cellStyle name="Normal 3 2 5 3 2" xfId="753"/>
-    <cellStyle name="Normal 3 2 5 3 2 2" xfId="1650"/>
-    <cellStyle name="Normal 3 2 5 3 3" xfId="1202"/>
-    <cellStyle name="Normal 3 2 5 4" xfId="529"/>
-    <cellStyle name="Normal 3 2 5 4 2" xfId="1426"/>
-    <cellStyle name="Normal 3 2 5 5" xfId="978"/>
-    <cellStyle name="Normal 3 2 6" xfId="137"/>
-    <cellStyle name="Normal 3 2 6 2" xfId="361"/>
-    <cellStyle name="Normal 3 2 6 2 2" xfId="809"/>
-    <cellStyle name="Normal 3 2 6 2 2 2" xfId="1706"/>
-    <cellStyle name="Normal 3 2 6 2 3" xfId="1258"/>
-    <cellStyle name="Normal 3 2 6 3" xfId="585"/>
-    <cellStyle name="Normal 3 2 6 3 2" xfId="1482"/>
-    <cellStyle name="Normal 3 2 6 4" xfId="1034"/>
-    <cellStyle name="Normal 3 2 7" xfId="249"/>
-    <cellStyle name="Normal 3 2 7 2" xfId="697"/>
-    <cellStyle name="Normal 3 2 7 2 2" xfId="1594"/>
-    <cellStyle name="Normal 3 2 7 3" xfId="1146"/>
-    <cellStyle name="Normal 3 2 8" xfId="473"/>
-    <cellStyle name="Normal 3 2 8 2" xfId="1370"/>
-    <cellStyle name="Normal 3 2 9" xfId="922"/>
-    <cellStyle name="Normal 3 3" xfId="26"/>
-    <cellStyle name="Normal 3 3 2" xfId="36"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="53"/>
-    <cellStyle name="Normal 3 3 2 2 2" xfId="109"/>
-    <cellStyle name="Normal 3 3 2 2 2 2" xfId="221"/>
-    <cellStyle name="Normal 3 3 2 2 2 2 2" xfId="445"/>
-    <cellStyle name="Normal 3 3 2 2 2 2 2 2" xfId="893"/>
-    <cellStyle name="Normal 3 3 2 2 2 2 2 2 2" xfId="1790"/>
-    <cellStyle name="Normal 3 3 2 2 2 2 2 3" xfId="1342"/>
-    <cellStyle name="Normal 3 3 2 2 2 2 3" xfId="669"/>
-    <cellStyle name="Normal 3 3 2 2 2 2 3 2" xfId="1566"/>
-    <cellStyle name="Normal 3 3 2 2 2 2 4" xfId="1118"/>
-    <cellStyle name="Normal 3 3 2 2 2 3" xfId="333"/>
-    <cellStyle name="Normal 3 3 2 2 2 3 2" xfId="781"/>
-    <cellStyle name="Normal 3 3 2 2 2 3 2 2" xfId="1678"/>
-    <cellStyle name="Normal 3 3 2 2 2 3 3" xfId="1230"/>
-    <cellStyle name="Normal 3 3 2 2 2 4" xfId="557"/>
-    <cellStyle name="Normal 3 3 2 2 2 4 2" xfId="1454"/>
-    <cellStyle name="Normal 3 3 2 2 2 5" xfId="1006"/>
-    <cellStyle name="Normal 3 3 2 2 3" xfId="165"/>
-    <cellStyle name="Normal 3 3 2 2 3 2" xfId="389"/>
-    <cellStyle name="Normal 3 3 2 2 3 2 2" xfId="837"/>
-    <cellStyle name="Normal 3 3 2 2 3 2 2 2" xfId="1734"/>
-    <cellStyle name="Normal 3 3 2 2 3 2 3" xfId="1286"/>
-    <cellStyle name="Normal 3 3 2 2 3 3" xfId="613"/>
-    <cellStyle name="Normal 3 3 2 2 3 3 2" xfId="1510"/>
-    <cellStyle name="Normal 3 3 2 2 3 4" xfId="1062"/>
-    <cellStyle name="Normal 3 3 2 2 4" xfId="277"/>
-    <cellStyle name="Normal 3 3 2 2 4 2" xfId="725"/>
-    <cellStyle name="Normal 3 3 2 2 4 2 2" xfId="1622"/>
-    <cellStyle name="Normal 3 3 2 2 4 3" xfId="1174"/>
-    <cellStyle name="Normal 3 3 2 2 5" xfId="501"/>
-    <cellStyle name="Normal 3 3 2 2 5 2" xfId="1398"/>
-    <cellStyle name="Normal 3 3 2 2 6" xfId="950"/>
-    <cellStyle name="Normal 3 3 2 3" xfId="92"/>
-    <cellStyle name="Normal 3 3 2 3 2" xfId="204"/>
-    <cellStyle name="Normal 3 3 2 3 2 2" xfId="428"/>
-    <cellStyle name="Normal 3 3 2 3 2 2 2" xfId="876"/>
-    <cellStyle name="Normal 3 3 2 3 2 2 2 2" xfId="1773"/>
-    <cellStyle name="Normal 3 3 2 3 2 2 3" xfId="1325"/>
-    <cellStyle name="Normal 3 3 2 3 2 3" xfId="652"/>
-    <cellStyle name="Normal 3 3 2 3 2 3 2" xfId="1549"/>
-    <cellStyle name="Normal 3 3 2 3 2 4" xfId="1101"/>
-    <cellStyle name="Normal 3 3 2 3 3" xfId="316"/>
-    <cellStyle name="Normal 3 3 2 3 3 2" xfId="764"/>
-    <cellStyle name="Normal 3 3 2 3 3 2 2" xfId="1661"/>
-    <cellStyle name="Normal 3 3 2 3 3 3" xfId="1213"/>
-    <cellStyle name="Normal 3 3 2 3 4" xfId="540"/>
-    <cellStyle name="Normal 3 3 2 3 4 2" xfId="1437"/>
-    <cellStyle name="Normal 3 3 2 3 5" xfId="989"/>
-    <cellStyle name="Normal 3 3 2 4" xfId="148"/>
-    <cellStyle name="Normal 3 3 2 4 2" xfId="372"/>
-    <cellStyle name="Normal 3 3 2 4 2 2" xfId="820"/>
-    <cellStyle name="Normal 3 3 2 4 2 2 2" xfId="1717"/>
-    <cellStyle name="Normal 3 3 2 4 2 3" xfId="1269"/>
-    <cellStyle name="Normal 3 3 2 4 3" xfId="596"/>
-    <cellStyle name="Normal 3 3 2 4 3 2" xfId="1493"/>
-    <cellStyle name="Normal 3 3 2 4 4" xfId="1045"/>
-    <cellStyle name="Normal 3 3 2 5" xfId="260"/>
-    <cellStyle name="Normal 3 3 2 5 2" xfId="708"/>
-    <cellStyle name="Normal 3 3 2 5 2 2" xfId="1605"/>
-    <cellStyle name="Normal 3 3 2 5 3" xfId="1157"/>
-    <cellStyle name="Normal 3 3 2 6" xfId="484"/>
-    <cellStyle name="Normal 3 3 2 6 2" xfId="1381"/>
-    <cellStyle name="Normal 3 3 2 7" xfId="933"/>
-    <cellStyle name="Normal 3 3 3" xfId="44"/>
-    <cellStyle name="Normal 3 3 3 2" xfId="100"/>
-    <cellStyle name="Normal 3 3 3 2 2" xfId="212"/>
-    <cellStyle name="Normal 3 3 3 2 2 2" xfId="436"/>
-    <cellStyle name="Normal 3 3 3 2 2 2 2" xfId="884"/>
-    <cellStyle name="Normal 3 3 3 2 2 2 2 2" xfId="1781"/>
-    <cellStyle name="Normal 3 3 3 2 2 2 3" xfId="1333"/>
-    <cellStyle name="Normal 3 3 3 2 2 3" xfId="660"/>
-    <cellStyle name="Normal 3 3 3 2 2 3 2" xfId="1557"/>
-    <cellStyle name="Normal 3 3 3 2 2 4" xfId="1109"/>
-    <cellStyle name="Normal 3 3 3 2 3" xfId="324"/>
-    <cellStyle name="Normal 3 3 3 2 3 2" xfId="772"/>
-    <cellStyle name="Normal 3 3 3 2 3 2 2" xfId="1669"/>
-    <cellStyle name="Normal 3 3 3 2 3 3" xfId="1221"/>
-    <cellStyle name="Normal 3 3 3 2 4" xfId="548"/>
-    <cellStyle name="Normal 3 3 3 2 4 2" xfId="1445"/>
-    <cellStyle name="Normal 3 3 3 2 5" xfId="997"/>
-    <cellStyle name="Normal 3 3 3 3" xfId="156"/>
-    <cellStyle name="Normal 3 3 3 3 2" xfId="380"/>
-    <cellStyle name="Normal 3 3 3 3 2 2" xfId="828"/>
-    <cellStyle name="Normal 3 3 3 3 2 2 2" xfId="1725"/>
-    <cellStyle name="Normal 3 3 3 3 2 3" xfId="1277"/>
-    <cellStyle name="Normal 3 3 3 3 3" xfId="604"/>
-    <cellStyle name="Normal 3 3 3 3 3 2" xfId="1501"/>
-    <cellStyle name="Normal 3 3 3 3 4" xfId="1053"/>
-    <cellStyle name="Normal 3 3 3 4" xfId="268"/>
-    <cellStyle name="Normal 3 3 3 4 2" xfId="716"/>
-    <cellStyle name="Normal 3 3 3 4 2 2" xfId="1613"/>
-    <cellStyle name="Normal 3 3 3 4 3" xfId="1165"/>
-    <cellStyle name="Normal 3 3 3 5" xfId="492"/>
-    <cellStyle name="Normal 3 3 3 5 2" xfId="1389"/>
-    <cellStyle name="Normal 3 3 3 6" xfId="941"/>
-    <cellStyle name="Normal 3 3 4" xfId="83"/>
-    <cellStyle name="Normal 3 3 4 2" xfId="195"/>
-    <cellStyle name="Normal 3 3 4 2 2" xfId="419"/>
-    <cellStyle name="Normal 3 3 4 2 2 2" xfId="867"/>
-    <cellStyle name="Normal 3 3 4 2 2 2 2" xfId="1764"/>
-    <cellStyle name="Normal 3 3 4 2 2 3" xfId="1316"/>
-    <cellStyle name="Normal 3 3 4 2 3" xfId="643"/>
-    <cellStyle name="Normal 3 3 4 2 3 2" xfId="1540"/>
-    <cellStyle name="Normal 3 3 4 2 4" xfId="1092"/>
-    <cellStyle name="Normal 3 3 4 3" xfId="307"/>
-    <cellStyle name="Normal 3 3 4 3 2" xfId="755"/>
-    <cellStyle name="Normal 3 3 4 3 2 2" xfId="1652"/>
-    <cellStyle name="Normal 3 3 4 3 3" xfId="1204"/>
-    <cellStyle name="Normal 3 3 4 4" xfId="531"/>
-    <cellStyle name="Normal 3 3 4 4 2" xfId="1428"/>
-    <cellStyle name="Normal 3 3 4 5" xfId="980"/>
-    <cellStyle name="Normal 3 3 5" xfId="139"/>
-    <cellStyle name="Normal 3 3 5 2" xfId="363"/>
-    <cellStyle name="Normal 3 3 5 2 2" xfId="811"/>
-    <cellStyle name="Normal 3 3 5 2 2 2" xfId="1708"/>
-    <cellStyle name="Normal 3 3 5 2 3" xfId="1260"/>
-    <cellStyle name="Normal 3 3 5 3" xfId="587"/>
-    <cellStyle name="Normal 3 3 5 3 2" xfId="1484"/>
-    <cellStyle name="Normal 3 3 5 4" xfId="1036"/>
-    <cellStyle name="Normal 3 3 6" xfId="251"/>
-    <cellStyle name="Normal 3 3 6 2" xfId="699"/>
-    <cellStyle name="Normal 3 3 6 2 2" xfId="1596"/>
-    <cellStyle name="Normal 3 3 6 3" xfId="1148"/>
-    <cellStyle name="Normal 3 3 7" xfId="475"/>
-    <cellStyle name="Normal 3 3 7 2" xfId="1372"/>
-    <cellStyle name="Normal 3 3 8" xfId="924"/>
-    <cellStyle name="Normal 3 4" xfId="31"/>
-    <cellStyle name="Normal 3 4 2" xfId="49"/>
-    <cellStyle name="Normal 3 4 2 2" xfId="105"/>
-    <cellStyle name="Normal 3 4 2 2 2" xfId="217"/>
-    <cellStyle name="Normal 3 4 2 2 2 2" xfId="441"/>
-    <cellStyle name="Normal 3 4 2 2 2 2 2" xfId="889"/>
-    <cellStyle name="Normal 3 4 2 2 2 2 2 2" xfId="1786"/>
-    <cellStyle name="Normal 3 4 2 2 2 2 3" xfId="1338"/>
-    <cellStyle name="Normal 3 4 2 2 2 3" xfId="665"/>
-    <cellStyle name="Normal 3 4 2 2 2 3 2" xfId="1562"/>
-    <cellStyle name="Normal 3 4 2 2 2 4" xfId="1114"/>
-    <cellStyle name="Normal 3 4 2 2 3" xfId="329"/>
-    <cellStyle name="Normal 3 4 2 2 3 2" xfId="777"/>
-    <cellStyle name="Normal 3 4 2 2 3 2 2" xfId="1674"/>
-    <cellStyle name="Normal 3 4 2 2 3 3" xfId="1226"/>
-    <cellStyle name="Normal 3 4 2 2 4" xfId="553"/>
-    <cellStyle name="Normal 3 4 2 2 4 2" xfId="1450"/>
-    <cellStyle name="Normal 3 4 2 2 5" xfId="1002"/>
-    <cellStyle name="Normal 3 4 2 3" xfId="161"/>
-    <cellStyle name="Normal 3 4 2 3 2" xfId="385"/>
-    <cellStyle name="Normal 3 4 2 3 2 2" xfId="833"/>
-    <cellStyle name="Normal 3 4 2 3 2 2 2" xfId="1730"/>
-    <cellStyle name="Normal 3 4 2 3 2 3" xfId="1282"/>
-    <cellStyle name="Normal 3 4 2 3 3" xfId="609"/>
-    <cellStyle name="Normal 3 4 2 3 3 2" xfId="1506"/>
-    <cellStyle name="Normal 3 4 2 3 4" xfId="1058"/>
-    <cellStyle name="Normal 3 4 2 4" xfId="273"/>
-    <cellStyle name="Normal 3 4 2 4 2" xfId="721"/>
-    <cellStyle name="Normal 3 4 2 4 2 2" xfId="1618"/>
-    <cellStyle name="Normal 3 4 2 4 3" xfId="1170"/>
-    <cellStyle name="Normal 3 4 2 5" xfId="497"/>
-    <cellStyle name="Normal 3 4 2 5 2" xfId="1394"/>
-    <cellStyle name="Normal 3 4 2 6" xfId="946"/>
-    <cellStyle name="Normal 3 4 3" xfId="88"/>
-    <cellStyle name="Normal 3 4 3 2" xfId="200"/>
-    <cellStyle name="Normal 3 4 3 2 2" xfId="424"/>
-    <cellStyle name="Normal 3 4 3 2 2 2" xfId="872"/>
-    <cellStyle name="Normal 3 4 3 2 2 2 2" xfId="1769"/>
-    <cellStyle name="Normal 3 4 3 2 2 3" xfId="1321"/>
-    <cellStyle name="Normal 3 4 3 2 3" xfId="648"/>
-    <cellStyle name="Normal 3 4 3 2 3 2" xfId="1545"/>
-    <cellStyle name="Normal 3 4 3 2 4" xfId="1097"/>
-    <cellStyle name="Normal 3 4 3 3" xfId="312"/>
-    <cellStyle name="Normal 3 4 3 3 2" xfId="760"/>
-    <cellStyle name="Normal 3 4 3 3 2 2" xfId="1657"/>
-    <cellStyle name="Normal 3 4 3 3 3" xfId="1209"/>
-    <cellStyle name="Normal 3 4 3 4" xfId="536"/>
-    <cellStyle name="Normal 3 4 3 4 2" xfId="1433"/>
-    <cellStyle name="Normal 3 4 3 5" xfId="985"/>
-    <cellStyle name="Normal 3 4 4" xfId="144"/>
-    <cellStyle name="Normal 3 4 4 2" xfId="368"/>
-    <cellStyle name="Normal 3 4 4 2 2" xfId="816"/>
-    <cellStyle name="Normal 3 4 4 2 2 2" xfId="1713"/>
-    <cellStyle name="Normal 3 4 4 2 3" xfId="1265"/>
-    <cellStyle name="Normal 3 4 4 3" xfId="592"/>
-    <cellStyle name="Normal 3 4 4 3 2" xfId="1489"/>
-    <cellStyle name="Normal 3 4 4 4" xfId="1041"/>
-    <cellStyle name="Normal 3 4 5" xfId="256"/>
-    <cellStyle name="Normal 3 4 5 2" xfId="704"/>
-    <cellStyle name="Normal 3 4 5 2 2" xfId="1601"/>
-    <cellStyle name="Normal 3 4 5 3" xfId="1153"/>
-    <cellStyle name="Normal 3 4 6" xfId="480"/>
-    <cellStyle name="Normal 3 4 6 2" xfId="1377"/>
-    <cellStyle name="Normal 3 4 7" xfId="929"/>
-    <cellStyle name="Normal 3 5" xfId="40"/>
-    <cellStyle name="Normal 3 5 2" xfId="96"/>
-    <cellStyle name="Normal 3 5 2 2" xfId="208"/>
-    <cellStyle name="Normal 3 5 2 2 2" xfId="432"/>
-    <cellStyle name="Normal 3 5 2 2 2 2" xfId="880"/>
-    <cellStyle name="Normal 3 5 2 2 2 2 2" xfId="1777"/>
-    <cellStyle name="Normal 3 5 2 2 2 3" xfId="1329"/>
-    <cellStyle name="Normal 3 5 2 2 3" xfId="656"/>
-    <cellStyle name="Normal 3 5 2 2 3 2" xfId="1553"/>
-    <cellStyle name="Normal 3 5 2 2 4" xfId="1105"/>
-    <cellStyle name="Normal 3 5 2 3" xfId="320"/>
-    <cellStyle name="Normal 3 5 2 3 2" xfId="768"/>
-    <cellStyle name="Normal 3 5 2 3 2 2" xfId="1665"/>
-    <cellStyle name="Normal 3 5 2 3 3" xfId="1217"/>
-    <cellStyle name="Normal 3 5 2 4" xfId="544"/>
-    <cellStyle name="Normal 3 5 2 4 2" xfId="1441"/>
-    <cellStyle name="Normal 3 5 2 5" xfId="993"/>
-    <cellStyle name="Normal 3 5 3" xfId="152"/>
-    <cellStyle name="Normal 3 5 3 2" xfId="376"/>
-    <cellStyle name="Normal 3 5 3 2 2" xfId="824"/>
-    <cellStyle name="Normal 3 5 3 2 2 2" xfId="1721"/>
-    <cellStyle name="Normal 3 5 3 2 3" xfId="1273"/>
-    <cellStyle name="Normal 3 5 3 3" xfId="600"/>
-    <cellStyle name="Normal 3 5 3 3 2" xfId="1497"/>
-    <cellStyle name="Normal 3 5 3 4" xfId="1049"/>
-    <cellStyle name="Normal 3 5 4" xfId="264"/>
-    <cellStyle name="Normal 3 5 4 2" xfId="712"/>
-    <cellStyle name="Normal 3 5 4 2 2" xfId="1609"/>
-    <cellStyle name="Normal 3 5 4 3" xfId="1161"/>
-    <cellStyle name="Normal 3 5 5" xfId="488"/>
-    <cellStyle name="Normal 3 5 5 2" xfId="1385"/>
-    <cellStyle name="Normal 3 5 6" xfId="937"/>
-    <cellStyle name="Normal 3 6" xfId="79"/>
-    <cellStyle name="Normal 3 6 2" xfId="191"/>
-    <cellStyle name="Normal 3 6 2 2" xfId="415"/>
-    <cellStyle name="Normal 3 6 2 2 2" xfId="863"/>
-    <cellStyle name="Normal 3 6 2 2 2 2" xfId="1760"/>
-    <cellStyle name="Normal 3 6 2 2 3" xfId="1312"/>
-    <cellStyle name="Normal 3 6 2 3" xfId="639"/>
-    <cellStyle name="Normal 3 6 2 3 2" xfId="1536"/>
-    <cellStyle name="Normal 3 6 2 4" xfId="1088"/>
-    <cellStyle name="Normal 3 6 3" xfId="303"/>
-    <cellStyle name="Normal 3 6 3 2" xfId="751"/>
-    <cellStyle name="Normal 3 6 3 2 2" xfId="1648"/>
-    <cellStyle name="Normal 3 6 3 3" xfId="1200"/>
-    <cellStyle name="Normal 3 6 4" xfId="527"/>
-    <cellStyle name="Normal 3 6 4 2" xfId="1424"/>
-    <cellStyle name="Normal 3 6 5" xfId="976"/>
-    <cellStyle name="Normal 3 7" xfId="135"/>
-    <cellStyle name="Normal 3 7 2" xfId="359"/>
-    <cellStyle name="Normal 3 7 2 2" xfId="807"/>
-    <cellStyle name="Normal 3 7 2 2 2" xfId="1704"/>
-    <cellStyle name="Normal 3 7 2 3" xfId="1256"/>
-    <cellStyle name="Normal 3 7 3" xfId="583"/>
-    <cellStyle name="Normal 3 7 3 2" xfId="1480"/>
-    <cellStyle name="Normal 3 7 4" xfId="1032"/>
-    <cellStyle name="Normal 3 8" xfId="247"/>
-    <cellStyle name="Normal 3 8 2" xfId="695"/>
-    <cellStyle name="Normal 3 8 2 2" xfId="1592"/>
-    <cellStyle name="Normal 3 8 3" xfId="1144"/>
-    <cellStyle name="Normal 3 9" xfId="471"/>
-    <cellStyle name="Normal 3 9 2" xfId="1368"/>
-    <cellStyle name="Normal 4" xfId="7"/>
-    <cellStyle name="Normal 4 10" xfId="125"/>
-    <cellStyle name="Normal 4 10 2" xfId="349"/>
-    <cellStyle name="Normal 4 10 2 2" xfId="797"/>
-    <cellStyle name="Normal 4 10 2 2 2" xfId="1694"/>
-    <cellStyle name="Normal 4 10 2 3" xfId="1246"/>
-    <cellStyle name="Normal 4 10 3" xfId="573"/>
-    <cellStyle name="Normal 4 10 3 2" xfId="1470"/>
-    <cellStyle name="Normal 4 10 4" xfId="1022"/>
-    <cellStyle name="Normal 4 11" xfId="237"/>
-    <cellStyle name="Normal 4 11 2" xfId="685"/>
-    <cellStyle name="Normal 4 11 2 2" xfId="1582"/>
-    <cellStyle name="Normal 4 11 3" xfId="1134"/>
-    <cellStyle name="Normal 4 12" xfId="461"/>
-    <cellStyle name="Normal 4 12 2" xfId="1358"/>
-    <cellStyle name="Normal 4 13" xfId="910"/>
-    <cellStyle name="Normal 4 2" xfId="10"/>
-    <cellStyle name="Normal 4 2 2" xfId="14"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="63"/>
-    <cellStyle name="Normal 4 2 2 2 2" xfId="119"/>
-    <cellStyle name="Normal 4 2 2 2 2 2" xfId="231"/>
-    <cellStyle name="Normal 4 2 2 2 2 2 2" xfId="455"/>
-    <cellStyle name="Normal 4 2 2 2 2 2 2 2" xfId="903"/>
-    <cellStyle name="Normal 4 2 2 2 2 2 2 2 2" xfId="1800"/>
-    <cellStyle name="Normal 4 2 2 2 2 2 2 3" xfId="1352"/>
-    <cellStyle name="Normal 4 2 2 2 2 2 3" xfId="679"/>
-    <cellStyle name="Normal 4 2 2 2 2 2 3 2" xfId="1576"/>
-    <cellStyle name="Normal 4 2 2 2 2 2 4" xfId="1128"/>
-    <cellStyle name="Normal 4 2 2 2 2 3" xfId="343"/>
-    <cellStyle name="Normal 4 2 2 2 2 3 2" xfId="791"/>
-    <cellStyle name="Normal 4 2 2 2 2 3 2 2" xfId="1688"/>
-    <cellStyle name="Normal 4 2 2 2 2 3 3" xfId="1240"/>
-    <cellStyle name="Normal 4 2 2 2 2 4" xfId="567"/>
-    <cellStyle name="Normal 4 2 2 2 2 4 2" xfId="1464"/>
-    <cellStyle name="Normal 4 2 2 2 2 5" xfId="1016"/>
-    <cellStyle name="Normal 4 2 2 2 3" xfId="175"/>
-    <cellStyle name="Normal 4 2 2 2 3 2" xfId="399"/>
-    <cellStyle name="Normal 4 2 2 2 3 2 2" xfId="847"/>
-    <cellStyle name="Normal 4 2 2 2 3 2 2 2" xfId="1744"/>
-    <cellStyle name="Normal 4 2 2 2 3 2 3" xfId="1296"/>
-    <cellStyle name="Normal 4 2 2 2 3 3" xfId="623"/>
-    <cellStyle name="Normal 4 2 2 2 3 3 2" xfId="1520"/>
-    <cellStyle name="Normal 4 2 2 2 3 4" xfId="1072"/>
-    <cellStyle name="Normal 4 2 2 2 4" xfId="287"/>
-    <cellStyle name="Normal 4 2 2 2 4 2" xfId="735"/>
-    <cellStyle name="Normal 4 2 2 2 4 2 2" xfId="1632"/>
-    <cellStyle name="Normal 4 2 2 2 4 3" xfId="1184"/>
-    <cellStyle name="Normal 4 2 2 2 5" xfId="511"/>
-    <cellStyle name="Normal 4 2 2 2 5 2" xfId="1408"/>
-    <cellStyle name="Normal 4 2 2 2 6" xfId="960"/>
-    <cellStyle name="Normal 4 2 2 3" xfId="75"/>
-    <cellStyle name="Normal 4 2 2 3 2" xfId="187"/>
-    <cellStyle name="Normal 4 2 2 3 2 2" xfId="411"/>
-    <cellStyle name="Normal 4 2 2 3 2 2 2" xfId="859"/>
-    <cellStyle name="Normal 4 2 2 3 2 2 2 2" xfId="1756"/>
-    <cellStyle name="Normal 4 2 2 3 2 2 3" xfId="1308"/>
-    <cellStyle name="Normal 4 2 2 3 2 3" xfId="635"/>
-    <cellStyle name="Normal 4 2 2 3 2 3 2" xfId="1532"/>
-    <cellStyle name="Normal 4 2 2 3 2 4" xfId="1084"/>
-    <cellStyle name="Normal 4 2 2 3 3" xfId="299"/>
-    <cellStyle name="Normal 4 2 2 3 3 2" xfId="747"/>
-    <cellStyle name="Normal 4 2 2 3 3 2 2" xfId="1644"/>
-    <cellStyle name="Normal 4 2 2 3 3 3" xfId="1196"/>
-    <cellStyle name="Normal 4 2 2 3 4" xfId="523"/>
-    <cellStyle name="Normal 4 2 2 3 4 2" xfId="1420"/>
-    <cellStyle name="Normal 4 2 2 3 5" xfId="972"/>
-    <cellStyle name="Normal 4 2 2 4" xfId="131"/>
-    <cellStyle name="Normal 4 2 2 4 2" xfId="355"/>
-    <cellStyle name="Normal 4 2 2 4 2 2" xfId="803"/>
-    <cellStyle name="Normal 4 2 2 4 2 2 2" xfId="1700"/>
-    <cellStyle name="Normal 4 2 2 4 2 3" xfId="1252"/>
-    <cellStyle name="Normal 4 2 2 4 3" xfId="579"/>
-    <cellStyle name="Normal 4 2 2 4 3 2" xfId="1476"/>
-    <cellStyle name="Normal 4 2 2 4 4" xfId="1028"/>
-    <cellStyle name="Normal 4 2 2 5" xfId="243"/>
-    <cellStyle name="Normal 4 2 2 5 2" xfId="691"/>
-    <cellStyle name="Normal 4 2 2 5 2 2" xfId="1588"/>
-    <cellStyle name="Normal 4 2 2 5 3" xfId="1140"/>
-    <cellStyle name="Normal 4 2 2 6" xfId="467"/>
-    <cellStyle name="Normal 4 2 2 6 2" xfId="1364"/>
-    <cellStyle name="Normal 4 2 2 7" xfId="916"/>
-    <cellStyle name="Normal 4 2 3" xfId="67"/>
-    <cellStyle name="Normal 4 2 3 2" xfId="123"/>
-    <cellStyle name="Normal 4 2 3 2 2" xfId="235"/>
-    <cellStyle name="Normal 4 2 3 2 2 2" xfId="459"/>
-    <cellStyle name="Normal 4 2 3 2 2 2 2" xfId="907"/>
-    <cellStyle name="Normal 4 2 3 2 2 2 2 2" xfId="1804"/>
-    <cellStyle name="Normal 4 2 3 2 2 2 3" xfId="1356"/>
-    <cellStyle name="Normal 4 2 3 2 2 3" xfId="683"/>
-    <cellStyle name="Normal 4 2 3 2 2 3 2" xfId="1580"/>
-    <cellStyle name="Normal 4 2 3 2 2 4" xfId="1132"/>
-    <cellStyle name="Normal 4 2 3 2 3" xfId="347"/>
-    <cellStyle name="Normal 4 2 3 2 3 2" xfId="795"/>
-    <cellStyle name="Normal 4 2 3 2 3 2 2" xfId="1692"/>
-    <cellStyle name="Normal 4 2 3 2 3 3" xfId="1244"/>
-    <cellStyle name="Normal 4 2 3 2 4" xfId="571"/>
-    <cellStyle name="Normal 4 2 3 2 4 2" xfId="1468"/>
-    <cellStyle name="Normal 4 2 3 2 5" xfId="1020"/>
-    <cellStyle name="Normal 4 2 3 3" xfId="179"/>
-    <cellStyle name="Normal 4 2 3 3 2" xfId="403"/>
-    <cellStyle name="Normal 4 2 3 3 2 2" xfId="851"/>
-    <cellStyle name="Normal 4 2 3 3 2 2 2" xfId="1748"/>
-    <cellStyle name="Normal 4 2 3 3 2 3" xfId="1300"/>
-    <cellStyle name="Normal 4 2 3 3 3" xfId="627"/>
-    <cellStyle name="Normal 4 2 3 3 3 2" xfId="1524"/>
-    <cellStyle name="Normal 4 2 3 3 4" xfId="1076"/>
-    <cellStyle name="Normal 4 2 3 4" xfId="291"/>
-    <cellStyle name="Normal 4 2 3 4 2" xfId="739"/>
-    <cellStyle name="Normal 4 2 3 4 2 2" xfId="1636"/>
-    <cellStyle name="Normal 4 2 3 4 3" xfId="1188"/>
-    <cellStyle name="Normal 4 2 3 5" xfId="515"/>
-    <cellStyle name="Normal 4 2 3 5 2" xfId="1412"/>
-    <cellStyle name="Normal 4 2 3 6" xfId="964"/>
-    <cellStyle name="Normal 4 2 4" xfId="59"/>
-    <cellStyle name="Normal 4 2 4 2" xfId="115"/>
-    <cellStyle name="Normal 4 2 4 2 2" xfId="227"/>
-    <cellStyle name="Normal 4 2 4 2 2 2" xfId="451"/>
-    <cellStyle name="Normal 4 2 4 2 2 2 2" xfId="899"/>
-    <cellStyle name="Normal 4 2 4 2 2 2 2 2" xfId="1796"/>
-    <cellStyle name="Normal 4 2 4 2 2 2 3" xfId="1348"/>
-    <cellStyle name="Normal 4 2 4 2 2 3" xfId="675"/>
-    <cellStyle name="Normal 4 2 4 2 2 3 2" xfId="1572"/>
-    <cellStyle name="Normal 4 2 4 2 2 4" xfId="1124"/>
-    <cellStyle name="Normal 4 2 4 2 3" xfId="339"/>
-    <cellStyle name="Normal 4 2 4 2 3 2" xfId="787"/>
-    <cellStyle name="Normal 4 2 4 2 3 2 2" xfId="1684"/>
-    <cellStyle name="Normal 4 2 4 2 3 3" xfId="1236"/>
-    <cellStyle name="Normal 4 2 4 2 4" xfId="563"/>
-    <cellStyle name="Normal 4 2 4 2 4 2" xfId="1460"/>
-    <cellStyle name="Normal 4 2 4 2 5" xfId="1012"/>
-    <cellStyle name="Normal 4 2 4 3" xfId="171"/>
-    <cellStyle name="Normal 4 2 4 3 2" xfId="395"/>
-    <cellStyle name="Normal 4 2 4 3 2 2" xfId="843"/>
-    <cellStyle name="Normal 4 2 4 3 2 2 2" xfId="1740"/>
-    <cellStyle name="Normal 4 2 4 3 2 3" xfId="1292"/>
-    <cellStyle name="Normal 4 2 4 3 3" xfId="619"/>
-    <cellStyle name="Normal 4 2 4 3 3 2" xfId="1516"/>
-    <cellStyle name="Normal 4 2 4 3 4" xfId="1068"/>
-    <cellStyle name="Normal 4 2 4 4" xfId="283"/>
-    <cellStyle name="Normal 4 2 4 4 2" xfId="731"/>
-    <cellStyle name="Normal 4 2 4 4 2 2" xfId="1628"/>
-    <cellStyle name="Normal 4 2 4 4 3" xfId="1180"/>
-    <cellStyle name="Normal 4 2 4 5" xfId="507"/>
-    <cellStyle name="Normal 4 2 4 5 2" xfId="1404"/>
-    <cellStyle name="Normal 4 2 4 6" xfId="956"/>
-    <cellStyle name="Normal 4 2 5" xfId="71"/>
-    <cellStyle name="Normal 4 2 5 2" xfId="183"/>
-    <cellStyle name="Normal 4 2 5 2 2" xfId="407"/>
-    <cellStyle name="Normal 4 2 5 2 2 2" xfId="855"/>
-    <cellStyle name="Normal 4 2 5 2 2 2 2" xfId="1752"/>
-    <cellStyle name="Normal 4 2 5 2 2 3" xfId="1304"/>
-    <cellStyle name="Normal 4 2 5 2 3" xfId="631"/>
-    <cellStyle name="Normal 4 2 5 2 3 2" xfId="1528"/>
-    <cellStyle name="Normal 4 2 5 2 4" xfId="1080"/>
-    <cellStyle name="Normal 4 2 5 3" xfId="295"/>
-    <cellStyle name="Normal 4 2 5 3 2" xfId="743"/>
-    <cellStyle name="Normal 4 2 5 3 2 2" xfId="1640"/>
-    <cellStyle name="Normal 4 2 5 3 3" xfId="1192"/>
-    <cellStyle name="Normal 4 2 5 4" xfId="519"/>
-    <cellStyle name="Normal 4 2 5 4 2" xfId="1416"/>
-    <cellStyle name="Normal 4 2 5 5" xfId="968"/>
-    <cellStyle name="Normal 4 2 6" xfId="127"/>
-    <cellStyle name="Normal 4 2 6 2" xfId="351"/>
-    <cellStyle name="Normal 4 2 6 2 2" xfId="799"/>
-    <cellStyle name="Normal 4 2 6 2 2 2" xfId="1696"/>
-    <cellStyle name="Normal 4 2 6 2 3" xfId="1248"/>
-    <cellStyle name="Normal 4 2 6 3" xfId="575"/>
-    <cellStyle name="Normal 4 2 6 3 2" xfId="1472"/>
-    <cellStyle name="Normal 4 2 6 4" xfId="1024"/>
-    <cellStyle name="Normal 4 2 7" xfId="239"/>
-    <cellStyle name="Normal 4 2 7 2" xfId="687"/>
-    <cellStyle name="Normal 4 2 7 2 2" xfId="1584"/>
-    <cellStyle name="Normal 4 2 7 3" xfId="1136"/>
-    <cellStyle name="Normal 4 2 8" xfId="463"/>
-    <cellStyle name="Normal 4 2 8 2" xfId="1360"/>
-    <cellStyle name="Normal 4 2 9" xfId="912"/>
-    <cellStyle name="Normal 4 3" xfId="11"/>
-    <cellStyle name="Normal 4 3 2" xfId="15"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="64"/>
-    <cellStyle name="Normal 4 3 2 2 2" xfId="120"/>
-    <cellStyle name="Normal 4 3 2 2 2 2" xfId="232"/>
-    <cellStyle name="Normal 4 3 2 2 2 2 2" xfId="456"/>
-    <cellStyle name="Normal 4 3 2 2 2 2 2 2" xfId="904"/>
-    <cellStyle name="Normal 4 3 2 2 2 2 2 2 2" xfId="1801"/>
-    <cellStyle name="Normal 4 3 2 2 2 2 2 3" xfId="1353"/>
-    <cellStyle name="Normal 4 3 2 2 2 2 3" xfId="680"/>
-    <cellStyle name="Normal 4 3 2 2 2 2 3 2" xfId="1577"/>
-    <cellStyle name="Normal 4 3 2 2 2 2 4" xfId="1129"/>
-    <cellStyle name="Normal 4 3 2 2 2 3" xfId="344"/>
-    <cellStyle name="Normal 4 3 2 2 2 3 2" xfId="792"/>
-    <cellStyle name="Normal 4 3 2 2 2 3 2 2" xfId="1689"/>
-    <cellStyle name="Normal 4 3 2 2 2 3 3" xfId="1241"/>
-    <cellStyle name="Normal 4 3 2 2 2 4" xfId="568"/>
-    <cellStyle name="Normal 4 3 2 2 2 4 2" xfId="1465"/>
-    <cellStyle name="Normal 4 3 2 2 2 5" xfId="1017"/>
-    <cellStyle name="Normal 4 3 2 2 3" xfId="176"/>
-    <cellStyle name="Normal 4 3 2 2 3 2" xfId="400"/>
-    <cellStyle name="Normal 4 3 2 2 3 2 2" xfId="848"/>
-    <cellStyle name="Normal 4 3 2 2 3 2 2 2" xfId="1745"/>
-    <cellStyle name="Normal 4 3 2 2 3 2 3" xfId="1297"/>
-    <cellStyle name="Normal 4 3 2 2 3 3" xfId="624"/>
-    <cellStyle name="Normal 4 3 2 2 3 3 2" xfId="1521"/>
-    <cellStyle name="Normal 4 3 2 2 3 4" xfId="1073"/>
-    <cellStyle name="Normal 4 3 2 2 4" xfId="288"/>
-    <cellStyle name="Normal 4 3 2 2 4 2" xfId="736"/>
-    <cellStyle name="Normal 4 3 2 2 4 2 2" xfId="1633"/>
-    <cellStyle name="Normal 4 3 2 2 4 3" xfId="1185"/>
-    <cellStyle name="Normal 4 3 2 2 5" xfId="512"/>
-    <cellStyle name="Normal 4 3 2 2 5 2" xfId="1409"/>
-    <cellStyle name="Normal 4 3 2 2 6" xfId="961"/>
-    <cellStyle name="Normal 4 3 2 3" xfId="76"/>
-    <cellStyle name="Normal 4 3 2 3 2" xfId="188"/>
-    <cellStyle name="Normal 4 3 2 3 2 2" xfId="412"/>
-    <cellStyle name="Normal 4 3 2 3 2 2 2" xfId="860"/>
-    <cellStyle name="Normal 4 3 2 3 2 2 2 2" xfId="1757"/>
-    <cellStyle name="Normal 4 3 2 3 2 2 3" xfId="1309"/>
-    <cellStyle name="Normal 4 3 2 3 2 3" xfId="636"/>
-    <cellStyle name="Normal 4 3 2 3 2 3 2" xfId="1533"/>
-    <cellStyle name="Normal 4 3 2 3 2 4" xfId="1085"/>
-    <cellStyle name="Normal 4 3 2 3 3" xfId="300"/>
-    <cellStyle name="Normal 4 3 2 3 3 2" xfId="748"/>
-    <cellStyle name="Normal 4 3 2 3 3 2 2" xfId="1645"/>
-    <cellStyle name="Normal 4 3 2 3 3 3" xfId="1197"/>
-    <cellStyle name="Normal 4 3 2 3 4" xfId="524"/>
-    <cellStyle name="Normal 4 3 2 3 4 2" xfId="1421"/>
-    <cellStyle name="Normal 4 3 2 3 5" xfId="973"/>
-    <cellStyle name="Normal 4 3 2 4" xfId="132"/>
-    <cellStyle name="Normal 4 3 2 4 2" xfId="356"/>
-    <cellStyle name="Normal 4 3 2 4 2 2" xfId="804"/>
-    <cellStyle name="Normal 4 3 2 4 2 2 2" xfId="1701"/>
-    <cellStyle name="Normal 4 3 2 4 2 3" xfId="1253"/>
-    <cellStyle name="Normal 4 3 2 4 3" xfId="580"/>
-    <cellStyle name="Normal 4 3 2 4 3 2" xfId="1477"/>
-    <cellStyle name="Normal 4 3 2 4 4" xfId="1029"/>
-    <cellStyle name="Normal 4 3 2 5" xfId="244"/>
-    <cellStyle name="Normal 4 3 2 5 2" xfId="692"/>
-    <cellStyle name="Normal 4 3 2 5 2 2" xfId="1589"/>
-    <cellStyle name="Normal 4 3 2 5 3" xfId="1141"/>
-    <cellStyle name="Normal 4 3 2 6" xfId="468"/>
-    <cellStyle name="Normal 4 3 2 6 2" xfId="1365"/>
-    <cellStyle name="Normal 4 3 2 7" xfId="917"/>
-    <cellStyle name="Normal 4 3 3" xfId="68"/>
-    <cellStyle name="Normal 4 3 3 2" xfId="124"/>
-    <cellStyle name="Normal 4 3 3 2 2" xfId="236"/>
-    <cellStyle name="Normal 4 3 3 2 2 2" xfId="460"/>
-    <cellStyle name="Normal 4 3 3 2 2 2 2" xfId="908"/>
-    <cellStyle name="Normal 4 3 3 2 2 2 2 2" xfId="1805"/>
-    <cellStyle name="Normal 4 3 3 2 2 2 3" xfId="1357"/>
-    <cellStyle name="Normal 4 3 3 2 2 3" xfId="684"/>
-    <cellStyle name="Normal 4 3 3 2 2 3 2" xfId="1581"/>
-    <cellStyle name="Normal 4 3 3 2 2 4" xfId="1133"/>
-    <cellStyle name="Normal 4 3 3 2 3" xfId="348"/>
-    <cellStyle name="Normal 4 3 3 2 3 2" xfId="796"/>
-    <cellStyle name="Normal 4 3 3 2 3 2 2" xfId="1693"/>
-    <cellStyle name="Normal 4 3 3 2 3 3" xfId="1245"/>
-    <cellStyle name="Normal 4 3 3 2 4" xfId="572"/>
-    <cellStyle name="Normal 4 3 3 2 4 2" xfId="1469"/>
-    <cellStyle name="Normal 4 3 3 2 5" xfId="1021"/>
-    <cellStyle name="Normal 4 3 3 3" xfId="180"/>
-    <cellStyle name="Normal 4 3 3 3 2" xfId="404"/>
-    <cellStyle name="Normal 4 3 3 3 2 2" xfId="852"/>
-    <cellStyle name="Normal 4 3 3 3 2 2 2" xfId="1749"/>
-    <cellStyle name="Normal 4 3 3 3 2 3" xfId="1301"/>
-    <cellStyle name="Normal 4 3 3 3 3" xfId="628"/>
-    <cellStyle name="Normal 4 3 3 3 3 2" xfId="1525"/>
-    <cellStyle name="Normal 4 3 3 3 4" xfId="1077"/>
-    <cellStyle name="Normal 4 3 3 4" xfId="292"/>
-    <cellStyle name="Normal 4 3 3 4 2" xfId="740"/>
-    <cellStyle name="Normal 4 3 3 4 2 2" xfId="1637"/>
-    <cellStyle name="Normal 4 3 3 4 3" xfId="1189"/>
-    <cellStyle name="Normal 4 3 3 5" xfId="516"/>
-    <cellStyle name="Normal 4 3 3 5 2" xfId="1413"/>
-    <cellStyle name="Normal 4 3 3 6" xfId="965"/>
-    <cellStyle name="Normal 4 3 4" xfId="60"/>
-    <cellStyle name="Normal 4 3 4 2" xfId="116"/>
-    <cellStyle name="Normal 4 3 4 2 2" xfId="228"/>
-    <cellStyle name="Normal 4 3 4 2 2 2" xfId="452"/>
-    <cellStyle name="Normal 4 3 4 2 2 2 2" xfId="900"/>
-    <cellStyle name="Normal 4 3 4 2 2 2 2 2" xfId="1797"/>
-    <cellStyle name="Normal 4 3 4 2 2 2 3" xfId="1349"/>
-    <cellStyle name="Normal 4 3 4 2 2 3" xfId="676"/>
-    <cellStyle name="Normal 4 3 4 2 2 3 2" xfId="1573"/>
-    <cellStyle name="Normal 4 3 4 2 2 4" xfId="1125"/>
-    <cellStyle name="Normal 4 3 4 2 3" xfId="340"/>
-    <cellStyle name="Normal 4 3 4 2 3 2" xfId="788"/>
-    <cellStyle name="Normal 4 3 4 2 3 2 2" xfId="1685"/>
-    <cellStyle name="Normal 4 3 4 2 3 3" xfId="1237"/>
-    <cellStyle name="Normal 4 3 4 2 4" xfId="564"/>
-    <cellStyle name="Normal 4 3 4 2 4 2" xfId="1461"/>
-    <cellStyle name="Normal 4 3 4 2 5" xfId="1013"/>
-    <cellStyle name="Normal 4 3 4 3" xfId="172"/>
-    <cellStyle name="Normal 4 3 4 3 2" xfId="396"/>
-    <cellStyle name="Normal 4 3 4 3 2 2" xfId="844"/>
-    <cellStyle name="Normal 4 3 4 3 2 2 2" xfId="1741"/>
-    <cellStyle name="Normal 4 3 4 3 2 3" xfId="1293"/>
-    <cellStyle name="Normal 4 3 4 3 3" xfId="620"/>
-    <cellStyle name="Normal 4 3 4 3 3 2" xfId="1517"/>
-    <cellStyle name="Normal 4 3 4 3 4" xfId="1069"/>
-    <cellStyle name="Normal 4 3 4 4" xfId="284"/>
-    <cellStyle name="Normal 4 3 4 4 2" xfId="732"/>
-    <cellStyle name="Normal 4 3 4 4 2 2" xfId="1629"/>
-    <cellStyle name="Normal 4 3 4 4 3" xfId="1181"/>
-    <cellStyle name="Normal 4 3 4 5" xfId="508"/>
-    <cellStyle name="Normal 4 3 4 5 2" xfId="1405"/>
-    <cellStyle name="Normal 4 3 4 6" xfId="957"/>
-    <cellStyle name="Normal 4 3 5" xfId="72"/>
-    <cellStyle name="Normal 4 3 5 2" xfId="184"/>
-    <cellStyle name="Normal 4 3 5 2 2" xfId="408"/>
-    <cellStyle name="Normal 4 3 5 2 2 2" xfId="856"/>
-    <cellStyle name="Normal 4 3 5 2 2 2 2" xfId="1753"/>
-    <cellStyle name="Normal 4 3 5 2 2 3" xfId="1305"/>
-    <cellStyle name="Normal 4 3 5 2 3" xfId="632"/>
-    <cellStyle name="Normal 4 3 5 2 3 2" xfId="1529"/>
-    <cellStyle name="Normal 4 3 5 2 4" xfId="1081"/>
-    <cellStyle name="Normal 4 3 5 3" xfId="296"/>
-    <cellStyle name="Normal 4 3 5 3 2" xfId="744"/>
-    <cellStyle name="Normal 4 3 5 3 2 2" xfId="1641"/>
-    <cellStyle name="Normal 4 3 5 3 3" xfId="1193"/>
-    <cellStyle name="Normal 4 3 5 4" xfId="520"/>
-    <cellStyle name="Normal 4 3 5 4 2" xfId="1417"/>
-    <cellStyle name="Normal 4 3 5 5" xfId="969"/>
-    <cellStyle name="Normal 4 3 6" xfId="128"/>
-    <cellStyle name="Normal 4 3 6 2" xfId="352"/>
-    <cellStyle name="Normal 4 3 6 2 2" xfId="800"/>
-    <cellStyle name="Normal 4 3 6 2 2 2" xfId="1697"/>
-    <cellStyle name="Normal 4 3 6 2 3" xfId="1249"/>
-    <cellStyle name="Normal 4 3 6 3" xfId="576"/>
-    <cellStyle name="Normal 4 3 6 3 2" xfId="1473"/>
-    <cellStyle name="Normal 4 3 6 4" xfId="1025"/>
-    <cellStyle name="Normal 4 3 7" xfId="240"/>
-    <cellStyle name="Normal 4 3 7 2" xfId="688"/>
-    <cellStyle name="Normal 4 3 7 2 2" xfId="1585"/>
-    <cellStyle name="Normal 4 3 7 3" xfId="1137"/>
-    <cellStyle name="Normal 4 3 8" xfId="464"/>
-    <cellStyle name="Normal 4 3 8 2" xfId="1361"/>
-    <cellStyle name="Normal 4 3 9" xfId="913"/>
-    <cellStyle name="Normal 4 4" xfId="9"/>
-    <cellStyle name="Normal 4 4 2" xfId="13"/>
-    <cellStyle name="Normal 4 4 2 2" xfId="62"/>
-    <cellStyle name="Normal 4 4 2 2 2" xfId="118"/>
-    <cellStyle name="Normal 4 4 2 2 2 2" xfId="230"/>
-    <cellStyle name="Normal 4 4 2 2 2 2 2" xfId="454"/>
-    <cellStyle name="Normal 4 4 2 2 2 2 2 2" xfId="902"/>
-    <cellStyle name="Normal 4 4 2 2 2 2 2 2 2" xfId="1799"/>
-    <cellStyle name="Normal 4 4 2 2 2 2 2 3" xfId="1351"/>
-    <cellStyle name="Normal 4 4 2 2 2 2 3" xfId="678"/>
-    <cellStyle name="Normal 4 4 2 2 2 2 3 2" xfId="1575"/>
-    <cellStyle name="Normal 4 4 2 2 2 2 4" xfId="1127"/>
-    <cellStyle name="Normal 4 4 2 2 2 3" xfId="342"/>
-    <cellStyle name="Normal 4 4 2 2 2 3 2" xfId="790"/>
-    <cellStyle name="Normal 4 4 2 2 2 3 2 2" xfId="1687"/>
-    <cellStyle name="Normal 4 4 2 2 2 3 3" xfId="1239"/>
-    <cellStyle name="Normal 4 4 2 2 2 4" xfId="566"/>
-    <cellStyle name="Normal 4 4 2 2 2 4 2" xfId="1463"/>
-    <cellStyle name="Normal 4 4 2 2 2 5" xfId="1015"/>
-    <cellStyle name="Normal 4 4 2 2 3" xfId="174"/>
-    <cellStyle name="Normal 4 4 2 2 3 2" xfId="398"/>
-    <cellStyle name="Normal 4 4 2 2 3 2 2" xfId="846"/>
-    <cellStyle name="Normal 4 4 2 2 3 2 2 2" xfId="1743"/>
-    <cellStyle name="Normal 4 4 2 2 3 2 3" xfId="1295"/>
-    <cellStyle name="Normal 4 4 2 2 3 3" xfId="622"/>
-    <cellStyle name="Normal 4 4 2 2 3 3 2" xfId="1519"/>
-    <cellStyle name="Normal 4 4 2 2 3 4" xfId="1071"/>
-    <cellStyle name="Normal 4 4 2 2 4" xfId="286"/>
-    <cellStyle name="Normal 4 4 2 2 4 2" xfId="734"/>
-    <cellStyle name="Normal 4 4 2 2 4 2 2" xfId="1631"/>
-    <cellStyle name="Normal 4 4 2 2 4 3" xfId="1183"/>
-    <cellStyle name="Normal 4 4 2 2 5" xfId="510"/>
-    <cellStyle name="Normal 4 4 2 2 5 2" xfId="1407"/>
-    <cellStyle name="Normal 4 4 2 2 6" xfId="959"/>
-    <cellStyle name="Normal 4 4 2 3" xfId="74"/>
-    <cellStyle name="Normal 4 4 2 3 2" xfId="186"/>
-    <cellStyle name="Normal 4 4 2 3 2 2" xfId="410"/>
-    <cellStyle name="Normal 4 4 2 3 2 2 2" xfId="858"/>
-    <cellStyle name="Normal 4 4 2 3 2 2 2 2" xfId="1755"/>
-    <cellStyle name="Normal 4 4 2 3 2 2 3" xfId="1307"/>
-    <cellStyle name="Normal 4 4 2 3 2 3" xfId="634"/>
-    <cellStyle name="Normal 4 4 2 3 2 3 2" xfId="1531"/>
-    <cellStyle name="Normal 4 4 2 3 2 4" xfId="1083"/>
-    <cellStyle name="Normal 4 4 2 3 3" xfId="298"/>
-    <cellStyle name="Normal 4 4 2 3 3 2" xfId="746"/>
-    <cellStyle name="Normal 4 4 2 3 3 2 2" xfId="1643"/>
-    <cellStyle name="Normal 4 4 2 3 3 3" xfId="1195"/>
-    <cellStyle name="Normal 4 4 2 3 4" xfId="522"/>
-    <cellStyle name="Normal 4 4 2 3 4 2" xfId="1419"/>
-    <cellStyle name="Normal 4 4 2 3 5" xfId="971"/>
-    <cellStyle name="Normal 4 4 2 4" xfId="130"/>
-    <cellStyle name="Normal 4 4 2 4 2" xfId="354"/>
-    <cellStyle name="Normal 4 4 2 4 2 2" xfId="802"/>
-    <cellStyle name="Normal 4 4 2 4 2 2 2" xfId="1699"/>
-    <cellStyle name="Normal 4 4 2 4 2 3" xfId="1251"/>
-    <cellStyle name="Normal 4 4 2 4 3" xfId="578"/>
-    <cellStyle name="Normal 4 4 2 4 3 2" xfId="1475"/>
-    <cellStyle name="Normal 4 4 2 4 4" xfId="1027"/>
-    <cellStyle name="Normal 4 4 2 5" xfId="242"/>
-    <cellStyle name="Normal 4 4 2 5 2" xfId="690"/>
-    <cellStyle name="Normal 4 4 2 5 2 2" xfId="1587"/>
-    <cellStyle name="Normal 4 4 2 5 3" xfId="1139"/>
-    <cellStyle name="Normal 4 4 2 6" xfId="466"/>
-    <cellStyle name="Normal 4 4 2 6 2" xfId="1363"/>
-    <cellStyle name="Normal 4 4 2 7" xfId="915"/>
-    <cellStyle name="Normal 4 4 3" xfId="58"/>
-    <cellStyle name="Normal 4 4 3 2" xfId="114"/>
-    <cellStyle name="Normal 4 4 3 2 2" xfId="226"/>
-    <cellStyle name="Normal 4 4 3 2 2 2" xfId="450"/>
-    <cellStyle name="Normal 4 4 3 2 2 2 2" xfId="898"/>
-    <cellStyle name="Normal 4 4 3 2 2 2 2 2" xfId="1795"/>
-    <cellStyle name="Normal 4 4 3 2 2 2 3" xfId="1347"/>
-    <cellStyle name="Normal 4 4 3 2 2 3" xfId="674"/>
-    <cellStyle name="Normal 4 4 3 2 2 3 2" xfId="1571"/>
-    <cellStyle name="Normal 4 4 3 2 2 4" xfId="1123"/>
-    <cellStyle name="Normal 4 4 3 2 3" xfId="338"/>
-    <cellStyle name="Normal 4 4 3 2 3 2" xfId="786"/>
-    <cellStyle name="Normal 4 4 3 2 3 2 2" xfId="1683"/>
-    <cellStyle name="Normal 4 4 3 2 3 3" xfId="1235"/>
-    <cellStyle name="Normal 4 4 3 2 4" xfId="562"/>
-    <cellStyle name="Normal 4 4 3 2 4 2" xfId="1459"/>
-    <cellStyle name="Normal 4 4 3 2 5" xfId="1011"/>
-    <cellStyle name="Normal 4 4 3 3" xfId="170"/>
-    <cellStyle name="Normal 4 4 3 3 2" xfId="394"/>
-    <cellStyle name="Normal 4 4 3 3 2 2" xfId="842"/>
-    <cellStyle name="Normal 4 4 3 3 2 2 2" xfId="1739"/>
-    <cellStyle name="Normal 4 4 3 3 2 3" xfId="1291"/>
-    <cellStyle name="Normal 4 4 3 3 3" xfId="618"/>
-    <cellStyle name="Normal 4 4 3 3 3 2" xfId="1515"/>
-    <cellStyle name="Normal 4 4 3 3 4" xfId="1067"/>
-    <cellStyle name="Normal 4 4 3 4" xfId="282"/>
-    <cellStyle name="Normal 4 4 3 4 2" xfId="730"/>
-    <cellStyle name="Normal 4 4 3 4 2 2" xfId="1627"/>
-    <cellStyle name="Normal 4 4 3 4 3" xfId="1179"/>
-    <cellStyle name="Normal 4 4 3 5" xfId="506"/>
-    <cellStyle name="Normal 4 4 3 5 2" xfId="1403"/>
-    <cellStyle name="Normal 4 4 3 6" xfId="955"/>
-    <cellStyle name="Normal 4 4 4" xfId="70"/>
-    <cellStyle name="Normal 4 4 4 2" xfId="182"/>
-    <cellStyle name="Normal 4 4 4 2 2" xfId="406"/>
-    <cellStyle name="Normal 4 4 4 2 2 2" xfId="854"/>
-    <cellStyle name="Normal 4 4 4 2 2 2 2" xfId="1751"/>
-    <cellStyle name="Normal 4 4 4 2 2 3" xfId="1303"/>
-    <cellStyle name="Normal 4 4 4 2 3" xfId="630"/>
-    <cellStyle name="Normal 4 4 4 2 3 2" xfId="1527"/>
-    <cellStyle name="Normal 4 4 4 2 4" xfId="1079"/>
-    <cellStyle name="Normal 4 4 4 3" xfId="294"/>
-    <cellStyle name="Normal 4 4 4 3 2" xfId="742"/>
-    <cellStyle name="Normal 4 4 4 3 2 2" xfId="1639"/>
-    <cellStyle name="Normal 4 4 4 3 3" xfId="1191"/>
-    <cellStyle name="Normal 4 4 4 4" xfId="518"/>
-    <cellStyle name="Normal 4 4 4 4 2" xfId="1415"/>
-    <cellStyle name="Normal 4 4 4 5" xfId="967"/>
-    <cellStyle name="Normal 4 4 5" xfId="126"/>
-    <cellStyle name="Normal 4 4 5 2" xfId="350"/>
-    <cellStyle name="Normal 4 4 5 2 2" xfId="798"/>
-    <cellStyle name="Normal 4 4 5 2 2 2" xfId="1695"/>
-    <cellStyle name="Normal 4 4 5 2 3" xfId="1247"/>
-    <cellStyle name="Normal 4 4 5 3" xfId="574"/>
-    <cellStyle name="Normal 4 4 5 3 2" xfId="1471"/>
-    <cellStyle name="Normal 4 4 5 4" xfId="1023"/>
-    <cellStyle name="Normal 4 4 6" xfId="238"/>
-    <cellStyle name="Normal 4 4 6 2" xfId="686"/>
-    <cellStyle name="Normal 4 4 6 2 2" xfId="1583"/>
-    <cellStyle name="Normal 4 4 6 3" xfId="1135"/>
-    <cellStyle name="Normal 4 4 7" xfId="462"/>
-    <cellStyle name="Normal 4 4 7 2" xfId="1359"/>
-    <cellStyle name="Normal 4 4 8" xfId="911"/>
-    <cellStyle name="Normal 4 5" xfId="12"/>
-    <cellStyle name="Normal 4 5 2" xfId="61"/>
-    <cellStyle name="Normal 4 5 2 2" xfId="117"/>
-    <cellStyle name="Normal 4 5 2 2 2" xfId="229"/>
-    <cellStyle name="Normal 4 5 2 2 2 2" xfId="453"/>
-    <cellStyle name="Normal 4 5 2 2 2 2 2" xfId="901"/>
-    <cellStyle name="Normal 4 5 2 2 2 2 2 2" xfId="1798"/>
-    <cellStyle name="Normal 4 5 2 2 2 2 3" xfId="1350"/>
-    <cellStyle name="Normal 4 5 2 2 2 3" xfId="677"/>
-    <cellStyle name="Normal 4 5 2 2 2 3 2" xfId="1574"/>
-    <cellStyle name="Normal 4 5 2 2 2 4" xfId="1126"/>
-    <cellStyle name="Normal 4 5 2 2 3" xfId="341"/>
-    <cellStyle name="Normal 4 5 2 2 3 2" xfId="789"/>
-    <cellStyle name="Normal 4 5 2 2 3 2 2" xfId="1686"/>
-    <cellStyle name="Normal 4 5 2 2 3 3" xfId="1238"/>
-    <cellStyle name="Normal 4 5 2 2 4" xfId="565"/>
-    <cellStyle name="Normal 4 5 2 2 4 2" xfId="1462"/>
-    <cellStyle name="Normal 4 5 2 2 5" xfId="1014"/>
-    <cellStyle name="Normal 4 5 2 3" xfId="173"/>
-    <cellStyle name="Normal 4 5 2 3 2" xfId="397"/>
-    <cellStyle name="Normal 4 5 2 3 2 2" xfId="845"/>
-    <cellStyle name="Normal 4 5 2 3 2 2 2" xfId="1742"/>
-    <cellStyle name="Normal 4 5 2 3 2 3" xfId="1294"/>
-    <cellStyle name="Normal 4 5 2 3 3" xfId="621"/>
-    <cellStyle name="Normal 4 5 2 3 3 2" xfId="1518"/>
-    <cellStyle name="Normal 4 5 2 3 4" xfId="1070"/>
-    <cellStyle name="Normal 4 5 2 4" xfId="285"/>
-    <cellStyle name="Normal 4 5 2 4 2" xfId="733"/>
-    <cellStyle name="Normal 4 5 2 4 2 2" xfId="1630"/>
-    <cellStyle name="Normal 4 5 2 4 3" xfId="1182"/>
-    <cellStyle name="Normal 4 5 2 5" xfId="509"/>
-    <cellStyle name="Normal 4 5 2 5 2" xfId="1406"/>
-    <cellStyle name="Normal 4 5 2 6" xfId="958"/>
-    <cellStyle name="Normal 4 5 3" xfId="73"/>
-    <cellStyle name="Normal 4 5 3 2" xfId="185"/>
-    <cellStyle name="Normal 4 5 3 2 2" xfId="409"/>
-    <cellStyle name="Normal 4 5 3 2 2 2" xfId="857"/>
-    <cellStyle name="Normal 4 5 3 2 2 2 2" xfId="1754"/>
-    <cellStyle name="Normal 4 5 3 2 2 3" xfId="1306"/>
-    <cellStyle name="Normal 4 5 3 2 3" xfId="633"/>
-    <cellStyle name="Normal 4 5 3 2 3 2" xfId="1530"/>
-    <cellStyle name="Normal 4 5 3 2 4" xfId="1082"/>
-    <cellStyle name="Normal 4 5 3 3" xfId="297"/>
-    <cellStyle name="Normal 4 5 3 3 2" xfId="745"/>
-    <cellStyle name="Normal 4 5 3 3 2 2" xfId="1642"/>
-    <cellStyle name="Normal 4 5 3 3 3" xfId="1194"/>
-    <cellStyle name="Normal 4 5 3 4" xfId="521"/>
-    <cellStyle name="Normal 4 5 3 4 2" xfId="1418"/>
-    <cellStyle name="Normal 4 5 3 5" xfId="970"/>
-    <cellStyle name="Normal 4 5 4" xfId="129"/>
-    <cellStyle name="Normal 4 5 4 2" xfId="353"/>
-    <cellStyle name="Normal 4 5 4 2 2" xfId="801"/>
-    <cellStyle name="Normal 4 5 4 2 2 2" xfId="1698"/>
-    <cellStyle name="Normal 4 5 4 2 3" xfId="1250"/>
-    <cellStyle name="Normal 4 5 4 3" xfId="577"/>
-    <cellStyle name="Normal 4 5 4 3 2" xfId="1474"/>
-    <cellStyle name="Normal 4 5 4 4" xfId="1026"/>
-    <cellStyle name="Normal 4 5 5" xfId="241"/>
-    <cellStyle name="Normal 4 5 5 2" xfId="689"/>
-    <cellStyle name="Normal 4 5 5 2 2" xfId="1586"/>
-    <cellStyle name="Normal 4 5 5 3" xfId="1138"/>
-    <cellStyle name="Normal 4 5 6" xfId="465"/>
-    <cellStyle name="Normal 4 5 6 2" xfId="1362"/>
-    <cellStyle name="Normal 4 5 7" xfId="914"/>
-    <cellStyle name="Normal 4 6" xfId="57"/>
-    <cellStyle name="Normal 4 6 2" xfId="113"/>
-    <cellStyle name="Normal 4 6 2 2" xfId="225"/>
-    <cellStyle name="Normal 4 6 2 2 2" xfId="449"/>
-    <cellStyle name="Normal 4 6 2 2 2 2" xfId="897"/>
-    <cellStyle name="Normal 4 6 2 2 2 2 2" xfId="1794"/>
-    <cellStyle name="Normal 4 6 2 2 2 3" xfId="1346"/>
-    <cellStyle name="Normal 4 6 2 2 3" xfId="673"/>
-    <cellStyle name="Normal 4 6 2 2 3 2" xfId="1570"/>
-    <cellStyle name="Normal 4 6 2 2 4" xfId="1122"/>
-    <cellStyle name="Normal 4 6 2 3" xfId="337"/>
-    <cellStyle name="Normal 4 6 2 3 2" xfId="785"/>
-    <cellStyle name="Normal 4 6 2 3 2 2" xfId="1682"/>
-    <cellStyle name="Normal 4 6 2 3 3" xfId="1234"/>
-    <cellStyle name="Normal 4 6 2 4" xfId="561"/>
-    <cellStyle name="Normal 4 6 2 4 2" xfId="1458"/>
-    <cellStyle name="Normal 4 6 2 5" xfId="1010"/>
-    <cellStyle name="Normal 4 6 3" xfId="169"/>
-    <cellStyle name="Normal 4 6 3 2" xfId="393"/>
-    <cellStyle name="Normal 4 6 3 2 2" xfId="841"/>
-    <cellStyle name="Normal 4 6 3 2 2 2" xfId="1738"/>
-    <cellStyle name="Normal 4 6 3 2 3" xfId="1290"/>
-    <cellStyle name="Normal 4 6 3 3" xfId="617"/>
-    <cellStyle name="Normal 4 6 3 3 2" xfId="1514"/>
-    <cellStyle name="Normal 4 6 3 4" xfId="1066"/>
-    <cellStyle name="Normal 4 6 4" xfId="281"/>
-    <cellStyle name="Normal 4 6 4 2" xfId="729"/>
-    <cellStyle name="Normal 4 6 4 2 2" xfId="1626"/>
-    <cellStyle name="Normal 4 6 4 3" xfId="1178"/>
-    <cellStyle name="Normal 4 6 5" xfId="505"/>
-    <cellStyle name="Normal 4 6 5 2" xfId="1402"/>
-    <cellStyle name="Normal 4 6 6" xfId="954"/>
-    <cellStyle name="Normal 4 7" xfId="66"/>
-    <cellStyle name="Normal 4 7 2" xfId="122"/>
-    <cellStyle name="Normal 4 7 2 2" xfId="234"/>
-    <cellStyle name="Normal 4 7 2 2 2" xfId="458"/>
-    <cellStyle name="Normal 4 7 2 2 2 2" xfId="906"/>
-    <cellStyle name="Normal 4 7 2 2 2 2 2" xfId="1803"/>
-    <cellStyle name="Normal 4 7 2 2 2 3" xfId="1355"/>
-    <cellStyle name="Normal 4 7 2 2 3" xfId="682"/>
-    <cellStyle name="Normal 4 7 2 2 3 2" xfId="1579"/>
-    <cellStyle name="Normal 4 7 2 2 4" xfId="1131"/>
-    <cellStyle name="Normal 4 7 2 3" xfId="346"/>
-    <cellStyle name="Normal 4 7 2 3 2" xfId="794"/>
-    <cellStyle name="Normal 4 7 2 3 2 2" xfId="1691"/>
-    <cellStyle name="Normal 4 7 2 3 3" xfId="1243"/>
-    <cellStyle name="Normal 4 7 2 4" xfId="570"/>
-    <cellStyle name="Normal 4 7 2 4 2" xfId="1467"/>
-    <cellStyle name="Normal 4 7 2 5" xfId="1019"/>
-    <cellStyle name="Normal 4 7 3" xfId="178"/>
-    <cellStyle name="Normal 4 7 3 2" xfId="402"/>
-    <cellStyle name="Normal 4 7 3 2 2" xfId="850"/>
-    <cellStyle name="Normal 4 7 3 2 2 2" xfId="1747"/>
-    <cellStyle name="Normal 4 7 3 2 3" xfId="1299"/>
-    <cellStyle name="Normal 4 7 3 3" xfId="626"/>
-    <cellStyle name="Normal 4 7 3 3 2" xfId="1523"/>
-    <cellStyle name="Normal 4 7 3 4" xfId="1075"/>
-    <cellStyle name="Normal 4 7 4" xfId="290"/>
-    <cellStyle name="Normal 4 7 4 2" xfId="738"/>
-    <cellStyle name="Normal 4 7 4 2 2" xfId="1635"/>
-    <cellStyle name="Normal 4 7 4 3" xfId="1187"/>
-    <cellStyle name="Normal 4 7 5" xfId="514"/>
-    <cellStyle name="Normal 4 7 5 2" xfId="1411"/>
-    <cellStyle name="Normal 4 7 6" xfId="963"/>
-    <cellStyle name="Normal 4 8" xfId="22"/>
-    <cellStyle name="Normal 4 9" xfId="69"/>
-    <cellStyle name="Normal 4 9 2" xfId="181"/>
-    <cellStyle name="Normal 4 9 2 2" xfId="405"/>
-    <cellStyle name="Normal 4 9 2 2 2" xfId="853"/>
-    <cellStyle name="Normal 4 9 2 2 2 2" xfId="1750"/>
-    <cellStyle name="Normal 4 9 2 2 3" xfId="1302"/>
-    <cellStyle name="Normal 4 9 2 3" xfId="629"/>
-    <cellStyle name="Normal 4 9 2 3 2" xfId="1526"/>
-    <cellStyle name="Normal 4 9 2 4" xfId="1078"/>
-    <cellStyle name="Normal 4 9 3" xfId="293"/>
-    <cellStyle name="Normal 4 9 3 2" xfId="741"/>
-    <cellStyle name="Normal 4 9 3 2 2" xfId="1638"/>
-    <cellStyle name="Normal 4 9 3 3" xfId="1190"/>
-    <cellStyle name="Normal 4 9 4" xfId="517"/>
-    <cellStyle name="Normal 4 9 4 2" xfId="1414"/>
-    <cellStyle name="Normal 4 9 5" xfId="966"/>
-    <cellStyle name="Normal 5" xfId="21"/>
-    <cellStyle name="Normal 5 11" xfId="17"/>
-    <cellStyle name="Normal 5 11 2" xfId="65"/>
-    <cellStyle name="Normal 5 11 2 2" xfId="121"/>
-    <cellStyle name="Normal 5 11 2 2 2" xfId="233"/>
-    <cellStyle name="Normal 5 11 2 2 2 2" xfId="457"/>
-    <cellStyle name="Normal 5 11 2 2 2 2 2" xfId="905"/>
-    <cellStyle name="Normal 5 11 2 2 2 2 2 2" xfId="1802"/>
-    <cellStyle name="Normal 5 11 2 2 2 2 3" xfId="1354"/>
-    <cellStyle name="Normal 5 11 2 2 2 3" xfId="681"/>
-    <cellStyle name="Normal 5 11 2 2 2 3 2" xfId="1578"/>
-    <cellStyle name="Normal 5 11 2 2 2 4" xfId="1130"/>
-    <cellStyle name="Normal 5 11 2 2 3" xfId="345"/>
-    <cellStyle name="Normal 5 11 2 2 3 2" xfId="793"/>
-    <cellStyle name="Normal 5 11 2 2 3 2 2" xfId="1690"/>
-    <cellStyle name="Normal 5 11 2 2 3 3" xfId="1242"/>
-    <cellStyle name="Normal 5 11 2 2 4" xfId="569"/>
-    <cellStyle name="Normal 5 11 2 2 4 2" xfId="1466"/>
-    <cellStyle name="Normal 5 11 2 2 5" xfId="1018"/>
-    <cellStyle name="Normal 5 11 2 3" xfId="177"/>
-    <cellStyle name="Normal 5 11 2 3 2" xfId="401"/>
-    <cellStyle name="Normal 5 11 2 3 2 2" xfId="849"/>
-    <cellStyle name="Normal 5 11 2 3 2 2 2" xfId="1746"/>
-    <cellStyle name="Normal 5 11 2 3 2 3" xfId="1298"/>
-    <cellStyle name="Normal 5 11 2 3 3" xfId="625"/>
-    <cellStyle name="Normal 5 11 2 3 3 2" xfId="1522"/>
-    <cellStyle name="Normal 5 11 2 3 4" xfId="1074"/>
-    <cellStyle name="Normal 5 11 2 4" xfId="289"/>
-    <cellStyle name="Normal 5 11 2 4 2" xfId="737"/>
-    <cellStyle name="Normal 5 11 2 4 2 2" xfId="1634"/>
-    <cellStyle name="Normal 5 11 2 4 3" xfId="1186"/>
-    <cellStyle name="Normal 5 11 2 5" xfId="513"/>
-    <cellStyle name="Normal 5 11 2 5 2" xfId="1410"/>
-    <cellStyle name="Normal 5 11 2 6" xfId="962"/>
-    <cellStyle name="Normal 5 11 3" xfId="77"/>
-    <cellStyle name="Normal 5 11 3 2" xfId="189"/>
-    <cellStyle name="Normal 5 11 3 2 2" xfId="413"/>
-    <cellStyle name="Normal 5 11 3 2 2 2" xfId="861"/>
-    <cellStyle name="Normal 5 11 3 2 2 2 2" xfId="1758"/>
-    <cellStyle name="Normal 5 11 3 2 2 3" xfId="1310"/>
-    <cellStyle name="Normal 5 11 3 2 3" xfId="637"/>
-    <cellStyle name="Normal 5 11 3 2 3 2" xfId="1534"/>
-    <cellStyle name="Normal 5 11 3 2 4" xfId="1086"/>
-    <cellStyle name="Normal 5 11 3 3" xfId="301"/>
-    <cellStyle name="Normal 5 11 3 3 2" xfId="749"/>
-    <cellStyle name="Normal 5 11 3 3 2 2" xfId="1646"/>
-    <cellStyle name="Normal 5 11 3 3 3" xfId="1198"/>
-    <cellStyle name="Normal 5 11 3 4" xfId="525"/>
-    <cellStyle name="Normal 5 11 3 4 2" xfId="1422"/>
-    <cellStyle name="Normal 5 11 3 5" xfId="974"/>
-    <cellStyle name="Normal 5 11 4" xfId="133"/>
-    <cellStyle name="Normal 5 11 4 2" xfId="357"/>
-    <cellStyle name="Normal 5 11 4 2 2" xfId="805"/>
-    <cellStyle name="Normal 5 11 4 2 2 2" xfId="1702"/>
-    <cellStyle name="Normal 5 11 4 2 3" xfId="1254"/>
-    <cellStyle name="Normal 5 11 4 3" xfId="581"/>
-    <cellStyle name="Normal 5 11 4 3 2" xfId="1478"/>
-    <cellStyle name="Normal 5 11 4 4" xfId="1030"/>
-    <cellStyle name="Normal 5 11 5" xfId="245"/>
-    <cellStyle name="Normal 5 11 5 2" xfId="693"/>
-    <cellStyle name="Normal 5 11 5 2 2" xfId="1590"/>
-    <cellStyle name="Normal 5 11 5 3" xfId="1142"/>
-    <cellStyle name="Normal 5 11 6" xfId="469"/>
-    <cellStyle name="Normal 5 11 6 2" xfId="1366"/>
-    <cellStyle name="Normal 5 11 7" xfId="918"/>
-    <cellStyle name="Normal 5 2" xfId="27"/>
-    <cellStyle name="Normal 5 2 2" xfId="37"/>
-    <cellStyle name="Normal 5 2 2 2" xfId="54"/>
-    <cellStyle name="Normal 5 2 2 2 2" xfId="110"/>
-    <cellStyle name="Normal 5 2 2 2 2 2" xfId="222"/>
-    <cellStyle name="Normal 5 2 2 2 2 2 2" xfId="446"/>
-    <cellStyle name="Normal 5 2 2 2 2 2 2 2" xfId="894"/>
-    <cellStyle name="Normal 5 2 2 2 2 2 2 2 2" xfId="1791"/>
-    <cellStyle name="Normal 5 2 2 2 2 2 2 3" xfId="1343"/>
-    <cellStyle name="Normal 5 2 2 2 2 2 3" xfId="670"/>
-    <cellStyle name="Normal 5 2 2 2 2 2 3 2" xfId="1567"/>
-    <cellStyle name="Normal 5 2 2 2 2 2 4" xfId="1119"/>
-    <cellStyle name="Normal 5 2 2 2 2 3" xfId="334"/>
-    <cellStyle name="Normal 5 2 2 2 2 3 2" xfId="782"/>
-    <cellStyle name="Normal 5 2 2 2 2 3 2 2" xfId="1679"/>
-    <cellStyle name="Normal 5 2 2 2 2 3 3" xfId="1231"/>
-    <cellStyle name="Normal 5 2 2 2 2 4" xfId="558"/>
-    <cellStyle name="Normal 5 2 2 2 2 4 2" xfId="1455"/>
-    <cellStyle name="Normal 5 2 2 2 2 5" xfId="1007"/>
-    <cellStyle name="Normal 5 2 2 2 3" xfId="166"/>
-    <cellStyle name="Normal 5 2 2 2 3 2" xfId="390"/>
-    <cellStyle name="Normal 5 2 2 2 3 2 2" xfId="838"/>
-    <cellStyle name="Normal 5 2 2 2 3 2 2 2" xfId="1735"/>
-    <cellStyle name="Normal 5 2 2 2 3 2 3" xfId="1287"/>
-    <cellStyle name="Normal 5 2 2 2 3 3" xfId="614"/>
-    <cellStyle name="Normal 5 2 2 2 3 3 2" xfId="1511"/>
-    <cellStyle name="Normal 5 2 2 2 3 4" xfId="1063"/>
-    <cellStyle name="Normal 5 2 2 2 4" xfId="278"/>
-    <cellStyle name="Normal 5 2 2 2 4 2" xfId="726"/>
-    <cellStyle name="Normal 5 2 2 2 4 2 2" xfId="1623"/>
-    <cellStyle name="Normal 5 2 2 2 4 3" xfId="1175"/>
-    <cellStyle name="Normal 5 2 2 2 5" xfId="502"/>
-    <cellStyle name="Normal 5 2 2 2 5 2" xfId="1399"/>
-    <cellStyle name="Normal 5 2 2 2 6" xfId="951"/>
-    <cellStyle name="Normal 5 2 2 3" xfId="93"/>
-    <cellStyle name="Normal 5 2 2 3 2" xfId="205"/>
-    <cellStyle name="Normal 5 2 2 3 2 2" xfId="429"/>
-    <cellStyle name="Normal 5 2 2 3 2 2 2" xfId="877"/>
-    <cellStyle name="Normal 5 2 2 3 2 2 2 2" xfId="1774"/>
-    <cellStyle name="Normal 5 2 2 3 2 2 3" xfId="1326"/>
-    <cellStyle name="Normal 5 2 2 3 2 3" xfId="653"/>
-    <cellStyle name="Normal 5 2 2 3 2 3 2" xfId="1550"/>
-    <cellStyle name="Normal 5 2 2 3 2 4" xfId="1102"/>
-    <cellStyle name="Normal 5 2 2 3 3" xfId="317"/>
-    <cellStyle name="Normal 5 2 2 3 3 2" xfId="765"/>
-    <cellStyle name="Normal 5 2 2 3 3 2 2" xfId="1662"/>
-    <cellStyle name="Normal 5 2 2 3 3 3" xfId="1214"/>
-    <cellStyle name="Normal 5 2 2 3 4" xfId="541"/>
-    <cellStyle name="Normal 5 2 2 3 4 2" xfId="1438"/>
-    <cellStyle name="Normal 5 2 2 3 5" xfId="990"/>
-    <cellStyle name="Normal 5 2 2 4" xfId="149"/>
-    <cellStyle name="Normal 5 2 2 4 2" xfId="373"/>
-    <cellStyle name="Normal 5 2 2 4 2 2" xfId="821"/>
-    <cellStyle name="Normal 5 2 2 4 2 2 2" xfId="1718"/>
-    <cellStyle name="Normal 5 2 2 4 2 3" xfId="1270"/>
-    <cellStyle name="Normal 5 2 2 4 3" xfId="597"/>
-    <cellStyle name="Normal 5 2 2 4 3 2" xfId="1494"/>
-    <cellStyle name="Normal 5 2 2 4 4" xfId="1046"/>
-    <cellStyle name="Normal 5 2 2 5" xfId="261"/>
-    <cellStyle name="Normal 5 2 2 5 2" xfId="709"/>
-    <cellStyle name="Normal 5 2 2 5 2 2" xfId="1606"/>
-    <cellStyle name="Normal 5 2 2 5 3" xfId="1158"/>
-    <cellStyle name="Normal 5 2 2 6" xfId="485"/>
-    <cellStyle name="Normal 5 2 2 6 2" xfId="1382"/>
-    <cellStyle name="Normal 5 2 2 7" xfId="934"/>
-    <cellStyle name="Normal 5 2 3" xfId="45"/>
-    <cellStyle name="Normal 5 2 3 2" xfId="101"/>
-    <cellStyle name="Normal 5 2 3 2 2" xfId="213"/>
-    <cellStyle name="Normal 5 2 3 2 2 2" xfId="437"/>
-    <cellStyle name="Normal 5 2 3 2 2 2 2" xfId="885"/>
-    <cellStyle name="Normal 5 2 3 2 2 2 2 2" xfId="1782"/>
-    <cellStyle name="Normal 5 2 3 2 2 2 3" xfId="1334"/>
-    <cellStyle name="Normal 5 2 3 2 2 3" xfId="661"/>
-    <cellStyle name="Normal 5 2 3 2 2 3 2" xfId="1558"/>
-    <cellStyle name="Normal 5 2 3 2 2 4" xfId="1110"/>
-    <cellStyle name="Normal 5 2 3 2 3" xfId="325"/>
-    <cellStyle name="Normal 5 2 3 2 3 2" xfId="773"/>
-    <cellStyle name="Normal 5 2 3 2 3 2 2" xfId="1670"/>
-    <cellStyle name="Normal 5 2 3 2 3 3" xfId="1222"/>
-    <cellStyle name="Normal 5 2 3 2 4" xfId="549"/>
-    <cellStyle name="Normal 5 2 3 2 4 2" xfId="1446"/>
-    <cellStyle name="Normal 5 2 3 2 5" xfId="998"/>
-    <cellStyle name="Normal 5 2 3 3" xfId="157"/>
-    <cellStyle name="Normal 5 2 3 3 2" xfId="381"/>
-    <cellStyle name="Normal 5 2 3 3 2 2" xfId="829"/>
-    <cellStyle name="Normal 5 2 3 3 2 2 2" xfId="1726"/>
-    <cellStyle name="Normal 5 2 3 3 2 3" xfId="1278"/>
-    <cellStyle name="Normal 5 2 3 3 3" xfId="605"/>
-    <cellStyle name="Normal 5 2 3 3 3 2" xfId="1502"/>
-    <cellStyle name="Normal 5 2 3 3 4" xfId="1054"/>
-    <cellStyle name="Normal 5 2 3 4" xfId="269"/>
-    <cellStyle name="Normal 5 2 3 4 2" xfId="717"/>
-    <cellStyle name="Normal 5 2 3 4 2 2" xfId="1614"/>
-    <cellStyle name="Normal 5 2 3 4 3" xfId="1166"/>
-    <cellStyle name="Normal 5 2 3 5" xfId="493"/>
-    <cellStyle name="Normal 5 2 3 5 2" xfId="1390"/>
-    <cellStyle name="Normal 5 2 3 6" xfId="942"/>
-    <cellStyle name="Normal 5 2 4" xfId="84"/>
-    <cellStyle name="Normal 5 2 4 2" xfId="196"/>
-    <cellStyle name="Normal 5 2 4 2 2" xfId="420"/>
-    <cellStyle name="Normal 5 2 4 2 2 2" xfId="868"/>
-    <cellStyle name="Normal 5 2 4 2 2 2 2" xfId="1765"/>
-    <cellStyle name="Normal 5 2 4 2 2 3" xfId="1317"/>
-    <cellStyle name="Normal 5 2 4 2 3" xfId="644"/>
-    <cellStyle name="Normal 5 2 4 2 3 2" xfId="1541"/>
-    <cellStyle name="Normal 5 2 4 2 4" xfId="1093"/>
-    <cellStyle name="Normal 5 2 4 3" xfId="308"/>
-    <cellStyle name="Normal 5 2 4 3 2" xfId="756"/>
-    <cellStyle name="Normal 5 2 4 3 2 2" xfId="1653"/>
-    <cellStyle name="Normal 5 2 4 3 3" xfId="1205"/>
-    <cellStyle name="Normal 5 2 4 4" xfId="532"/>
-    <cellStyle name="Normal 5 2 4 4 2" xfId="1429"/>
-    <cellStyle name="Normal 5 2 4 5" xfId="981"/>
-    <cellStyle name="Normal 5 2 5" xfId="140"/>
-    <cellStyle name="Normal 5 2 5 2" xfId="364"/>
-    <cellStyle name="Normal 5 2 5 2 2" xfId="812"/>
-    <cellStyle name="Normal 5 2 5 2 2 2" xfId="1709"/>
-    <cellStyle name="Normal 5 2 5 2 3" xfId="1261"/>
-    <cellStyle name="Normal 5 2 5 3" xfId="588"/>
-    <cellStyle name="Normal 5 2 5 3 2" xfId="1485"/>
-    <cellStyle name="Normal 5 2 5 4" xfId="1037"/>
-    <cellStyle name="Normal 5 2 6" xfId="252"/>
-    <cellStyle name="Normal 5 2 6 2" xfId="700"/>
-    <cellStyle name="Normal 5 2 6 2 2" xfId="1597"/>
-    <cellStyle name="Normal 5 2 6 3" xfId="1149"/>
-    <cellStyle name="Normal 5 2 7" xfId="476"/>
-    <cellStyle name="Normal 5 2 7 2" xfId="1373"/>
-    <cellStyle name="Normal 5 2 8" xfId="925"/>
-    <cellStyle name="Normal 5 3" xfId="32"/>
-    <cellStyle name="Normal 5 3 2" xfId="50"/>
-    <cellStyle name="Normal 5 3 2 2" xfId="106"/>
-    <cellStyle name="Normal 5 3 2 2 2" xfId="218"/>
-    <cellStyle name="Normal 5 3 2 2 2 2" xfId="442"/>
-    <cellStyle name="Normal 5 3 2 2 2 2 2" xfId="890"/>
-    <cellStyle name="Normal 5 3 2 2 2 2 2 2" xfId="1787"/>
-    <cellStyle name="Normal 5 3 2 2 2 2 3" xfId="1339"/>
-    <cellStyle name="Normal 5 3 2 2 2 3" xfId="666"/>
-    <cellStyle name="Normal 5 3 2 2 2 3 2" xfId="1563"/>
-    <cellStyle name="Normal 5 3 2 2 2 4" xfId="1115"/>
-    <cellStyle name="Normal 5 3 2 2 3" xfId="330"/>
-    <cellStyle name="Normal 5 3 2 2 3 2" xfId="778"/>
-    <cellStyle name="Normal 5 3 2 2 3 2 2" xfId="1675"/>
-    <cellStyle name="Normal 5 3 2 2 3 3" xfId="1227"/>
-    <cellStyle name="Normal 5 3 2 2 4" xfId="554"/>
-    <cellStyle name="Normal 5 3 2 2 4 2" xfId="1451"/>
-    <cellStyle name="Normal 5 3 2 2 5" xfId="1003"/>
-    <cellStyle name="Normal 5 3 2 3" xfId="162"/>
-    <cellStyle name="Normal 5 3 2 3 2" xfId="386"/>
-    <cellStyle name="Normal 5 3 2 3 2 2" xfId="834"/>
-    <cellStyle name="Normal 5 3 2 3 2 2 2" xfId="1731"/>
-    <cellStyle name="Normal 5 3 2 3 2 3" xfId="1283"/>
-    <cellStyle name="Normal 5 3 2 3 3" xfId="610"/>
-    <cellStyle name="Normal 5 3 2 3 3 2" xfId="1507"/>
-    <cellStyle name="Normal 5 3 2 3 4" xfId="1059"/>
-    <cellStyle name="Normal 5 3 2 4" xfId="274"/>
-    <cellStyle name="Normal 5 3 2 4 2" xfId="722"/>
-    <cellStyle name="Normal 5 3 2 4 2 2" xfId="1619"/>
-    <cellStyle name="Normal 5 3 2 4 3" xfId="1171"/>
-    <cellStyle name="Normal 5 3 2 5" xfId="498"/>
-    <cellStyle name="Normal 5 3 2 5 2" xfId="1395"/>
-    <cellStyle name="Normal 5 3 2 6" xfId="947"/>
-    <cellStyle name="Normal 5 3 3" xfId="89"/>
-    <cellStyle name="Normal 5 3 3 2" xfId="201"/>
-    <cellStyle name="Normal 5 3 3 2 2" xfId="425"/>
-    <cellStyle name="Normal 5 3 3 2 2 2" xfId="873"/>
-    <cellStyle name="Normal 5 3 3 2 2 2 2" xfId="1770"/>
-    <cellStyle name="Normal 5 3 3 2 2 3" xfId="1322"/>
-    <cellStyle name="Normal 5 3 3 2 3" xfId="649"/>
-    <cellStyle name="Normal 5 3 3 2 3 2" xfId="1546"/>
-    <cellStyle name="Normal 5 3 3 2 4" xfId="1098"/>
-    <cellStyle name="Normal 5 3 3 3" xfId="313"/>
-    <cellStyle name="Normal 5 3 3 3 2" xfId="761"/>
-    <cellStyle name="Normal 5 3 3 3 2 2" xfId="1658"/>
-    <cellStyle name="Normal 5 3 3 3 3" xfId="1210"/>
-    <cellStyle name="Normal 5 3 3 4" xfId="537"/>
-    <cellStyle name="Normal 5 3 3 4 2" xfId="1434"/>
-    <cellStyle name="Normal 5 3 3 5" xfId="986"/>
-    <cellStyle name="Normal 5 3 4" xfId="145"/>
-    <cellStyle name="Normal 5 3 4 2" xfId="369"/>
-    <cellStyle name="Normal 5 3 4 2 2" xfId="817"/>
-    <cellStyle name="Normal 5 3 4 2 2 2" xfId="1714"/>
-    <cellStyle name="Normal 5 3 4 2 3" xfId="1266"/>
-    <cellStyle name="Normal 5 3 4 3" xfId="593"/>
-    <cellStyle name="Normal 5 3 4 3 2" xfId="1490"/>
-    <cellStyle name="Normal 5 3 4 4" xfId="1042"/>
-    <cellStyle name="Normal 5 3 5" xfId="257"/>
-    <cellStyle name="Normal 5 3 5 2" xfId="705"/>
-    <cellStyle name="Normal 5 3 5 2 2" xfId="1602"/>
-    <cellStyle name="Normal 5 3 5 3" xfId="1154"/>
-    <cellStyle name="Normal 5 3 6" xfId="481"/>
-    <cellStyle name="Normal 5 3 6 2" xfId="1378"/>
-    <cellStyle name="Normal 5 3 7" xfId="930"/>
-    <cellStyle name="Normal 5 4" xfId="41"/>
-    <cellStyle name="Normal 5 4 2" xfId="97"/>
-    <cellStyle name="Normal 5 4 2 2" xfId="209"/>
-    <cellStyle name="Normal 5 4 2 2 2" xfId="433"/>
-    <cellStyle name="Normal 5 4 2 2 2 2" xfId="881"/>
-    <cellStyle name="Normal 5 4 2 2 2 2 2" xfId="1778"/>
-    <cellStyle name="Normal 5 4 2 2 2 3" xfId="1330"/>
-    <cellStyle name="Normal 5 4 2 2 3" xfId="657"/>
-    <cellStyle name="Normal 5 4 2 2 3 2" xfId="1554"/>
-    <cellStyle name="Normal 5 4 2 2 4" xfId="1106"/>
-    <cellStyle name="Normal 5 4 2 3" xfId="321"/>
-    <cellStyle name="Normal 5 4 2 3 2" xfId="769"/>
-    <cellStyle name="Normal 5 4 2 3 2 2" xfId="1666"/>
-    <cellStyle name="Normal 5 4 2 3 3" xfId="1218"/>
-    <cellStyle name="Normal 5 4 2 4" xfId="545"/>
-    <cellStyle name="Normal 5 4 2 4 2" xfId="1442"/>
-    <cellStyle name="Normal 5 4 2 5" xfId="994"/>
-    <cellStyle name="Normal 5 4 3" xfId="153"/>
-    <cellStyle name="Normal 5 4 3 2" xfId="377"/>
-    <cellStyle name="Normal 5 4 3 2 2" xfId="825"/>
-    <cellStyle name="Normal 5 4 3 2 2 2" xfId="1722"/>
-    <cellStyle name="Normal 5 4 3 2 3" xfId="1274"/>
-    <cellStyle name="Normal 5 4 3 3" xfId="601"/>
-    <cellStyle name="Normal 5 4 3 3 2" xfId="1498"/>
-    <cellStyle name="Normal 5 4 3 4" xfId="1050"/>
-    <cellStyle name="Normal 5 4 4" xfId="265"/>
-    <cellStyle name="Normal 5 4 4 2" xfId="713"/>
-    <cellStyle name="Normal 5 4 4 2 2" xfId="1610"/>
-    <cellStyle name="Normal 5 4 4 3" xfId="1162"/>
-    <cellStyle name="Normal 5 4 5" xfId="489"/>
-    <cellStyle name="Normal 5 4 5 2" xfId="1386"/>
-    <cellStyle name="Normal 5 4 6" xfId="938"/>
-    <cellStyle name="Normal 5 5" xfId="80"/>
-    <cellStyle name="Normal 5 5 2" xfId="192"/>
-    <cellStyle name="Normal 5 5 2 2" xfId="416"/>
-    <cellStyle name="Normal 5 5 2 2 2" xfId="864"/>
-    <cellStyle name="Normal 5 5 2 2 2 2" xfId="1761"/>
-    <cellStyle name="Normal 5 5 2 2 3" xfId="1313"/>
-    <cellStyle name="Normal 5 5 2 3" xfId="640"/>
-    <cellStyle name="Normal 5 5 2 3 2" xfId="1537"/>
-    <cellStyle name="Normal 5 5 2 4" xfId="1089"/>
-    <cellStyle name="Normal 5 5 3" xfId="304"/>
-    <cellStyle name="Normal 5 5 3 2" xfId="752"/>
-    <cellStyle name="Normal 5 5 3 2 2" xfId="1649"/>
-    <cellStyle name="Normal 5 5 3 3" xfId="1201"/>
-    <cellStyle name="Normal 5 5 4" xfId="528"/>
-    <cellStyle name="Normal 5 5 4 2" xfId="1425"/>
-    <cellStyle name="Normal 5 5 5" xfId="977"/>
-    <cellStyle name="Normal 5 6" xfId="136"/>
-    <cellStyle name="Normal 5 6 2" xfId="360"/>
-    <cellStyle name="Normal 5 6 2 2" xfId="808"/>
-    <cellStyle name="Normal 5 6 2 2 2" xfId="1705"/>
-    <cellStyle name="Normal 5 6 2 3" xfId="1257"/>
-    <cellStyle name="Normal 5 6 3" xfId="584"/>
-    <cellStyle name="Normal 5 6 3 2" xfId="1481"/>
-    <cellStyle name="Normal 5 6 4" xfId="1033"/>
-    <cellStyle name="Normal 5 7" xfId="248"/>
-    <cellStyle name="Normal 5 7 2" xfId="696"/>
-    <cellStyle name="Normal 5 7 2 2" xfId="1593"/>
-    <cellStyle name="Normal 5 7 3" xfId="1145"/>
-    <cellStyle name="Normal 5 8" xfId="472"/>
-    <cellStyle name="Normal 5 8 2" xfId="1369"/>
-    <cellStyle name="Normal 5 9" xfId="921"/>
-    <cellStyle name="Normal 6" xfId="25"/>
-    <cellStyle name="Normal 6 2" xfId="35"/>
-    <cellStyle name="Normal 7" xfId="24"/>
-    <cellStyle name="Normal 7 2" xfId="34"/>
-    <cellStyle name="Normal 7 2 2" xfId="52"/>
-    <cellStyle name="Normal 7 2 2 2" xfId="108"/>
-    <cellStyle name="Normal 7 2 2 2 2" xfId="220"/>
-    <cellStyle name="Normal 7 2 2 2 2 2" xfId="444"/>
-    <cellStyle name="Normal 7 2 2 2 2 2 2" xfId="892"/>
-    <cellStyle name="Normal 7 2 2 2 2 2 2 2" xfId="1789"/>
-    <cellStyle name="Normal 7 2 2 2 2 2 3" xfId="1341"/>
-    <cellStyle name="Normal 7 2 2 2 2 3" xfId="668"/>
-    <cellStyle name="Normal 7 2 2 2 2 3 2" xfId="1565"/>
-    <cellStyle name="Normal 7 2 2 2 2 4" xfId="1117"/>
-    <cellStyle name="Normal 7 2 2 2 3" xfId="332"/>
-    <cellStyle name="Normal 7 2 2 2 3 2" xfId="780"/>
-    <cellStyle name="Normal 7 2 2 2 3 2 2" xfId="1677"/>
-    <cellStyle name="Normal 7 2 2 2 3 3" xfId="1229"/>
-    <cellStyle name="Normal 7 2 2 2 4" xfId="556"/>
-    <cellStyle name="Normal 7 2 2 2 4 2" xfId="1453"/>
-    <cellStyle name="Normal 7 2 2 2 5" xfId="1005"/>
-    <cellStyle name="Normal 7 2 2 3" xfId="164"/>
-    <cellStyle name="Normal 7 2 2 3 2" xfId="388"/>
-    <cellStyle name="Normal 7 2 2 3 2 2" xfId="836"/>
-    <cellStyle name="Normal 7 2 2 3 2 2 2" xfId="1733"/>
-    <cellStyle name="Normal 7 2 2 3 2 3" xfId="1285"/>
-    <cellStyle name="Normal 7 2 2 3 3" xfId="612"/>
-    <cellStyle name="Normal 7 2 2 3 3 2" xfId="1509"/>
-    <cellStyle name="Normal 7 2 2 3 4" xfId="1061"/>
-    <cellStyle name="Normal 7 2 2 4" xfId="276"/>
-    <cellStyle name="Normal 7 2 2 4 2" xfId="724"/>
-    <cellStyle name="Normal 7 2 2 4 2 2" xfId="1621"/>
-    <cellStyle name="Normal 7 2 2 4 3" xfId="1173"/>
-    <cellStyle name="Normal 7 2 2 5" xfId="500"/>
-    <cellStyle name="Normal 7 2 2 5 2" xfId="1397"/>
-    <cellStyle name="Normal 7 2 2 6" xfId="949"/>
-    <cellStyle name="Normal 7 2 3" xfId="91"/>
-    <cellStyle name="Normal 7 2 3 2" xfId="203"/>
-    <cellStyle name="Normal 7 2 3 2 2" xfId="427"/>
-    <cellStyle name="Normal 7 2 3 2 2 2" xfId="875"/>
-    <cellStyle name="Normal 7 2 3 2 2 2 2" xfId="1772"/>
-    <cellStyle name="Normal 7 2 3 2 2 3" xfId="1324"/>
-    <cellStyle name="Normal 7 2 3 2 3" xfId="651"/>
-    <cellStyle name="Normal 7 2 3 2 3 2" xfId="1548"/>
-    <cellStyle name="Normal 7 2 3 2 4" xfId="1100"/>
-    <cellStyle name="Normal 7 2 3 3" xfId="315"/>
-    <cellStyle name="Normal 7 2 3 3 2" xfId="763"/>
-    <cellStyle name="Normal 7 2 3 3 2 2" xfId="1660"/>
-    <cellStyle name="Normal 7 2 3 3 3" xfId="1212"/>
-    <cellStyle name="Normal 7 2 3 4" xfId="539"/>
-    <cellStyle name="Normal 7 2 3 4 2" xfId="1436"/>
-    <cellStyle name="Normal 7 2 3 5" xfId="988"/>
-    <cellStyle name="Normal 7 2 4" xfId="147"/>
-    <cellStyle name="Normal 7 2 4 2" xfId="371"/>
-    <cellStyle name="Normal 7 2 4 2 2" xfId="819"/>
-    <cellStyle name="Normal 7 2 4 2 2 2" xfId="1716"/>
-    <cellStyle name="Normal 7 2 4 2 3" xfId="1268"/>
-    <cellStyle name="Normal 7 2 4 3" xfId="595"/>
-    <cellStyle name="Normal 7 2 4 3 2" xfId="1492"/>
-    <cellStyle name="Normal 7 2 4 4" xfId="1044"/>
-    <cellStyle name="Normal 7 2 5" xfId="259"/>
-    <cellStyle name="Normal 7 2 5 2" xfId="707"/>
-    <cellStyle name="Normal 7 2 5 2 2" xfId="1604"/>
-    <cellStyle name="Normal 7 2 5 3" xfId="1156"/>
-    <cellStyle name="Normal 7 2 6" xfId="483"/>
-    <cellStyle name="Normal 7 2 6 2" xfId="1380"/>
-    <cellStyle name="Normal 7 2 7" xfId="932"/>
-    <cellStyle name="Normal 7 3" xfId="43"/>
-    <cellStyle name="Normal 7 3 2" xfId="99"/>
-    <cellStyle name="Normal 7 3 2 2" xfId="211"/>
-    <cellStyle name="Normal 7 3 2 2 2" xfId="435"/>
-    <cellStyle name="Normal 7 3 2 2 2 2" xfId="883"/>
-    <cellStyle name="Normal 7 3 2 2 2 2 2" xfId="1780"/>
-    <cellStyle name="Normal 7 3 2 2 2 3" xfId="1332"/>
-    <cellStyle name="Normal 7 3 2 2 3" xfId="659"/>
-    <cellStyle name="Normal 7 3 2 2 3 2" xfId="1556"/>
-    <cellStyle name="Normal 7 3 2 2 4" xfId="1108"/>
-    <cellStyle name="Normal 7 3 2 3" xfId="323"/>
-    <cellStyle name="Normal 7 3 2 3 2" xfId="771"/>
-    <cellStyle name="Normal 7 3 2 3 2 2" xfId="1668"/>
-    <cellStyle name="Normal 7 3 2 3 3" xfId="1220"/>
-    <cellStyle name="Normal 7 3 2 4" xfId="547"/>
-    <cellStyle name="Normal 7 3 2 4 2" xfId="1444"/>
-    <cellStyle name="Normal 7 3 2 5" xfId="996"/>
-    <cellStyle name="Normal 7 3 3" xfId="155"/>
-    <cellStyle name="Normal 7 3 3 2" xfId="379"/>
-    <cellStyle name="Normal 7 3 3 2 2" xfId="827"/>
-    <cellStyle name="Normal 7 3 3 2 2 2" xfId="1724"/>
-    <cellStyle name="Normal 7 3 3 2 3" xfId="1276"/>
-    <cellStyle name="Normal 7 3 3 3" xfId="603"/>
-    <cellStyle name="Normal 7 3 3 3 2" xfId="1500"/>
-    <cellStyle name="Normal 7 3 3 4" xfId="1052"/>
-    <cellStyle name="Normal 7 3 4" xfId="267"/>
-    <cellStyle name="Normal 7 3 4 2" xfId="715"/>
-    <cellStyle name="Normal 7 3 4 2 2" xfId="1612"/>
-    <cellStyle name="Normal 7 3 4 3" xfId="1164"/>
-    <cellStyle name="Normal 7 3 5" xfId="491"/>
-    <cellStyle name="Normal 7 3 5 2" xfId="1388"/>
-    <cellStyle name="Normal 7 3 6" xfId="940"/>
-    <cellStyle name="Normal 7 4" xfId="82"/>
-    <cellStyle name="Normal 7 4 2" xfId="194"/>
-    <cellStyle name="Normal 7 4 2 2" xfId="418"/>
-    <cellStyle name="Normal 7 4 2 2 2" xfId="866"/>
-    <cellStyle name="Normal 7 4 2 2 2 2" xfId="1763"/>
-    <cellStyle name="Normal 7 4 2 2 3" xfId="1315"/>
-    <cellStyle name="Normal 7 4 2 3" xfId="642"/>
-    <cellStyle name="Normal 7 4 2 3 2" xfId="1539"/>
-    <cellStyle name="Normal 7 4 2 4" xfId="1091"/>
-    <cellStyle name="Normal 7 4 3" xfId="306"/>
-    <cellStyle name="Normal 7 4 3 2" xfId="754"/>
-    <cellStyle name="Normal 7 4 3 2 2" xfId="1651"/>
-    <cellStyle name="Normal 7 4 3 3" xfId="1203"/>
-    <cellStyle name="Normal 7 4 4" xfId="530"/>
-    <cellStyle name="Normal 7 4 4 2" xfId="1427"/>
-    <cellStyle name="Normal 7 4 5" xfId="979"/>
-    <cellStyle name="Normal 7 5" xfId="138"/>
-    <cellStyle name="Normal 7 5 2" xfId="362"/>
-    <cellStyle name="Normal 7 5 2 2" xfId="810"/>
-    <cellStyle name="Normal 7 5 2 2 2" xfId="1707"/>
-    <cellStyle name="Normal 7 5 2 3" xfId="1259"/>
-    <cellStyle name="Normal 7 5 3" xfId="586"/>
-    <cellStyle name="Normal 7 5 3 2" xfId="1483"/>
-    <cellStyle name="Normal 7 5 4" xfId="1035"/>
-    <cellStyle name="Normal 7 6" xfId="250"/>
-    <cellStyle name="Normal 7 6 2" xfId="698"/>
-    <cellStyle name="Normal 7 6 2 2" xfId="1595"/>
-    <cellStyle name="Normal 7 6 3" xfId="1147"/>
-    <cellStyle name="Normal 7 7" xfId="474"/>
-    <cellStyle name="Normal 7 7 2" xfId="1371"/>
-    <cellStyle name="Normal 7 8" xfId="923"/>
-    <cellStyle name="Normal 8" xfId="18"/>
-    <cellStyle name="Normal 8 10" xfId="919"/>
-    <cellStyle name="Normal 8 2" xfId="39"/>
-    <cellStyle name="Normal 8 2 2" xfId="56"/>
-    <cellStyle name="Normal 8 2 2 2" xfId="112"/>
-    <cellStyle name="Normal 8 2 2 2 2" xfId="224"/>
-    <cellStyle name="Normal 8 2 2 2 2 2" xfId="448"/>
-    <cellStyle name="Normal 8 2 2 2 2 2 2" xfId="896"/>
-    <cellStyle name="Normal 8 2 2 2 2 2 2 2" xfId="1793"/>
-    <cellStyle name="Normal 8 2 2 2 2 2 3" xfId="1345"/>
-    <cellStyle name="Normal 8 2 2 2 2 3" xfId="672"/>
-    <cellStyle name="Normal 8 2 2 2 2 3 2" xfId="1569"/>
-    <cellStyle name="Normal 8 2 2 2 2 4" xfId="1121"/>
-    <cellStyle name="Normal 8 2 2 2 3" xfId="336"/>
-    <cellStyle name="Normal 8 2 2 2 3 2" xfId="784"/>
-    <cellStyle name="Normal 8 2 2 2 3 2 2" xfId="1681"/>
-    <cellStyle name="Normal 8 2 2 2 3 3" xfId="1233"/>
-    <cellStyle name="Normal 8 2 2 2 4" xfId="560"/>
-    <cellStyle name="Normal 8 2 2 2 4 2" xfId="1457"/>
-    <cellStyle name="Normal 8 2 2 2 5" xfId="1009"/>
-    <cellStyle name="Normal 8 2 2 3" xfId="168"/>
-    <cellStyle name="Normal 8 2 2 3 2" xfId="392"/>
-    <cellStyle name="Normal 8 2 2 3 2 2" xfId="840"/>
-    <cellStyle name="Normal 8 2 2 3 2 2 2" xfId="1737"/>
-    <cellStyle name="Normal 8 2 2 3 2 3" xfId="1289"/>
-    <cellStyle name="Normal 8 2 2 3 3" xfId="616"/>
-    <cellStyle name="Normal 8 2 2 3 3 2" xfId="1513"/>
-    <cellStyle name="Normal 8 2 2 3 4" xfId="1065"/>
-    <cellStyle name="Normal 8 2 2 4" xfId="280"/>
-    <cellStyle name="Normal 8 2 2 4 2" xfId="728"/>
-    <cellStyle name="Normal 8 2 2 4 2 2" xfId="1625"/>
-    <cellStyle name="Normal 8 2 2 4 3" xfId="1177"/>
-    <cellStyle name="Normal 8 2 2 5" xfId="504"/>
-    <cellStyle name="Normal 8 2 2 5 2" xfId="1401"/>
-    <cellStyle name="Normal 8 2 2 6" xfId="953"/>
-    <cellStyle name="Normal 8 2 3" xfId="95"/>
-    <cellStyle name="Normal 8 2 3 2" xfId="207"/>
-    <cellStyle name="Normal 8 2 3 2 2" xfId="431"/>
-    <cellStyle name="Normal 8 2 3 2 2 2" xfId="879"/>
-    <cellStyle name="Normal 8 2 3 2 2 2 2" xfId="1776"/>
-    <cellStyle name="Normal 8 2 3 2 2 3" xfId="1328"/>
-    <cellStyle name="Normal 8 2 3 2 3" xfId="655"/>
-    <cellStyle name="Normal 8 2 3 2 3 2" xfId="1552"/>
-    <cellStyle name="Normal 8 2 3 2 4" xfId="1104"/>
-    <cellStyle name="Normal 8 2 3 3" xfId="319"/>
-    <cellStyle name="Normal 8 2 3 3 2" xfId="767"/>
-    <cellStyle name="Normal 8 2 3 3 2 2" xfId="1664"/>
-    <cellStyle name="Normal 8 2 3 3 3" xfId="1216"/>
-    <cellStyle name="Normal 8 2 3 4" xfId="543"/>
-    <cellStyle name="Normal 8 2 3 4 2" xfId="1440"/>
-    <cellStyle name="Normal 8 2 3 5" xfId="992"/>
-    <cellStyle name="Normal 8 2 4" xfId="151"/>
-    <cellStyle name="Normal 8 2 4 2" xfId="375"/>
-    <cellStyle name="Normal 8 2 4 2 2" xfId="823"/>
-    <cellStyle name="Normal 8 2 4 2 2 2" xfId="1720"/>
-    <cellStyle name="Normal 8 2 4 2 3" xfId="1272"/>
-    <cellStyle name="Normal 8 2 4 3" xfId="599"/>
-    <cellStyle name="Normal 8 2 4 3 2" xfId="1496"/>
-    <cellStyle name="Normal 8 2 4 4" xfId="1048"/>
-    <cellStyle name="Normal 8 2 5" xfId="263"/>
-    <cellStyle name="Normal 8 2 5 2" xfId="711"/>
-    <cellStyle name="Normal 8 2 5 2 2" xfId="1608"/>
-    <cellStyle name="Normal 8 2 5 3" xfId="1160"/>
-    <cellStyle name="Normal 8 2 6" xfId="487"/>
-    <cellStyle name="Normal 8 2 6 2" xfId="1384"/>
-    <cellStyle name="Normal 8 2 7" xfId="936"/>
-    <cellStyle name="Normal 8 3" xfId="30"/>
-    <cellStyle name="Normal 8 3 2" xfId="48"/>
-    <cellStyle name="Normal 8 3 2 2" xfId="104"/>
-    <cellStyle name="Normal 8 3 2 2 2" xfId="216"/>
-    <cellStyle name="Normal 8 3 2 2 2 2" xfId="440"/>
-    <cellStyle name="Normal 8 3 2 2 2 2 2" xfId="888"/>
-    <cellStyle name="Normal 8 3 2 2 2 2 2 2" xfId="1785"/>
-    <cellStyle name="Normal 8 3 2 2 2 2 3" xfId="1337"/>
-    <cellStyle name="Normal 8 3 2 2 2 3" xfId="664"/>
-    <cellStyle name="Normal 8 3 2 2 2 3 2" xfId="1561"/>
-    <cellStyle name="Normal 8 3 2 2 2 4" xfId="1113"/>
-    <cellStyle name="Normal 8 3 2 2 3" xfId="328"/>
-    <cellStyle name="Normal 8 3 2 2 3 2" xfId="776"/>
-    <cellStyle name="Normal 8 3 2 2 3 2 2" xfId="1673"/>
-    <cellStyle name="Normal 8 3 2 2 3 3" xfId="1225"/>
-    <cellStyle name="Normal 8 3 2 2 4" xfId="552"/>
-    <cellStyle name="Normal 8 3 2 2 4 2" xfId="1449"/>
-    <cellStyle name="Normal 8 3 2 2 5" xfId="1001"/>
-    <cellStyle name="Normal 8 3 2 3" xfId="160"/>
-    <cellStyle name="Normal 8 3 2 3 2" xfId="384"/>
-    <cellStyle name="Normal 8 3 2 3 2 2" xfId="832"/>
-    <cellStyle name="Normal 8 3 2 3 2 2 2" xfId="1729"/>
-    <cellStyle name="Normal 8 3 2 3 2 3" xfId="1281"/>
-    <cellStyle name="Normal 8 3 2 3 3" xfId="608"/>
-    <cellStyle name="Normal 8 3 2 3 3 2" xfId="1505"/>
-    <cellStyle name="Normal 8 3 2 3 4" xfId="1057"/>
-    <cellStyle name="Normal 8 3 2 4" xfId="272"/>
-    <cellStyle name="Normal 8 3 2 4 2" xfId="720"/>
-    <cellStyle name="Normal 8 3 2 4 2 2" xfId="1617"/>
-    <cellStyle name="Normal 8 3 2 4 3" xfId="1169"/>
-    <cellStyle name="Normal 8 3 2 5" xfId="496"/>
-    <cellStyle name="Normal 8 3 2 5 2" xfId="1393"/>
-    <cellStyle name="Normal 8 3 2 6" xfId="945"/>
-    <cellStyle name="Normal 8 3 3" xfId="87"/>
-    <cellStyle name="Normal 8 3 3 2" xfId="199"/>
-    <cellStyle name="Normal 8 3 3 2 2" xfId="423"/>
-    <cellStyle name="Normal 8 3 3 2 2 2" xfId="871"/>
-    <cellStyle name="Normal 8 3 3 2 2 2 2" xfId="1768"/>
-    <cellStyle name="Normal 8 3 3 2 2 3" xfId="1320"/>
-    <cellStyle name="Normal 8 3 3 2 3" xfId="647"/>
-    <cellStyle name="Normal 8 3 3 2 3 2" xfId="1544"/>
-    <cellStyle name="Normal 8 3 3 2 4" xfId="1096"/>
-    <cellStyle name="Normal 8 3 3 3" xfId="311"/>
-    <cellStyle name="Normal 8 3 3 3 2" xfId="759"/>
-    <cellStyle name="Normal 8 3 3 3 2 2" xfId="1656"/>
-    <cellStyle name="Normal 8 3 3 3 3" xfId="1208"/>
-    <cellStyle name="Normal 8 3 3 4" xfId="535"/>
-    <cellStyle name="Normal 8 3 3 4 2" xfId="1432"/>
-    <cellStyle name="Normal 8 3 3 5" xfId="984"/>
-    <cellStyle name="Normal 8 3 4" xfId="143"/>
-    <cellStyle name="Normal 8 3 4 2" xfId="367"/>
-    <cellStyle name="Normal 8 3 4 2 2" xfId="815"/>
-    <cellStyle name="Normal 8 3 4 2 2 2" xfId="1712"/>
-    <cellStyle name="Normal 8 3 4 2 3" xfId="1264"/>
-    <cellStyle name="Normal 8 3 4 3" xfId="591"/>
-    <cellStyle name="Normal 8 3 4 3 2" xfId="1488"/>
-    <cellStyle name="Normal 8 3 4 4" xfId="1040"/>
-    <cellStyle name="Normal 8 3 5" xfId="255"/>
-    <cellStyle name="Normal 8 3 5 2" xfId="703"/>
-    <cellStyle name="Normal 8 3 5 2 2" xfId="1600"/>
-    <cellStyle name="Normal 8 3 5 3" xfId="1152"/>
-    <cellStyle name="Normal 8 3 6" xfId="479"/>
-    <cellStyle name="Normal 8 3 6 2" xfId="1376"/>
-    <cellStyle name="Normal 8 3 7" xfId="928"/>
-    <cellStyle name="Normal 8 4" xfId="47"/>
-    <cellStyle name="Normal 8 4 2" xfId="103"/>
-    <cellStyle name="Normal 8 4 2 2" xfId="215"/>
-    <cellStyle name="Normal 8 4 2 2 2" xfId="439"/>
-    <cellStyle name="Normal 8 4 2 2 2 2" xfId="887"/>
-    <cellStyle name="Normal 8 4 2 2 2 2 2" xfId="1784"/>
-    <cellStyle name="Normal 8 4 2 2 2 3" xfId="1336"/>
-    <cellStyle name="Normal 8 4 2 2 3" xfId="663"/>
-    <cellStyle name="Normal 8 4 2 2 3 2" xfId="1560"/>
-    <cellStyle name="Normal 8 4 2 2 4" xfId="1112"/>
-    <cellStyle name="Normal 8 4 2 3" xfId="327"/>
-    <cellStyle name="Normal 8 4 2 3 2" xfId="775"/>
-    <cellStyle name="Normal 8 4 2 3 2 2" xfId="1672"/>
-    <cellStyle name="Normal 8 4 2 3 3" xfId="1224"/>
-    <cellStyle name="Normal 8 4 2 4" xfId="551"/>
-    <cellStyle name="Normal 8 4 2 4 2" xfId="1448"/>
-    <cellStyle name="Normal 8 4 2 5" xfId="1000"/>
-    <cellStyle name="Normal 8 4 3" xfId="159"/>
-    <cellStyle name="Normal 8 4 3 2" xfId="383"/>
-    <cellStyle name="Normal 8 4 3 2 2" xfId="831"/>
-    <cellStyle name="Normal 8 4 3 2 2 2" xfId="1728"/>
-    <cellStyle name="Normal 8 4 3 2 3" xfId="1280"/>
-    <cellStyle name="Normal 8 4 3 3" xfId="607"/>
-    <cellStyle name="Normal 8 4 3 3 2" xfId="1504"/>
-    <cellStyle name="Normal 8 4 3 4" xfId="1056"/>
-    <cellStyle name="Normal 8 4 4" xfId="271"/>
-    <cellStyle name="Normal 8 4 4 2" xfId="719"/>
-    <cellStyle name="Normal 8 4 4 2 2" xfId="1616"/>
-    <cellStyle name="Normal 8 4 4 3" xfId="1168"/>
-    <cellStyle name="Normal 8 4 5" xfId="495"/>
-    <cellStyle name="Normal 8 4 5 2" xfId="1392"/>
-    <cellStyle name="Normal 8 4 6" xfId="944"/>
-    <cellStyle name="Normal 8 5" xfId="29"/>
-    <cellStyle name="Normal 8 5 2" xfId="86"/>
-    <cellStyle name="Normal 8 5 2 2" xfId="198"/>
-    <cellStyle name="Normal 8 5 2 2 2" xfId="422"/>
-    <cellStyle name="Normal 8 5 2 2 2 2" xfId="870"/>
-    <cellStyle name="Normal 8 5 2 2 2 2 2" xfId="1767"/>
-    <cellStyle name="Normal 8 5 2 2 2 3" xfId="1319"/>
-    <cellStyle name="Normal 8 5 2 2 3" xfId="646"/>
-    <cellStyle name="Normal 8 5 2 2 3 2" xfId="1543"/>
-    <cellStyle name="Normal 8 5 2 2 4" xfId="1095"/>
-    <cellStyle name="Normal 8 5 2 3" xfId="310"/>
-    <cellStyle name="Normal 8 5 2 3 2" xfId="758"/>
-    <cellStyle name="Normal 8 5 2 3 2 2" xfId="1655"/>
-    <cellStyle name="Normal 8 5 2 3 3" xfId="1207"/>
-    <cellStyle name="Normal 8 5 2 4" xfId="534"/>
-    <cellStyle name="Normal 8 5 2 4 2" xfId="1431"/>
-    <cellStyle name="Normal 8 5 2 5" xfId="983"/>
-    <cellStyle name="Normal 8 5 3" xfId="142"/>
-    <cellStyle name="Normal 8 5 3 2" xfId="366"/>
-    <cellStyle name="Normal 8 5 3 2 2" xfId="814"/>
-    <cellStyle name="Normal 8 5 3 2 2 2" xfId="1711"/>
-    <cellStyle name="Normal 8 5 3 2 3" xfId="1263"/>
-    <cellStyle name="Normal 8 5 3 3" xfId="590"/>
-    <cellStyle name="Normal 8 5 3 3 2" xfId="1487"/>
-    <cellStyle name="Normal 8 5 3 4" xfId="1039"/>
-    <cellStyle name="Normal 8 5 4" xfId="254"/>
-    <cellStyle name="Normal 8 5 4 2" xfId="702"/>
-    <cellStyle name="Normal 8 5 4 2 2" xfId="1599"/>
-    <cellStyle name="Normal 8 5 4 3" xfId="1151"/>
-    <cellStyle name="Normal 8 5 5" xfId="478"/>
-    <cellStyle name="Normal 8 5 5 2" xfId="1375"/>
-    <cellStyle name="Normal 8 5 6" xfId="927"/>
-    <cellStyle name="Normal 8 6" xfId="78"/>
-    <cellStyle name="Normal 8 6 2" xfId="190"/>
-    <cellStyle name="Normal 8 6 2 2" xfId="414"/>
-    <cellStyle name="Normal 8 6 2 2 2" xfId="862"/>
-    <cellStyle name="Normal 8 6 2 2 2 2" xfId="1759"/>
-    <cellStyle name="Normal 8 6 2 2 3" xfId="1311"/>
-    <cellStyle name="Normal 8 6 2 3" xfId="638"/>
-    <cellStyle name="Normal 8 6 2 3 2" xfId="1535"/>
-    <cellStyle name="Normal 8 6 2 4" xfId="1087"/>
-    <cellStyle name="Normal 8 6 3" xfId="302"/>
-    <cellStyle name="Normal 8 6 3 2" xfId="750"/>
-    <cellStyle name="Normal 8 6 3 2 2" xfId="1647"/>
-    <cellStyle name="Normal 8 6 3 3" xfId="1199"/>
-    <cellStyle name="Normal 8 6 4" xfId="526"/>
-    <cellStyle name="Normal 8 6 4 2" xfId="1423"/>
-    <cellStyle name="Normal 8 6 5" xfId="975"/>
-    <cellStyle name="Normal 8 7" xfId="134"/>
-    <cellStyle name="Normal 8 7 2" xfId="358"/>
-    <cellStyle name="Normal 8 7 2 2" xfId="806"/>
-    <cellStyle name="Normal 8 7 2 2 2" xfId="1703"/>
-    <cellStyle name="Normal 8 7 2 3" xfId="1255"/>
-    <cellStyle name="Normal 8 7 3" xfId="582"/>
-    <cellStyle name="Normal 8 7 3 2" xfId="1479"/>
-    <cellStyle name="Normal 8 7 4" xfId="1031"/>
-    <cellStyle name="Normal 8 8" xfId="246"/>
-    <cellStyle name="Normal 8 8 2" xfId="694"/>
-    <cellStyle name="Normal 8 8 2 2" xfId="1591"/>
-    <cellStyle name="Normal 8 8 3" xfId="1143"/>
-    <cellStyle name="Normal 8 9" xfId="470"/>
-    <cellStyle name="Normal 8 9 2" xfId="1367"/>
-    <cellStyle name="Normal 9" xfId="909"/>
-    <cellStyle name="Normal 9 2" xfId="1806"/>
-    <cellStyle name="Normal_Testware" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 3 10" xfId="920" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 2" xfId="223" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 2 2" xfId="447" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 2 2 2" xfId="895" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 2 2 2 2" xfId="1792" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 2 2 3" xfId="1344" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 2 3" xfId="671" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 2 3 2" xfId="1568" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 2 4" xfId="1120" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 3" xfId="335" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 3 2" xfId="783" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 3 2 2" xfId="1680" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 3 3" xfId="1232" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 4" xfId="559" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 4 2" xfId="1456" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2 5" xfId="1008" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 3" xfId="167" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 3 2" xfId="391" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 3 2 2" xfId="839" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 3 2 2 2" xfId="1736" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 3 2 3" xfId="1288" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 3 3" xfId="615" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 3 3 2" xfId="1512" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 3 4" xfId="1064" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 4" xfId="279" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 4 2" xfId="727" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 4 2 2" xfId="1624" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 4 3" xfId="1176" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 5" xfId="503" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 5 2" xfId="1400" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 3 2 2 2 2 6" xfId="952" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3" xfId="94" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 2 2" xfId="430" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 2 2 2" xfId="878" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 2 2 2 2" xfId="1775" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 2 2 3" xfId="1327" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 2 3" xfId="654" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 2 3 2" xfId="1551" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 2 4" xfId="1103" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 3" xfId="318" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 3 2" xfId="766" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 3 2 2" xfId="1663" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 3 3" xfId="1215" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 4" xfId="542" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 4 2" xfId="1439" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 5" xfId="991" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Normal 3 2 2 2 4" xfId="150" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Normal 3 2 2 2 4 2" xfId="374" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Normal 3 2 2 2 4 2 2" xfId="822" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Normal 3 2 2 2 4 2 2 2" xfId="1719" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Normal 3 2 2 2 4 2 3" xfId="1271" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Normal 3 2 2 2 4 3" xfId="598" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normal 3 2 2 2 4 3 2" xfId="1495" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Normal 3 2 2 2 4 4" xfId="1047" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normal 3 2 2 2 5" xfId="262" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normal 3 2 2 2 5 2" xfId="710" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal 3 2 2 2 5 2 2" xfId="1607" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal 3 2 2 2 5 3" xfId="1159" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 3 2 2 2 6" xfId="486" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 3 2 2 2 6 2" xfId="1383" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 3 2 2 2 7" xfId="935" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 3 2 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 2" xfId="214" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 2 2" xfId="438" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 2 2 2" xfId="886" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 2 2 2 2" xfId="1783" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 2 2 3" xfId="1335" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 2 3" xfId="662" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 2 3 2" xfId="1559" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 2 4" xfId="1111" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 3" xfId="326" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 3 2" xfId="774" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 3 2 2" xfId="1671" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 3 3" xfId="1223" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 4" xfId="550" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 4 2" xfId="1447" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 3 2 2 3 2 5" xfId="999" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 3 2 2 3 3" xfId="158" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 3 2 2 3 3 2" xfId="382" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 3 2 2 3 3 2 2" xfId="830" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 3 2 2 3 3 2 2 2" xfId="1727" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 3 2 2 3 3 2 3" xfId="1279" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 3 2 2 3 3 3" xfId="606" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 3 2 2 3 3 3 2" xfId="1503" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 3 2 2 3 3 4" xfId="1055" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 3 2 2 3 4" xfId="270" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 3 2 2 3 4 2" xfId="718" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 3 2 2 3 4 2 2" xfId="1615" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 3 2 2 3 4 3" xfId="1167" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 3 2 2 3 5" xfId="494" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 3 2 2 3 5 2" xfId="1391" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 3 2 2 3 6" xfId="943" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 3 2 2 4" xfId="85" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 3 2 2 4 2" xfId="197" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 3 2 2 4 2 2" xfId="421" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 3 2 2 4 2 2 2" xfId="869" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 3 2 2 4 2 2 2 2" xfId="1766" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 3 2 2 4 2 2 3" xfId="1318" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 3 2 2 4 2 3" xfId="645" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 3 2 2 4 2 3 2" xfId="1542" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 3 2 2 4 2 4" xfId="1094" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 3 2 2 4 3" xfId="309" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 3 2 2 4 3 2" xfId="757" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 3 2 2 4 3 2 2" xfId="1654" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 3 2 2 4 3 3" xfId="1206" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 3 2 2 4 4" xfId="533" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 3 2 2 4 4 2" xfId="1430" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 3 2 2 4 5" xfId="982" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 3 2 2 5" xfId="141" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 3 2 2 5 2" xfId="365" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Normal 3 2 2 5 2 2" xfId="813" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Normal 3 2 2 5 2 2 2" xfId="1710" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Normal 3 2 2 5 2 3" xfId="1262" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Normal 3 2 2 5 3" xfId="589" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Normal 3 2 2 5 3 2" xfId="1486" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Normal 3 2 2 5 4" xfId="1038" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Normal 3 2 2 6" xfId="253" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Normal 3 2 2 6 2" xfId="701" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Normal 3 2 2 6 2 2" xfId="1598" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Normal 3 2 2 6 3" xfId="1150" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Normal 3 2 2 7" xfId="477" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Normal 3 2 2 7 2" xfId="1374" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Normal 3 2 2 8" xfId="926" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="33" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Normal 3 2 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 2" xfId="219" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 2 2" xfId="443" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 2 2 2" xfId="891" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 2 2 2 2" xfId="1788" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 2 2 3" xfId="1340" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 2 3" xfId="667" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 2 3 2" xfId="1564" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 2 4" xfId="1116" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 3" xfId="331" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 3 2" xfId="779" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 3 2 2" xfId="1676" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 3 3" xfId="1228" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 4" xfId="555" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 4 2" xfId="1452" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Normal 3 2 3 2 2 5" xfId="1004" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Normal 3 2 3 2 3" xfId="163" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Normal 3 2 3 2 3 2" xfId="387" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Normal 3 2 3 2 3 2 2" xfId="835" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Normal 3 2 3 2 3 2 2 2" xfId="1732" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Normal 3 2 3 2 3 2 3" xfId="1284" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Normal 3 2 3 2 3 3" xfId="611" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Normal 3 2 3 2 3 3 2" xfId="1508" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Normal 3 2 3 2 3 4" xfId="1060" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Normal 3 2 3 2 4" xfId="275" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Normal 3 2 3 2 4 2" xfId="723" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Normal 3 2 3 2 4 2 2" xfId="1620" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Normal 3 2 3 2 4 3" xfId="1172" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Normal 3 2 3 2 5" xfId="499" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Normal 3 2 3 2 5 2" xfId="1396" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Normal 3 2 3 2 6" xfId="948" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Normal 3 2 3 3" xfId="90" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Normal 3 2 3 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Normal 3 2 3 3 2 2" xfId="426" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Normal 3 2 3 3 2 2 2" xfId="874" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Normal 3 2 3 3 2 2 2 2" xfId="1771" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Normal 3 2 3 3 2 2 3" xfId="1323" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Normal 3 2 3 3 2 3" xfId="650" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Normal 3 2 3 3 2 3 2" xfId="1547" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Normal 3 2 3 3 2 4" xfId="1099" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Normal 3 2 3 3 3" xfId="314" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Normal 3 2 3 3 3 2" xfId="762" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Normal 3 2 3 3 3 2 2" xfId="1659" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Normal 3 2 3 3 3 3" xfId="1211" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Normal 3 2 3 3 4" xfId="538" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Normal 3 2 3 3 4 2" xfId="1435" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Normal 3 2 3 3 5" xfId="987" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Normal 3 2 3 4" xfId="146" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Normal 3 2 3 4 2" xfId="370" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Normal 3 2 3 4 2 2" xfId="818" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Normal 3 2 3 4 2 2 2" xfId="1715" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Normal 3 2 3 4 2 3" xfId="1267" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Normal 3 2 3 4 3" xfId="594" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Normal 3 2 3 4 3 2" xfId="1491" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Normal 3 2 3 4 4" xfId="1043" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Normal 3 2 3 5" xfId="258" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Normal 3 2 3 5 2" xfId="706" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Normal 3 2 3 5 2 2" xfId="1603" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Normal 3 2 3 5 3" xfId="1155" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Normal 3 2 3 6" xfId="482" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Normal 3 2 3 6 2" xfId="1379" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Normal 3 2 3 7" xfId="931" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Normal 3 2 4" xfId="42" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="98" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Normal 3 2 4 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Normal 3 2 4 2 2 2" xfId="434" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Normal 3 2 4 2 2 2 2" xfId="882" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Normal 3 2 4 2 2 2 2 2" xfId="1779" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Normal 3 2 4 2 2 2 3" xfId="1331" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Normal 3 2 4 2 2 3" xfId="658" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Normal 3 2 4 2 2 3 2" xfId="1555" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Normal 3 2 4 2 2 4" xfId="1107" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Normal 3 2 4 2 3" xfId="322" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Normal 3 2 4 2 3 2" xfId="770" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Normal 3 2 4 2 3 2 2" xfId="1667" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Normal 3 2 4 2 3 3" xfId="1219" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Normal 3 2 4 2 4" xfId="546" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Normal 3 2 4 2 4 2" xfId="1443" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Normal 3 2 4 2 5" xfId="995" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Normal 3 2 4 3" xfId="154" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Normal 3 2 4 3 2" xfId="378" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Normal 3 2 4 3 2 2" xfId="826" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Normal 3 2 4 3 2 2 2" xfId="1723" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Normal 3 2 4 3 2 3" xfId="1275" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Normal 3 2 4 3 3" xfId="602" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Normal 3 2 4 3 3 2" xfId="1499" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Normal 3 2 4 3 4" xfId="1051" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="Normal 3 2 4 4" xfId="266" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="Normal 3 2 4 4 2" xfId="714" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="Normal 3 2 4 4 2 2" xfId="1611" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="Normal 3 2 4 4 3" xfId="1163" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Normal 3 2 4 5" xfId="490" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Normal 3 2 4 5 2" xfId="1387" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Normal 3 2 4 6" xfId="939" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Normal 3 2 5" xfId="81" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Normal 3 2 5 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="Normal 3 2 5 2 2" xfId="417" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="Normal 3 2 5 2 2 2" xfId="865" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="Normal 3 2 5 2 2 2 2" xfId="1762" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Normal 3 2 5 2 2 3" xfId="1314" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Normal 3 2 5 2 3" xfId="641" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="Normal 3 2 5 2 3 2" xfId="1538" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="Normal 3 2 5 2 4" xfId="1090" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="Normal 3 2 5 3" xfId="305" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="Normal 3 2 5 3 2" xfId="753" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="Normal 3 2 5 3 2 2" xfId="1650" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="Normal 3 2 5 3 3" xfId="1202" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Normal 3 2 5 4" xfId="529" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Normal 3 2 5 4 2" xfId="1426" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="Normal 3 2 5 5" xfId="978" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="Normal 3 2 6" xfId="137" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Normal 3 2 6 2" xfId="361" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="Normal 3 2 6 2 2" xfId="809" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Normal 3 2 6 2 2 2" xfId="1706" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="Normal 3 2 6 2 3" xfId="1258" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="Normal 3 2 6 3" xfId="585" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Normal 3 2 6 3 2" xfId="1482" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="Normal 3 2 6 4" xfId="1034" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="Normal 3 2 7" xfId="249" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="Normal 3 2 7 2" xfId="697" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="Normal 3 2 7 2 2" xfId="1594" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="Normal 3 2 7 3" xfId="1146" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="Normal 3 2 8" xfId="473" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Normal 3 2 8 2" xfId="1370" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Normal 3 2 9" xfId="922" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="Normal 3 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 2" xfId="221" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 2 2" xfId="445" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 2 2 2" xfId="893" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 2 2 2 2" xfId="1790" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 2 2 3" xfId="1342" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 2 3" xfId="669" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 2 3 2" xfId="1566" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 2 4" xfId="1118" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 3" xfId="333" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 3 2" xfId="781" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 3 2 2" xfId="1678" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 3 3" xfId="1230" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 4" xfId="557" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 4 2" xfId="1454" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="Normal 3 3 2 2 2 5" xfId="1006" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="Normal 3 3 2 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="Normal 3 3 2 2 3 2" xfId="389" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Normal 3 3 2 2 3 2 2" xfId="837" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Normal 3 3 2 2 3 2 2 2" xfId="1734" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="Normal 3 3 2 2 3 2 3" xfId="1286" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="Normal 3 3 2 2 3 3" xfId="613" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="Normal 3 3 2 2 3 3 2" xfId="1510" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="Normal 3 3 2 2 3 4" xfId="1062" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="Normal 3 3 2 2 4" xfId="277" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="Normal 3 3 2 2 4 2" xfId="725" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="Normal 3 3 2 2 4 2 2" xfId="1622" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="Normal 3 3 2 2 4 3" xfId="1174" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Normal 3 3 2 2 5" xfId="501" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Normal 3 3 2 2 5 2" xfId="1398" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Normal 3 3 2 2 6" xfId="950" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Normal 3 3 2 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Normal 3 3 2 3 2" xfId="204" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Normal 3 3 2 3 2 2" xfId="428" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Normal 3 3 2 3 2 2 2" xfId="876" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Normal 3 3 2 3 2 2 2 2" xfId="1773" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Normal 3 3 2 3 2 2 3" xfId="1325" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Normal 3 3 2 3 2 3" xfId="652" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Normal 3 3 2 3 2 3 2" xfId="1549" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Normal 3 3 2 3 2 4" xfId="1101" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Normal 3 3 2 3 3" xfId="316" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Normal 3 3 2 3 3 2" xfId="764" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Normal 3 3 2 3 3 2 2" xfId="1661" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Normal 3 3 2 3 3 3" xfId="1213" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Normal 3 3 2 3 4" xfId="540" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Normal 3 3 2 3 4 2" xfId="1437" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Normal 3 3 2 3 5" xfId="989" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Normal 3 3 2 4" xfId="148" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Normal 3 3 2 4 2" xfId="372" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Normal 3 3 2 4 2 2" xfId="820" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Normal 3 3 2 4 2 2 2" xfId="1717" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Normal 3 3 2 4 2 3" xfId="1269" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Normal 3 3 2 4 3" xfId="596" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Normal 3 3 2 4 3 2" xfId="1493" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Normal 3 3 2 4 4" xfId="1045" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Normal 3 3 2 5" xfId="260" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Normal 3 3 2 5 2" xfId="708" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Normal 3 3 2 5 2 2" xfId="1605" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Normal 3 3 2 5 3" xfId="1157" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Normal 3 3 2 6" xfId="484" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Normal 3 3 2 6 2" xfId="1381" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Normal 3 3 2 7" xfId="933" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Normal 3 3 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Normal 3 3 3 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Normal 3 3 3 2 2 2" xfId="436" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Normal 3 3 3 2 2 2 2" xfId="884" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Normal 3 3 3 2 2 2 2 2" xfId="1781" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Normal 3 3 3 2 2 2 3" xfId="1333" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Normal 3 3 3 2 2 3" xfId="660" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="Normal 3 3 3 2 2 3 2" xfId="1557" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="Normal 3 3 3 2 2 4" xfId="1109" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="Normal 3 3 3 2 3" xfId="324" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="Normal 3 3 3 2 3 2" xfId="772" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="Normal 3 3 3 2 3 2 2" xfId="1669" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="Normal 3 3 3 2 3 3" xfId="1221" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="Normal 3 3 3 2 4" xfId="548" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="Normal 3 3 3 2 4 2" xfId="1445" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Normal 3 3 3 2 5" xfId="997" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="Normal 3 3 3 3" xfId="156" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="Normal 3 3 3 3 2" xfId="380" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="Normal 3 3 3 3 2 2" xfId="828" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="Normal 3 3 3 3 2 2 2" xfId="1725" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="Normal 3 3 3 3 2 3" xfId="1277" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="Normal 3 3 3 3 3" xfId="604" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="Normal 3 3 3 3 3 2" xfId="1501" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="Normal 3 3 3 3 4" xfId="1053" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="Normal 3 3 3 4" xfId="268" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="Normal 3 3 3 4 2" xfId="716" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="Normal 3 3 3 4 2 2" xfId="1613" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="Normal 3 3 3 4 3" xfId="1165" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="Normal 3 3 3 5" xfId="492" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="Normal 3 3 3 5 2" xfId="1389" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="Normal 3 3 3 6" xfId="941" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="Normal 3 3 4" xfId="83" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="Normal 3 3 4 2" xfId="195" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="Normal 3 3 4 2 2" xfId="419" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="Normal 3 3 4 2 2 2" xfId="867" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="Normal 3 3 4 2 2 2 2" xfId="1764" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="Normal 3 3 4 2 2 3" xfId="1316" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="Normal 3 3 4 2 3" xfId="643" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="Normal 3 3 4 2 3 2" xfId="1540" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="Normal 3 3 4 2 4" xfId="1092" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="Normal 3 3 4 3" xfId="307" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="Normal 3 3 4 3 2" xfId="755" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="Normal 3 3 4 3 2 2" xfId="1652" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="Normal 3 3 4 3 3" xfId="1204" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="Normal 3 3 4 4" xfId="531" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="Normal 3 3 4 4 2" xfId="1428" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="Normal 3 3 4 5" xfId="980" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="Normal 3 3 5" xfId="139" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="Normal 3 3 5 2" xfId="363" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="Normal 3 3 5 2 2" xfId="811" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="Normal 3 3 5 2 2 2" xfId="1708" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="Normal 3 3 5 2 3" xfId="1260" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="Normal 3 3 5 3" xfId="587" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="Normal 3 3 5 3 2" xfId="1484" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="Normal 3 3 5 4" xfId="1036" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="Normal 3 3 6" xfId="251" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="Normal 3 3 6 2" xfId="699" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="Normal 3 3 6 2 2" xfId="1596" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="Normal 3 3 6 3" xfId="1148" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="Normal 3 3 7" xfId="475" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="Normal 3 3 7 2" xfId="1372" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="Normal 3 3 8" xfId="924" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="Normal 3 4" xfId="31" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="Normal 3 4 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="Normal 3 4 2 2 2" xfId="217" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="Normal 3 4 2 2 2 2" xfId="441" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="Normal 3 4 2 2 2 2 2" xfId="889" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="Normal 3 4 2 2 2 2 2 2" xfId="1786" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="Normal 3 4 2 2 2 2 3" xfId="1338" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="Normal 3 4 2 2 2 3" xfId="665" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="Normal 3 4 2 2 2 3 2" xfId="1562" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="Normal 3 4 2 2 2 4" xfId="1114" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="Normal 3 4 2 2 3" xfId="329" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="Normal 3 4 2 2 3 2" xfId="777" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="Normal 3 4 2 2 3 2 2" xfId="1674" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="Normal 3 4 2 2 3 3" xfId="1226" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="Normal 3 4 2 2 4" xfId="553" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="Normal 3 4 2 2 4 2" xfId="1450" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="Normal 3 4 2 2 5" xfId="1002" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="Normal 3 4 2 3" xfId="161" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="Normal 3 4 2 3 2" xfId="385" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="Normal 3 4 2 3 2 2" xfId="833" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="Normal 3 4 2 3 2 2 2" xfId="1730" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="Normal 3 4 2 3 2 3" xfId="1282" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="Normal 3 4 2 3 3" xfId="609" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="Normal 3 4 2 3 3 2" xfId="1506" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="Normal 3 4 2 3 4" xfId="1058" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="Normal 3 4 2 4" xfId="273" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="Normal 3 4 2 4 2" xfId="721" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="Normal 3 4 2 4 2 2" xfId="1618" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="Normal 3 4 2 4 3" xfId="1170" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="Normal 3 4 2 5" xfId="497" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="Normal 3 4 2 5 2" xfId="1394" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="Normal 3 4 2 6" xfId="946" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="Normal 3 4 3" xfId="88" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="Normal 3 4 3 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="Normal 3 4 3 2 2" xfId="424" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="Normal 3 4 3 2 2 2" xfId="872" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="Normal 3 4 3 2 2 2 2" xfId="1769" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="Normal 3 4 3 2 2 3" xfId="1321" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="Normal 3 4 3 2 3" xfId="648" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="Normal 3 4 3 2 3 2" xfId="1545" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="Normal 3 4 3 2 4" xfId="1097" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="Normal 3 4 3 3" xfId="312" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="Normal 3 4 3 3 2" xfId="760" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="Normal 3 4 3 3 2 2" xfId="1657" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="Normal 3 4 3 3 3" xfId="1209" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="Normal 3 4 3 4" xfId="536" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="Normal 3 4 3 4 2" xfId="1433" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="Normal 3 4 3 5" xfId="985" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="Normal 3 4 4" xfId="144" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="Normal 3 4 4 2" xfId="368" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="Normal 3 4 4 2 2" xfId="816" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="Normal 3 4 4 2 2 2" xfId="1713" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="Normal 3 4 4 2 3" xfId="1265" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="Normal 3 4 4 3" xfId="592" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="Normal 3 4 4 3 2" xfId="1489" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="Normal 3 4 4 4" xfId="1041" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="Normal 3 4 5" xfId="256" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="Normal 3 4 5 2" xfId="704" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="Normal 3 4 5 2 2" xfId="1601" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="Normal 3 4 5 3" xfId="1153" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="Normal 3 4 6" xfId="480" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="Normal 3 4 6 2" xfId="1377" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="Normal 3 4 7" xfId="929" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="Normal 3 5" xfId="40" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="Normal 3 5 2" xfId="96" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="Normal 3 5 2 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="Normal 3 5 2 2 2" xfId="432" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="Normal 3 5 2 2 2 2" xfId="880" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="Normal 3 5 2 2 2 2 2" xfId="1777" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="Normal 3 5 2 2 2 3" xfId="1329" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="Normal 3 5 2 2 3" xfId="656" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="Normal 3 5 2 2 3 2" xfId="1553" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="Normal 3 5 2 2 4" xfId="1105" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="Normal 3 5 2 3" xfId="320" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="Normal 3 5 2 3 2" xfId="768" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="Normal 3 5 2 3 2 2" xfId="1665" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="Normal 3 5 2 3 3" xfId="1217" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="Normal 3 5 2 4" xfId="544" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="Normal 3 5 2 4 2" xfId="1441" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="Normal 3 5 2 5" xfId="993" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="Normal 3 5 3" xfId="152" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="Normal 3 5 3 2" xfId="376" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="Normal 3 5 3 2 2" xfId="824" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="Normal 3 5 3 2 2 2" xfId="1721" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="Normal 3 5 3 2 3" xfId="1273" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="Normal 3 5 3 3" xfId="600" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Normal 3 5 3 3 2" xfId="1497" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="Normal 3 5 3 4" xfId="1049" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="Normal 3 5 4" xfId="264" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="Normal 3 5 4 2" xfId="712" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="Normal 3 5 4 2 2" xfId="1609" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="Normal 3 5 4 3" xfId="1161" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="Normal 3 5 5" xfId="488" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="Normal 3 5 5 2" xfId="1385" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="Normal 3 5 6" xfId="937" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="Normal 3 6" xfId="79" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="Normal 3 6 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="Normal 3 6 2 2" xfId="415" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="Normal 3 6 2 2 2" xfId="863" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="Normal 3 6 2 2 2 2" xfId="1760" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="Normal 3 6 2 2 3" xfId="1312" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="Normal 3 6 2 3" xfId="639" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="Normal 3 6 2 3 2" xfId="1536" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="Normal 3 6 2 4" xfId="1088" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="Normal 3 6 3" xfId="303" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="Normal 3 6 3 2" xfId="751" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="Normal 3 6 3 2 2" xfId="1648" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="Normal 3 6 3 3" xfId="1200" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="Normal 3 6 4" xfId="527" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="Normal 3 6 4 2" xfId="1424" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="Normal 3 6 5" xfId="976" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="Normal 3 7" xfId="135" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="Normal 3 7 2" xfId="359" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="Normal 3 7 2 2" xfId="807" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="Normal 3 7 2 2 2" xfId="1704" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="Normal 3 7 2 3" xfId="1256" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="Normal 3 7 3" xfId="583" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="Normal 3 7 3 2" xfId="1480" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="Normal 3 7 4" xfId="1032" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="Normal 3 8" xfId="247" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="Normal 3 8 2" xfId="695" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="Normal 3 8 2 2" xfId="1592" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="Normal 3 8 3" xfId="1144" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="Normal 3 9" xfId="471" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="Normal 3 9 2" xfId="1368" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="Normal 4 10" xfId="125" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="Normal 4 10 2" xfId="349" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="Normal 4 10 2 2" xfId="797" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="Normal 4 10 2 2 2" xfId="1694" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="Normal 4 10 2 3" xfId="1246" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="Normal 4 10 3" xfId="573" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="Normal 4 10 3 2" xfId="1470" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="Normal 4 10 4" xfId="1022" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="Normal 4 11" xfId="237" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="Normal 4 11 2" xfId="685" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="Normal 4 11 2 2" xfId="1582" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="Normal 4 11 3" xfId="1134" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="Normal 4 12" xfId="461" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="Normal 4 12 2" xfId="1358" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="Normal 4 13" xfId="910" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="Normal 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 2" xfId="231" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 2 2" xfId="455" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 2 2 2" xfId="903" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 2 2 2 2" xfId="1800" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 2 2 3" xfId="1352" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 2 3" xfId="679" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 2 3 2" xfId="1576" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 2 4" xfId="1128" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 3" xfId="343" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 3 2" xfId="791" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 3 2 2" xfId="1688" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 3 3" xfId="1240" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 4" xfId="567" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 4 2" xfId="1464" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2 5" xfId="1016" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="Normal 4 2 2 2 3" xfId="175" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="Normal 4 2 2 2 3 2" xfId="399" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="Normal 4 2 2 2 3 2 2" xfId="847" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="Normal 4 2 2 2 3 2 2 2" xfId="1744" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="Normal 4 2 2 2 3 2 3" xfId="1296" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="Normal 4 2 2 2 3 3" xfId="623" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="Normal 4 2 2 2 3 3 2" xfId="1520" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="Normal 4 2 2 2 3 4" xfId="1072" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="Normal 4 2 2 2 4" xfId="287" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="Normal 4 2 2 2 4 2" xfId="735" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="Normal 4 2 2 2 4 2 2" xfId="1632" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="Normal 4 2 2 2 4 3" xfId="1184" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="Normal 4 2 2 2 5" xfId="511" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="Normal 4 2 2 2 5 2" xfId="1408" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="Normal 4 2 2 2 6" xfId="960" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="Normal 4 2 2 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="Normal 4 2 2 3 2" xfId="187" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="Normal 4 2 2 3 2 2" xfId="411" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="Normal 4 2 2 3 2 2 2" xfId="859" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="Normal 4 2 2 3 2 2 2 2" xfId="1756" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="Normal 4 2 2 3 2 2 3" xfId="1308" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="Normal 4 2 2 3 2 3" xfId="635" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="Normal 4 2 2 3 2 3 2" xfId="1532" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="Normal 4 2 2 3 2 4" xfId="1084" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="Normal 4 2 2 3 3" xfId="299" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="Normal 4 2 2 3 3 2" xfId="747" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="Normal 4 2 2 3 3 2 2" xfId="1644" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="Normal 4 2 2 3 3 3" xfId="1196" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="Normal 4 2 2 3 4" xfId="523" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="Normal 4 2 2 3 4 2" xfId="1420" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="Normal 4 2 2 3 5" xfId="972" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="Normal 4 2 2 4" xfId="131" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="Normal 4 2 2 4 2" xfId="355" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="Normal 4 2 2 4 2 2" xfId="803" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="Normal 4 2 2 4 2 2 2" xfId="1700" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="Normal 4 2 2 4 2 3" xfId="1252" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="Normal 4 2 2 4 3" xfId="579" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="Normal 4 2 2 4 3 2" xfId="1476" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="Normal 4 2 2 4 4" xfId="1028" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="Normal 4 2 2 5" xfId="243" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="Normal 4 2 2 5 2" xfId="691" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="Normal 4 2 2 5 2 2" xfId="1588" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="Normal 4 2 2 5 3" xfId="1140" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="Normal 4 2 2 6" xfId="467" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="Normal 4 2 2 6 2" xfId="1364" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="Normal 4 2 2 7" xfId="916" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="67" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="Normal 4 2 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="Normal 4 2 3 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="Normal 4 2 3 2 2 2" xfId="459" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="Normal 4 2 3 2 2 2 2" xfId="907" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="Normal 4 2 3 2 2 2 2 2" xfId="1804" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="Normal 4 2 3 2 2 2 3" xfId="1356" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="Normal 4 2 3 2 2 3" xfId="683" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="Normal 4 2 3 2 2 3 2" xfId="1580" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="Normal 4 2 3 2 2 4" xfId="1132" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="Normal 4 2 3 2 3" xfId="347" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="Normal 4 2 3 2 3 2" xfId="795" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="Normal 4 2 3 2 3 2 2" xfId="1692" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="Normal 4 2 3 2 3 3" xfId="1244" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="Normal 4 2 3 2 4" xfId="571" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="Normal 4 2 3 2 4 2" xfId="1468" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="Normal 4 2 3 2 5" xfId="1020" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="Normal 4 2 3 3" xfId="179" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="Normal 4 2 3 3 2" xfId="403" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="Normal 4 2 3 3 2 2" xfId="851" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="Normal 4 2 3 3 2 2 2" xfId="1748" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="Normal 4 2 3 3 2 3" xfId="1300" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="Normal 4 2 3 3 3" xfId="627" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="Normal 4 2 3 3 3 2" xfId="1524" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="Normal 4 2 3 3 4" xfId="1076" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="Normal 4 2 3 4" xfId="291" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="Normal 4 2 3 4 2" xfId="739" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="Normal 4 2 3 4 2 2" xfId="1636" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="Normal 4 2 3 4 3" xfId="1188" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="Normal 4 2 3 5" xfId="515" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="Normal 4 2 3 5 2" xfId="1412" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="Normal 4 2 3 6" xfId="964" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="Normal 4 2 4" xfId="59" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="Normal 4 2 4 2" xfId="115" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="Normal 4 2 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="Normal 4 2 4 2 2 2" xfId="451" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="Normal 4 2 4 2 2 2 2" xfId="899" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="Normal 4 2 4 2 2 2 2 2" xfId="1796" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="Normal 4 2 4 2 2 2 3" xfId="1348" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="Normal 4 2 4 2 2 3" xfId="675" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="Normal 4 2 4 2 2 3 2" xfId="1572" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="Normal 4 2 4 2 2 4" xfId="1124" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="Normal 4 2 4 2 3" xfId="339" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="Normal 4 2 4 2 3 2" xfId="787" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="Normal 4 2 4 2 3 2 2" xfId="1684" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="Normal 4 2 4 2 3 3" xfId="1236" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Normal 4 2 4 2 4" xfId="563" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Normal 4 2 4 2 4 2" xfId="1460" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Normal 4 2 4 2 5" xfId="1012" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Normal 4 2 4 3" xfId="171" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Normal 4 2 4 3 2" xfId="395" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Normal 4 2 4 3 2 2" xfId="843" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Normal 4 2 4 3 2 2 2" xfId="1740" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="Normal 4 2 4 3 2 3" xfId="1292" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="Normal 4 2 4 3 3" xfId="619" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="Normal 4 2 4 3 3 2" xfId="1516" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="Normal 4 2 4 3 4" xfId="1068" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="Normal 4 2 4 4" xfId="283" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="Normal 4 2 4 4 2" xfId="731" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="Normal 4 2 4 4 2 2" xfId="1628" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="Normal 4 2 4 4 3" xfId="1180" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="Normal 4 2 4 5" xfId="507" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="Normal 4 2 4 5 2" xfId="1404" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="Normal 4 2 4 6" xfId="956" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="Normal 4 2 5" xfId="71" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="Normal 4 2 5 2" xfId="183" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="Normal 4 2 5 2 2" xfId="407" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="Normal 4 2 5 2 2 2" xfId="855" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
+    <cellStyle name="Normal 4 2 5 2 2 2 2" xfId="1752" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
+    <cellStyle name="Normal 4 2 5 2 2 3" xfId="1304" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
+    <cellStyle name="Normal 4 2 5 2 3" xfId="631" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
+    <cellStyle name="Normal 4 2 5 2 3 2" xfId="1528" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
+    <cellStyle name="Normal 4 2 5 2 4" xfId="1080" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
+    <cellStyle name="Normal 4 2 5 3" xfId="295" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
+    <cellStyle name="Normal 4 2 5 3 2" xfId="743" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
+    <cellStyle name="Normal 4 2 5 3 2 2" xfId="1640" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
+    <cellStyle name="Normal 4 2 5 3 3" xfId="1192" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
+    <cellStyle name="Normal 4 2 5 4" xfId="519" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
+    <cellStyle name="Normal 4 2 5 4 2" xfId="1416" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
+    <cellStyle name="Normal 4 2 5 5" xfId="968" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
+    <cellStyle name="Normal 4 2 6" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
+    <cellStyle name="Normal 4 2 6 2" xfId="351" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
+    <cellStyle name="Normal 4 2 6 2 2" xfId="799" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
+    <cellStyle name="Normal 4 2 6 2 2 2" xfId="1696" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
+    <cellStyle name="Normal 4 2 6 2 3" xfId="1248" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
+    <cellStyle name="Normal 4 2 6 3" xfId="575" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
+    <cellStyle name="Normal 4 2 6 3 2" xfId="1472" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
+    <cellStyle name="Normal 4 2 6 4" xfId="1024" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
+    <cellStyle name="Normal 4 2 7" xfId="239" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
+    <cellStyle name="Normal 4 2 7 2" xfId="687" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
+    <cellStyle name="Normal 4 2 7 2 2" xfId="1584" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
+    <cellStyle name="Normal 4 2 7 3" xfId="1136" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
+    <cellStyle name="Normal 4 2 8" xfId="463" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
+    <cellStyle name="Normal 4 2 8 2" xfId="1360" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
+    <cellStyle name="Normal 4 2 9" xfId="912" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="Normal 4 3" xfId="11" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 2" xfId="232" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 2 2" xfId="456" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 2 2 2" xfId="904" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 2 2 2 2" xfId="1801" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 2 2 3" xfId="1353" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 2 3" xfId="680" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 2 3 2" xfId="1577" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 2 4" xfId="1129" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 3" xfId="344" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 3 2" xfId="792" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 3 2 2" xfId="1689" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 3 3" xfId="1241" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 4" xfId="568" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 4 2" xfId="1465" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2 5" xfId="1017" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
+    <cellStyle name="Normal 4 3 2 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
+    <cellStyle name="Normal 4 3 2 2 3 2" xfId="400" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
+    <cellStyle name="Normal 4 3 2 2 3 2 2" xfId="848" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="Normal 4 3 2 2 3 2 2 2" xfId="1745" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
+    <cellStyle name="Normal 4 3 2 2 3 2 3" xfId="1297" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
+    <cellStyle name="Normal 4 3 2 2 3 3" xfId="624" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="Normal 4 3 2 2 3 3 2" xfId="1521" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
+    <cellStyle name="Normal 4 3 2 2 3 4" xfId="1073" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="Normal 4 3 2 2 4" xfId="288" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="Normal 4 3 2 2 4 2" xfId="736" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Normal 4 3 2 2 4 2 2" xfId="1633" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
+    <cellStyle name="Normal 4 3 2 2 4 3" xfId="1185" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
+    <cellStyle name="Normal 4 3 2 2 5" xfId="512" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
+    <cellStyle name="Normal 4 3 2 2 5 2" xfId="1409" xr:uid="{00000000-0005-0000-0000-0000D9020000}"/>
+    <cellStyle name="Normal 4 3 2 2 6" xfId="961" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
+    <cellStyle name="Normal 4 3 2 3" xfId="76" xr:uid="{00000000-0005-0000-0000-0000DB020000}"/>
+    <cellStyle name="Normal 4 3 2 3 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
+    <cellStyle name="Normal 4 3 2 3 2 2" xfId="412" xr:uid="{00000000-0005-0000-0000-0000DD020000}"/>
+    <cellStyle name="Normal 4 3 2 3 2 2 2" xfId="860" xr:uid="{00000000-0005-0000-0000-0000DE020000}"/>
+    <cellStyle name="Normal 4 3 2 3 2 2 2 2" xfId="1757" xr:uid="{00000000-0005-0000-0000-0000DF020000}"/>
+    <cellStyle name="Normal 4 3 2 3 2 2 3" xfId="1309" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
+    <cellStyle name="Normal 4 3 2 3 2 3" xfId="636" xr:uid="{00000000-0005-0000-0000-0000E1020000}"/>
+    <cellStyle name="Normal 4 3 2 3 2 3 2" xfId="1533" xr:uid="{00000000-0005-0000-0000-0000E2020000}"/>
+    <cellStyle name="Normal 4 3 2 3 2 4" xfId="1085" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
+    <cellStyle name="Normal 4 3 2 3 3" xfId="300" xr:uid="{00000000-0005-0000-0000-0000E4020000}"/>
+    <cellStyle name="Normal 4 3 2 3 3 2" xfId="748" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
+    <cellStyle name="Normal 4 3 2 3 3 2 2" xfId="1645" xr:uid="{00000000-0005-0000-0000-0000E6020000}"/>
+    <cellStyle name="Normal 4 3 2 3 3 3" xfId="1197" xr:uid="{00000000-0005-0000-0000-0000E7020000}"/>
+    <cellStyle name="Normal 4 3 2 3 4" xfId="524" xr:uid="{00000000-0005-0000-0000-0000E8020000}"/>
+    <cellStyle name="Normal 4 3 2 3 4 2" xfId="1421" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
+    <cellStyle name="Normal 4 3 2 3 5" xfId="973" xr:uid="{00000000-0005-0000-0000-0000EA020000}"/>
+    <cellStyle name="Normal 4 3 2 4" xfId="132" xr:uid="{00000000-0005-0000-0000-0000EB020000}"/>
+    <cellStyle name="Normal 4 3 2 4 2" xfId="356" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
+    <cellStyle name="Normal 4 3 2 4 2 2" xfId="804" xr:uid="{00000000-0005-0000-0000-0000ED020000}"/>
+    <cellStyle name="Normal 4 3 2 4 2 2 2" xfId="1701" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
+    <cellStyle name="Normal 4 3 2 4 2 3" xfId="1253" xr:uid="{00000000-0005-0000-0000-0000EF020000}"/>
+    <cellStyle name="Normal 4 3 2 4 3" xfId="580" xr:uid="{00000000-0005-0000-0000-0000F0020000}"/>
+    <cellStyle name="Normal 4 3 2 4 3 2" xfId="1477" xr:uid="{00000000-0005-0000-0000-0000F1020000}"/>
+    <cellStyle name="Normal 4 3 2 4 4" xfId="1029" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
+    <cellStyle name="Normal 4 3 2 5" xfId="244" xr:uid="{00000000-0005-0000-0000-0000F3020000}"/>
+    <cellStyle name="Normal 4 3 2 5 2" xfId="692" xr:uid="{00000000-0005-0000-0000-0000F4020000}"/>
+    <cellStyle name="Normal 4 3 2 5 2 2" xfId="1589" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
+    <cellStyle name="Normal 4 3 2 5 3" xfId="1141" xr:uid="{00000000-0005-0000-0000-0000F6020000}"/>
+    <cellStyle name="Normal 4 3 2 6" xfId="468" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
+    <cellStyle name="Normal 4 3 2 6 2" xfId="1365" xr:uid="{00000000-0005-0000-0000-0000F8020000}"/>
+    <cellStyle name="Normal 4 3 2 7" xfId="917" xr:uid="{00000000-0005-0000-0000-0000F9020000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="68" xr:uid="{00000000-0005-0000-0000-0000FA020000}"/>
+    <cellStyle name="Normal 4 3 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-0000FB020000}"/>
+    <cellStyle name="Normal 4 3 3 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000FC020000}"/>
+    <cellStyle name="Normal 4 3 3 2 2 2" xfId="460" xr:uid="{00000000-0005-0000-0000-0000FD020000}"/>
+    <cellStyle name="Normal 4 3 3 2 2 2 2" xfId="908" xr:uid="{00000000-0005-0000-0000-0000FE020000}"/>
+    <cellStyle name="Normal 4 3 3 2 2 2 2 2" xfId="1805" xr:uid="{00000000-0005-0000-0000-0000FF020000}"/>
+    <cellStyle name="Normal 4 3 3 2 2 2 3" xfId="1357" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
+    <cellStyle name="Normal 4 3 3 2 2 3" xfId="684" xr:uid="{00000000-0005-0000-0000-000001030000}"/>
+    <cellStyle name="Normal 4 3 3 2 2 3 2" xfId="1581" xr:uid="{00000000-0005-0000-0000-000002030000}"/>
+    <cellStyle name="Normal 4 3 3 2 2 4" xfId="1133" xr:uid="{00000000-0005-0000-0000-000003030000}"/>
+    <cellStyle name="Normal 4 3 3 2 3" xfId="348" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
+    <cellStyle name="Normal 4 3 3 2 3 2" xfId="796" xr:uid="{00000000-0005-0000-0000-000005030000}"/>
+    <cellStyle name="Normal 4 3 3 2 3 2 2" xfId="1693" xr:uid="{00000000-0005-0000-0000-000006030000}"/>
+    <cellStyle name="Normal 4 3 3 2 3 3" xfId="1245" xr:uid="{00000000-0005-0000-0000-000007030000}"/>
+    <cellStyle name="Normal 4 3 3 2 4" xfId="572" xr:uid="{00000000-0005-0000-0000-000008030000}"/>
+    <cellStyle name="Normal 4 3 3 2 4 2" xfId="1469" xr:uid="{00000000-0005-0000-0000-000009030000}"/>
+    <cellStyle name="Normal 4 3 3 2 5" xfId="1021" xr:uid="{00000000-0005-0000-0000-00000A030000}"/>
+    <cellStyle name="Normal 4 3 3 3" xfId="180" xr:uid="{00000000-0005-0000-0000-00000B030000}"/>
+    <cellStyle name="Normal 4 3 3 3 2" xfId="404" xr:uid="{00000000-0005-0000-0000-00000C030000}"/>
+    <cellStyle name="Normal 4 3 3 3 2 2" xfId="852" xr:uid="{00000000-0005-0000-0000-00000D030000}"/>
+    <cellStyle name="Normal 4 3 3 3 2 2 2" xfId="1749" xr:uid="{00000000-0005-0000-0000-00000E030000}"/>
+    <cellStyle name="Normal 4 3 3 3 2 3" xfId="1301" xr:uid="{00000000-0005-0000-0000-00000F030000}"/>
+    <cellStyle name="Normal 4 3 3 3 3" xfId="628" xr:uid="{00000000-0005-0000-0000-000010030000}"/>
+    <cellStyle name="Normal 4 3 3 3 3 2" xfId="1525" xr:uid="{00000000-0005-0000-0000-000011030000}"/>
+    <cellStyle name="Normal 4 3 3 3 4" xfId="1077" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
+    <cellStyle name="Normal 4 3 3 4" xfId="292" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
+    <cellStyle name="Normal 4 3 3 4 2" xfId="740" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
+    <cellStyle name="Normal 4 3 3 4 2 2" xfId="1637" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
+    <cellStyle name="Normal 4 3 3 4 3" xfId="1189" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
+    <cellStyle name="Normal 4 3 3 5" xfId="516" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
+    <cellStyle name="Normal 4 3 3 5 2" xfId="1413" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
+    <cellStyle name="Normal 4 3 3 6" xfId="965" xr:uid="{00000000-0005-0000-0000-000019030000}"/>
+    <cellStyle name="Normal 4 3 4" xfId="60" xr:uid="{00000000-0005-0000-0000-00001A030000}"/>
+    <cellStyle name="Normal 4 3 4 2" xfId="116" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
+    <cellStyle name="Normal 4 3 4 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
+    <cellStyle name="Normal 4 3 4 2 2 2" xfId="452" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
+    <cellStyle name="Normal 4 3 4 2 2 2 2" xfId="900" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
+    <cellStyle name="Normal 4 3 4 2 2 2 2 2" xfId="1797" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
+    <cellStyle name="Normal 4 3 4 2 2 2 3" xfId="1349" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
+    <cellStyle name="Normal 4 3 4 2 2 3" xfId="676" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="Normal 4 3 4 2 2 3 2" xfId="1573" xr:uid="{00000000-0005-0000-0000-000022030000}"/>
+    <cellStyle name="Normal 4 3 4 2 2 4" xfId="1125" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
+    <cellStyle name="Normal 4 3 4 2 3" xfId="340" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="Normal 4 3 4 2 3 2" xfId="788" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
+    <cellStyle name="Normal 4 3 4 2 3 2 2" xfId="1685" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
+    <cellStyle name="Normal 4 3 4 2 3 3" xfId="1237" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
+    <cellStyle name="Normal 4 3 4 2 4" xfId="564" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
+    <cellStyle name="Normal 4 3 4 2 4 2" xfId="1461" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
+    <cellStyle name="Normal 4 3 4 2 5" xfId="1013" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Normal 4 3 4 3" xfId="172" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
+    <cellStyle name="Normal 4 3 4 3 2" xfId="396" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
+    <cellStyle name="Normal 4 3 4 3 2 2" xfId="844" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
+    <cellStyle name="Normal 4 3 4 3 2 2 2" xfId="1741" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
+    <cellStyle name="Normal 4 3 4 3 2 3" xfId="1293" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
+    <cellStyle name="Normal 4 3 4 3 3" xfId="620" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
+    <cellStyle name="Normal 4 3 4 3 3 2" xfId="1517" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
+    <cellStyle name="Normal 4 3 4 3 4" xfId="1069" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
+    <cellStyle name="Normal 4 3 4 4" xfId="284" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
+    <cellStyle name="Normal 4 3 4 4 2" xfId="732" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
+    <cellStyle name="Normal 4 3 4 4 2 2" xfId="1629" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
+    <cellStyle name="Normal 4 3 4 4 3" xfId="1181" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
+    <cellStyle name="Normal 4 3 4 5" xfId="508" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
+    <cellStyle name="Normal 4 3 4 5 2" xfId="1405" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
+    <cellStyle name="Normal 4 3 4 6" xfId="957" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
+    <cellStyle name="Normal 4 3 5" xfId="72" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
+    <cellStyle name="Normal 4 3 5 2" xfId="184" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="Normal 4 3 5 2 2" xfId="408" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
+    <cellStyle name="Normal 4 3 5 2 2 2" xfId="856" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
+    <cellStyle name="Normal 4 3 5 2 2 2 2" xfId="1753" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
+    <cellStyle name="Normal 4 3 5 2 2 3" xfId="1305" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
+    <cellStyle name="Normal 4 3 5 2 3" xfId="632" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
+    <cellStyle name="Normal 4 3 5 2 3 2" xfId="1529" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
+    <cellStyle name="Normal 4 3 5 2 4" xfId="1081" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
+    <cellStyle name="Normal 4 3 5 3" xfId="296" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
+    <cellStyle name="Normal 4 3 5 3 2" xfId="744" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
+    <cellStyle name="Normal 4 3 5 3 2 2" xfId="1641" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
+    <cellStyle name="Normal 4 3 5 3 3" xfId="1193" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
+    <cellStyle name="Normal 4 3 5 4" xfId="520" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
+    <cellStyle name="Normal 4 3 5 4 2" xfId="1417" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
+    <cellStyle name="Normal 4 3 5 5" xfId="969" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
+    <cellStyle name="Normal 4 3 6" xfId="128" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
+    <cellStyle name="Normal 4 3 6 2" xfId="352" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
+    <cellStyle name="Normal 4 3 6 2 2" xfId="800" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
+    <cellStyle name="Normal 4 3 6 2 2 2" xfId="1697" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
+    <cellStyle name="Normal 4 3 6 2 3" xfId="1249" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
+    <cellStyle name="Normal 4 3 6 3" xfId="576" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
+    <cellStyle name="Normal 4 3 6 3 2" xfId="1473" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
+    <cellStyle name="Normal 4 3 6 4" xfId="1025" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
+    <cellStyle name="Normal 4 3 7" xfId="240" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
+    <cellStyle name="Normal 4 3 7 2" xfId="688" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
+    <cellStyle name="Normal 4 3 7 2 2" xfId="1585" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
+    <cellStyle name="Normal 4 3 7 3" xfId="1137" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
+    <cellStyle name="Normal 4 3 8" xfId="464" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
+    <cellStyle name="Normal 4 3 8 2" xfId="1361" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
+    <cellStyle name="Normal 4 3 9" xfId="913" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
+    <cellStyle name="Normal 4 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
+    <cellStyle name="Normal 4 4 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 2" xfId="230" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 2 2" xfId="454" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 2 2 2" xfId="902" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 2 2 2 2" xfId="1799" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 2 2 3" xfId="1351" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 2 3" xfId="678" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 2 3 2" xfId="1575" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 2 4" xfId="1127" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 3" xfId="342" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 3 2" xfId="790" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 3 2 2" xfId="1687" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 3 3" xfId="1239" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 4" xfId="566" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 4 2" xfId="1463" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
+    <cellStyle name="Normal 4 4 2 2 2 5" xfId="1015" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
+    <cellStyle name="Normal 4 4 2 2 3" xfId="174" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
+    <cellStyle name="Normal 4 4 2 2 3 2" xfId="398" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
+    <cellStyle name="Normal 4 4 2 2 3 2 2" xfId="846" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
+    <cellStyle name="Normal 4 4 2 2 3 2 2 2" xfId="1743" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
+    <cellStyle name="Normal 4 4 2 2 3 2 3" xfId="1295" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
+    <cellStyle name="Normal 4 4 2 2 3 3" xfId="622" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
+    <cellStyle name="Normal 4 4 2 2 3 3 2" xfId="1519" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
+    <cellStyle name="Normal 4 4 2 2 3 4" xfId="1071" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
+    <cellStyle name="Normal 4 4 2 2 4" xfId="286" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
+    <cellStyle name="Normal 4 4 2 2 4 2" xfId="734" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
+    <cellStyle name="Normal 4 4 2 2 4 2 2" xfId="1631" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
+    <cellStyle name="Normal 4 4 2 2 4 3" xfId="1183" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
+    <cellStyle name="Normal 4 4 2 2 5" xfId="510" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
+    <cellStyle name="Normal 4 4 2 2 5 2" xfId="1407" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
+    <cellStyle name="Normal 4 4 2 2 6" xfId="959" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
+    <cellStyle name="Normal 4 4 2 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
+    <cellStyle name="Normal 4 4 2 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
+    <cellStyle name="Normal 4 4 2 3 2 2" xfId="410" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
+    <cellStyle name="Normal 4 4 2 3 2 2 2" xfId="858" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
+    <cellStyle name="Normal 4 4 2 3 2 2 2 2" xfId="1755" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
+    <cellStyle name="Normal 4 4 2 3 2 2 3" xfId="1307" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
+    <cellStyle name="Normal 4 4 2 3 2 3" xfId="634" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
+    <cellStyle name="Normal 4 4 2 3 2 3 2" xfId="1531" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
+    <cellStyle name="Normal 4 4 2 3 2 4" xfId="1083" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
+    <cellStyle name="Normal 4 4 2 3 3" xfId="298" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
+    <cellStyle name="Normal 4 4 2 3 3 2" xfId="746" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
+    <cellStyle name="Normal 4 4 2 3 3 2 2" xfId="1643" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
+    <cellStyle name="Normal 4 4 2 3 3 3" xfId="1195" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
+    <cellStyle name="Normal 4 4 2 3 4" xfId="522" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
+    <cellStyle name="Normal 4 4 2 3 4 2" xfId="1419" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
+    <cellStyle name="Normal 4 4 2 3 5" xfId="971" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
+    <cellStyle name="Normal 4 4 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
+    <cellStyle name="Normal 4 4 2 4 2" xfId="354" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
+    <cellStyle name="Normal 4 4 2 4 2 2" xfId="802" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
+    <cellStyle name="Normal 4 4 2 4 2 2 2" xfId="1699" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
+    <cellStyle name="Normal 4 4 2 4 2 3" xfId="1251" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Normal 4 4 2 4 3" xfId="578" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
+    <cellStyle name="Normal 4 4 2 4 3 2" xfId="1475" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
+    <cellStyle name="Normal 4 4 2 4 4" xfId="1027" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Normal 4 4 2 5" xfId="242" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
+    <cellStyle name="Normal 4 4 2 5 2" xfId="690" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
+    <cellStyle name="Normal 4 4 2 5 2 2" xfId="1587" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
+    <cellStyle name="Normal 4 4 2 5 3" xfId="1139" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
+    <cellStyle name="Normal 4 4 2 6" xfId="466" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
+    <cellStyle name="Normal 4 4 2 6 2" xfId="1363" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
+    <cellStyle name="Normal 4 4 2 7" xfId="915" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
+    <cellStyle name="Normal 4 4 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
+    <cellStyle name="Normal 4 4 3 2" xfId="114" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
+    <cellStyle name="Normal 4 4 3 2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
+    <cellStyle name="Normal 4 4 3 2 2 2" xfId="450" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
+    <cellStyle name="Normal 4 4 3 2 2 2 2" xfId="898" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="Normal 4 4 3 2 2 2 2 2" xfId="1795" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
+    <cellStyle name="Normal 4 4 3 2 2 2 3" xfId="1347" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
+    <cellStyle name="Normal 4 4 3 2 2 3" xfId="674" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
+    <cellStyle name="Normal 4 4 3 2 2 3 2" xfId="1571" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
+    <cellStyle name="Normal 4 4 3 2 2 4" xfId="1123" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
+    <cellStyle name="Normal 4 4 3 2 3" xfId="338" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
+    <cellStyle name="Normal 4 4 3 2 3 2" xfId="786" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
+    <cellStyle name="Normal 4 4 3 2 3 2 2" xfId="1683" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
+    <cellStyle name="Normal 4 4 3 2 3 3" xfId="1235" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
+    <cellStyle name="Normal 4 4 3 2 4" xfId="562" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
+    <cellStyle name="Normal 4 4 3 2 4 2" xfId="1459" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
+    <cellStyle name="Normal 4 4 3 2 5" xfId="1011" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
+    <cellStyle name="Normal 4 4 3 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
+    <cellStyle name="Normal 4 4 3 3 2" xfId="394" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
+    <cellStyle name="Normal 4 4 3 3 2 2" xfId="842" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
+    <cellStyle name="Normal 4 4 3 3 2 2 2" xfId="1739" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
+    <cellStyle name="Normal 4 4 3 3 2 3" xfId="1291" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
+    <cellStyle name="Normal 4 4 3 3 3" xfId="618" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
+    <cellStyle name="Normal 4 4 3 3 3 2" xfId="1515" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
+    <cellStyle name="Normal 4 4 3 3 4" xfId="1067" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
+    <cellStyle name="Normal 4 4 3 4" xfId="282" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
+    <cellStyle name="Normal 4 4 3 4 2" xfId="730" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
+    <cellStyle name="Normal 4 4 3 4 2 2" xfId="1627" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
+    <cellStyle name="Normal 4 4 3 4 3" xfId="1179" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
+    <cellStyle name="Normal 4 4 3 5" xfId="506" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
+    <cellStyle name="Normal 4 4 3 5 2" xfId="1403" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
+    <cellStyle name="Normal 4 4 3 6" xfId="955" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
+    <cellStyle name="Normal 4 4 4" xfId="70" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
+    <cellStyle name="Normal 4 4 4 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
+    <cellStyle name="Normal 4 4 4 2 2" xfId="406" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
+    <cellStyle name="Normal 4 4 4 2 2 2" xfId="854" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
+    <cellStyle name="Normal 4 4 4 2 2 2 2" xfId="1751" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
+    <cellStyle name="Normal 4 4 4 2 2 3" xfId="1303" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="Normal 4 4 4 2 3" xfId="630" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
+    <cellStyle name="Normal 4 4 4 2 3 2" xfId="1527" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
+    <cellStyle name="Normal 4 4 4 2 4" xfId="1079" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
+    <cellStyle name="Normal 4 4 4 3" xfId="294" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
+    <cellStyle name="Normal 4 4 4 3 2" xfId="742" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
+    <cellStyle name="Normal 4 4 4 3 2 2" xfId="1639" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
+    <cellStyle name="Normal 4 4 4 3 3" xfId="1191" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
+    <cellStyle name="Normal 4 4 4 4" xfId="518" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
+    <cellStyle name="Normal 4 4 4 4 2" xfId="1415" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
+    <cellStyle name="Normal 4 4 4 5" xfId="967" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
+    <cellStyle name="Normal 4 4 5" xfId="126" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
+    <cellStyle name="Normal 4 4 5 2" xfId="350" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
+    <cellStyle name="Normal 4 4 5 2 2" xfId="798" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
+    <cellStyle name="Normal 4 4 5 2 2 2" xfId="1695" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
+    <cellStyle name="Normal 4 4 5 2 3" xfId="1247" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
+    <cellStyle name="Normal 4 4 5 3" xfId="574" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
+    <cellStyle name="Normal 4 4 5 3 2" xfId="1471" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
+    <cellStyle name="Normal 4 4 5 4" xfId="1023" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
+    <cellStyle name="Normal 4 4 6" xfId="238" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
+    <cellStyle name="Normal 4 4 6 2" xfId="686" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Normal 4 4 6 2 2" xfId="1583" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
+    <cellStyle name="Normal 4 4 6 3" xfId="1135" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
+    <cellStyle name="Normal 4 4 7" xfId="462" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
+    <cellStyle name="Normal 4 4 7 2" xfId="1359" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
+    <cellStyle name="Normal 4 4 8" xfId="911" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
+    <cellStyle name="Normal 4 5" xfId="12" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
+    <cellStyle name="Normal 4 5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
+    <cellStyle name="Normal 4 5 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
+    <cellStyle name="Normal 4 5 2 2 2" xfId="229" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
+    <cellStyle name="Normal 4 5 2 2 2 2" xfId="453" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
+    <cellStyle name="Normal 4 5 2 2 2 2 2" xfId="901" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
+    <cellStyle name="Normal 4 5 2 2 2 2 2 2" xfId="1798" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
+    <cellStyle name="Normal 4 5 2 2 2 2 3" xfId="1350" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
+    <cellStyle name="Normal 4 5 2 2 2 3" xfId="677" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
+    <cellStyle name="Normal 4 5 2 2 2 3 2" xfId="1574" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
+    <cellStyle name="Normal 4 5 2 2 2 4" xfId="1126" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="Normal 4 5 2 2 3" xfId="341" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
+    <cellStyle name="Normal 4 5 2 2 3 2" xfId="789" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
+    <cellStyle name="Normal 4 5 2 2 3 2 2" xfId="1686" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
+    <cellStyle name="Normal 4 5 2 2 3 3" xfId="1238" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
+    <cellStyle name="Normal 4 5 2 2 4" xfId="565" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="Normal 4 5 2 2 4 2" xfId="1462" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
+    <cellStyle name="Normal 4 5 2 2 5" xfId="1014" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
+    <cellStyle name="Normal 4 5 2 3" xfId="173" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
+    <cellStyle name="Normal 4 5 2 3 2" xfId="397" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="Normal 4 5 2 3 2 2" xfId="845" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
+    <cellStyle name="Normal 4 5 2 3 2 2 2" xfId="1742" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
+    <cellStyle name="Normal 4 5 2 3 2 3" xfId="1294" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
+    <cellStyle name="Normal 4 5 2 3 3" xfId="621" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
+    <cellStyle name="Normal 4 5 2 3 3 2" xfId="1518" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
+    <cellStyle name="Normal 4 5 2 3 4" xfId="1070" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
+    <cellStyle name="Normal 4 5 2 4" xfId="285" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
+    <cellStyle name="Normal 4 5 2 4 2" xfId="733" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
+    <cellStyle name="Normal 4 5 2 4 2 2" xfId="1630" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
+    <cellStyle name="Normal 4 5 2 4 3" xfId="1182" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
+    <cellStyle name="Normal 4 5 2 5" xfId="509" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
+    <cellStyle name="Normal 4 5 2 5 2" xfId="1406" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="Normal 4 5 2 6" xfId="958" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
+    <cellStyle name="Normal 4 5 3" xfId="73" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
+    <cellStyle name="Normal 4 5 3 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
+    <cellStyle name="Normal 4 5 3 2 2" xfId="409" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
+    <cellStyle name="Normal 4 5 3 2 2 2" xfId="857" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
+    <cellStyle name="Normal 4 5 3 2 2 2 2" xfId="1754" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="Normal 4 5 3 2 2 3" xfId="1306" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
+    <cellStyle name="Normal 4 5 3 2 3" xfId="633" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
+    <cellStyle name="Normal 4 5 3 2 3 2" xfId="1530" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
+    <cellStyle name="Normal 4 5 3 2 4" xfId="1082" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
+    <cellStyle name="Normal 4 5 3 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="Normal 4 5 3 3 2" xfId="745" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
+    <cellStyle name="Normal 4 5 3 3 2 2" xfId="1642" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
+    <cellStyle name="Normal 4 5 3 3 3" xfId="1194" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
+    <cellStyle name="Normal 4 5 3 4" xfId="521" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="Normal 4 5 3 4 2" xfId="1418" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
+    <cellStyle name="Normal 4 5 3 5" xfId="970" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
+    <cellStyle name="Normal 4 5 4" xfId="129" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
+    <cellStyle name="Normal 4 5 4 2" xfId="353" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
+    <cellStyle name="Normal 4 5 4 2 2" xfId="801" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="Normal 4 5 4 2 2 2" xfId="1698" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
+    <cellStyle name="Normal 4 5 4 2 3" xfId="1250" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
+    <cellStyle name="Normal 4 5 4 3" xfId="577" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
+    <cellStyle name="Normal 4 5 4 3 2" xfId="1474" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
+    <cellStyle name="Normal 4 5 4 4" xfId="1026" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
+    <cellStyle name="Normal 4 5 5" xfId="241" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
+    <cellStyle name="Normal 4 5 5 2" xfId="689" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="Normal 4 5 5 2 2" xfId="1586" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
+    <cellStyle name="Normal 4 5 5 3" xfId="1138" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
+    <cellStyle name="Normal 4 5 6" xfId="465" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
+    <cellStyle name="Normal 4 5 6 2" xfId="1362" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
+    <cellStyle name="Normal 4 5 7" xfId="914" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
+    <cellStyle name="Normal 4 6" xfId="57" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
+    <cellStyle name="Normal 4 6 2" xfId="113" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
+    <cellStyle name="Normal 4 6 2 2" xfId="225" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
+    <cellStyle name="Normal 4 6 2 2 2" xfId="449" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="Normal 4 6 2 2 2 2" xfId="897" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
+    <cellStyle name="Normal 4 6 2 2 2 2 2" xfId="1794" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="Normal 4 6 2 2 2 3" xfId="1346" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
+    <cellStyle name="Normal 4 6 2 2 3" xfId="673" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
+    <cellStyle name="Normal 4 6 2 2 3 2" xfId="1570" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
+    <cellStyle name="Normal 4 6 2 2 4" xfId="1122" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="Normal 4 6 2 3" xfId="337" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
+    <cellStyle name="Normal 4 6 2 3 2" xfId="785" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
+    <cellStyle name="Normal 4 6 2 3 2 2" xfId="1682" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
+    <cellStyle name="Normal 4 6 2 3 3" xfId="1234" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
+    <cellStyle name="Normal 4 6 2 4" xfId="561" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="Normal 4 6 2 4 2" xfId="1458" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
+    <cellStyle name="Normal 4 6 2 5" xfId="1010" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
+    <cellStyle name="Normal 4 6 3" xfId="169" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
+    <cellStyle name="Normal 4 6 3 2" xfId="393" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="Normal 4 6 3 2 2" xfId="841" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
+    <cellStyle name="Normal 4 6 3 2 2 2" xfId="1738" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
+    <cellStyle name="Normal 4 6 3 2 3" xfId="1290" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="Normal 4 6 3 3" xfId="617" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
+    <cellStyle name="Normal 4 6 3 3 2" xfId="1514" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
+    <cellStyle name="Normal 4 6 3 4" xfId="1066" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
+    <cellStyle name="Normal 4 6 4" xfId="281" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
+    <cellStyle name="Normal 4 6 4 2" xfId="729" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
+    <cellStyle name="Normal 4 6 4 2 2" xfId="1626" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
+    <cellStyle name="Normal 4 6 4 3" xfId="1178" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
+    <cellStyle name="Normal 4 6 5" xfId="505" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
+    <cellStyle name="Normal 4 6 5 2" xfId="1402" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="Normal 4 6 6" xfId="954" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
+    <cellStyle name="Normal 4 7" xfId="66" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
+    <cellStyle name="Normal 4 7 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
+    <cellStyle name="Normal 4 7 2 2" xfId="234" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
+    <cellStyle name="Normal 4 7 2 2 2" xfId="458" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
+    <cellStyle name="Normal 4 7 2 2 2 2" xfId="906" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
+    <cellStyle name="Normal 4 7 2 2 2 2 2" xfId="1803" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
+    <cellStyle name="Normal 4 7 2 2 2 3" xfId="1355" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
+    <cellStyle name="Normal 4 7 2 2 3" xfId="682" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
+    <cellStyle name="Normal 4 7 2 2 3 2" xfId="1579" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
+    <cellStyle name="Normal 4 7 2 2 4" xfId="1131" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="Normal 4 7 2 3" xfId="346" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
+    <cellStyle name="Normal 4 7 2 3 2" xfId="794" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
+    <cellStyle name="Normal 4 7 2 3 2 2" xfId="1691" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
+    <cellStyle name="Normal 4 7 2 3 3" xfId="1243" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
+    <cellStyle name="Normal 4 7 2 4" xfId="570" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
+    <cellStyle name="Normal 4 7 2 4 2" xfId="1467" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
+    <cellStyle name="Normal 4 7 2 5" xfId="1019" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
+    <cellStyle name="Normal 4 7 3" xfId="178" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
+    <cellStyle name="Normal 4 7 3 2" xfId="402" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
+    <cellStyle name="Normal 4 7 3 2 2" xfId="850" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
+    <cellStyle name="Normal 4 7 3 2 2 2" xfId="1747" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
+    <cellStyle name="Normal 4 7 3 2 3" xfId="1299" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
+    <cellStyle name="Normal 4 7 3 3" xfId="626" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
+    <cellStyle name="Normal 4 7 3 3 2" xfId="1523" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
+    <cellStyle name="Normal 4 7 3 4" xfId="1075" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
+    <cellStyle name="Normal 4 7 4" xfId="290" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="Normal 4 7 4 2" xfId="738" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
+    <cellStyle name="Normal 4 7 4 2 2" xfId="1635" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
+    <cellStyle name="Normal 4 7 4 3" xfId="1187" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
+    <cellStyle name="Normal 4 7 5" xfId="514" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
+    <cellStyle name="Normal 4 7 5 2" xfId="1411" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
+    <cellStyle name="Normal 4 7 6" xfId="963" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
+    <cellStyle name="Normal 4 8" xfId="22" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
+    <cellStyle name="Normal 4 9" xfId="69" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
+    <cellStyle name="Normal 4 9 2" xfId="181" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
+    <cellStyle name="Normal 4 9 2 2" xfId="405" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
+    <cellStyle name="Normal 4 9 2 2 2" xfId="853" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
+    <cellStyle name="Normal 4 9 2 2 2 2" xfId="1750" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
+    <cellStyle name="Normal 4 9 2 2 3" xfId="1302" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
+    <cellStyle name="Normal 4 9 2 3" xfId="629" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
+    <cellStyle name="Normal 4 9 2 3 2" xfId="1526" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
+    <cellStyle name="Normal 4 9 2 4" xfId="1078" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
+    <cellStyle name="Normal 4 9 3" xfId="293" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
+    <cellStyle name="Normal 4 9 3 2" xfId="741" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
+    <cellStyle name="Normal 4 9 3 2 2" xfId="1638" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
+    <cellStyle name="Normal 4 9 3 3" xfId="1190" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
+    <cellStyle name="Normal 4 9 4" xfId="517" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
+    <cellStyle name="Normal 4 9 4 2" xfId="1414" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
+    <cellStyle name="Normal 4 9 5" xfId="966" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
+    <cellStyle name="Normal 5" xfId="21" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
+    <cellStyle name="Normal 5 11" xfId="17" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
+    <cellStyle name="Normal 5 11 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
+    <cellStyle name="Normal 5 11 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
+    <cellStyle name="Normal 5 11 2 2 2" xfId="233" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
+    <cellStyle name="Normal 5 11 2 2 2 2" xfId="457" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
+    <cellStyle name="Normal 5 11 2 2 2 2 2" xfId="905" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
+    <cellStyle name="Normal 5 11 2 2 2 2 2 2" xfId="1802" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
+    <cellStyle name="Normal 5 11 2 2 2 2 3" xfId="1354" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
+    <cellStyle name="Normal 5 11 2 2 2 3" xfId="681" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
+    <cellStyle name="Normal 5 11 2 2 2 3 2" xfId="1578" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
+    <cellStyle name="Normal 5 11 2 2 2 4" xfId="1130" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
+    <cellStyle name="Normal 5 11 2 2 3" xfId="345" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
+    <cellStyle name="Normal 5 11 2 2 3 2" xfId="793" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
+    <cellStyle name="Normal 5 11 2 2 3 2 2" xfId="1690" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
+    <cellStyle name="Normal 5 11 2 2 3 3" xfId="1242" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
+    <cellStyle name="Normal 5 11 2 2 4" xfId="569" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
+    <cellStyle name="Normal 5 11 2 2 4 2" xfId="1466" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
+    <cellStyle name="Normal 5 11 2 2 5" xfId="1018" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
+    <cellStyle name="Normal 5 11 2 3" xfId="177" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
+    <cellStyle name="Normal 5 11 2 3 2" xfId="401" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
+    <cellStyle name="Normal 5 11 2 3 2 2" xfId="849" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
+    <cellStyle name="Normal 5 11 2 3 2 2 2" xfId="1746" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
+    <cellStyle name="Normal 5 11 2 3 2 3" xfId="1298" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
+    <cellStyle name="Normal 5 11 2 3 3" xfId="625" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
+    <cellStyle name="Normal 5 11 2 3 3 2" xfId="1522" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
+    <cellStyle name="Normal 5 11 2 3 4" xfId="1074" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
+    <cellStyle name="Normal 5 11 2 4" xfId="289" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
+    <cellStyle name="Normal 5 11 2 4 2" xfId="737" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
+    <cellStyle name="Normal 5 11 2 4 2 2" xfId="1634" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
+    <cellStyle name="Normal 5 11 2 4 3" xfId="1186" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
+    <cellStyle name="Normal 5 11 2 5" xfId="513" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
+    <cellStyle name="Normal 5 11 2 5 2" xfId="1410" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
+    <cellStyle name="Normal 5 11 2 6" xfId="962" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
+    <cellStyle name="Normal 5 11 3" xfId="77" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
+    <cellStyle name="Normal 5 11 3 2" xfId="189" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
+    <cellStyle name="Normal 5 11 3 2 2" xfId="413" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
+    <cellStyle name="Normal 5 11 3 2 2 2" xfId="861" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
+    <cellStyle name="Normal 5 11 3 2 2 2 2" xfId="1758" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
+    <cellStyle name="Normal 5 11 3 2 2 3" xfId="1310" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
+    <cellStyle name="Normal 5 11 3 2 3" xfId="637" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
+    <cellStyle name="Normal 5 11 3 2 3 2" xfId="1534" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
+    <cellStyle name="Normal 5 11 3 2 4" xfId="1086" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
+    <cellStyle name="Normal 5 11 3 3" xfId="301" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
+    <cellStyle name="Normal 5 11 3 3 2" xfId="749" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
+    <cellStyle name="Normal 5 11 3 3 2 2" xfId="1646" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
+    <cellStyle name="Normal 5 11 3 3 3" xfId="1198" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
+    <cellStyle name="Normal 5 11 3 4" xfId="525" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
+    <cellStyle name="Normal 5 11 3 4 2" xfId="1422" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
+    <cellStyle name="Normal 5 11 3 5" xfId="974" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
+    <cellStyle name="Normal 5 11 4" xfId="133" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
+    <cellStyle name="Normal 5 11 4 2" xfId="357" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
+    <cellStyle name="Normal 5 11 4 2 2" xfId="805" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
+    <cellStyle name="Normal 5 11 4 2 2 2" xfId="1702" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
+    <cellStyle name="Normal 5 11 4 2 3" xfId="1254" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
+    <cellStyle name="Normal 5 11 4 3" xfId="581" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
+    <cellStyle name="Normal 5 11 4 3 2" xfId="1478" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
+    <cellStyle name="Normal 5 11 4 4" xfId="1030" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
+    <cellStyle name="Normal 5 11 5" xfId="245" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
+    <cellStyle name="Normal 5 11 5 2" xfId="693" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
+    <cellStyle name="Normal 5 11 5 2 2" xfId="1590" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
+    <cellStyle name="Normal 5 11 5 3" xfId="1142" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
+    <cellStyle name="Normal 5 11 6" xfId="469" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
+    <cellStyle name="Normal 5 11 6 2" xfId="1366" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
+    <cellStyle name="Normal 5 11 7" xfId="918" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
+    <cellStyle name="Normal 5 2" xfId="27" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
+    <cellStyle name="Normal 5 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
+    <cellStyle name="Normal 5 2 2 2" xfId="54" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2" xfId="110" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 2" xfId="222" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 2 2" xfId="446" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 2 2 2" xfId="894" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 2 2 2 2" xfId="1791" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 2 2 3" xfId="1343" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 2 3" xfId="670" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 2 3 2" xfId="1567" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 2 4" xfId="1119" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 3" xfId="334" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 3 2" xfId="782" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 3 2 2" xfId="1679" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 3 3" xfId="1231" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 4" xfId="558" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 4 2" xfId="1455" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
+    <cellStyle name="Normal 5 2 2 2 2 5" xfId="1007" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
+    <cellStyle name="Normal 5 2 2 2 3" xfId="166" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
+    <cellStyle name="Normal 5 2 2 2 3 2" xfId="390" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
+    <cellStyle name="Normal 5 2 2 2 3 2 2" xfId="838" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
+    <cellStyle name="Normal 5 2 2 2 3 2 2 2" xfId="1735" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
+    <cellStyle name="Normal 5 2 2 2 3 2 3" xfId="1287" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
+    <cellStyle name="Normal 5 2 2 2 3 3" xfId="614" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
+    <cellStyle name="Normal 5 2 2 2 3 3 2" xfId="1511" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
+    <cellStyle name="Normal 5 2 2 2 3 4" xfId="1063" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
+    <cellStyle name="Normal 5 2 2 2 4" xfId="278" xr:uid="{00000000-0005-0000-0000-0000C6040000}"/>
+    <cellStyle name="Normal 5 2 2 2 4 2" xfId="726" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
+    <cellStyle name="Normal 5 2 2 2 4 2 2" xfId="1623" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
+    <cellStyle name="Normal 5 2 2 2 4 3" xfId="1175" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
+    <cellStyle name="Normal 5 2 2 2 5" xfId="502" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
+    <cellStyle name="Normal 5 2 2 2 5 2" xfId="1399" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
+    <cellStyle name="Normal 5 2 2 2 6" xfId="951" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
+    <cellStyle name="Normal 5 2 2 3" xfId="93" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
+    <cellStyle name="Normal 5 2 2 3 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
+    <cellStyle name="Normal 5 2 2 3 2 2" xfId="429" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
+    <cellStyle name="Normal 5 2 2 3 2 2 2" xfId="877" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
+    <cellStyle name="Normal 5 2 2 3 2 2 2 2" xfId="1774" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
+    <cellStyle name="Normal 5 2 2 3 2 2 3" xfId="1326" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
+    <cellStyle name="Normal 5 2 2 3 2 3" xfId="653" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
+    <cellStyle name="Normal 5 2 2 3 2 3 2" xfId="1550" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
+    <cellStyle name="Normal 5 2 2 3 2 4" xfId="1102" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
+    <cellStyle name="Normal 5 2 2 3 3" xfId="317" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
+    <cellStyle name="Normal 5 2 2 3 3 2" xfId="765" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
+    <cellStyle name="Normal 5 2 2 3 3 2 2" xfId="1662" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
+    <cellStyle name="Normal 5 2 2 3 3 3" xfId="1214" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
+    <cellStyle name="Normal 5 2 2 3 4" xfId="541" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
+    <cellStyle name="Normal 5 2 2 3 4 2" xfId="1438" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
+    <cellStyle name="Normal 5 2 2 3 5" xfId="990" xr:uid="{00000000-0005-0000-0000-0000DC040000}"/>
+    <cellStyle name="Normal 5 2 2 4" xfId="149" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
+    <cellStyle name="Normal 5 2 2 4 2" xfId="373" xr:uid="{00000000-0005-0000-0000-0000DE040000}"/>
+    <cellStyle name="Normal 5 2 2 4 2 2" xfId="821" xr:uid="{00000000-0005-0000-0000-0000DF040000}"/>
+    <cellStyle name="Normal 5 2 2 4 2 2 2" xfId="1718" xr:uid="{00000000-0005-0000-0000-0000E0040000}"/>
+    <cellStyle name="Normal 5 2 2 4 2 3" xfId="1270" xr:uid="{00000000-0005-0000-0000-0000E1040000}"/>
+    <cellStyle name="Normal 5 2 2 4 3" xfId="597" xr:uid="{00000000-0005-0000-0000-0000E2040000}"/>
+    <cellStyle name="Normal 5 2 2 4 3 2" xfId="1494" xr:uid="{00000000-0005-0000-0000-0000E3040000}"/>
+    <cellStyle name="Normal 5 2 2 4 4" xfId="1046" xr:uid="{00000000-0005-0000-0000-0000E4040000}"/>
+    <cellStyle name="Normal 5 2 2 5" xfId="261" xr:uid="{00000000-0005-0000-0000-0000E5040000}"/>
+    <cellStyle name="Normal 5 2 2 5 2" xfId="709" xr:uid="{00000000-0005-0000-0000-0000E6040000}"/>
+    <cellStyle name="Normal 5 2 2 5 2 2" xfId="1606" xr:uid="{00000000-0005-0000-0000-0000E7040000}"/>
+    <cellStyle name="Normal 5 2 2 5 3" xfId="1158" xr:uid="{00000000-0005-0000-0000-0000E8040000}"/>
+    <cellStyle name="Normal 5 2 2 6" xfId="485" xr:uid="{00000000-0005-0000-0000-0000E9040000}"/>
+    <cellStyle name="Normal 5 2 2 6 2" xfId="1382" xr:uid="{00000000-0005-0000-0000-0000EA040000}"/>
+    <cellStyle name="Normal 5 2 2 7" xfId="934" xr:uid="{00000000-0005-0000-0000-0000EB040000}"/>
+    <cellStyle name="Normal 5 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-0000EC040000}"/>
+    <cellStyle name="Normal 5 2 3 2" xfId="101" xr:uid="{00000000-0005-0000-0000-0000ED040000}"/>
+    <cellStyle name="Normal 5 2 3 2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000EE040000}"/>
+    <cellStyle name="Normal 5 2 3 2 2 2" xfId="437" xr:uid="{00000000-0005-0000-0000-0000EF040000}"/>
+    <cellStyle name="Normal 5 2 3 2 2 2 2" xfId="885" xr:uid="{00000000-0005-0000-0000-0000F0040000}"/>
+    <cellStyle name="Normal 5 2 3 2 2 2 2 2" xfId="1782" xr:uid="{00000000-0005-0000-0000-0000F1040000}"/>
+    <cellStyle name="Normal 5 2 3 2 2 2 3" xfId="1334" xr:uid="{00000000-0005-0000-0000-0000F2040000}"/>
+    <cellStyle name="Normal 5 2 3 2 2 3" xfId="661" xr:uid="{00000000-0005-0000-0000-0000F3040000}"/>
+    <cellStyle name="Normal 5 2 3 2 2 3 2" xfId="1558" xr:uid="{00000000-0005-0000-0000-0000F4040000}"/>
+    <cellStyle name="Normal 5 2 3 2 2 4" xfId="1110" xr:uid="{00000000-0005-0000-0000-0000F5040000}"/>
+    <cellStyle name="Normal 5 2 3 2 3" xfId="325" xr:uid="{00000000-0005-0000-0000-0000F6040000}"/>
+    <cellStyle name="Normal 5 2 3 2 3 2" xfId="773" xr:uid="{00000000-0005-0000-0000-0000F7040000}"/>
+    <cellStyle name="Normal 5 2 3 2 3 2 2" xfId="1670" xr:uid="{00000000-0005-0000-0000-0000F8040000}"/>
+    <cellStyle name="Normal 5 2 3 2 3 3" xfId="1222" xr:uid="{00000000-0005-0000-0000-0000F9040000}"/>
+    <cellStyle name="Normal 5 2 3 2 4" xfId="549" xr:uid="{00000000-0005-0000-0000-0000FA040000}"/>
+    <cellStyle name="Normal 5 2 3 2 4 2" xfId="1446" xr:uid="{00000000-0005-0000-0000-0000FB040000}"/>
+    <cellStyle name="Normal 5 2 3 2 5" xfId="998" xr:uid="{00000000-0005-0000-0000-0000FC040000}"/>
+    <cellStyle name="Normal 5 2 3 3" xfId="157" xr:uid="{00000000-0005-0000-0000-0000FD040000}"/>
+    <cellStyle name="Normal 5 2 3 3 2" xfId="381" xr:uid="{00000000-0005-0000-0000-0000FE040000}"/>
+    <cellStyle name="Normal 5 2 3 3 2 2" xfId="829" xr:uid="{00000000-0005-0000-0000-0000FF040000}"/>
+    <cellStyle name="Normal 5 2 3 3 2 2 2" xfId="1726" xr:uid="{00000000-0005-0000-0000-000000050000}"/>
+    <cellStyle name="Normal 5 2 3 3 2 3" xfId="1278" xr:uid="{00000000-0005-0000-0000-000001050000}"/>
+    <cellStyle name="Normal 5 2 3 3 3" xfId="605" xr:uid="{00000000-0005-0000-0000-000002050000}"/>
+    <cellStyle name="Normal 5 2 3 3 3 2" xfId="1502" xr:uid="{00000000-0005-0000-0000-000003050000}"/>
+    <cellStyle name="Normal 5 2 3 3 4" xfId="1054" xr:uid="{00000000-0005-0000-0000-000004050000}"/>
+    <cellStyle name="Normal 5 2 3 4" xfId="269" xr:uid="{00000000-0005-0000-0000-000005050000}"/>
+    <cellStyle name="Normal 5 2 3 4 2" xfId="717" xr:uid="{00000000-0005-0000-0000-000006050000}"/>
+    <cellStyle name="Normal 5 2 3 4 2 2" xfId="1614" xr:uid="{00000000-0005-0000-0000-000007050000}"/>
+    <cellStyle name="Normal 5 2 3 4 3" xfId="1166" xr:uid="{00000000-0005-0000-0000-000008050000}"/>
+    <cellStyle name="Normal 5 2 3 5" xfId="493" xr:uid="{00000000-0005-0000-0000-000009050000}"/>
+    <cellStyle name="Normal 5 2 3 5 2" xfId="1390" xr:uid="{00000000-0005-0000-0000-00000A050000}"/>
+    <cellStyle name="Normal 5 2 3 6" xfId="942" xr:uid="{00000000-0005-0000-0000-00000B050000}"/>
+    <cellStyle name="Normal 5 2 4" xfId="84" xr:uid="{00000000-0005-0000-0000-00000C050000}"/>
+    <cellStyle name="Normal 5 2 4 2" xfId="196" xr:uid="{00000000-0005-0000-0000-00000D050000}"/>
+    <cellStyle name="Normal 5 2 4 2 2" xfId="420" xr:uid="{00000000-0005-0000-0000-00000E050000}"/>
+    <cellStyle name="Normal 5 2 4 2 2 2" xfId="868" xr:uid="{00000000-0005-0000-0000-00000F050000}"/>
+    <cellStyle name="Normal 5 2 4 2 2 2 2" xfId="1765" xr:uid="{00000000-0005-0000-0000-000010050000}"/>
+    <cellStyle name="Normal 5 2 4 2 2 3" xfId="1317" xr:uid="{00000000-0005-0000-0000-000011050000}"/>
+    <cellStyle name="Normal 5 2 4 2 3" xfId="644" xr:uid="{00000000-0005-0000-0000-000012050000}"/>
+    <cellStyle name="Normal 5 2 4 2 3 2" xfId="1541" xr:uid="{00000000-0005-0000-0000-000013050000}"/>
+    <cellStyle name="Normal 5 2 4 2 4" xfId="1093" xr:uid="{00000000-0005-0000-0000-000014050000}"/>
+    <cellStyle name="Normal 5 2 4 3" xfId="308" xr:uid="{00000000-0005-0000-0000-000015050000}"/>
+    <cellStyle name="Normal 5 2 4 3 2" xfId="756" xr:uid="{00000000-0005-0000-0000-000016050000}"/>
+    <cellStyle name="Normal 5 2 4 3 2 2" xfId="1653" xr:uid="{00000000-0005-0000-0000-000017050000}"/>
+    <cellStyle name="Normal 5 2 4 3 3" xfId="1205" xr:uid="{00000000-0005-0000-0000-000018050000}"/>
+    <cellStyle name="Normal 5 2 4 4" xfId="532" xr:uid="{00000000-0005-0000-0000-000019050000}"/>
+    <cellStyle name="Normal 5 2 4 4 2" xfId="1429" xr:uid="{00000000-0005-0000-0000-00001A050000}"/>
+    <cellStyle name="Normal 5 2 4 5" xfId="981" xr:uid="{00000000-0005-0000-0000-00001B050000}"/>
+    <cellStyle name="Normal 5 2 5" xfId="140" xr:uid="{00000000-0005-0000-0000-00001C050000}"/>
+    <cellStyle name="Normal 5 2 5 2" xfId="364" xr:uid="{00000000-0005-0000-0000-00001D050000}"/>
+    <cellStyle name="Normal 5 2 5 2 2" xfId="812" xr:uid="{00000000-0005-0000-0000-00001E050000}"/>
+    <cellStyle name="Normal 5 2 5 2 2 2" xfId="1709" xr:uid="{00000000-0005-0000-0000-00001F050000}"/>
+    <cellStyle name="Normal 5 2 5 2 3" xfId="1261" xr:uid="{00000000-0005-0000-0000-000020050000}"/>
+    <cellStyle name="Normal 5 2 5 3" xfId="588" xr:uid="{00000000-0005-0000-0000-000021050000}"/>
+    <cellStyle name="Normal 5 2 5 3 2" xfId="1485" xr:uid="{00000000-0005-0000-0000-000022050000}"/>
+    <cellStyle name="Normal 5 2 5 4" xfId="1037" xr:uid="{00000000-0005-0000-0000-000023050000}"/>
+    <cellStyle name="Normal 5 2 6" xfId="252" xr:uid="{00000000-0005-0000-0000-000024050000}"/>
+    <cellStyle name="Normal 5 2 6 2" xfId="700" xr:uid="{00000000-0005-0000-0000-000025050000}"/>
+    <cellStyle name="Normal 5 2 6 2 2" xfId="1597" xr:uid="{00000000-0005-0000-0000-000026050000}"/>
+    <cellStyle name="Normal 5 2 6 3" xfId="1149" xr:uid="{00000000-0005-0000-0000-000027050000}"/>
+    <cellStyle name="Normal 5 2 7" xfId="476" xr:uid="{00000000-0005-0000-0000-000028050000}"/>
+    <cellStyle name="Normal 5 2 7 2" xfId="1373" xr:uid="{00000000-0005-0000-0000-000029050000}"/>
+    <cellStyle name="Normal 5 2 8" xfId="925" xr:uid="{00000000-0005-0000-0000-00002A050000}"/>
+    <cellStyle name="Normal 5 3" xfId="32" xr:uid="{00000000-0005-0000-0000-00002B050000}"/>
+    <cellStyle name="Normal 5 3 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002C050000}"/>
+    <cellStyle name="Normal 5 3 2 2" xfId="106" xr:uid="{00000000-0005-0000-0000-00002D050000}"/>
+    <cellStyle name="Normal 5 3 2 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-00002E050000}"/>
+    <cellStyle name="Normal 5 3 2 2 2 2" xfId="442" xr:uid="{00000000-0005-0000-0000-00002F050000}"/>
+    <cellStyle name="Normal 5 3 2 2 2 2 2" xfId="890" xr:uid="{00000000-0005-0000-0000-000030050000}"/>
+    <cellStyle name="Normal 5 3 2 2 2 2 2 2" xfId="1787" xr:uid="{00000000-0005-0000-0000-000031050000}"/>
+    <cellStyle name="Normal 5 3 2 2 2 2 3" xfId="1339" xr:uid="{00000000-0005-0000-0000-000032050000}"/>
+    <cellStyle name="Normal 5 3 2 2 2 3" xfId="666" xr:uid="{00000000-0005-0000-0000-000033050000}"/>
+    <cellStyle name="Normal 5 3 2 2 2 3 2" xfId="1563" xr:uid="{00000000-0005-0000-0000-000034050000}"/>
+    <cellStyle name="Normal 5 3 2 2 2 4" xfId="1115" xr:uid="{00000000-0005-0000-0000-000035050000}"/>
+    <cellStyle name="Normal 5 3 2 2 3" xfId="330" xr:uid="{00000000-0005-0000-0000-000036050000}"/>
+    <cellStyle name="Normal 5 3 2 2 3 2" xfId="778" xr:uid="{00000000-0005-0000-0000-000037050000}"/>
+    <cellStyle name="Normal 5 3 2 2 3 2 2" xfId="1675" xr:uid="{00000000-0005-0000-0000-000038050000}"/>
+    <cellStyle name="Normal 5 3 2 2 3 3" xfId="1227" xr:uid="{00000000-0005-0000-0000-000039050000}"/>
+    <cellStyle name="Normal 5 3 2 2 4" xfId="554" xr:uid="{00000000-0005-0000-0000-00003A050000}"/>
+    <cellStyle name="Normal 5 3 2 2 4 2" xfId="1451" xr:uid="{00000000-0005-0000-0000-00003B050000}"/>
+    <cellStyle name="Normal 5 3 2 2 5" xfId="1003" xr:uid="{00000000-0005-0000-0000-00003C050000}"/>
+    <cellStyle name="Normal 5 3 2 3" xfId="162" xr:uid="{00000000-0005-0000-0000-00003D050000}"/>
+    <cellStyle name="Normal 5 3 2 3 2" xfId="386" xr:uid="{00000000-0005-0000-0000-00003E050000}"/>
+    <cellStyle name="Normal 5 3 2 3 2 2" xfId="834" xr:uid="{00000000-0005-0000-0000-00003F050000}"/>
+    <cellStyle name="Normal 5 3 2 3 2 2 2" xfId="1731" xr:uid="{00000000-0005-0000-0000-000040050000}"/>
+    <cellStyle name="Normal 5 3 2 3 2 3" xfId="1283" xr:uid="{00000000-0005-0000-0000-000041050000}"/>
+    <cellStyle name="Normal 5 3 2 3 3" xfId="610" xr:uid="{00000000-0005-0000-0000-000042050000}"/>
+    <cellStyle name="Normal 5 3 2 3 3 2" xfId="1507" xr:uid="{00000000-0005-0000-0000-000043050000}"/>
+    <cellStyle name="Normal 5 3 2 3 4" xfId="1059" xr:uid="{00000000-0005-0000-0000-000044050000}"/>
+    <cellStyle name="Normal 5 3 2 4" xfId="274" xr:uid="{00000000-0005-0000-0000-000045050000}"/>
+    <cellStyle name="Normal 5 3 2 4 2" xfId="722" xr:uid="{00000000-0005-0000-0000-000046050000}"/>
+    <cellStyle name="Normal 5 3 2 4 2 2" xfId="1619" xr:uid="{00000000-0005-0000-0000-000047050000}"/>
+    <cellStyle name="Normal 5 3 2 4 3" xfId="1171" xr:uid="{00000000-0005-0000-0000-000048050000}"/>
+    <cellStyle name="Normal 5 3 2 5" xfId="498" xr:uid="{00000000-0005-0000-0000-000049050000}"/>
+    <cellStyle name="Normal 5 3 2 5 2" xfId="1395" xr:uid="{00000000-0005-0000-0000-00004A050000}"/>
+    <cellStyle name="Normal 5 3 2 6" xfId="947" xr:uid="{00000000-0005-0000-0000-00004B050000}"/>
+    <cellStyle name="Normal 5 3 3" xfId="89" xr:uid="{00000000-0005-0000-0000-00004C050000}"/>
+    <cellStyle name="Normal 5 3 3 2" xfId="201" xr:uid="{00000000-0005-0000-0000-00004D050000}"/>
+    <cellStyle name="Normal 5 3 3 2 2" xfId="425" xr:uid="{00000000-0005-0000-0000-00004E050000}"/>
+    <cellStyle name="Normal 5 3 3 2 2 2" xfId="873" xr:uid="{00000000-0005-0000-0000-00004F050000}"/>
+    <cellStyle name="Normal 5 3 3 2 2 2 2" xfId="1770" xr:uid="{00000000-0005-0000-0000-000050050000}"/>
+    <cellStyle name="Normal 5 3 3 2 2 3" xfId="1322" xr:uid="{00000000-0005-0000-0000-000051050000}"/>
+    <cellStyle name="Normal 5 3 3 2 3" xfId="649" xr:uid="{00000000-0005-0000-0000-000052050000}"/>
+    <cellStyle name="Normal 5 3 3 2 3 2" xfId="1546" xr:uid="{00000000-0005-0000-0000-000053050000}"/>
+    <cellStyle name="Normal 5 3 3 2 4" xfId="1098" xr:uid="{00000000-0005-0000-0000-000054050000}"/>
+    <cellStyle name="Normal 5 3 3 3" xfId="313" xr:uid="{00000000-0005-0000-0000-000055050000}"/>
+    <cellStyle name="Normal 5 3 3 3 2" xfId="761" xr:uid="{00000000-0005-0000-0000-000056050000}"/>
+    <cellStyle name="Normal 5 3 3 3 2 2" xfId="1658" xr:uid="{00000000-0005-0000-0000-000057050000}"/>
+    <cellStyle name="Normal 5 3 3 3 3" xfId="1210" xr:uid="{00000000-0005-0000-0000-000058050000}"/>
+    <cellStyle name="Normal 5 3 3 4" xfId="537" xr:uid="{00000000-0005-0000-0000-000059050000}"/>
+    <cellStyle name="Normal 5 3 3 4 2" xfId="1434" xr:uid="{00000000-0005-0000-0000-00005A050000}"/>
+    <cellStyle name="Normal 5 3 3 5" xfId="986" xr:uid="{00000000-0005-0000-0000-00005B050000}"/>
+    <cellStyle name="Normal 5 3 4" xfId="145" xr:uid="{00000000-0005-0000-0000-00005C050000}"/>
+    <cellStyle name="Normal 5 3 4 2" xfId="369" xr:uid="{00000000-0005-0000-0000-00005D050000}"/>
+    <cellStyle name="Normal 5 3 4 2 2" xfId="817" xr:uid="{00000000-0005-0000-0000-00005E050000}"/>
+    <cellStyle name="Normal 5 3 4 2 2 2" xfId="1714" xr:uid="{00000000-0005-0000-0000-00005F050000}"/>
+    <cellStyle name="Normal 5 3 4 2 3" xfId="1266" xr:uid="{00000000-0005-0000-0000-000060050000}"/>
+    <cellStyle name="Normal 5 3 4 3" xfId="593" xr:uid="{00000000-0005-0000-0000-000061050000}"/>
+    <cellStyle name="Normal 5 3 4 3 2" xfId="1490" xr:uid="{00000000-0005-0000-0000-000062050000}"/>
+    <cellStyle name="Normal 5 3 4 4" xfId="1042" xr:uid="{00000000-0005-0000-0000-000063050000}"/>
+    <cellStyle name="Normal 5 3 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000064050000}"/>
+    <cellStyle name="Normal 5 3 5 2" xfId="705" xr:uid="{00000000-0005-0000-0000-000065050000}"/>
+    <cellStyle name="Normal 5 3 5 2 2" xfId="1602" xr:uid="{00000000-0005-0000-0000-000066050000}"/>
+    <cellStyle name="Normal 5 3 5 3" xfId="1154" xr:uid="{00000000-0005-0000-0000-000067050000}"/>
+    <cellStyle name="Normal 5 3 6" xfId="481" xr:uid="{00000000-0005-0000-0000-000068050000}"/>
+    <cellStyle name="Normal 5 3 6 2" xfId="1378" xr:uid="{00000000-0005-0000-0000-000069050000}"/>
+    <cellStyle name="Normal 5 3 7" xfId="930" xr:uid="{00000000-0005-0000-0000-00006A050000}"/>
+    <cellStyle name="Normal 5 4" xfId="41" xr:uid="{00000000-0005-0000-0000-00006B050000}"/>
+    <cellStyle name="Normal 5 4 2" xfId="97" xr:uid="{00000000-0005-0000-0000-00006C050000}"/>
+    <cellStyle name="Normal 5 4 2 2" xfId="209" xr:uid="{00000000-0005-0000-0000-00006D050000}"/>
+    <cellStyle name="Normal 5 4 2 2 2" xfId="433" xr:uid="{00000000-0005-0000-0000-00006E050000}"/>
+    <cellStyle name="Normal 5 4 2 2 2 2" xfId="881" xr:uid="{00000000-0005-0000-0000-00006F050000}"/>
+    <cellStyle name="Normal 5 4 2 2 2 2 2" xfId="1778" xr:uid="{00000000-0005-0000-0000-000070050000}"/>
+    <cellStyle name="Normal 5 4 2 2 2 3" xfId="1330" xr:uid="{00000000-0005-0000-0000-000071050000}"/>
+    <cellStyle name="Normal 5 4 2 2 3" xfId="657" xr:uid="{00000000-0005-0000-0000-000072050000}"/>
+    <cellStyle name="Normal 5 4 2 2 3 2" xfId="1554" xr:uid="{00000000-0005-0000-0000-000073050000}"/>
+    <cellStyle name="Normal 5 4 2 2 4" xfId="1106" xr:uid="{00000000-0005-0000-0000-000074050000}"/>
+    <cellStyle name="Normal 5 4 2 3" xfId="321" xr:uid="{00000000-0005-0000-0000-000075050000}"/>
+    <cellStyle name="Normal 5 4 2 3 2" xfId="769" xr:uid="{00000000-0005-0000-0000-000076050000}"/>
+    <cellStyle name="Normal 5 4 2 3 2 2" xfId="1666" xr:uid="{00000000-0005-0000-0000-000077050000}"/>
+    <cellStyle name="Normal 5 4 2 3 3" xfId="1218" xr:uid="{00000000-0005-0000-0000-000078050000}"/>
+    <cellStyle name="Normal 5 4 2 4" xfId="545" xr:uid="{00000000-0005-0000-0000-000079050000}"/>
+    <cellStyle name="Normal 5 4 2 4 2" xfId="1442" xr:uid="{00000000-0005-0000-0000-00007A050000}"/>
+    <cellStyle name="Normal 5 4 2 5" xfId="994" xr:uid="{00000000-0005-0000-0000-00007B050000}"/>
+    <cellStyle name="Normal 5 4 3" xfId="153" xr:uid="{00000000-0005-0000-0000-00007C050000}"/>
+    <cellStyle name="Normal 5 4 3 2" xfId="377" xr:uid="{00000000-0005-0000-0000-00007D050000}"/>
+    <cellStyle name="Normal 5 4 3 2 2" xfId="825" xr:uid="{00000000-0005-0000-0000-00007E050000}"/>
+    <cellStyle name="Normal 5 4 3 2 2 2" xfId="1722" xr:uid="{00000000-0005-0000-0000-00007F050000}"/>
+    <cellStyle name="Normal 5 4 3 2 3" xfId="1274" xr:uid="{00000000-0005-0000-0000-000080050000}"/>
+    <cellStyle name="Normal 5 4 3 3" xfId="601" xr:uid="{00000000-0005-0000-0000-000081050000}"/>
+    <cellStyle name="Normal 5 4 3 3 2" xfId="1498" xr:uid="{00000000-0005-0000-0000-000082050000}"/>
+    <cellStyle name="Normal 5 4 3 4" xfId="1050" xr:uid="{00000000-0005-0000-0000-000083050000}"/>
+    <cellStyle name="Normal 5 4 4" xfId="265" xr:uid="{00000000-0005-0000-0000-000084050000}"/>
+    <cellStyle name="Normal 5 4 4 2" xfId="713" xr:uid="{00000000-0005-0000-0000-000085050000}"/>
+    <cellStyle name="Normal 5 4 4 2 2" xfId="1610" xr:uid="{00000000-0005-0000-0000-000086050000}"/>
+    <cellStyle name="Normal 5 4 4 3" xfId="1162" xr:uid="{00000000-0005-0000-0000-000087050000}"/>
+    <cellStyle name="Normal 5 4 5" xfId="489" xr:uid="{00000000-0005-0000-0000-000088050000}"/>
+    <cellStyle name="Normal 5 4 5 2" xfId="1386" xr:uid="{00000000-0005-0000-0000-000089050000}"/>
+    <cellStyle name="Normal 5 4 6" xfId="938" xr:uid="{00000000-0005-0000-0000-00008A050000}"/>
+    <cellStyle name="Normal 5 5" xfId="80" xr:uid="{00000000-0005-0000-0000-00008B050000}"/>
+    <cellStyle name="Normal 5 5 2" xfId="192" xr:uid="{00000000-0005-0000-0000-00008C050000}"/>
+    <cellStyle name="Normal 5 5 2 2" xfId="416" xr:uid="{00000000-0005-0000-0000-00008D050000}"/>
+    <cellStyle name="Normal 5 5 2 2 2" xfId="864" xr:uid="{00000000-0005-0000-0000-00008E050000}"/>
+    <cellStyle name="Normal 5 5 2 2 2 2" xfId="1761" xr:uid="{00000000-0005-0000-0000-00008F050000}"/>
+    <cellStyle name="Normal 5 5 2 2 3" xfId="1313" xr:uid="{00000000-0005-0000-0000-000090050000}"/>
+    <cellStyle name="Normal 5 5 2 3" xfId="640" xr:uid="{00000000-0005-0000-0000-000091050000}"/>
+    <cellStyle name="Normal 5 5 2 3 2" xfId="1537" xr:uid="{00000000-0005-0000-0000-000092050000}"/>
+    <cellStyle name="Normal 5 5 2 4" xfId="1089" xr:uid="{00000000-0005-0000-0000-000093050000}"/>
+    <cellStyle name="Normal 5 5 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000094050000}"/>
+    <cellStyle name="Normal 5 5 3 2" xfId="752" xr:uid="{00000000-0005-0000-0000-000095050000}"/>
+    <cellStyle name="Normal 5 5 3 2 2" xfId="1649" xr:uid="{00000000-0005-0000-0000-000096050000}"/>
+    <cellStyle name="Normal 5 5 3 3" xfId="1201" xr:uid="{00000000-0005-0000-0000-000097050000}"/>
+    <cellStyle name="Normal 5 5 4" xfId="528" xr:uid="{00000000-0005-0000-0000-000098050000}"/>
+    <cellStyle name="Normal 5 5 4 2" xfId="1425" xr:uid="{00000000-0005-0000-0000-000099050000}"/>
+    <cellStyle name="Normal 5 5 5" xfId="977" xr:uid="{00000000-0005-0000-0000-00009A050000}"/>
+    <cellStyle name="Normal 5 6" xfId="136" xr:uid="{00000000-0005-0000-0000-00009B050000}"/>
+    <cellStyle name="Normal 5 6 2" xfId="360" xr:uid="{00000000-0005-0000-0000-00009C050000}"/>
+    <cellStyle name="Normal 5 6 2 2" xfId="808" xr:uid="{00000000-0005-0000-0000-00009D050000}"/>
+    <cellStyle name="Normal 5 6 2 2 2" xfId="1705" xr:uid="{00000000-0005-0000-0000-00009E050000}"/>
+    <cellStyle name="Normal 5 6 2 3" xfId="1257" xr:uid="{00000000-0005-0000-0000-00009F050000}"/>
+    <cellStyle name="Normal 5 6 3" xfId="584" xr:uid="{00000000-0005-0000-0000-0000A0050000}"/>
+    <cellStyle name="Normal 5 6 3 2" xfId="1481" xr:uid="{00000000-0005-0000-0000-0000A1050000}"/>
+    <cellStyle name="Normal 5 6 4" xfId="1033" xr:uid="{00000000-0005-0000-0000-0000A2050000}"/>
+    <cellStyle name="Normal 5 7" xfId="248" xr:uid="{00000000-0005-0000-0000-0000A3050000}"/>
+    <cellStyle name="Normal 5 7 2" xfId="696" xr:uid="{00000000-0005-0000-0000-0000A4050000}"/>
+    <cellStyle name="Normal 5 7 2 2" xfId="1593" xr:uid="{00000000-0005-0000-0000-0000A5050000}"/>
+    <cellStyle name="Normal 5 7 3" xfId="1145" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
+    <cellStyle name="Normal 5 8" xfId="472" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
+    <cellStyle name="Normal 5 8 2" xfId="1369" xr:uid="{00000000-0005-0000-0000-0000A8050000}"/>
+    <cellStyle name="Normal 5 9" xfId="921" xr:uid="{00000000-0005-0000-0000-0000A9050000}"/>
+    <cellStyle name="Normal 6" xfId="25" xr:uid="{00000000-0005-0000-0000-0000AA050000}"/>
+    <cellStyle name="Normal 6 2" xfId="35" xr:uid="{00000000-0005-0000-0000-0000AB050000}"/>
+    <cellStyle name="Normal 7" xfId="24" xr:uid="{00000000-0005-0000-0000-0000AC050000}"/>
+    <cellStyle name="Normal 7 2" xfId="34" xr:uid="{00000000-0005-0000-0000-0000AD050000}"/>
+    <cellStyle name="Normal 7 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-0000AE050000}"/>
+    <cellStyle name="Normal 7 2 2 2" xfId="108" xr:uid="{00000000-0005-0000-0000-0000AF050000}"/>
+    <cellStyle name="Normal 7 2 2 2 2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000B0050000}"/>
+    <cellStyle name="Normal 7 2 2 2 2 2" xfId="444" xr:uid="{00000000-0005-0000-0000-0000B1050000}"/>
+    <cellStyle name="Normal 7 2 2 2 2 2 2" xfId="892" xr:uid="{00000000-0005-0000-0000-0000B2050000}"/>
+    <cellStyle name="Normal 7 2 2 2 2 2 2 2" xfId="1789" xr:uid="{00000000-0005-0000-0000-0000B3050000}"/>
+    <cellStyle name="Normal 7 2 2 2 2 2 3" xfId="1341" xr:uid="{00000000-0005-0000-0000-0000B4050000}"/>
+    <cellStyle name="Normal 7 2 2 2 2 3" xfId="668" xr:uid="{00000000-0005-0000-0000-0000B5050000}"/>
+    <cellStyle name="Normal 7 2 2 2 2 3 2" xfId="1565" xr:uid="{00000000-0005-0000-0000-0000B6050000}"/>
+    <cellStyle name="Normal 7 2 2 2 2 4" xfId="1117" xr:uid="{00000000-0005-0000-0000-0000B7050000}"/>
+    <cellStyle name="Normal 7 2 2 2 3" xfId="332" xr:uid="{00000000-0005-0000-0000-0000B8050000}"/>
+    <cellStyle name="Normal 7 2 2 2 3 2" xfId="780" xr:uid="{00000000-0005-0000-0000-0000B9050000}"/>
+    <cellStyle name="Normal 7 2 2 2 3 2 2" xfId="1677" xr:uid="{00000000-0005-0000-0000-0000BA050000}"/>
+    <cellStyle name="Normal 7 2 2 2 3 3" xfId="1229" xr:uid="{00000000-0005-0000-0000-0000BB050000}"/>
+    <cellStyle name="Normal 7 2 2 2 4" xfId="556" xr:uid="{00000000-0005-0000-0000-0000BC050000}"/>
+    <cellStyle name="Normal 7 2 2 2 4 2" xfId="1453" xr:uid="{00000000-0005-0000-0000-0000BD050000}"/>
+    <cellStyle name="Normal 7 2 2 2 5" xfId="1005" xr:uid="{00000000-0005-0000-0000-0000BE050000}"/>
+    <cellStyle name="Normal 7 2 2 3" xfId="164" xr:uid="{00000000-0005-0000-0000-0000BF050000}"/>
+    <cellStyle name="Normal 7 2 2 3 2" xfId="388" xr:uid="{00000000-0005-0000-0000-0000C0050000}"/>
+    <cellStyle name="Normal 7 2 2 3 2 2" xfId="836" xr:uid="{00000000-0005-0000-0000-0000C1050000}"/>
+    <cellStyle name="Normal 7 2 2 3 2 2 2" xfId="1733" xr:uid="{00000000-0005-0000-0000-0000C2050000}"/>
+    <cellStyle name="Normal 7 2 2 3 2 3" xfId="1285" xr:uid="{00000000-0005-0000-0000-0000C3050000}"/>
+    <cellStyle name="Normal 7 2 2 3 3" xfId="612" xr:uid="{00000000-0005-0000-0000-0000C4050000}"/>
+    <cellStyle name="Normal 7 2 2 3 3 2" xfId="1509" xr:uid="{00000000-0005-0000-0000-0000C5050000}"/>
+    <cellStyle name="Normal 7 2 2 3 4" xfId="1061" xr:uid="{00000000-0005-0000-0000-0000C6050000}"/>
+    <cellStyle name="Normal 7 2 2 4" xfId="276" xr:uid="{00000000-0005-0000-0000-0000C7050000}"/>
+    <cellStyle name="Normal 7 2 2 4 2" xfId="724" xr:uid="{00000000-0005-0000-0000-0000C8050000}"/>
+    <cellStyle name="Normal 7 2 2 4 2 2" xfId="1621" xr:uid="{00000000-0005-0000-0000-0000C9050000}"/>
+    <cellStyle name="Normal 7 2 2 4 3" xfId="1173" xr:uid="{00000000-0005-0000-0000-0000CA050000}"/>
+    <cellStyle name="Normal 7 2 2 5" xfId="500" xr:uid="{00000000-0005-0000-0000-0000CB050000}"/>
+    <cellStyle name="Normal 7 2 2 5 2" xfId="1397" xr:uid="{00000000-0005-0000-0000-0000CC050000}"/>
+    <cellStyle name="Normal 7 2 2 6" xfId="949" xr:uid="{00000000-0005-0000-0000-0000CD050000}"/>
+    <cellStyle name="Normal 7 2 3" xfId="91" xr:uid="{00000000-0005-0000-0000-0000CE050000}"/>
+    <cellStyle name="Normal 7 2 3 2" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CF050000}"/>
+    <cellStyle name="Normal 7 2 3 2 2" xfId="427" xr:uid="{00000000-0005-0000-0000-0000D0050000}"/>
+    <cellStyle name="Normal 7 2 3 2 2 2" xfId="875" xr:uid="{00000000-0005-0000-0000-0000D1050000}"/>
+    <cellStyle name="Normal 7 2 3 2 2 2 2" xfId="1772" xr:uid="{00000000-0005-0000-0000-0000D2050000}"/>
+    <cellStyle name="Normal 7 2 3 2 2 3" xfId="1324" xr:uid="{00000000-0005-0000-0000-0000D3050000}"/>
+    <cellStyle name="Normal 7 2 3 2 3" xfId="651" xr:uid="{00000000-0005-0000-0000-0000D4050000}"/>
+    <cellStyle name="Normal 7 2 3 2 3 2" xfId="1548" xr:uid="{00000000-0005-0000-0000-0000D5050000}"/>
+    <cellStyle name="Normal 7 2 3 2 4" xfId="1100" xr:uid="{00000000-0005-0000-0000-0000D6050000}"/>
+    <cellStyle name="Normal 7 2 3 3" xfId="315" xr:uid="{00000000-0005-0000-0000-0000D7050000}"/>
+    <cellStyle name="Normal 7 2 3 3 2" xfId="763" xr:uid="{00000000-0005-0000-0000-0000D8050000}"/>
+    <cellStyle name="Normal 7 2 3 3 2 2" xfId="1660" xr:uid="{00000000-0005-0000-0000-0000D9050000}"/>
+    <cellStyle name="Normal 7 2 3 3 3" xfId="1212" xr:uid="{00000000-0005-0000-0000-0000DA050000}"/>
+    <cellStyle name="Normal 7 2 3 4" xfId="539" xr:uid="{00000000-0005-0000-0000-0000DB050000}"/>
+    <cellStyle name="Normal 7 2 3 4 2" xfId="1436" xr:uid="{00000000-0005-0000-0000-0000DC050000}"/>
+    <cellStyle name="Normal 7 2 3 5" xfId="988" xr:uid="{00000000-0005-0000-0000-0000DD050000}"/>
+    <cellStyle name="Normal 7 2 4" xfId="147" xr:uid="{00000000-0005-0000-0000-0000DE050000}"/>
+    <cellStyle name="Normal 7 2 4 2" xfId="371" xr:uid="{00000000-0005-0000-0000-0000DF050000}"/>
+    <cellStyle name="Normal 7 2 4 2 2" xfId="819" xr:uid="{00000000-0005-0000-0000-0000E0050000}"/>
+    <cellStyle name="Normal 7 2 4 2 2 2" xfId="1716" xr:uid="{00000000-0005-0000-0000-0000E1050000}"/>
+    <cellStyle name="Normal 7 2 4 2 3" xfId="1268" xr:uid="{00000000-0005-0000-0000-0000E2050000}"/>
+    <cellStyle name="Normal 7 2 4 3" xfId="595" xr:uid="{00000000-0005-0000-0000-0000E3050000}"/>
+    <cellStyle name="Normal 7 2 4 3 2" xfId="1492" xr:uid="{00000000-0005-0000-0000-0000E4050000}"/>
+    <cellStyle name="Normal 7 2 4 4" xfId="1044" xr:uid="{00000000-0005-0000-0000-0000E5050000}"/>
+    <cellStyle name="Normal 7 2 5" xfId="259" xr:uid="{00000000-0005-0000-0000-0000E6050000}"/>
+    <cellStyle name="Normal 7 2 5 2" xfId="707" xr:uid="{00000000-0005-0000-0000-0000E7050000}"/>
+    <cellStyle name="Normal 7 2 5 2 2" xfId="1604" xr:uid="{00000000-0005-0000-0000-0000E8050000}"/>
+    <cellStyle name="Normal 7 2 5 3" xfId="1156" xr:uid="{00000000-0005-0000-0000-0000E9050000}"/>
+    <cellStyle name="Normal 7 2 6" xfId="483" xr:uid="{00000000-0005-0000-0000-0000EA050000}"/>
+    <cellStyle name="Normal 7 2 6 2" xfId="1380" xr:uid="{00000000-0005-0000-0000-0000EB050000}"/>
+    <cellStyle name="Normal 7 2 7" xfId="932" xr:uid="{00000000-0005-0000-0000-0000EC050000}"/>
+    <cellStyle name="Normal 7 3" xfId="43" xr:uid="{00000000-0005-0000-0000-0000ED050000}"/>
+    <cellStyle name="Normal 7 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-0000EE050000}"/>
+    <cellStyle name="Normal 7 3 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000EF050000}"/>
+    <cellStyle name="Normal 7 3 2 2 2" xfId="435" xr:uid="{00000000-0005-0000-0000-0000F0050000}"/>
+    <cellStyle name="Normal 7 3 2 2 2 2" xfId="883" xr:uid="{00000000-0005-0000-0000-0000F1050000}"/>
+    <cellStyle name="Normal 7 3 2 2 2 2 2" xfId="1780" xr:uid="{00000000-0005-0000-0000-0000F2050000}"/>
+    <cellStyle name="Normal 7 3 2 2 2 3" xfId="1332" xr:uid="{00000000-0005-0000-0000-0000F3050000}"/>
+    <cellStyle name="Normal 7 3 2 2 3" xfId="659" xr:uid="{00000000-0005-0000-0000-0000F4050000}"/>
+    <cellStyle name="Normal 7 3 2 2 3 2" xfId="1556" xr:uid="{00000000-0005-0000-0000-0000F5050000}"/>
+    <cellStyle name="Normal 7 3 2 2 4" xfId="1108" xr:uid="{00000000-0005-0000-0000-0000F6050000}"/>
+    <cellStyle name="Normal 7 3 2 3" xfId="323" xr:uid="{00000000-0005-0000-0000-0000F7050000}"/>
+    <cellStyle name="Normal 7 3 2 3 2" xfId="771" xr:uid="{00000000-0005-0000-0000-0000F8050000}"/>
+    <cellStyle name="Normal 7 3 2 3 2 2" xfId="1668" xr:uid="{00000000-0005-0000-0000-0000F9050000}"/>
+    <cellStyle name="Normal 7 3 2 3 3" xfId="1220" xr:uid="{00000000-0005-0000-0000-0000FA050000}"/>
+    <cellStyle name="Normal 7 3 2 4" xfId="547" xr:uid="{00000000-0005-0000-0000-0000FB050000}"/>
+    <cellStyle name="Normal 7 3 2 4 2" xfId="1444" xr:uid="{00000000-0005-0000-0000-0000FC050000}"/>
+    <cellStyle name="Normal 7 3 2 5" xfId="996" xr:uid="{00000000-0005-0000-0000-0000FD050000}"/>
+    <cellStyle name="Normal 7 3 3" xfId="155" xr:uid="{00000000-0005-0000-0000-0000FE050000}"/>
+    <cellStyle name="Normal 7 3 3 2" xfId="379" xr:uid="{00000000-0005-0000-0000-0000FF050000}"/>
+    <cellStyle name="Normal 7 3 3 2 2" xfId="827" xr:uid="{00000000-0005-0000-0000-000000060000}"/>
+    <cellStyle name="Normal 7 3 3 2 2 2" xfId="1724" xr:uid="{00000000-0005-0000-0000-000001060000}"/>
+    <cellStyle name="Normal 7 3 3 2 3" xfId="1276" xr:uid="{00000000-0005-0000-0000-000002060000}"/>
+    <cellStyle name="Normal 7 3 3 3" xfId="603" xr:uid="{00000000-0005-0000-0000-000003060000}"/>
+    <cellStyle name="Normal 7 3 3 3 2" xfId="1500" xr:uid="{00000000-0005-0000-0000-000004060000}"/>
+    <cellStyle name="Normal 7 3 3 4" xfId="1052" xr:uid="{00000000-0005-0000-0000-000005060000}"/>
+    <cellStyle name="Normal 7 3 4" xfId="267" xr:uid="{00000000-0005-0000-0000-000006060000}"/>
+    <cellStyle name="Normal 7 3 4 2" xfId="715" xr:uid="{00000000-0005-0000-0000-000007060000}"/>
+    <cellStyle name="Normal 7 3 4 2 2" xfId="1612" xr:uid="{00000000-0005-0000-0000-000008060000}"/>
+    <cellStyle name="Normal 7 3 4 3" xfId="1164" xr:uid="{00000000-0005-0000-0000-000009060000}"/>
+    <cellStyle name="Normal 7 3 5" xfId="491" xr:uid="{00000000-0005-0000-0000-00000A060000}"/>
+    <cellStyle name="Normal 7 3 5 2" xfId="1388" xr:uid="{00000000-0005-0000-0000-00000B060000}"/>
+    <cellStyle name="Normal 7 3 6" xfId="940" xr:uid="{00000000-0005-0000-0000-00000C060000}"/>
+    <cellStyle name="Normal 7 4" xfId="82" xr:uid="{00000000-0005-0000-0000-00000D060000}"/>
+    <cellStyle name="Normal 7 4 2" xfId="194" xr:uid="{00000000-0005-0000-0000-00000E060000}"/>
+    <cellStyle name="Normal 7 4 2 2" xfId="418" xr:uid="{00000000-0005-0000-0000-00000F060000}"/>
+    <cellStyle name="Normal 7 4 2 2 2" xfId="866" xr:uid="{00000000-0005-0000-0000-000010060000}"/>
+    <cellStyle name="Normal 7 4 2 2 2 2" xfId="1763" xr:uid="{00000000-0005-0000-0000-000011060000}"/>
+    <cellStyle name="Normal 7 4 2 2 3" xfId="1315" xr:uid="{00000000-0005-0000-0000-000012060000}"/>
+    <cellStyle name="Normal 7 4 2 3" xfId="642" xr:uid="{00000000-0005-0000-0000-000013060000}"/>
+    <cellStyle name="Normal 7 4 2 3 2" xfId="1539" xr:uid="{00000000-0005-0000-0000-000014060000}"/>
+    <cellStyle name="Normal 7 4 2 4" xfId="1091" xr:uid="{00000000-0005-0000-0000-000015060000}"/>
+    <cellStyle name="Normal 7 4 3" xfId="306" xr:uid="{00000000-0005-0000-0000-000016060000}"/>
+    <cellStyle name="Normal 7 4 3 2" xfId="754" xr:uid="{00000000-0005-0000-0000-000017060000}"/>
+    <cellStyle name="Normal 7 4 3 2 2" xfId="1651" xr:uid="{00000000-0005-0000-0000-000018060000}"/>
+    <cellStyle name="Normal 7 4 3 3" xfId="1203" xr:uid="{00000000-0005-0000-0000-000019060000}"/>
+    <cellStyle name="Normal 7 4 4" xfId="530" xr:uid="{00000000-0005-0000-0000-00001A060000}"/>
+    <cellStyle name="Normal 7 4 4 2" xfId="1427" xr:uid="{00000000-0005-0000-0000-00001B060000}"/>
+    <cellStyle name="Normal 7 4 5" xfId="979" xr:uid="{00000000-0005-0000-0000-00001C060000}"/>
+    <cellStyle name="Normal 7 5" xfId="138" xr:uid="{00000000-0005-0000-0000-00001D060000}"/>
+    <cellStyle name="Normal 7 5 2" xfId="362" xr:uid="{00000000-0005-0000-0000-00001E060000}"/>
+    <cellStyle name="Normal 7 5 2 2" xfId="810" xr:uid="{00000000-0005-0000-0000-00001F060000}"/>
+    <cellStyle name="Normal 7 5 2 2 2" xfId="1707" xr:uid="{00000000-0005-0000-0000-000020060000}"/>
+    <cellStyle name="Normal 7 5 2 3" xfId="1259" xr:uid="{00000000-0005-0000-0000-000021060000}"/>
+    <cellStyle name="Normal 7 5 3" xfId="586" xr:uid="{00000000-0005-0000-0000-000022060000}"/>
+    <cellStyle name="Normal 7 5 3 2" xfId="1483" xr:uid="{00000000-0005-0000-0000-000023060000}"/>
+    <cellStyle name="Normal 7 5 4" xfId="1035" xr:uid="{00000000-0005-0000-0000-000024060000}"/>
+    <cellStyle name="Normal 7 6" xfId="250" xr:uid="{00000000-0005-0000-0000-000025060000}"/>
+    <cellStyle name="Normal 7 6 2" xfId="698" xr:uid="{00000000-0005-0000-0000-000026060000}"/>
+    <cellStyle name="Normal 7 6 2 2" xfId="1595" xr:uid="{00000000-0005-0000-0000-000027060000}"/>
+    <cellStyle name="Normal 7 6 3" xfId="1147" xr:uid="{00000000-0005-0000-0000-000028060000}"/>
+    <cellStyle name="Normal 7 7" xfId="474" xr:uid="{00000000-0005-0000-0000-000029060000}"/>
+    <cellStyle name="Normal 7 7 2" xfId="1371" xr:uid="{00000000-0005-0000-0000-00002A060000}"/>
+    <cellStyle name="Normal 7 8" xfId="923" xr:uid="{00000000-0005-0000-0000-00002B060000}"/>
+    <cellStyle name="Normal 8" xfId="18" xr:uid="{00000000-0005-0000-0000-00002C060000}"/>
+    <cellStyle name="Normal 8 10" xfId="919" xr:uid="{00000000-0005-0000-0000-00002D060000}"/>
+    <cellStyle name="Normal 8 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00002E060000}"/>
+    <cellStyle name="Normal 8 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00002F060000}"/>
+    <cellStyle name="Normal 8 2 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000030060000}"/>
+    <cellStyle name="Normal 8 2 2 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000031060000}"/>
+    <cellStyle name="Normal 8 2 2 2 2 2" xfId="448" xr:uid="{00000000-0005-0000-0000-000032060000}"/>
+    <cellStyle name="Normal 8 2 2 2 2 2 2" xfId="896" xr:uid="{00000000-0005-0000-0000-000033060000}"/>
+    <cellStyle name="Normal 8 2 2 2 2 2 2 2" xfId="1793" xr:uid="{00000000-0005-0000-0000-000034060000}"/>
+    <cellStyle name="Normal 8 2 2 2 2 2 3" xfId="1345" xr:uid="{00000000-0005-0000-0000-000035060000}"/>
+    <cellStyle name="Normal 8 2 2 2 2 3" xfId="672" xr:uid="{00000000-0005-0000-0000-000036060000}"/>
+    <cellStyle name="Normal 8 2 2 2 2 3 2" xfId="1569" xr:uid="{00000000-0005-0000-0000-000037060000}"/>
+    <cellStyle name="Normal 8 2 2 2 2 4" xfId="1121" xr:uid="{00000000-0005-0000-0000-000038060000}"/>
+    <cellStyle name="Normal 8 2 2 2 3" xfId="336" xr:uid="{00000000-0005-0000-0000-000039060000}"/>
+    <cellStyle name="Normal 8 2 2 2 3 2" xfId="784" xr:uid="{00000000-0005-0000-0000-00003A060000}"/>
+    <cellStyle name="Normal 8 2 2 2 3 2 2" xfId="1681" xr:uid="{00000000-0005-0000-0000-00003B060000}"/>
+    <cellStyle name="Normal 8 2 2 2 3 3" xfId="1233" xr:uid="{00000000-0005-0000-0000-00003C060000}"/>
+    <cellStyle name="Normal 8 2 2 2 4" xfId="560" xr:uid="{00000000-0005-0000-0000-00003D060000}"/>
+    <cellStyle name="Normal 8 2 2 2 4 2" xfId="1457" xr:uid="{00000000-0005-0000-0000-00003E060000}"/>
+    <cellStyle name="Normal 8 2 2 2 5" xfId="1009" xr:uid="{00000000-0005-0000-0000-00003F060000}"/>
+    <cellStyle name="Normal 8 2 2 3" xfId="168" xr:uid="{00000000-0005-0000-0000-000040060000}"/>
+    <cellStyle name="Normal 8 2 2 3 2" xfId="392" xr:uid="{00000000-0005-0000-0000-000041060000}"/>
+    <cellStyle name="Normal 8 2 2 3 2 2" xfId="840" xr:uid="{00000000-0005-0000-0000-000042060000}"/>
+    <cellStyle name="Normal 8 2 2 3 2 2 2" xfId="1737" xr:uid="{00000000-0005-0000-0000-000043060000}"/>
+    <cellStyle name="Normal 8 2 2 3 2 3" xfId="1289" xr:uid="{00000000-0005-0000-0000-000044060000}"/>
+    <cellStyle name="Normal 8 2 2 3 3" xfId="616" xr:uid="{00000000-0005-0000-0000-000045060000}"/>
+    <cellStyle name="Normal 8 2 2 3 3 2" xfId="1513" xr:uid="{00000000-0005-0000-0000-000046060000}"/>
+    <cellStyle name="Normal 8 2 2 3 4" xfId="1065" xr:uid="{00000000-0005-0000-0000-000047060000}"/>
+    <cellStyle name="Normal 8 2 2 4" xfId="280" xr:uid="{00000000-0005-0000-0000-000048060000}"/>
+    <cellStyle name="Normal 8 2 2 4 2" xfId="728" xr:uid="{00000000-0005-0000-0000-000049060000}"/>
+    <cellStyle name="Normal 8 2 2 4 2 2" xfId="1625" xr:uid="{00000000-0005-0000-0000-00004A060000}"/>
+    <cellStyle name="Normal 8 2 2 4 3" xfId="1177" xr:uid="{00000000-0005-0000-0000-00004B060000}"/>
+    <cellStyle name="Normal 8 2 2 5" xfId="504" xr:uid="{00000000-0005-0000-0000-00004C060000}"/>
+    <cellStyle name="Normal 8 2 2 5 2" xfId="1401" xr:uid="{00000000-0005-0000-0000-00004D060000}"/>
+    <cellStyle name="Normal 8 2 2 6" xfId="953" xr:uid="{00000000-0005-0000-0000-00004E060000}"/>
+    <cellStyle name="Normal 8 2 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00004F060000}"/>
+    <cellStyle name="Normal 8 2 3 2" xfId="207" xr:uid="{00000000-0005-0000-0000-000050060000}"/>
+    <cellStyle name="Normal 8 2 3 2 2" xfId="431" xr:uid="{00000000-0005-0000-0000-000051060000}"/>
+    <cellStyle name="Normal 8 2 3 2 2 2" xfId="879" xr:uid="{00000000-0005-0000-0000-000052060000}"/>
+    <cellStyle name="Normal 8 2 3 2 2 2 2" xfId="1776" xr:uid="{00000000-0005-0000-0000-000053060000}"/>
+    <cellStyle name="Normal 8 2 3 2 2 3" xfId="1328" xr:uid="{00000000-0005-0000-0000-000054060000}"/>
+    <cellStyle name="Normal 8 2 3 2 3" xfId="655" xr:uid="{00000000-0005-0000-0000-000055060000}"/>
+    <cellStyle name="Normal 8 2 3 2 3 2" xfId="1552" xr:uid="{00000000-0005-0000-0000-000056060000}"/>
+    <cellStyle name="Normal 8 2 3 2 4" xfId="1104" xr:uid="{00000000-0005-0000-0000-000057060000}"/>
+    <cellStyle name="Normal 8 2 3 3" xfId="319" xr:uid="{00000000-0005-0000-0000-000058060000}"/>
+    <cellStyle name="Normal 8 2 3 3 2" xfId="767" xr:uid="{00000000-0005-0000-0000-000059060000}"/>
+    <cellStyle name="Normal 8 2 3 3 2 2" xfId="1664" xr:uid="{00000000-0005-0000-0000-00005A060000}"/>
+    <cellStyle name="Normal 8 2 3 3 3" xfId="1216" xr:uid="{00000000-0005-0000-0000-00005B060000}"/>
+    <cellStyle name="Normal 8 2 3 4" xfId="543" xr:uid="{00000000-0005-0000-0000-00005C060000}"/>
+    <cellStyle name="Normal 8 2 3 4 2" xfId="1440" xr:uid="{00000000-0005-0000-0000-00005D060000}"/>
+    <cellStyle name="Normal 8 2 3 5" xfId="992" xr:uid="{00000000-0005-0000-0000-00005E060000}"/>
+    <cellStyle name="Normal 8 2 4" xfId="151" xr:uid="{00000000-0005-0000-0000-00005F060000}"/>
+    <cellStyle name="Normal 8 2 4 2" xfId="375" xr:uid="{00000000-0005-0000-0000-000060060000}"/>
+    <cellStyle name="Normal 8 2 4 2 2" xfId="823" xr:uid="{00000000-0005-0000-0000-000061060000}"/>
+    <cellStyle name="Normal 8 2 4 2 2 2" xfId="1720" xr:uid="{00000000-0005-0000-0000-000062060000}"/>
+    <cellStyle name="Normal 8 2 4 2 3" xfId="1272" xr:uid="{00000000-0005-0000-0000-000063060000}"/>
+    <cellStyle name="Normal 8 2 4 3" xfId="599" xr:uid="{00000000-0005-0000-0000-000064060000}"/>
+    <cellStyle name="Normal 8 2 4 3 2" xfId="1496" xr:uid="{00000000-0005-0000-0000-000065060000}"/>
+    <cellStyle name="Normal 8 2 4 4" xfId="1048" xr:uid="{00000000-0005-0000-0000-000066060000}"/>
+    <cellStyle name="Normal 8 2 5" xfId="263" xr:uid="{00000000-0005-0000-0000-000067060000}"/>
+    <cellStyle name="Normal 8 2 5 2" xfId="711" xr:uid="{00000000-0005-0000-0000-000068060000}"/>
+    <cellStyle name="Normal 8 2 5 2 2" xfId="1608" xr:uid="{00000000-0005-0000-0000-000069060000}"/>
+    <cellStyle name="Normal 8 2 5 3" xfId="1160" xr:uid="{00000000-0005-0000-0000-00006A060000}"/>
+    <cellStyle name="Normal 8 2 6" xfId="487" xr:uid="{00000000-0005-0000-0000-00006B060000}"/>
+    <cellStyle name="Normal 8 2 6 2" xfId="1384" xr:uid="{00000000-0005-0000-0000-00006C060000}"/>
+    <cellStyle name="Normal 8 2 7" xfId="936" xr:uid="{00000000-0005-0000-0000-00006D060000}"/>
+    <cellStyle name="Normal 8 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00006E060000}"/>
+    <cellStyle name="Normal 8 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00006F060000}"/>
+    <cellStyle name="Normal 8 3 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000070060000}"/>
+    <cellStyle name="Normal 8 3 2 2 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000071060000}"/>
+    <cellStyle name="Normal 8 3 2 2 2 2" xfId="440" xr:uid="{00000000-0005-0000-0000-000072060000}"/>
+    <cellStyle name="Normal 8 3 2 2 2 2 2" xfId="888" xr:uid="{00000000-0005-0000-0000-000073060000}"/>
+    <cellStyle name="Normal 8 3 2 2 2 2 2 2" xfId="1785" xr:uid="{00000000-0005-0000-0000-000074060000}"/>
+    <cellStyle name="Normal 8 3 2 2 2 2 3" xfId="1337" xr:uid="{00000000-0005-0000-0000-000075060000}"/>
+    <cellStyle name="Normal 8 3 2 2 2 3" xfId="664" xr:uid="{00000000-0005-0000-0000-000076060000}"/>
+    <cellStyle name="Normal 8 3 2 2 2 3 2" xfId="1561" xr:uid="{00000000-0005-0000-0000-000077060000}"/>
+    <cellStyle name="Normal 8 3 2 2 2 4" xfId="1113" xr:uid="{00000000-0005-0000-0000-000078060000}"/>
+    <cellStyle name="Normal 8 3 2 2 3" xfId="328" xr:uid="{00000000-0005-0000-0000-000079060000}"/>
+    <cellStyle name="Normal 8 3 2 2 3 2" xfId="776" xr:uid="{00000000-0005-0000-0000-00007A060000}"/>
+    <cellStyle name="Normal 8 3 2 2 3 2 2" xfId="1673" xr:uid="{00000000-0005-0000-0000-00007B060000}"/>
+    <cellStyle name="Normal 8 3 2 2 3 3" xfId="1225" xr:uid="{00000000-0005-0000-0000-00007C060000}"/>
+    <cellStyle name="Normal 8 3 2 2 4" xfId="552" xr:uid="{00000000-0005-0000-0000-00007D060000}"/>
+    <cellStyle name="Normal 8 3 2 2 4 2" xfId="1449" xr:uid="{00000000-0005-0000-0000-00007E060000}"/>
+    <cellStyle name="Normal 8 3 2 2 5" xfId="1001" xr:uid="{00000000-0005-0000-0000-00007F060000}"/>
+    <cellStyle name="Normal 8 3 2 3" xfId="160" xr:uid="{00000000-0005-0000-0000-000080060000}"/>
+    <cellStyle name="Normal 8 3 2 3 2" xfId="384" xr:uid="{00000000-0005-0000-0000-000081060000}"/>
+    <cellStyle name="Normal 8 3 2 3 2 2" xfId="832" xr:uid="{00000000-0005-0000-0000-000082060000}"/>
+    <cellStyle name="Normal 8 3 2 3 2 2 2" xfId="1729" xr:uid="{00000000-0005-0000-0000-000083060000}"/>
+    <cellStyle name="Normal 8 3 2 3 2 3" xfId="1281" xr:uid="{00000000-0005-0000-0000-000084060000}"/>
+    <cellStyle name="Normal 8 3 2 3 3" xfId="608" xr:uid="{00000000-0005-0000-0000-000085060000}"/>
+    <cellStyle name="Normal 8 3 2 3 3 2" xfId="1505" xr:uid="{00000000-0005-0000-0000-000086060000}"/>
+    <cellStyle name="Normal 8 3 2 3 4" xfId="1057" xr:uid="{00000000-0005-0000-0000-000087060000}"/>
+    <cellStyle name="Normal 8 3 2 4" xfId="272" xr:uid="{00000000-0005-0000-0000-000088060000}"/>
+    <cellStyle name="Normal 8 3 2 4 2" xfId="720" xr:uid="{00000000-0005-0000-0000-000089060000}"/>
+    <cellStyle name="Normal 8 3 2 4 2 2" xfId="1617" xr:uid="{00000000-0005-0000-0000-00008A060000}"/>
+    <cellStyle name="Normal 8 3 2 4 3" xfId="1169" xr:uid="{00000000-0005-0000-0000-00008B060000}"/>
+    <cellStyle name="Normal 8 3 2 5" xfId="496" xr:uid="{00000000-0005-0000-0000-00008C060000}"/>
+    <cellStyle name="Normal 8 3 2 5 2" xfId="1393" xr:uid="{00000000-0005-0000-0000-00008D060000}"/>
+    <cellStyle name="Normal 8 3 2 6" xfId="945" xr:uid="{00000000-0005-0000-0000-00008E060000}"/>
+    <cellStyle name="Normal 8 3 3" xfId="87" xr:uid="{00000000-0005-0000-0000-00008F060000}"/>
+    <cellStyle name="Normal 8 3 3 2" xfId="199" xr:uid="{00000000-0005-0000-0000-000090060000}"/>
+    <cellStyle name="Normal 8 3 3 2 2" xfId="423" xr:uid="{00000000-0005-0000-0000-000091060000}"/>
+    <cellStyle name="Normal 8 3 3 2 2 2" xfId="871" xr:uid="{00000000-0005-0000-0000-000092060000}"/>
+    <cellStyle name="Normal 8 3 3 2 2 2 2" xfId="1768" xr:uid="{00000000-0005-0000-0000-000093060000}"/>
+    <cellStyle name="Normal 8 3 3 2 2 3" xfId="1320" xr:uid="{00000000-0005-0000-0000-000094060000}"/>
+    <cellStyle name="Normal 8 3 3 2 3" xfId="647" xr:uid="{00000000-0005-0000-0000-000095060000}"/>
+    <cellStyle name="Normal 8 3 3 2 3 2" xfId="1544" xr:uid="{00000000-0005-0000-0000-000096060000}"/>
+    <cellStyle name="Normal 8 3 3 2 4" xfId="1096" xr:uid="{00000000-0005-0000-0000-000097060000}"/>
+    <cellStyle name="Normal 8 3 3 3" xfId="311" xr:uid="{00000000-0005-0000-0000-000098060000}"/>
+    <cellStyle name="Normal 8 3 3 3 2" xfId="759" xr:uid="{00000000-0005-0000-0000-000099060000}"/>
+    <cellStyle name="Normal 8 3 3 3 2 2" xfId="1656" xr:uid="{00000000-0005-0000-0000-00009A060000}"/>
+    <cellStyle name="Normal 8 3 3 3 3" xfId="1208" xr:uid="{00000000-0005-0000-0000-00009B060000}"/>
+    <cellStyle name="Normal 8 3 3 4" xfId="535" xr:uid="{00000000-0005-0000-0000-00009C060000}"/>
+    <cellStyle name="Normal 8 3 3 4 2" xfId="1432" xr:uid="{00000000-0005-0000-0000-00009D060000}"/>
+    <cellStyle name="Normal 8 3 3 5" xfId="984" xr:uid="{00000000-0005-0000-0000-00009E060000}"/>
+    <cellStyle name="Normal 8 3 4" xfId="143" xr:uid="{00000000-0005-0000-0000-00009F060000}"/>
+    <cellStyle name="Normal 8 3 4 2" xfId="367" xr:uid="{00000000-0005-0000-0000-0000A0060000}"/>
+    <cellStyle name="Normal 8 3 4 2 2" xfId="815" xr:uid="{00000000-0005-0000-0000-0000A1060000}"/>
+    <cellStyle name="Normal 8 3 4 2 2 2" xfId="1712" xr:uid="{00000000-0005-0000-0000-0000A2060000}"/>
+    <cellStyle name="Normal 8 3 4 2 3" xfId="1264" xr:uid="{00000000-0005-0000-0000-0000A3060000}"/>
+    <cellStyle name="Normal 8 3 4 3" xfId="591" xr:uid="{00000000-0005-0000-0000-0000A4060000}"/>
+    <cellStyle name="Normal 8 3 4 3 2" xfId="1488" xr:uid="{00000000-0005-0000-0000-0000A5060000}"/>
+    <cellStyle name="Normal 8 3 4 4" xfId="1040" xr:uid="{00000000-0005-0000-0000-0000A6060000}"/>
+    <cellStyle name="Normal 8 3 5" xfId="255" xr:uid="{00000000-0005-0000-0000-0000A7060000}"/>
+    <cellStyle name="Normal 8 3 5 2" xfId="703" xr:uid="{00000000-0005-0000-0000-0000A8060000}"/>
+    <cellStyle name="Normal 8 3 5 2 2" xfId="1600" xr:uid="{00000000-0005-0000-0000-0000A9060000}"/>
+    <cellStyle name="Normal 8 3 5 3" xfId="1152" xr:uid="{00000000-0005-0000-0000-0000AA060000}"/>
+    <cellStyle name="Normal 8 3 6" xfId="479" xr:uid="{00000000-0005-0000-0000-0000AB060000}"/>
+    <cellStyle name="Normal 8 3 6 2" xfId="1376" xr:uid="{00000000-0005-0000-0000-0000AC060000}"/>
+    <cellStyle name="Normal 8 3 7" xfId="928" xr:uid="{00000000-0005-0000-0000-0000AD060000}"/>
+    <cellStyle name="Normal 8 4" xfId="47" xr:uid="{00000000-0005-0000-0000-0000AE060000}"/>
+    <cellStyle name="Normal 8 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-0000AF060000}"/>
+    <cellStyle name="Normal 8 4 2 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000B0060000}"/>
+    <cellStyle name="Normal 8 4 2 2 2" xfId="439" xr:uid="{00000000-0005-0000-0000-0000B1060000}"/>
+    <cellStyle name="Normal 8 4 2 2 2 2" xfId="887" xr:uid="{00000000-0005-0000-0000-0000B2060000}"/>
+    <cellStyle name="Normal 8 4 2 2 2 2 2" xfId="1784" xr:uid="{00000000-0005-0000-0000-0000B3060000}"/>
+    <cellStyle name="Normal 8 4 2 2 2 3" xfId="1336" xr:uid="{00000000-0005-0000-0000-0000B4060000}"/>
+    <cellStyle name="Normal 8 4 2 2 3" xfId="663" xr:uid="{00000000-0005-0000-0000-0000B5060000}"/>
+    <cellStyle name="Normal 8 4 2 2 3 2" xfId="1560" xr:uid="{00000000-0005-0000-0000-0000B6060000}"/>
+    <cellStyle name="Normal 8 4 2 2 4" xfId="1112" xr:uid="{00000000-0005-0000-0000-0000B7060000}"/>
+    <cellStyle name="Normal 8 4 2 3" xfId="327" xr:uid="{00000000-0005-0000-0000-0000B8060000}"/>
+    <cellStyle name="Normal 8 4 2 3 2" xfId="775" xr:uid="{00000000-0005-0000-0000-0000B9060000}"/>
+    <cellStyle name="Normal 8 4 2 3 2 2" xfId="1672" xr:uid="{00000000-0005-0000-0000-0000BA060000}"/>
+    <cellStyle name="Normal 8 4 2 3 3" xfId="1224" xr:uid="{00000000-0005-0000-0000-0000BB060000}"/>
+    <cellStyle name="Normal 8 4 2 4" xfId="551" xr:uid="{00000000-0005-0000-0000-0000BC060000}"/>
+    <cellStyle name="Normal 8 4 2 4 2" xfId="1448" xr:uid="{00000000-0005-0000-0000-0000BD060000}"/>
+    <cellStyle name="Normal 8 4 2 5" xfId="1000" xr:uid="{00000000-0005-0000-0000-0000BE060000}"/>
+    <cellStyle name="Normal 8 4 3" xfId="159" xr:uid="{00000000-0005-0000-0000-0000BF060000}"/>
+    <cellStyle name="Normal 8 4 3 2" xfId="383" xr:uid="{00000000-0005-0000-0000-0000C0060000}"/>
+    <cellStyle name="Normal 8 4 3 2 2" xfId="831" xr:uid="{00000000-0005-0000-0000-0000C1060000}"/>
+    <cellStyle name="Normal 8 4 3 2 2 2" xfId="1728" xr:uid="{00000000-0005-0000-0000-0000C2060000}"/>
+    <cellStyle name="Normal 8 4 3 2 3" xfId="1280" xr:uid="{00000000-0005-0000-0000-0000C3060000}"/>
+    <cellStyle name="Normal 8 4 3 3" xfId="607" xr:uid="{00000000-0005-0000-0000-0000C4060000}"/>
+    <cellStyle name="Normal 8 4 3 3 2" xfId="1504" xr:uid="{00000000-0005-0000-0000-0000C5060000}"/>
+    <cellStyle name="Normal 8 4 3 4" xfId="1056" xr:uid="{00000000-0005-0000-0000-0000C6060000}"/>
+    <cellStyle name="Normal 8 4 4" xfId="271" xr:uid="{00000000-0005-0000-0000-0000C7060000}"/>
+    <cellStyle name="Normal 8 4 4 2" xfId="719" xr:uid="{00000000-0005-0000-0000-0000C8060000}"/>
+    <cellStyle name="Normal 8 4 4 2 2" xfId="1616" xr:uid="{00000000-0005-0000-0000-0000C9060000}"/>
+    <cellStyle name="Normal 8 4 4 3" xfId="1168" xr:uid="{00000000-0005-0000-0000-0000CA060000}"/>
+    <cellStyle name="Normal 8 4 5" xfId="495" xr:uid="{00000000-0005-0000-0000-0000CB060000}"/>
+    <cellStyle name="Normal 8 4 5 2" xfId="1392" xr:uid="{00000000-0005-0000-0000-0000CC060000}"/>
+    <cellStyle name="Normal 8 4 6" xfId="944" xr:uid="{00000000-0005-0000-0000-0000CD060000}"/>
+    <cellStyle name="Normal 8 5" xfId="29" xr:uid="{00000000-0005-0000-0000-0000CE060000}"/>
+    <cellStyle name="Normal 8 5 2" xfId="86" xr:uid="{00000000-0005-0000-0000-0000CF060000}"/>
+    <cellStyle name="Normal 8 5 2 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000D0060000}"/>
+    <cellStyle name="Normal 8 5 2 2 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000D1060000}"/>
+    <cellStyle name="Normal 8 5 2 2 2 2" xfId="870" xr:uid="{00000000-0005-0000-0000-0000D2060000}"/>
+    <cellStyle name="Normal 8 5 2 2 2 2 2" xfId="1767" xr:uid="{00000000-0005-0000-0000-0000D3060000}"/>
+    <cellStyle name="Normal 8 5 2 2 2 3" xfId="1319" xr:uid="{00000000-0005-0000-0000-0000D4060000}"/>
+    <cellStyle name="Normal 8 5 2 2 3" xfId="646" xr:uid="{00000000-0005-0000-0000-0000D5060000}"/>
+    <cellStyle name="Normal 8 5 2 2 3 2" xfId="1543" xr:uid="{00000000-0005-0000-0000-0000D6060000}"/>
+    <cellStyle name="Normal 8 5 2 2 4" xfId="1095" xr:uid="{00000000-0005-0000-0000-0000D7060000}"/>
+    <cellStyle name="Normal 8 5 2 3" xfId="310" xr:uid="{00000000-0005-0000-0000-0000D8060000}"/>
+    <cellStyle name="Normal 8 5 2 3 2" xfId="758" xr:uid="{00000000-0005-0000-0000-0000D9060000}"/>
+    <cellStyle name="Normal 8 5 2 3 2 2" xfId="1655" xr:uid="{00000000-0005-0000-0000-0000DA060000}"/>
+    <cellStyle name="Normal 8 5 2 3 3" xfId="1207" xr:uid="{00000000-0005-0000-0000-0000DB060000}"/>
+    <cellStyle name="Normal 8 5 2 4" xfId="534" xr:uid="{00000000-0005-0000-0000-0000DC060000}"/>
+    <cellStyle name="Normal 8 5 2 4 2" xfId="1431" xr:uid="{00000000-0005-0000-0000-0000DD060000}"/>
+    <cellStyle name="Normal 8 5 2 5" xfId="983" xr:uid="{00000000-0005-0000-0000-0000DE060000}"/>
+    <cellStyle name="Normal 8 5 3" xfId="142" xr:uid="{00000000-0005-0000-0000-0000DF060000}"/>
+    <cellStyle name="Normal 8 5 3 2" xfId="366" xr:uid="{00000000-0005-0000-0000-0000E0060000}"/>
+    <cellStyle name="Normal 8 5 3 2 2" xfId="814" xr:uid="{00000000-0005-0000-0000-0000E1060000}"/>
+    <cellStyle name="Normal 8 5 3 2 2 2" xfId="1711" xr:uid="{00000000-0005-0000-0000-0000E2060000}"/>
+    <cellStyle name="Normal 8 5 3 2 3" xfId="1263" xr:uid="{00000000-0005-0000-0000-0000E3060000}"/>
+    <cellStyle name="Normal 8 5 3 3" xfId="590" xr:uid="{00000000-0005-0000-0000-0000E4060000}"/>
+    <cellStyle name="Normal 8 5 3 3 2" xfId="1487" xr:uid="{00000000-0005-0000-0000-0000E5060000}"/>
+    <cellStyle name="Normal 8 5 3 4" xfId="1039" xr:uid="{00000000-0005-0000-0000-0000E6060000}"/>
+    <cellStyle name="Normal 8 5 4" xfId="254" xr:uid="{00000000-0005-0000-0000-0000E7060000}"/>
+    <cellStyle name="Normal 8 5 4 2" xfId="702" xr:uid="{00000000-0005-0000-0000-0000E8060000}"/>
+    <cellStyle name="Normal 8 5 4 2 2" xfId="1599" xr:uid="{00000000-0005-0000-0000-0000E9060000}"/>
+    <cellStyle name="Normal 8 5 4 3" xfId="1151" xr:uid="{00000000-0005-0000-0000-0000EA060000}"/>
+    <cellStyle name="Normal 8 5 5" xfId="478" xr:uid="{00000000-0005-0000-0000-0000EB060000}"/>
+    <cellStyle name="Normal 8 5 5 2" xfId="1375" xr:uid="{00000000-0005-0000-0000-0000EC060000}"/>
+    <cellStyle name="Normal 8 5 6" xfId="927" xr:uid="{00000000-0005-0000-0000-0000ED060000}"/>
+    <cellStyle name="Normal 8 6" xfId="78" xr:uid="{00000000-0005-0000-0000-0000EE060000}"/>
+    <cellStyle name="Normal 8 6 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EF060000}"/>
+    <cellStyle name="Normal 8 6 2 2" xfId="414" xr:uid="{00000000-0005-0000-0000-0000F0060000}"/>
+    <cellStyle name="Normal 8 6 2 2 2" xfId="862" xr:uid="{00000000-0005-0000-0000-0000F1060000}"/>
+    <cellStyle name="Normal 8 6 2 2 2 2" xfId="1759" xr:uid="{00000000-0005-0000-0000-0000F2060000}"/>
+    <cellStyle name="Normal 8 6 2 2 3" xfId="1311" xr:uid="{00000000-0005-0000-0000-0000F3060000}"/>
+    <cellStyle name="Normal 8 6 2 3" xfId="638" xr:uid="{00000000-0005-0000-0000-0000F4060000}"/>
+    <cellStyle name="Normal 8 6 2 3 2" xfId="1535" xr:uid="{00000000-0005-0000-0000-0000F5060000}"/>
+    <cellStyle name="Normal 8 6 2 4" xfId="1087" xr:uid="{00000000-0005-0000-0000-0000F6060000}"/>
+    <cellStyle name="Normal 8 6 3" xfId="302" xr:uid="{00000000-0005-0000-0000-0000F7060000}"/>
+    <cellStyle name="Normal 8 6 3 2" xfId="750" xr:uid="{00000000-0005-0000-0000-0000F8060000}"/>
+    <cellStyle name="Normal 8 6 3 2 2" xfId="1647" xr:uid="{00000000-0005-0000-0000-0000F9060000}"/>
+    <cellStyle name="Normal 8 6 3 3" xfId="1199" xr:uid="{00000000-0005-0000-0000-0000FA060000}"/>
+    <cellStyle name="Normal 8 6 4" xfId="526" xr:uid="{00000000-0005-0000-0000-0000FB060000}"/>
+    <cellStyle name="Normal 8 6 4 2" xfId="1423" xr:uid="{00000000-0005-0000-0000-0000FC060000}"/>
+    <cellStyle name="Normal 8 6 5" xfId="975" xr:uid="{00000000-0005-0000-0000-0000FD060000}"/>
+    <cellStyle name="Normal 8 7" xfId="134" xr:uid="{00000000-0005-0000-0000-0000FE060000}"/>
+    <cellStyle name="Normal 8 7 2" xfId="358" xr:uid="{00000000-0005-0000-0000-0000FF060000}"/>
+    <cellStyle name="Normal 8 7 2 2" xfId="806" xr:uid="{00000000-0005-0000-0000-000000070000}"/>
+    <cellStyle name="Normal 8 7 2 2 2" xfId="1703" xr:uid="{00000000-0005-0000-0000-000001070000}"/>
+    <cellStyle name="Normal 8 7 2 3" xfId="1255" xr:uid="{00000000-0005-0000-0000-000002070000}"/>
+    <cellStyle name="Normal 8 7 3" xfId="582" xr:uid="{00000000-0005-0000-0000-000003070000}"/>
+    <cellStyle name="Normal 8 7 3 2" xfId="1479" xr:uid="{00000000-0005-0000-0000-000004070000}"/>
+    <cellStyle name="Normal 8 7 4" xfId="1031" xr:uid="{00000000-0005-0000-0000-000005070000}"/>
+    <cellStyle name="Normal 8 8" xfId="246" xr:uid="{00000000-0005-0000-0000-000006070000}"/>
+    <cellStyle name="Normal 8 8 2" xfId="694" xr:uid="{00000000-0005-0000-0000-000007070000}"/>
+    <cellStyle name="Normal 8 8 2 2" xfId="1591" xr:uid="{00000000-0005-0000-0000-000008070000}"/>
+    <cellStyle name="Normal 8 8 3" xfId="1143" xr:uid="{00000000-0005-0000-0000-000009070000}"/>
+    <cellStyle name="Normal 8 9" xfId="470" xr:uid="{00000000-0005-0000-0000-00000A070000}"/>
+    <cellStyle name="Normal 8 9 2" xfId="1367" xr:uid="{00000000-0005-0000-0000-00000B070000}"/>
+    <cellStyle name="Normal 9" xfId="909" xr:uid="{00000000-0005-0000-0000-00000C070000}"/>
+    <cellStyle name="Normal 9 2" xfId="1806" xr:uid="{00000000-0005-0000-0000-00000D070000}"/>
+    <cellStyle name="Normal_Testware" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E070000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -6023,7 +6037,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -6115,6 +6129,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6150,6 +6181,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6325,7 +6373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -6333,20 +6381,20 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="15.625" style="3"/>
+    <col min="2" max="2" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="15.6328125" style="3"/>
   </cols>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0">
+    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6358,7 +6406,7 @@
       <pageSetup orientation="portrait" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0">
+    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -6373,23 +6421,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="54.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="54.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="4" customWidth="1"/>
     <col min="8" max="16384" width="8" style="4"/>
   </cols>
   <sheetData>
@@ -6434,18 +6482,18 @@
         <v>494</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.6" customHeight="1">
       <c r="A3" s="115" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B3" s="115" t="s">
         <v>499</v>
       </c>
       <c r="C3" s="126" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D3" s="91"/>
       <c r="E3" s="119" t="s">
@@ -6455,18 +6503,18 @@
         <v>494</v>
       </c>
       <c r="G3" s="119" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24.6" customHeight="1">
       <c r="A4" s="115" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B4" s="115" t="s">
         <v>499</v>
       </c>
       <c r="C4" s="126" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D4" s="91"/>
       <c r="E4" s="119" t="s">
@@ -6476,18 +6524,18 @@
         <v>494</v>
       </c>
       <c r="G4" s="119" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24.6" customHeight="1">
       <c r="A5" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B5" s="115" t="s">
         <v>499</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D5" s="91"/>
       <c r="E5" s="119" t="s">
@@ -6497,18 +6545,18 @@
         <v>494</v>
       </c>
       <c r="G5" s="119" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24.6" customHeight="1">
       <c r="A6" s="115" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B6" s="115" t="s">
         <v>499</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="119" t="s">
@@ -6518,18 +6566,18 @@
         <v>494</v>
       </c>
       <c r="G6" s="119" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.6" customHeight="1">
       <c r="A7" s="115" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B7" s="115" t="s">
         <v>499</v>
       </c>
       <c r="C7" s="126" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D7" s="91"/>
       <c r="E7" s="119" t="s">
@@ -6539,7 +6587,7 @@
         <v>494</v>
       </c>
       <c r="G7" s="119" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.6" customHeight="1">
@@ -6551,7 +6599,7 @@
       <c r="F8" s="127"/>
       <c r="G8" s="119"/>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="32.4" customHeight="1">
       <c r="A9" s="62"/>
       <c r="B9" s="91"/>
       <c r="C9" s="63"/>
@@ -6560,7 +6608,7 @@
       <c r="F9" s="64"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="35.450000000000003" customHeight="1">
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="35.4" customHeight="1">
       <c r="A10" s="62"/>
       <c r="B10" s="91"/>
       <c r="C10" s="63"/>
@@ -6569,7 +6617,7 @@
       <c r="F10" s="64"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="32.4" customHeight="1">
       <c r="A11" s="62"/>
       <c r="B11" s="91"/>
       <c r="C11" s="63"/>
@@ -6578,7 +6626,7 @@
       <c r="F11" s="64"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="32.4" customHeight="1">
       <c r="A12" s="62"/>
       <c r="B12" s="91"/>
       <c r="C12" s="63"/>
@@ -6587,7 +6635,7 @@
       <c r="F12" s="64"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="13" spans="1:7" s="5" customFormat="1" ht="32.4" customHeight="1">
       <c r="A13" s="62"/>
       <c r="B13" s="91"/>
       <c r="C13" s="63"/>
@@ -6596,7 +6644,7 @@
       <c r="F13" s="64"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="32.4" customHeight="1">
       <c r="A14" s="62"/>
       <c r="B14" s="91"/>
       <c r="C14" s="63"/>
@@ -6605,7 +6653,7 @@
       <c r="F14" s="64"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="32.4" customHeight="1">
       <c r="A15" s="62"/>
       <c r="B15" s="91"/>
       <c r="C15" s="63"/>
@@ -6614,7 +6662,7 @@
       <c r="F15" s="64"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="32.4" customHeight="1">
       <c r="A16" s="62"/>
       <c r="B16" s="91"/>
       <c r="C16" s="63"/>
@@ -6623,7 +6671,7 @@
       <c r="F16" s="64"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="32.4" customHeight="1">
       <c r="A17" s="62"/>
       <c r="B17" s="91"/>
       <c r="C17" s="63"/>
@@ -6758,7 +6806,7 @@
       <c r="F31" s="64"/>
       <c r="G31" s="23"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="32.4" customHeight="1">
       <c r="A32" s="62"/>
       <c r="B32" s="91"/>
       <c r="C32" s="63"/>
@@ -6866,7 +6914,7 @@
       <c r="F43" s="64"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" ht="20.45" customHeight="1">
+    <row r="44" spans="1:7" ht="20.399999999999999" customHeight="1">
       <c r="A44" s="62"/>
       <c r="B44" s="91"/>
       <c r="C44" s="63"/>
@@ -6965,7 +7013,7 @@
       <c r="F54" s="64"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" ht="25.7" customHeight="1">
+    <row r="55" spans="1:7" ht="25.65" customHeight="1">
       <c r="A55" s="62"/>
       <c r="B55" s="91"/>
       <c r="C55" s="63"/>
@@ -6974,7 +7022,7 @@
       <c r="F55" s="64"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" ht="25.7" customHeight="1">
+    <row r="56" spans="1:7" ht="25.65" customHeight="1">
       <c r="A56" s="62"/>
       <c r="B56" s="91"/>
       <c r="C56" s="63"/>
@@ -7001,7 +7049,7 @@
       <c r="F58" s="64"/>
       <c r="G58" s="24"/>
     </row>
-    <row r="59" spans="1:7" ht="34.700000000000003" customHeight="1">
+    <row r="59" spans="1:7" ht="34.65" customHeight="1">
       <c r="A59" s="23"/>
       <c r="B59" s="91"/>
       <c r="C59" s="63"/>
@@ -7136,7 +7184,7 @@
       <c r="F73" s="64"/>
       <c r="G73" s="24"/>
     </row>
-    <row r="74" spans="1:7" ht="25.7" customHeight="1">
+    <row r="74" spans="1:7" ht="25.65" customHeight="1">
       <c r="A74" s="23"/>
       <c r="B74" s="91"/>
       <c r="C74" s="63"/>
@@ -7145,7 +7193,7 @@
       <c r="F74" s="64"/>
       <c r="G74" s="24"/>
     </row>
-    <row r="75" spans="1:7" ht="31.7" customHeight="1">
+    <row r="75" spans="1:7" ht="31.65" customHeight="1">
       <c r="A75" s="23"/>
       <c r="B75" s="91"/>
       <c r="C75" s="63"/>
@@ -7966,7 +8014,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0" topLeftCell="A991">
+    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0" topLeftCell="A991">
       <selection activeCell="A991" sqref="A991"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7978,7 +8026,7 @@
       <pageSetup orientation="portrait" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0" topLeftCell="A991">
+    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0" topLeftCell="A991">
       <selection activeCell="A991" sqref="A991"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -7993,151 +8041,151 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:HQ76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K3" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="L3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="146.44999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="146.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" style="7" customWidth="1"/>
     <col min="9" max="9" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="30.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6328125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="30.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.90625" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32" style="7" customWidth="1"/>
-    <col min="14" max="14" width="11.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="11.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.08984375" style="7" customWidth="1"/>
     <col min="16" max="16" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="18.90625" style="7" customWidth="1"/>
     <col min="18" max="18" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5" style="7" customWidth="1"/>
-    <col min="21" max="21" width="11.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.75" style="7" customWidth="1"/>
-    <col min="23" max="23" width="14.5" style="7" customWidth="1"/>
+    <col min="19" max="19" width="11.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.453125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="11.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" style="7" customWidth="1"/>
+    <col min="23" max="23" width="14.453125" style="7" customWidth="1"/>
     <col min="24" max="24" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.08984375" style="7" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.08984375" style="7" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.25" style="7" customWidth="1"/>
-    <col min="35" max="35" width="12.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.26953125" style="7" customWidth="1"/>
+    <col min="35" max="35" width="12.08984375" style="7" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.625" style="7" customWidth="1"/>
-    <col min="39" max="39" width="12.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.6328125" style="7" customWidth="1"/>
+    <col min="39" max="39" width="12.08984375" style="7" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.08984375" style="7" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="106" max="106" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="128" max="204" width="9" style="9"/>
-    <col min="205" max="205" width="15.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="15.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="14.875" style="9" customWidth="1"/>
+    <col min="205" max="205" width="15.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="15.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="14.90625" style="9" customWidth="1"/>
     <col min="208" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:225" s="6" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="1" spans="1:225" s="6" customFormat="1" ht="146.4" customHeight="1">
       <c r="A1" s="88" t="s">
         <v>16</v>
       </c>
@@ -8778,7 +8826,7 @@
       <c r="HP1" s="89"/>
       <c r="HQ1" s="89"/>
     </row>
-    <row r="2" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="2" spans="1:225" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A2" s="62" t="s">
         <v>499</v>
       </c>
@@ -8792,43 +8840,43 @@
         <v>231</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F2" s="106" t="s">
         <v>496</v>
       </c>
       <c r="G2" s="69" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H2" s="121" t="s">
         <v>156</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J2" s="121" t="s">
         <v>156</v>
       </c>
       <c r="K2" s="59" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L2" s="120" t="s">
         <v>167</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N2" s="120" t="s">
         <v>167</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P2" s="112" t="s">
         <v>320</v>
       </c>
       <c r="Q2" s="52" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF2" s="59"/>
       <c r="AG2" s="59"/>
@@ -8923,7 +8971,7 @@
       <c r="DR2" s="9"/>
       <c r="DS2" s="9"/>
     </row>
-    <row r="3" spans="1:225" s="128" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="3" spans="1:225" s="128" customFormat="1" ht="146.4" customHeight="1">
       <c r="A3" s="125" t="s">
         <v>499</v>
       </c>
@@ -8931,67 +8979,67 @@
         <v>465</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D3" s="129" t="s">
         <v>231</v>
       </c>
       <c r="E3" s="125" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F3" s="132" t="s">
         <v>496</v>
       </c>
       <c r="G3" s="130" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H3" s="121" t="s">
         <v>156</v>
       </c>
       <c r="I3" s="115" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J3" s="121" t="s">
         <v>156</v>
       </c>
       <c r="K3" s="115" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L3" s="120" t="s">
         <v>167</v>
       </c>
       <c r="M3" s="115" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N3" s="132" t="s">
         <v>496</v>
       </c>
       <c r="O3" s="130" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P3" s="123" t="s">
         <v>320</v>
       </c>
       <c r="Q3" s="124" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R3" s="120" t="s">
         <v>167</v>
       </c>
       <c r="S3" s="115" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="T3" s="120" t="s">
         <v>167</v>
       </c>
       <c r="U3" s="115" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="V3" s="122" t="s">
         <v>320</v>
       </c>
       <c r="W3" s="115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="X3" s="120" t="s">
         <v>188</v>
@@ -9001,7 +9049,7 @@
         <v>320</v>
       </c>
       <c r="AA3" s="115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AB3" s="118"/>
       <c r="AC3" s="115"/>
@@ -9099,7 +9147,7 @@
       <c r="DR3" s="116"/>
       <c r="DS3" s="116"/>
     </row>
-    <row r="4" spans="1:225" s="128" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="4" spans="1:225" s="128" customFormat="1" ht="146.4" customHeight="1">
       <c r="A4" s="125" t="s">
         <v>499</v>
       </c>
@@ -9107,49 +9155,49 @@
         <v>465</v>
       </c>
       <c r="C4" s="115" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>231</v>
       </c>
       <c r="E4" s="125" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F4" s="132" t="s">
         <v>496</v>
       </c>
       <c r="G4" s="130" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H4" s="121" t="s">
         <v>156</v>
       </c>
       <c r="I4" s="115" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J4" s="121" t="s">
         <v>156</v>
       </c>
       <c r="K4" s="115" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L4" s="120" t="s">
         <v>167</v>
       </c>
       <c r="M4" s="115" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N4" s="132" t="s">
         <v>496</v>
       </c>
       <c r="O4" s="130" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P4" s="123" t="s">
         <v>320</v>
       </c>
       <c r="Q4" s="124" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R4" s="120"/>
       <c r="S4" s="115"/>
@@ -9255,7 +9303,7 @@
       <c r="DR4" s="116"/>
       <c r="DS4" s="116"/>
     </row>
-    <row r="5" spans="1:225" s="128" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="5" spans="1:225" s="128" customFormat="1" ht="146.4" customHeight="1">
       <c r="A5" s="125" t="s">
         <v>499</v>
       </c>
@@ -9263,67 +9311,67 @@
         <v>465</v>
       </c>
       <c r="C5" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D5" s="129" t="s">
         <v>231</v>
       </c>
       <c r="E5" s="125" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F5" s="132" t="s">
         <v>496</v>
       </c>
       <c r="G5" s="130" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H5" s="121" t="s">
         <v>156</v>
       </c>
       <c r="I5" s="115" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J5" s="121" t="s">
         <v>156</v>
       </c>
       <c r="K5" s="115" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L5" s="120" t="s">
         <v>167</v>
       </c>
       <c r="M5" s="115" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N5" s="132" t="s">
         <v>496</v>
       </c>
       <c r="O5" s="130" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P5" s="123" t="s">
         <v>320</v>
       </c>
       <c r="Q5" s="124" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R5" s="120" t="s">
         <v>167</v>
       </c>
       <c r="S5" s="115" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="T5" s="120" t="s">
         <v>167</v>
       </c>
       <c r="U5" s="115" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="V5" s="122" t="s">
         <v>320</v>
       </c>
       <c r="W5" s="115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="X5" s="120" t="s">
         <v>188</v>
@@ -9333,19 +9381,19 @@
         <v>320</v>
       </c>
       <c r="AA5" s="115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AB5" s="120" t="s">
         <v>167</v>
       </c>
       <c r="AC5" s="115" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AD5" s="120" t="s">
         <v>167</v>
       </c>
       <c r="AE5" s="115" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF5" s="122" t="s">
         <v>320</v>
@@ -9361,7 +9409,7 @@
         <v>320</v>
       </c>
       <c r="AK5" s="115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AL5" s="120"/>
       <c r="AM5" s="115"/>
@@ -9450,7 +9498,7 @@
       <c r="DR5" s="116"/>
       <c r="DS5" s="116"/>
     </row>
-    <row r="6" spans="1:225" s="128" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="6" spans="1:225" s="128" customFormat="1" ht="146.4" customHeight="1">
       <c r="A6" s="125" t="s">
         <v>499</v>
       </c>
@@ -9458,67 +9506,67 @@
         <v>465</v>
       </c>
       <c r="C6" s="115" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>231</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F6" s="132" t="s">
         <v>496</v>
       </c>
       <c r="G6" s="130" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H6" s="121" t="s">
         <v>156</v>
       </c>
       <c r="I6" s="115" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J6" s="121" t="s">
         <v>156</v>
       </c>
       <c r="K6" s="115" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L6" s="120" t="s">
         <v>167</v>
       </c>
       <c r="M6" s="115" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N6" s="132" t="s">
         <v>496</v>
       </c>
       <c r="O6" s="130" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P6" s="123" t="s">
         <v>320</v>
       </c>
       <c r="Q6" s="124" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R6" s="120" t="s">
         <v>167</v>
       </c>
       <c r="S6" s="115" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="T6" s="120" t="s">
         <v>167</v>
       </c>
       <c r="U6" s="115" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="V6" s="122" t="s">
         <v>320</v>
       </c>
       <c r="W6" s="115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="X6" s="120" t="s">
         <v>188</v>
@@ -9528,19 +9576,19 @@
         <v>320</v>
       </c>
       <c r="AA6" s="115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AB6" s="120" t="s">
         <v>167</v>
       </c>
       <c r="AC6" s="115" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AD6" s="120" t="s">
         <v>167</v>
       </c>
       <c r="AE6" s="115" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF6" s="122" t="s">
         <v>320</v>
@@ -9556,7 +9604,7 @@
         <v>320</v>
       </c>
       <c r="AK6" s="115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AL6" s="120"/>
       <c r="AM6" s="124"/>
@@ -9645,7 +9693,7 @@
       <c r="DR6" s="116"/>
       <c r="DS6" s="116"/>
     </row>
-    <row r="7" spans="1:225" s="128" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="7" spans="1:225" s="128" customFormat="1" ht="146.4" customHeight="1">
       <c r="A7" s="125" t="s">
         <v>499</v>
       </c>
@@ -9653,67 +9701,67 @@
         <v>465</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>231</v>
       </c>
       <c r="E7" s="125" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F7" s="132" t="s">
         <v>496</v>
       </c>
       <c r="G7" s="130" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H7" s="121" t="s">
         <v>156</v>
       </c>
       <c r="I7" s="115" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J7" s="121" t="s">
         <v>156</v>
       </c>
       <c r="K7" s="115" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L7" s="120" t="s">
         <v>167</v>
       </c>
       <c r="M7" s="115" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N7" s="132" t="s">
         <v>496</v>
       </c>
       <c r="O7" s="130" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P7" s="123" t="s">
         <v>320</v>
       </c>
       <c r="Q7" s="124" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R7" s="120" t="s">
         <v>167</v>
       </c>
       <c r="S7" s="115" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="T7" s="120" t="s">
         <v>167</v>
       </c>
       <c r="U7" s="115" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="V7" s="122" t="s">
         <v>320</v>
       </c>
       <c r="W7" s="115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="X7" s="120" t="s">
         <v>188</v>
@@ -9723,19 +9771,19 @@
         <v>320</v>
       </c>
       <c r="AA7" s="115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AB7" s="120" t="s">
         <v>167</v>
       </c>
       <c r="AC7" s="115" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AD7" s="120" t="s">
         <v>167</v>
       </c>
       <c r="AE7" s="115" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF7" s="122" t="s">
         <v>320</v>
@@ -9751,7 +9799,7 @@
         <v>320</v>
       </c>
       <c r="AK7" s="124" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AL7" s="120"/>
       <c r="AM7" s="124"/>
@@ -9840,7 +9888,7 @@
       <c r="DR7" s="116"/>
       <c r="DS7" s="116"/>
     </row>
-    <row r="8" spans="1:225" s="128" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="8" spans="1:225" s="128" customFormat="1" ht="146.4" customHeight="1">
       <c r="A8" s="125"/>
       <c r="B8" s="125"/>
       <c r="C8" s="125"/>
@@ -9951,7 +9999,7 @@
       <c r="DR8" s="116"/>
       <c r="DS8" s="116"/>
     </row>
-    <row r="9" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="9" spans="1:225" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A9" s="62"/>
       <c r="B9" s="62"/>
       <c r="C9" s="62"/>
@@ -10074,7 +10122,7 @@
       <c r="DP9" s="59"/>
       <c r="DQ9" s="59"/>
     </row>
-    <row r="10" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="10" spans="1:225" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A10" s="62"/>
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
@@ -10199,7 +10247,7 @@
       <c r="DR10" s="59"/>
       <c r="DS10" s="59"/>
     </row>
-    <row r="11" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="11" spans="1:225" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A11" s="62"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
@@ -10322,7 +10370,7 @@
       <c r="DP11" s="59"/>
       <c r="DQ11" s="59"/>
     </row>
-    <row r="12" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="12" spans="1:225" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A12" s="62"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
@@ -10443,7 +10491,7 @@
       <c r="DN12" s="59"/>
       <c r="DO12" s="59"/>
     </row>
-    <row r="13" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="13" spans="1:225" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A13" s="62"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
@@ -10572,7 +10620,7 @@
       <c r="DV13" s="59"/>
       <c r="DW13" s="59"/>
     </row>
-    <row r="14" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="14" spans="1:225" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A14" s="62"/>
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
@@ -10703,7 +10751,7 @@
       <c r="DX14" s="59"/>
       <c r="DY14" s="59"/>
     </row>
-    <row r="15" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="15" spans="1:225" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A15" s="62"/>
       <c r="B15" s="62"/>
       <c r="C15" s="62"/>
@@ -10837,7 +10885,7 @@
       <c r="EB15" s="59"/>
       <c r="EC15" s="59"/>
     </row>
-    <row r="16" spans="1:225" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="16" spans="1:225" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A16" s="62"/>
       <c r="B16" s="62"/>
       <c r="C16" s="62"/>
@@ -10970,7 +11018,7 @@
       <c r="DZ16" s="59"/>
       <c r="EA16" s="59"/>
     </row>
-    <row r="17" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="17" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A17" s="62"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -11103,7 +11151,7 @@
       <c r="DZ17" s="59"/>
       <c r="EA17" s="59"/>
     </row>
-    <row r="18" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="18" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A18" s="62"/>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
@@ -11240,7 +11288,7 @@
       <c r="ED18" s="59"/>
       <c r="EE18" s="59"/>
     </row>
-    <row r="19" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="19" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A19" s="62"/>
       <c r="B19" s="62"/>
       <c r="C19" s="62"/>
@@ -11373,7 +11421,7 @@
       <c r="DZ19" s="59"/>
       <c r="EA19" s="59"/>
     </row>
-    <row r="20" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="20" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A20" s="62"/>
       <c r="B20" s="62"/>
       <c r="C20" s="62"/>
@@ -11506,7 +11554,7 @@
       <c r="DZ20" s="59"/>
       <c r="EA20" s="59"/>
     </row>
-    <row r="21" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="21" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A21" s="62"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
@@ -11635,7 +11683,7 @@
       <c r="DV21" s="59"/>
       <c r="DW21" s="59"/>
     </row>
-    <row r="22" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="22" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A22" s="62"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
@@ -11764,7 +11812,7 @@
       <c r="DV22" s="59"/>
       <c r="DW22" s="59"/>
     </row>
-    <row r="23" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="23" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A23" s="62"/>
       <c r="B23" s="62"/>
       <c r="C23" s="62"/>
@@ -11893,7 +11941,7 @@
       <c r="DV23" s="59"/>
       <c r="DW23" s="59"/>
     </row>
-    <row r="24" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="24" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A24" s="62"/>
       <c r="B24" s="62"/>
       <c r="C24" s="62"/>
@@ -12022,7 +12070,7 @@
       <c r="DV24" s="59"/>
       <c r="DW24" s="59"/>
     </row>
-    <row r="25" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="25" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A25" s="62"/>
       <c r="B25" s="62"/>
       <c r="C25" s="62"/>
@@ -12151,7 +12199,7 @@
       <c r="DV25" s="59"/>
       <c r="DW25" s="59"/>
     </row>
-    <row r="26" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="26" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A26" s="62"/>
       <c r="B26" s="62"/>
       <c r="C26" s="62"/>
@@ -12282,7 +12330,7 @@
       <c r="DX26" s="59"/>
       <c r="DY26" s="59"/>
     </row>
-    <row r="27" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="27" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A27" s="62"/>
       <c r="B27" s="62"/>
       <c r="C27" s="62"/>
@@ -12411,7 +12459,7 @@
       <c r="DV27" s="59"/>
       <c r="DW27" s="59"/>
     </row>
-    <row r="28" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="28" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A28" s="62"/>
       <c r="B28" s="62"/>
       <c r="C28" s="62"/>
@@ -12540,7 +12588,7 @@
       <c r="DV28" s="59"/>
       <c r="DW28" s="59"/>
     </row>
-    <row r="29" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="29" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A29" s="62"/>
       <c r="B29" s="62"/>
       <c r="C29" s="62"/>
@@ -12669,7 +12717,7 @@
       <c r="DV29" s="59"/>
       <c r="DW29" s="59"/>
     </row>
-    <row r="30" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="30" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A30" s="62"/>
       <c r="B30" s="62"/>
       <c r="C30" s="62"/>
@@ -12798,7 +12846,7 @@
       <c r="DV30" s="59"/>
       <c r="DW30" s="59"/>
     </row>
-    <row r="31" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="31" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A31" s="62"/>
       <c r="B31" s="62"/>
       <c r="C31" s="62"/>
@@ -12910,7 +12958,7 @@
       <c r="DJ31" s="59"/>
       <c r="DK31" s="59"/>
     </row>
-    <row r="32" spans="1:135" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="32" spans="1:135" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A32" s="62"/>
       <c r="B32" s="62"/>
       <c r="C32" s="62"/>
@@ -13043,7 +13091,7 @@
       <c r="DZ32" s="59"/>
       <c r="EA32" s="59"/>
     </row>
-    <row r="33" spans="1:166" s="65" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="33" spans="1:166" s="65" customFormat="1" ht="146.4" customHeight="1">
       <c r="A33" s="62"/>
       <c r="B33" s="62"/>
       <c r="C33" s="62"/>
@@ -13174,7 +13222,7 @@
       <c r="DX33" s="59"/>
       <c r="DY33" s="59"/>
     </row>
-    <row r="34" spans="1:166" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="34" spans="1:166" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A34" s="59"/>
       <c r="B34" s="59"/>
       <c r="C34" s="62"/>
@@ -13303,7 +13351,7 @@
       <c r="DV34" s="62"/>
       <c r="DW34" s="62"/>
     </row>
-    <row r="35" spans="1:166" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="35" spans="1:166" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A35" s="59"/>
       <c r="B35" s="59"/>
       <c r="C35" s="62"/>
@@ -13571,7 +13619,7 @@
       <c r="EF36" s="62"/>
       <c r="EG36" s="62"/>
     </row>
-    <row r="37" spans="1:166" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="37" spans="1:166" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A37" s="59"/>
       <c r="B37" s="59"/>
       <c r="C37" s="62"/>
@@ -13700,7 +13748,7 @@
       <c r="DV37" s="62"/>
       <c r="DW37" s="62"/>
     </row>
-    <row r="38" spans="1:166" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="38" spans="1:166" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A38" s="59"/>
       <c r="B38" s="59"/>
       <c r="C38" s="62"/>
@@ -13839,7 +13887,7 @@
       <c r="EF38" s="62"/>
       <c r="EG38" s="62"/>
     </row>
-    <row r="39" spans="1:166" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="39" spans="1:166" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A39" s="59"/>
       <c r="B39" s="59"/>
       <c r="C39" s="62"/>
@@ -13972,7 +14020,7 @@
       <c r="DZ39" s="62"/>
       <c r="EA39" s="62"/>
     </row>
-    <row r="40" spans="1:166" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="40" spans="1:166" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A40" s="59"/>
       <c r="B40" s="59"/>
       <c r="C40" s="62"/>
@@ -14113,7 +14161,7 @@
       <c r="EH40" s="62"/>
       <c r="EI40" s="62"/>
     </row>
-    <row r="41" spans="1:166" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="41" spans="1:166" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A41" s="59"/>
       <c r="B41" s="59"/>
       <c r="C41" s="62"/>
@@ -14254,7 +14302,7 @@
       <c r="EH41" s="62"/>
       <c r="EI41" s="62"/>
     </row>
-    <row r="42" spans="1:166" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="42" spans="1:166" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A42" s="59"/>
       <c r="B42" s="59"/>
       <c r="C42" s="62"/>
@@ -14391,7 +14439,7 @@
       <c r="ED42" s="62"/>
       <c r="EE42" s="62"/>
     </row>
-    <row r="43" spans="1:166" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="43" spans="1:166" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A43" s="59"/>
       <c r="B43" s="59"/>
       <c r="C43" s="62"/>
@@ -14540,7 +14588,7 @@
       <c r="FF43" s="80"/>
       <c r="FH43" s="80"/>
     </row>
-    <row r="44" spans="1:166" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="44" spans="1:166" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A44" s="59"/>
       <c r="B44" s="59"/>
       <c r="C44" s="62"/>
@@ -14690,7 +14738,7 @@
       <c r="FH44" s="80"/>
       <c r="FJ44" s="80"/>
     </row>
-    <row r="45" spans="1:166" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="45" spans="1:166" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A45" s="59"/>
       <c r="B45" s="59"/>
       <c r="C45" s="62"/>
@@ -14815,7 +14863,7 @@
       <c r="DR45" s="62"/>
       <c r="DS45" s="62"/>
     </row>
-    <row r="46" spans="1:166" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="46" spans="1:166" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A46" s="59"/>
       <c r="B46" s="59"/>
       <c r="C46" s="62"/>
@@ -14940,7 +14988,7 @@
       <c r="DR46" s="62"/>
       <c r="DS46" s="62"/>
     </row>
-    <row r="47" spans="1:166" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="47" spans="1:166" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A47" s="59"/>
       <c r="B47" s="59"/>
       <c r="C47" s="62"/>
@@ -15061,7 +15109,7 @@
       <c r="DN47" s="62"/>
       <c r="DO47" s="62"/>
     </row>
-    <row r="48" spans="1:166" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="48" spans="1:166" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A48" s="59"/>
       <c r="B48" s="59"/>
       <c r="C48" s="62"/>
@@ -15192,7 +15240,7 @@
       <c r="DX48" s="66"/>
       <c r="DY48" s="66"/>
     </row>
-    <row r="49" spans="1:147" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="49" spans="1:147" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A49" s="59"/>
       <c r="B49" s="59"/>
       <c r="C49" s="62"/>
@@ -15321,7 +15369,7 @@
       <c r="DV49" s="62"/>
       <c r="DW49" s="62"/>
     </row>
-    <row r="50" spans="1:147" s="73" customFormat="1" ht="146.44999999999999" customHeight="1" thickBot="1">
+    <row r="50" spans="1:147" s="73" customFormat="1" ht="146.4" customHeight="1" thickBot="1">
       <c r="A50" s="59"/>
       <c r="B50" s="59"/>
       <c r="C50" s="62"/>
@@ -15458,7 +15506,7 @@
       <c r="ED50" s="62"/>
       <c r="EE50" s="62"/>
     </row>
-    <row r="51" spans="1:147" s="73" customFormat="1" ht="149.44999999999999" customHeight="1" thickBot="1">
+    <row r="51" spans="1:147" s="73" customFormat="1" ht="149.4" customHeight="1" thickBot="1">
       <c r="A51" s="59"/>
       <c r="B51" s="59"/>
       <c r="C51" s="62"/>
@@ -15599,7 +15647,7 @@
       <c r="EH51" s="62"/>
       <c r="EI51" s="62"/>
     </row>
-    <row r="52" spans="1:147" s="73" customFormat="1" ht="149.44999999999999" customHeight="1" thickBot="1">
+    <row r="52" spans="1:147" s="73" customFormat="1" ht="149.4" customHeight="1" thickBot="1">
       <c r="A52" s="59"/>
       <c r="B52" s="59"/>
       <c r="C52" s="62"/>
@@ -15729,7 +15777,7 @@
       <c r="EH52" s="62"/>
       <c r="EI52" s="62"/>
     </row>
-    <row r="53" spans="1:147" s="73" customFormat="1" ht="149.44999999999999" customHeight="1" thickBot="1">
+    <row r="53" spans="1:147" s="73" customFormat="1" ht="149.4" customHeight="1" thickBot="1">
       <c r="A53" s="59"/>
       <c r="B53" s="59"/>
       <c r="C53" s="62"/>
@@ -16147,7 +16195,7 @@
       <c r="EP55" s="92"/>
       <c r="EQ55" s="92"/>
     </row>
-    <row r="56" spans="1:147" s="59" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="56" spans="1:147" s="59" customFormat="1" ht="146.4" customHeight="1">
       <c r="C56" s="62"/>
       <c r="D56" s="60"/>
       <c r="F56" s="90"/>
@@ -16253,7 +16301,7 @@
       <c r="DV56" s="7"/>
       <c r="DW56" s="7"/>
     </row>
-    <row r="57" spans="1:147" s="59" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="57" spans="1:147" s="59" customFormat="1" ht="146.4" customHeight="1">
       <c r="C57" s="62"/>
       <c r="D57" s="60"/>
       <c r="F57" s="90"/>
@@ -16355,7 +16403,7 @@
       <c r="DV57" s="7"/>
       <c r="DW57" s="7"/>
     </row>
-    <row r="58" spans="1:147" s="59" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="58" spans="1:147" s="59" customFormat="1" ht="146.4" customHeight="1">
       <c r="C58" s="62"/>
       <c r="D58" s="60"/>
       <c r="F58" s="90"/>
@@ -16461,7 +16509,7 @@
       <c r="DV58" s="7"/>
       <c r="DW58" s="7"/>
     </row>
-    <row r="59" spans="1:147" s="59" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="59" spans="1:147" s="59" customFormat="1" ht="146.4" customHeight="1">
       <c r="C59" s="62"/>
       <c r="D59" s="60"/>
       <c r="F59" s="90"/>
@@ -16567,7 +16615,7 @@
       <c r="DV59" s="7"/>
       <c r="DW59" s="7"/>
     </row>
-    <row r="60" spans="1:147" s="59" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="60" spans="1:147" s="59" customFormat="1" ht="146.4" customHeight="1">
       <c r="C60" s="62"/>
       <c r="D60" s="60"/>
       <c r="F60" s="90"/>
@@ -16673,7 +16721,7 @@
       <c r="DW60" s="7"/>
       <c r="DX60" s="7"/>
     </row>
-    <row r="61" spans="1:147" ht="146.44999999999999" customHeight="1">
+    <row r="61" spans="1:147" ht="146.4" customHeight="1">
       <c r="A61" s="59"/>
       <c r="B61" s="59"/>
       <c r="C61" s="62"/>
@@ -16814,7 +16862,7 @@
       <c r="EH61" s="86"/>
       <c r="EI61" s="59"/>
     </row>
-    <row r="62" spans="1:147" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="62" spans="1:147" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A62" s="59"/>
       <c r="B62" s="59"/>
       <c r="C62" s="62"/>
@@ -16943,7 +16991,7 @@
       <c r="DV62" s="75"/>
       <c r="DW62" s="75"/>
     </row>
-    <row r="63" spans="1:147" ht="146.44999999999999" customHeight="1">
+    <row r="63" spans="1:147" ht="146.4" customHeight="1">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="62"/>
@@ -17084,7 +17132,7 @@
       <c r="EH63" s="86"/>
       <c r="EI63" s="59"/>
     </row>
-    <row r="64" spans="1:147" ht="146.44999999999999" customHeight="1">
+    <row r="64" spans="1:147" ht="146.4" customHeight="1">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
       <c r="C64" s="62"/>
@@ -17225,7 +17273,7 @@
       <c r="EH64" s="86"/>
       <c r="EI64" s="59"/>
     </row>
-    <row r="65" spans="1:136" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="65" spans="1:136" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
       <c r="C65" s="62"/>
@@ -17354,7 +17402,7 @@
       <c r="DV65" s="75"/>
       <c r="DW65" s="75"/>
     </row>
-    <row r="66" spans="1:136" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="66" spans="1:136" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A66" s="59"/>
       <c r="B66" s="59"/>
       <c r="C66" s="62"/>
@@ -17489,7 +17537,7 @@
       <c r="EB66" s="75"/>
       <c r="EC66" s="75"/>
     </row>
-    <row r="67" spans="1:136" s="59" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="67" spans="1:136" s="59" customFormat="1" ht="146.4" customHeight="1">
       <c r="C67" s="62"/>
       <c r="D67" s="60"/>
       <c r="F67" s="90"/>
@@ -17593,7 +17641,7 @@
       <c r="DV67" s="7"/>
       <c r="DW67" s="7"/>
     </row>
-    <row r="68" spans="1:136" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="68" spans="1:136" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A68" s="59"/>
       <c r="B68" s="59"/>
       <c r="C68" s="62"/>
@@ -17726,7 +17774,7 @@
       <c r="DZ68" s="75"/>
       <c r="EA68" s="75"/>
     </row>
-    <row r="69" spans="1:136" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="69" spans="1:136" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A69" s="59"/>
       <c r="B69" s="59"/>
       <c r="C69" s="62"/>
@@ -17864,7 +17912,7 @@
       <c r="EE69" s="75"/>
       <c r="EF69" s="75"/>
     </row>
-    <row r="70" spans="1:136" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="70" spans="1:136" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
       <c r="C70" s="62"/>
@@ -17995,7 +18043,7 @@
       <c r="DX70" s="75"/>
       <c r="DY70" s="75"/>
     </row>
-    <row r="71" spans="1:136" ht="146.44999999999999" customHeight="1">
+    <row r="71" spans="1:136" ht="146.4" customHeight="1">
       <c r="A71" s="59"/>
       <c r="B71" s="59"/>
       <c r="C71" s="62"/>
@@ -18028,7 +18076,7 @@
       <c r="AD71" s="86"/>
       <c r="AE71" s="59"/>
     </row>
-    <row r="72" spans="1:136" ht="146.44999999999999" customHeight="1">
+    <row r="72" spans="1:136" ht="146.4" customHeight="1">
       <c r="A72" s="59"/>
       <c r="B72" s="59"/>
       <c r="C72" s="62"/>
@@ -18053,7 +18101,7 @@
       <c r="DX72" s="7"/>
       <c r="DY72" s="7"/>
     </row>
-    <row r="73" spans="1:136" ht="146.44999999999999" customHeight="1">
+    <row r="73" spans="1:136" ht="146.4" customHeight="1">
       <c r="A73" s="59"/>
       <c r="B73" s="59"/>
       <c r="C73" s="62"/>
@@ -18086,7 +18134,7 @@
       <c r="EB73" s="7"/>
       <c r="EC73" s="7"/>
     </row>
-    <row r="74" spans="1:136" s="73" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="74" spans="1:136" s="73" customFormat="1" ht="146.4" customHeight="1">
       <c r="A74" s="62"/>
       <c r="B74" s="62"/>
       <c r="C74" s="62"/>
@@ -18215,7 +18263,7 @@
       <c r="DV74" s="75"/>
       <c r="DW74" s="75"/>
     </row>
-    <row r="75" spans="1:136" ht="146.44999999999999" customHeight="1">
+    <row r="75" spans="1:136" ht="146.4" customHeight="1">
       <c r="A75" s="62"/>
       <c r="B75" s="62"/>
       <c r="C75" s="62"/>
@@ -18254,7 +18302,7 @@
       <c r="ED75" s="7"/>
       <c r="EE75" s="7"/>
     </row>
-    <row r="76" spans="1:136" ht="146.44999999999999" customHeight="1">
+    <row r="76" spans="1:136" ht="146.4" customHeight="1">
       <c r="H76" s="60"/>
       <c r="I76" s="59"/>
       <c r="J76" s="86"/>
@@ -18262,8 +18310,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0" topLeftCell="B877">
+      <selection activeCell="B895" sqref="B895"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
@@ -18274,8 +18322,8 @@
       <pageSetup orientation="portrait" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0" topLeftCell="B877">
-      <selection activeCell="B895" sqref="B895"/>
+    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0">
+      <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
@@ -18289,7 +18337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O107"/>
   <sheetViews>
@@ -18297,26 +18345,26 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.26953125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.08984375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="19.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="13" customWidth="1"/>
-    <col min="14" max="14" width="7.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="46" customFormat="1" ht="15.75">
+    <row r="1" spans="1:15" s="46" customFormat="1" ht="15.6">
       <c r="A1" s="47" t="s">
         <v>44</v>
       </c>
@@ -18367,7 +18415,7 @@
       <c r="B2" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="146" t="s">
+      <c r="C2" s="154" t="s">
         <v>141</v>
       </c>
       <c r="D2" s="30" t="s">
@@ -18391,10 +18439,10 @@
       <c r="N2" s="30"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="15.75">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="15.6">
       <c r="A3" s="54"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="147"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="155"/>
       <c r="D3" s="30" t="s">
         <v>203</v>
       </c>
@@ -18416,14 +18464,14 @@
       <c r="N3" s="30"/>
       <c r="O3" s="25"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="15.75">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="15.6">
       <c r="A4" s="54">
         <v>2</v>
       </c>
       <c r="B4" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="154" t="s">
         <v>142</v>
       </c>
       <c r="D4" s="30" t="s">
@@ -18447,10 +18495,10 @@
       <c r="N4" s="30"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="15.75">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="15.6">
       <c r="A5" s="54"/>
-      <c r="B5" s="142"/>
-      <c r="C5" s="147"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="155"/>
       <c r="D5" s="30" t="s">
         <v>208</v>
       </c>
@@ -18474,7 +18522,7 @@
       <c r="N5" s="30"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="31.5">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="31.2">
       <c r="A6" s="54">
         <v>3</v>
       </c>
@@ -18507,7 +18555,7 @@
       <c r="N6" s="30"/>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="31.5">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="31.2">
       <c r="A7" s="54">
         <v>4</v>
       </c>
@@ -18542,8 +18590,8 @@
       <c r="N7" s="30"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="63">
-      <c r="A8" s="139">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="62.4">
+      <c r="A8" s="148">
         <v>5</v>
       </c>
       <c r="B8" s="141" t="s">
@@ -18577,10 +18625,10 @@
       <c r="N8" s="30"/>
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="94.5">
-      <c r="A9" s="140"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="78">
+      <c r="A9" s="150"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
       <c r="D9" s="30" t="s">
         <v>219</v>
       </c>
@@ -18608,8 +18656,8 @@
       <c r="N9" s="30"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="15.75">
-      <c r="A10" s="139">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="15.6">
+      <c r="A10" s="148">
         <v>6</v>
       </c>
       <c r="B10" s="141" t="s">
@@ -18639,10 +18687,10 @@
       <c r="N10" s="30"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="15.75">
-      <c r="A11" s="143"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="15.6">
+      <c r="A11" s="149"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
       <c r="D11" s="34" t="s">
         <v>175</v>
       </c>
@@ -18660,10 +18708,10 @@
       <c r="N11" s="30"/>
       <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="47.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="46.8">
+      <c r="A12" s="150"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="34" t="s">
         <v>225</v>
       </c>
@@ -18687,7 +18735,7 @@
       <c r="N12" s="30"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="47.25">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="46.8">
       <c r="A13" s="54">
         <v>7</v>
       </c>
@@ -18759,8 +18807,8 @@
       <c r="N14" s="30"/>
       <c r="O14" s="26"/>
     </row>
-    <row r="15" spans="1:15" ht="31.5">
-      <c r="A15" s="139">
+    <row r="15" spans="1:15" ht="31.2">
+      <c r="A15" s="148">
         <v>9</v>
       </c>
       <c r="B15" s="141" t="s">
@@ -18794,10 +18842,10 @@
       <c r="N15" s="30"/>
       <c r="O15" s="26"/>
     </row>
-    <row r="16" spans="1:15" ht="31.5">
-      <c r="A16" s="143"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
+    <row r="16" spans="1:15" ht="31.2">
+      <c r="A16" s="149"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="30" t="s">
         <v>237</v>
       </c>
@@ -18821,10 +18869,10 @@
       <c r="N16" s="30"/>
       <c r="O16" s="26"/>
     </row>
-    <row r="17" spans="1:15" ht="31.5">
-      <c r="A17" s="143"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
+    <row r="17" spans="1:15" ht="31.2">
+      <c r="A17" s="149"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="30" t="s">
         <v>240</v>
       </c>
@@ -18850,10 +18898,10 @@
       <c r="N17" s="30"/>
       <c r="O17" s="26"/>
     </row>
-    <row r="18" spans="1:15" ht="31.5">
-      <c r="A18" s="143"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
+    <row r="18" spans="1:15" ht="31.2">
+      <c r="A18" s="149"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="30" t="s">
         <v>243</v>
       </c>
@@ -18879,10 +18927,10 @@
       <c r="N18" s="30"/>
       <c r="O18" s="26"/>
     </row>
-    <row r="19" spans="1:15" ht="31.5">
-      <c r="A19" s="143"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
+    <row r="19" spans="1:15" ht="31.2">
+      <c r="A19" s="149"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
       <c r="D19" s="30" t="s">
         <v>199</v>
       </c>
@@ -18908,10 +18956,10 @@
       <c r="N19" s="30"/>
       <c r="O19" s="26"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75">
-      <c r="A20" s="143"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
+    <row r="20" spans="1:15" ht="15.6">
+      <c r="A20" s="149"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
       <c r="D20" s="30" t="s">
         <v>246</v>
       </c>
@@ -18935,10 +18983,10 @@
       <c r="N20" s="30"/>
       <c r="O20" s="26"/>
     </row>
-    <row r="21" spans="1:15" ht="31.5">
-      <c r="A21" s="143"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
+    <row r="21" spans="1:15" ht="31.2">
+      <c r="A21" s="149"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="30" t="s">
         <v>248</v>
       </c>
@@ -18966,10 +19014,10 @@
       <c r="N21" s="30"/>
       <c r="O21" s="26"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5">
-      <c r="A22" s="143"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
+    <row r="22" spans="1:15" ht="31.2">
+      <c r="A22" s="149"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
       <c r="D22" s="30" t="s">
         <v>253</v>
       </c>
@@ -18997,10 +19045,10 @@
       <c r="N22" s="30"/>
       <c r="O22" s="26"/>
     </row>
-    <row r="23" spans="1:15" ht="31.5">
-      <c r="A23" s="143"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
+    <row r="23" spans="1:15" ht="31.2">
+      <c r="A23" s="149"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
       <c r="D23" s="30" t="s">
         <v>255</v>
       </c>
@@ -19028,10 +19076,10 @@
       <c r="N23" s="30"/>
       <c r="O23" s="26"/>
     </row>
-    <row r="24" spans="1:15" ht="63">
-      <c r="A24" s="143"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
+    <row r="24" spans="1:15" ht="62.4">
+      <c r="A24" s="149"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="30" t="s">
         <v>258</v>
       </c>
@@ -19063,10 +19111,10 @@
       <c r="N24" s="30"/>
       <c r="O24" s="26"/>
     </row>
-    <row r="25" spans="1:15" ht="47.25">
-      <c r="A25" s="143"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
+    <row r="25" spans="1:15" ht="46.8">
+      <c r="A25" s="149"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="142"/>
       <c r="D25" s="30" t="s">
         <v>262</v>
       </c>
@@ -19098,10 +19146,10 @@
       <c r="N25" s="30"/>
       <c r="O25" s="26"/>
     </row>
-    <row r="26" spans="1:15" ht="47.25">
-      <c r="A26" s="143"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
+    <row r="26" spans="1:15" ht="46.8">
+      <c r="A26" s="149"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
       <c r="D26" s="30" t="s">
         <v>270</v>
       </c>
@@ -19129,10 +19177,10 @@
       <c r="N26" s="30"/>
       <c r="O26" s="26"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75">
-      <c r="A27" s="140"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
+    <row r="27" spans="1:15" ht="15.6">
+      <c r="A27" s="150"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
       <c r="D27" s="30" t="s">
         <v>205</v>
       </c>
@@ -19154,15 +19202,15 @@
       <c r="N27" s="30"/>
       <c r="O27" s="26"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75">
-      <c r="A28" s="139">
+    <row r="28" spans="1:15" ht="15.6">
+      <c r="A28" s="148">
         <f>A15+1</f>
         <v>10</v>
       </c>
       <c r="B28" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="148" t="s">
+      <c r="C28" s="151" t="s">
         <v>164</v>
       </c>
       <c r="D28" s="30" t="s">
@@ -19186,10 +19234,10 @@
       <c r="N28" s="30"/>
       <c r="O28" s="26"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75">
-      <c r="A29" s="143"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="149"/>
+    <row r="29" spans="1:15" ht="15.6">
+      <c r="A29" s="149"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="152"/>
       <c r="D29" s="30" t="s">
         <v>197</v>
       </c>
@@ -19211,10 +19259,10 @@
       <c r="N29" s="30"/>
       <c r="O29" s="26"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5">
-      <c r="A30" s="143"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="149"/>
+    <row r="30" spans="1:15" ht="15.6">
+      <c r="A30" s="149"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="152"/>
       <c r="D30" s="30" t="s">
         <v>172</v>
       </c>
@@ -19236,10 +19284,10 @@
       <c r="N30" s="30"/>
       <c r="O30" s="26"/>
     </row>
-    <row r="31" spans="1:15" ht="31.5">
-      <c r="A31" s="143"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="149"/>
+    <row r="31" spans="1:15" ht="31.2">
+      <c r="A31" s="149"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="152"/>
       <c r="D31" s="30" t="s">
         <v>178</v>
       </c>
@@ -19263,10 +19311,10 @@
       <c r="N31" s="30"/>
       <c r="O31" s="26"/>
     </row>
-    <row r="32" spans="1:15" ht="15.75">
-      <c r="A32" s="140"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="150"/>
+    <row r="32" spans="1:15" ht="15.6">
+      <c r="A32" s="150"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="153"/>
       <c r="D32" s="30" t="s">
         <v>485</v>
       </c>
@@ -19284,7 +19332,7 @@
       <c r="N32" s="30"/>
       <c r="O32" s="26"/>
     </row>
-    <row r="33" spans="1:15" ht="31.5">
+    <row r="33" spans="1:15" ht="15.6">
       <c r="A33" s="54">
         <f>A28+1</f>
         <v>11</v>
@@ -19316,15 +19364,15 @@
       <c r="N33" s="30"/>
       <c r="O33" s="26"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75">
-      <c r="A34" s="139">
+    <row r="34" spans="1:15" ht="15.6">
+      <c r="A34" s="148">
         <f>A33+1</f>
         <v>12</v>
       </c>
       <c r="B34" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="154" t="s">
         <v>177</v>
       </c>
       <c r="D34" s="30" t="s">
@@ -19350,10 +19398,10 @@
       <c r="N34" s="30"/>
       <c r="O34" s="26"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75">
-      <c r="A35" s="140"/>
-      <c r="B35" s="142"/>
-      <c r="C35" s="147"/>
+    <row r="35" spans="1:15" ht="15.6">
+      <c r="A35" s="150"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="155"/>
       <c r="D35" s="30" t="s">
         <v>173</v>
       </c>
@@ -19371,7 +19419,7 @@
       <c r="N35" s="30"/>
       <c r="O35" s="26"/>
     </row>
-    <row r="36" spans="1:15" ht="15.75">
+    <row r="36" spans="1:15" ht="15.6">
       <c r="A36" s="54">
         <f>A34+1</f>
         <v>13</v>
@@ -19399,12 +19447,12 @@
       <c r="N36" s="30"/>
       <c r="O36" s="26"/>
     </row>
-    <row r="37" spans="1:15" ht="15.75">
+    <row r="37" spans="1:15" ht="16.2">
       <c r="A37" s="54"/>
       <c r="B37" s="141" t="s">
         <v>179</v>
       </c>
-      <c r="C37" s="146" t="s">
+      <c r="C37" s="154" t="s">
         <v>180</v>
       </c>
       <c r="D37" s="40" t="s">
@@ -19428,10 +19476,10 @@
       <c r="N37" s="30"/>
       <c r="O37" s="26"/>
     </row>
-    <row r="38" spans="1:15" ht="31.5">
+    <row r="38" spans="1:15" ht="32.4">
       <c r="A38" s="54"/>
-      <c r="B38" s="142"/>
-      <c r="C38" s="147"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="155"/>
       <c r="D38" s="40" t="s">
         <v>291</v>
       </c>
@@ -19453,7 +19501,7 @@
       <c r="N38" s="30"/>
       <c r="O38" s="26"/>
     </row>
-    <row r="39" spans="1:15" ht="15.75">
+    <row r="39" spans="1:15" ht="15.6">
       <c r="A39" s="54">
         <f>A36+1</f>
         <v>14</v>
@@ -19461,7 +19509,7 @@
       <c r="B39" s="141" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="146" t="s">
+      <c r="C39" s="154" t="s">
         <v>183</v>
       </c>
       <c r="D39" s="30" t="s">
@@ -19481,10 +19529,10 @@
       <c r="N39" s="30"/>
       <c r="O39" s="26"/>
     </row>
-    <row r="40" spans="1:15" ht="15.75">
+    <row r="40" spans="1:15" ht="15.6">
       <c r="A40" s="54"/>
-      <c r="B40" s="142"/>
-      <c r="C40" s="147"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="155"/>
       <c r="D40" s="30" t="s">
         <v>184</v>
       </c>
@@ -19502,7 +19550,7 @@
       <c r="N40" s="30"/>
       <c r="O40" s="26"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75">
+    <row r="41" spans="1:15" ht="15.6">
       <c r="A41" s="54">
         <f>A39+1</f>
         <v>15</v>
@@ -19530,15 +19578,15 @@
       <c r="N41" s="30"/>
       <c r="O41" s="26"/>
     </row>
-    <row r="42" spans="1:15" ht="31.5">
-      <c r="A42" s="139">
+    <row r="42" spans="1:15" ht="31.2">
+      <c r="A42" s="148">
         <f>A41+1</f>
         <v>16</v>
       </c>
       <c r="B42" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="148" t="s">
+      <c r="C42" s="151" t="s">
         <v>191</v>
       </c>
       <c r="D42" s="30" t="s">
@@ -19566,10 +19614,10 @@
       <c r="N42" s="30"/>
       <c r="O42" s="26"/>
     </row>
-    <row r="43" spans="1:15" ht="31.5">
-      <c r="A43" s="143"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="149"/>
+    <row r="43" spans="1:15" ht="31.2">
+      <c r="A43" s="149"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="152"/>
       <c r="D43" s="30" t="s">
         <v>300</v>
       </c>
@@ -19595,10 +19643,10 @@
       <c r="N43" s="30"/>
       <c r="O43" s="26"/>
     </row>
-    <row r="44" spans="1:15" ht="31.5">
-      <c r="A44" s="143"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="149"/>
+    <row r="44" spans="1:15" ht="31.2">
+      <c r="A44" s="149"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="152"/>
       <c r="D44" s="30" t="s">
         <v>181</v>
       </c>
@@ -19624,10 +19672,10 @@
       <c r="N44" s="30"/>
       <c r="O44" s="26"/>
     </row>
-    <row r="45" spans="1:15" ht="31.5">
-      <c r="A45" s="140"/>
-      <c r="B45" s="142"/>
-      <c r="C45" s="150"/>
+    <row r="45" spans="1:15" ht="31.2">
+      <c r="A45" s="150"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="153"/>
       <c r="D45" s="31" t="s">
         <v>487</v>
       </c>
@@ -19653,7 +19701,7 @@
       <c r="N45" s="30"/>
       <c r="O45" s="26"/>
     </row>
-    <row r="46" spans="1:15" ht="15.75">
+    <row r="46" spans="1:15" ht="15.6">
       <c r="A46" s="54">
         <f>A42+1</f>
         <v>17</v>
@@ -19681,7 +19729,7 @@
       <c r="N46" s="30"/>
       <c r="O46" s="26"/>
     </row>
-    <row r="47" spans="1:15" ht="15.75">
+    <row r="47" spans="1:15" ht="15.6">
       <c r="A47" s="54">
         <f t="shared" ref="A47:A56" si="0">A46+1</f>
         <v>18</v>
@@ -19709,15 +19757,15 @@
       <c r="N47" s="30"/>
       <c r="O47" s="26"/>
     </row>
-    <row r="48" spans="1:15" ht="15.75">
-      <c r="A48" s="145">
+    <row r="48" spans="1:15" ht="15.6">
+      <c r="A48" s="147">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="146" t="s">
         <v>312</v>
       </c>
-      <c r="C48" s="145" t="s">
+      <c r="C48" s="147" t="s">
         <v>313</v>
       </c>
       <c r="D48" s="41" t="s">
@@ -19743,10 +19791,10 @@
       <c r="N48" s="42"/>
       <c r="O48" s="26"/>
     </row>
-    <row r="49" spans="1:15" ht="15.75">
-      <c r="A49" s="145"/>
-      <c r="B49" s="155"/>
-      <c r="C49" s="145"/>
+    <row r="49" spans="1:15" ht="15.6">
+      <c r="A49" s="147"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="147"/>
       <c r="D49" s="41" t="s">
         <v>316</v>
       </c>
@@ -19774,10 +19822,10 @@
       <c r="N49" s="42"/>
       <c r="O49" s="26"/>
     </row>
-    <row r="50" spans="1:15" ht="15.75">
-      <c r="A50" s="145"/>
-      <c r="B50" s="155"/>
-      <c r="C50" s="145"/>
+    <row r="50" spans="1:15" ht="15.6">
+      <c r="A50" s="147"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="147"/>
       <c r="D50" s="41" t="s">
         <v>471</v>
       </c>
@@ -19805,10 +19853,10 @@
       <c r="N50" s="42"/>
       <c r="O50" s="26"/>
     </row>
-    <row r="51" spans="1:15" ht="15.75">
-      <c r="A51" s="145"/>
-      <c r="B51" s="155"/>
-      <c r="C51" s="145"/>
+    <row r="51" spans="1:15" ht="15.6">
+      <c r="A51" s="147"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="147"/>
       <c r="D51" s="41" t="s">
         <v>474</v>
       </c>
@@ -19826,10 +19874,10 @@
       <c r="N51" s="42"/>
       <c r="O51" s="26"/>
     </row>
-    <row r="52" spans="1:15" ht="47.25">
-      <c r="A52" s="145"/>
-      <c r="B52" s="155"/>
-      <c r="C52" s="145"/>
+    <row r="52" spans="1:15" ht="46.8">
+      <c r="A52" s="147"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="147"/>
       <c r="D52" s="41" t="s">
         <v>476</v>
       </c>
@@ -19857,7 +19905,7 @@
       <c r="N52" s="42"/>
       <c r="O52" s="26"/>
     </row>
-    <row r="53" spans="1:15" ht="31.5">
+    <row r="53" spans="1:15" ht="31.2">
       <c r="A53" s="53">
         <v>20</v>
       </c>
@@ -19888,7 +19936,7 @@
       <c r="N53" s="42"/>
       <c r="O53" s="26"/>
     </row>
-    <row r="54" spans="1:15" ht="15.75">
+    <row r="54" spans="1:15" ht="15.6">
       <c r="A54" s="55">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -19896,7 +19944,7 @@
       <c r="B54" s="141" t="s">
         <v>324</v>
       </c>
-      <c r="C54" s="153" t="s">
+      <c r="C54" s="144" t="s">
         <v>325</v>
       </c>
       <c r="D54" s="41" t="s">
@@ -19920,13 +19968,13 @@
       <c r="N54" s="42"/>
       <c r="O54" s="26"/>
     </row>
-    <row r="55" spans="1:15" ht="15.75">
+    <row r="55" spans="1:15" ht="15.6">
       <c r="A55" s="55">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B55" s="142"/>
-      <c r="C55" s="154"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="145"/>
       <c r="D55" s="41" t="s">
         <v>329</v>
       </c>
@@ -19952,15 +20000,15 @@
       <c r="N55" s="42"/>
       <c r="O55" s="26"/>
     </row>
-    <row r="56" spans="1:15" ht="15.75">
-      <c r="A56" s="148">
+    <row r="56" spans="1:15" ht="15.6">
+      <c r="A56" s="151">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B56" s="141" t="s">
         <v>331</v>
       </c>
-      <c r="C56" s="146" t="s">
+      <c r="C56" s="154" t="s">
         <v>332</v>
       </c>
       <c r="D56" s="41" t="s">
@@ -19988,10 +20036,10 @@
       <c r="N56" s="42"/>
       <c r="O56" s="26"/>
     </row>
-    <row r="57" spans="1:15" ht="15.75">
-      <c r="A57" s="150"/>
-      <c r="B57" s="142"/>
-      <c r="C57" s="147"/>
+    <row r="57" spans="1:15" ht="15.6">
+      <c r="A57" s="153"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="155"/>
       <c r="D57" s="41" t="s">
         <v>336</v>
       </c>
@@ -20019,8 +20067,8 @@
       <c r="N57" s="42"/>
       <c r="O57" s="26"/>
     </row>
-    <row r="58" spans="1:15" ht="31.5">
-      <c r="A58" s="151">
+    <row r="58" spans="1:15" ht="15.6">
+      <c r="A58" s="139">
         <v>24</v>
       </c>
       <c r="B58" s="141" t="s">
@@ -20057,8 +20105,8 @@
       <c r="O58" s="26"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="152"/>
-      <c r="B59" s="142"/>
+      <c r="A59" s="140"/>
+      <c r="B59" s="143"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
@@ -20405,7 +20453,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0">
+    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0">
       <selection activeCell="A10" sqref="A10"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20417,7 +20465,7 @@
       <pageSetup orientation="portrait" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{E6BDA4F0-F700-4A1E-80D3-AE77688EF635}" showRuler="0">
+    <customSheetView guid="{5408A6E0-9DB4-4EFD-AB13-5137B7617E84}" showRuler="0">
       <selection activeCell="A10" sqref="A10"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -20425,6 +20473,26 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="36">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="B15:B27"/>
     <mergeCell ref="C15:C27"/>
@@ -20441,26 +20509,6 @@
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20470,21 +20518,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
-    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" ht="14.4">
       <c r="A1" s="16" t="s">
         <v>44</v>
       </c>
@@ -20498,7 +20546,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="14.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20512,7 +20560,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="14.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20526,7 +20574,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="14.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20540,7 +20588,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="14.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20554,7 +20602,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="14.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20568,7 +20616,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="14.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20580,7 +20628,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="14.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20592,7 +20640,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="14.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20604,7 +20652,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="14.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -20614,7 +20662,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="14.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -20628,7 +20676,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="14.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -20642,7 +20690,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="14.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -20656,7 +20704,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="14.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -20668,7 +20716,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="14.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -20680,7 +20728,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="14.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -20694,7 +20742,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="14.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -20708,7 +20756,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="14.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -20722,7 +20770,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="14.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -20736,7 +20784,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="14.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -20748,7 +20796,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" ht="14.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -20762,7 +20810,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" ht="14.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -20776,7 +20824,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" ht="14.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -20788,7 +20836,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4" ht="14.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -20802,7 +20850,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4" ht="14.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -20814,7 +20862,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4" ht="14.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -20828,7 +20876,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4" ht="14.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -20842,7 +20890,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" ht="14.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -20856,7 +20904,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" ht="14.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -20870,7 +20918,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4" ht="14.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -20882,7 +20930,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4" ht="14.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -20896,7 +20944,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4" ht="14.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -20910,7 +20958,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4" ht="14.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -20924,7 +20972,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4" ht="14.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -20938,7 +20986,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4" ht="14.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -20952,7 +21000,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4" ht="14.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -20966,7 +21014,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4" ht="14.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -20980,7 +21028,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4" ht="14.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -20990,7 +21038,7 @@
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4" ht="14.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -21004,7 +21052,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4" ht="14.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -21018,7 +21066,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4" ht="14.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -21032,7 +21080,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4" ht="14.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -21046,7 +21094,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4" ht="14.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -21060,7 +21108,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4" ht="14.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -21074,7 +21122,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4" ht="14.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -21088,7 +21136,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4" ht="14.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -21102,7 +21150,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4" ht="14.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -21116,7 +21164,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4" ht="14.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -21130,7 +21178,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4" ht="14.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -21144,7 +21192,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4" ht="14.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -21158,7 +21206,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4" ht="14.4">
       <c r="A51">
         <v>50</v>
       </c>
